--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C4A86-37BD-4915-8884-ED36AB70A7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F140FB7-BFF4-457B-BF99-59E2579F02CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="625">
   <si>
     <t>Zone</t>
   </si>
@@ -1905,9 +1905,6 @@
   </si>
   <si>
     <t>C0Host</t>
-  </si>
-  <si>
-    <t>nd tv india</t>
   </si>
   <si>
     <t>ndtv 24*7</t>
@@ -3549,7 +3546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="794">
+  <cellXfs count="793">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4444,9 +4441,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4993,6 +4987,13 @@
     <xf numFmtId="0" fontId="6" fillId="47" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5586,13 +5587,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5889,8 +5883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5925,7 +5919,7 @@
       <c r="B2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="477" t="s">
+      <c r="C2" s="476" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="385" t="s">
@@ -5943,13 +5937,13 @@
       <c r="H2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="392" t="s">
+      <c r="I2" s="391" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="601" t="s">
+      <c r="J2" s="603" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="602"/>
+      <c r="K2" s="604"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5959,14 +5953,14 @@
       <c r="N2" s="349" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="603" t="s">
+      <c r="O2" s="605" t="s">
         <v>376</v>
       </c>
-      <c r="P2" s="604"/>
-      <c r="Q2" s="605"/>
-      <c r="R2" s="605"/>
-      <c r="S2" s="605"/>
-      <c r="T2" s="606" t="s">
+      <c r="P2" s="606"/>
+      <c r="Q2" s="607"/>
+      <c r="R2" s="607"/>
+      <c r="S2" s="607"/>
+      <c r="T2" s="608" t="s">
         <v>377</v>
       </c>
       <c r="V2" s="21" t="s">
@@ -5980,7 +5974,7 @@
       <c r="C3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="598"/>
+      <c r="D3" s="600"/>
       <c r="E3" s="337"/>
       <c r="F3" s="265" t="s">
         <v>68</v>
@@ -6003,7 +5997,7 @@
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="34" t="s">
         <v>44</v>
@@ -6011,13 +6005,13 @@
       <c r="S3" s="24">
         <v>1</v>
       </c>
-      <c r="T3" s="607"/>
+      <c r="T3" s="609"/>
       <c r="U3" s="19" t="s">
         <v>567</v>
       </c>
       <c r="V3" s="24">
         <f>SUM(P3:P28)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6027,7 +6021,7 @@
       <c r="C4" s="165" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="599"/>
+      <c r="D4" s="601"/>
       <c r="E4" s="61"/>
       <c r="F4" s="359" t="s">
         <v>42</v>
@@ -6044,7 +6038,7 @@
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="313"/>
-      <c r="T4" s="607"/>
+      <c r="T4" s="609"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -6053,7 +6047,7 @@
       <c r="C5" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="600"/>
+      <c r="D5" s="602"/>
       <c r="F5" s="363" t="s">
         <v>42</v>
       </c>
@@ -6070,7 +6064,7 @@
         <v>504</v>
       </c>
       <c r="P5" s="313"/>
-      <c r="T5" s="607"/>
+      <c r="T5" s="609"/>
       <c r="U5" s="204" t="s">
         <v>226</v>
       </c>
@@ -6107,7 +6101,7 @@
       <c r="P6" s="313"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="6"/>
-      <c r="T6" s="607"/>
+      <c r="T6" s="609"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="209" t="s">
@@ -6145,13 +6139,13 @@
       <c r="S7" s="24">
         <v>1</v>
       </c>
-      <c r="T7" s="607"/>
+      <c r="T7" s="609"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C8" s="422" t="s">
+      <c r="C8" s="421" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="61"/>
@@ -6174,13 +6168,13 @@
       <c r="P8" s="313"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="6"/>
-      <c r="T8" s="607"/>
+      <c r="T8" s="609"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C9" s="422" t="s">
+      <c r="C9" s="421" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="61"/>
@@ -6202,7 +6196,7 @@
       </c>
       <c r="M9" s="358"/>
       <c r="N9" s="337"/>
-      <c r="O9" s="475" t="s">
+      <c r="O9" s="474" t="s">
         <v>44</v>
       </c>
       <c r="P9" s="313">
@@ -6217,7 +6211,7 @@
       <c r="S9" s="24">
         <v>1</v>
       </c>
-      <c r="T9" s="607"/>
+      <c r="T9" s="609"/>
     </row>
     <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -6247,13 +6241,13 @@
         <v>504</v>
       </c>
       <c r="P10" s="313"/>
-      <c r="T10" s="607"/>
+      <c r="T10" s="609"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="422" t="s">
+      <c r="C11" s="421" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="61"/>
@@ -6287,7 +6281,7 @@
       <c r="S11" s="24">
         <v>1</v>
       </c>
-      <c r="T11" s="607"/>
+      <c r="T11" s="609"/>
       <c r="U11" s="204" t="s">
         <v>225</v>
       </c>
@@ -6299,11 +6293,11 @@
       <c r="B12" s="256" t="s">
         <v>434</v>
       </c>
-      <c r="C12" s="422" t="s">
+      <c r="C12" s="421" t="s">
         <v>355</v>
       </c>
       <c r="D12" s="61"/>
-      <c r="E12" s="465"/>
+      <c r="E12" s="464"/>
       <c r="F12" s="359" t="s">
         <v>42</v>
       </c>
@@ -6320,7 +6314,7 @@
       <c r="P12" s="313"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="142"/>
-      <c r="T12" s="607"/>
+      <c r="T12" s="609"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="256" t="s">
@@ -6350,7 +6344,7 @@
       </c>
       <c r="P13" s="313"/>
       <c r="R13" s="142"/>
-      <c r="T13" s="607"/>
+      <c r="T13" s="609"/>
       <c r="U13" s="2" t="s">
         <v>588</v>
       </c>
@@ -6360,13 +6354,13 @@
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P14" s="313"/>
-      <c r="T14" s="607"/>
+      <c r="T14" s="609"/>
     </row>
     <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="478" t="s">
+      <c r="C15" s="477" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="61"/>
@@ -6386,11 +6380,11 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="595"/>
-      <c r="N15" s="598" t="s">
+      <c r="M15" s="597"/>
+      <c r="N15" s="600" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="475" t="s">
+      <c r="O15" s="474" t="s">
         <v>44</v>
       </c>
       <c r="P15" s="313"/>
@@ -6400,13 +6394,13 @@
       <c r="S15" s="24">
         <v>1</v>
       </c>
-      <c r="T15" s="607"/>
+      <c r="T15" s="609"/>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="463" t="s">
+      <c r="B16" s="462" t="s">
         <v>369</v>
       </c>
-      <c r="C16" s="479" t="s">
+      <c r="C16" s="478" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="372"/>
@@ -6426,29 +6420,29 @@
       <c r="L16" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="596"/>
-      <c r="N16" s="599"/>
+      <c r="M16" s="598"/>
+      <c r="N16" s="601"/>
       <c r="P16" s="313">
         <v>1</v>
       </c>
       <c r="Q16" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="R16" s="512" t="s">
+      <c r="R16" s="511" t="s">
         <v>42</v>
       </c>
       <c r="S16" s="112">
         <v>1</v>
       </c>
-      <c r="T16" s="607"/>
+      <c r="T16" s="609"/>
     </row>
     <row r="17" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
-      <c r="C17" s="478" t="s">
+      <c r="C17" s="477" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="61"/>
-      <c r="E17" s="465"/>
+      <c r="E17" s="464"/>
       <c r="F17" s="21" t="s">
         <v>223</v>
       </c>
@@ -6458,17 +6452,15 @@
       <c r="H17" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I17" s="386" t="s">
-        <v>20</v>
-      </c>
+      <c r="I17" s="61"/>
       <c r="J17" s="139"/>
       <c r="K17" s="140"/>
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="597"/>
-      <c r="N17" s="600"/>
-      <c r="O17" s="475" t="s">
+      <c r="M17" s="599"/>
+      <c r="N17" s="602"/>
+      <c r="O17" s="474" t="s">
         <v>44</v>
       </c>
       <c r="P17" s="313">
@@ -6480,11 +6472,11 @@
       <c r="S17" s="24">
         <v>1</v>
       </c>
-      <c r="T17" s="607"/>
+      <c r="T17" s="609"/>
     </row>
     <row r="18" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P18" s="313"/>
-      <c r="T18" s="607"/>
+      <c r="T18" s="609"/>
     </row>
     <row r="19" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -6493,10 +6485,8 @@
       <c r="C19" s="165" t="s">
         <v>361</v>
       </c>
-      <c r="D19" s="386" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="464"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="463"/>
       <c r="F19" s="100"/>
       <c r="G19" s="2" t="s">
         <v>360</v>
@@ -6510,12 +6500,12 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="595"/>
-      <c r="N19" s="391" t="s">
+      <c r="M19" s="597"/>
+      <c r="N19" s="390" t="s">
         <v>504</v>
       </c>
       <c r="P19" s="313"/>
-      <c r="T19" s="607"/>
+      <c r="T19" s="609"/>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="241" t="s">
@@ -6541,7 +6531,7 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="596"/>
+      <c r="M20" s="598"/>
       <c r="N20" s="383" t="s">
         <v>26</v>
       </c>
@@ -6552,7 +6542,7 @@
       <c r="S20" s="24">
         <v>1</v>
       </c>
-      <c r="T20" s="607"/>
+      <c r="T20" s="609"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="241" t="s">
@@ -6578,7 +6568,7 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="596"/>
+      <c r="M21" s="598"/>
       <c r="N21" s="383" t="s">
         <v>18</v>
       </c>
@@ -6589,11 +6579,11 @@
       <c r="S21" s="24">
         <v>1</v>
       </c>
-      <c r="T21" s="607"/>
-      <c r="U21" s="593" t="s">
+      <c r="T21" s="609"/>
+      <c r="U21" s="595" t="s">
         <v>224</v>
       </c>
-      <c r="V21" s="594"/>
+      <c r="V21" s="596"/>
     </row>
     <row r="22" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="270" t="s">
@@ -6617,14 +6607,14 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="596"/>
+      <c r="M22" s="598"/>
       <c r="N22" s="372" t="s">
         <v>26</v>
       </c>
       <c r="P22" s="313"/>
-      <c r="T22" s="607"/>
+      <c r="T22" s="609"/>
       <c r="X22" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6649,14 +6639,14 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="596"/>
+      <c r="M23" s="598"/>
       <c r="N23" s="61" t="s">
         <v>505</v>
       </c>
       <c r="P23" s="313"/>
-      <c r="T23" s="607"/>
+      <c r="T23" s="609"/>
       <c r="U23" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="V23" s="100" t="s">
         <v>44</v>
@@ -6673,8 +6663,8 @@
         <v>16</v>
       </c>
       <c r="D24" s="373"/>
-      <c r="E24" s="465"/>
-      <c r="F24" s="387"/>
+      <c r="E24" s="464"/>
+      <c r="F24" s="386"/>
       <c r="G24" s="239" t="s">
         <v>602</v>
       </c>
@@ -6687,16 +6677,16 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="596"/>
+      <c r="M24" s="598"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="476" t="s">
+      <c r="O24" s="475" t="s">
         <v>44</v>
       </c>
-      <c r="P24" s="514"/>
+      <c r="P24" s="513"/>
       <c r="S24" s="80"/>
-      <c r="T24" s="607"/>
+      <c r="T24" s="609"/>
       <c r="X24" s="19"/>
     </row>
     <row r="25" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6723,7 +6713,7 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="596"/>
+      <c r="M25" s="598"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
@@ -6739,7 +6729,7 @@
       <c r="S25" s="21">
         <v>1</v>
       </c>
-      <c r="T25" s="607"/>
+      <c r="T25" s="609"/>
       <c r="V25" s="24"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6749,10 +6739,8 @@
       <c r="C26" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="386" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="393"/>
+      <c r="D26" s="373"/>
+      <c r="E26" s="392"/>
       <c r="F26" s="359"/>
       <c r="G26" s="2" t="s">
         <v>601</v>
@@ -6766,12 +6754,12 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="596"/>
+      <c r="M26" s="598"/>
       <c r="N26" s="61" t="s">
         <v>506</v>
       </c>
       <c r="P26" s="313"/>
-      <c r="T26" s="607"/>
+      <c r="T26" s="609"/>
       <c r="V26" s="24" t="s">
         <v>616</v>
       </c>
@@ -6784,7 +6772,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="61"/>
-      <c r="E27" s="393"/>
+      <c r="E27" s="392"/>
       <c r="F27" s="382"/>
       <c r="G27" s="2" t="s">
         <v>603</v>
@@ -6793,10 +6781,10 @@
         <v>515</v>
       </c>
       <c r="I27" s="61"/>
-      <c r="J27" s="388"/>
-      <c r="K27" s="389"/>
-      <c r="L27" s="390"/>
-      <c r="M27" s="596"/>
+      <c r="J27" s="387"/>
+      <c r="K27" s="388"/>
+      <c r="L27" s="389"/>
+      <c r="M27" s="598"/>
       <c r="N27" s="61"/>
       <c r="P27" s="313"/>
       <c r="R27" s="34" t="s">
@@ -6805,7 +6793,7 @@
       <c r="S27" s="24">
         <v>1</v>
       </c>
-      <c r="T27" s="607"/>
+      <c r="T27" s="609"/>
       <c r="W27" s="2" t="s">
         <v>581</v>
       </c>
@@ -6814,13 +6802,13 @@
       <c r="B28" s="256" t="s">
         <v>396</v>
       </c>
-      <c r="C28" s="474" t="s">
+      <c r="C28" s="473" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="61" t="s">
         <v>571</v>
       </c>
-      <c r="E28" s="393"/>
+      <c r="E28" s="392"/>
       <c r="F28" s="384"/>
       <c r="G28" s="2" t="s">
         <v>604</v>
@@ -6834,7 +6822,7 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="597"/>
+      <c r="M28" s="599"/>
       <c r="N28" s="61" t="s">
         <v>506</v>
       </c>
@@ -6850,7 +6838,7 @@
       <c r="S28" s="21">
         <v>1</v>
       </c>
-      <c r="T28" s="608"/>
+      <c r="T28" s="610"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6901,7 +6889,7 @@
     <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" style="434" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" style="433" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="1.85546875" customWidth="1"/>
     <col min="27" max="27" width="2.140625" customWidth="1"/>
@@ -6929,16 +6917,16 @@
       <c r="B1" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="456" t="s">
+      <c r="C1" s="455" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="393" t="s">
+      <c r="G1" s="392" t="s">
         <v>136</v>
       </c>
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="659" t="s">
+      <c r="I1" s="661" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6971,13 +6959,13 @@
       <c r="U1" s="124"/>
       <c r="V1" s="91"/>
       <c r="W1" s="145"/>
-      <c r="X1" s="431" t="s">
+      <c r="X1" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="653" t="s">
+      <c r="Y1" s="655" t="s">
         <v>530</v>
       </c>
-      <c r="Z1" s="407">
+      <c r="Z1" s="406">
         <v>1</v>
       </c>
       <c r="AA1" s="344"/>
@@ -6992,14 +6980,14 @@
       <c r="AH1" s="371"/>
       <c r="AI1" s="371"/>
       <c r="AJ1" s="371"/>
-      <c r="AK1" s="444" t="s">
+      <c r="AK1" s="443" t="s">
         <v>453</v>
       </c>
       <c r="AL1" s="371" t="s">
         <v>499</v>
       </c>
-      <c r="AM1" s="403"/>
-      <c r="AN1" s="635"/>
+      <c r="AM1" s="402"/>
+      <c r="AN1" s="637"/>
       <c r="AO1" s="338" t="s">
         <v>470</v>
       </c>
@@ -7008,67 +6996,67 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="617">
+      <c r="A2" s="619">
         <f ca="1">TODAY()</f>
-        <v>45284</v>
-      </c>
-      <c r="B2" s="619" t="s">
+        <v>45285</v>
+      </c>
+      <c r="B2" s="621" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="615" t="s">
+      <c r="C2" s="617" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="621" t="s">
+      <c r="D2" s="623" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="669" t="s">
+      <c r="E2" s="671" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="640" t="s">
+      <c r="F2" s="642" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="394" t="s">
+      <c r="G2" s="393" t="s">
         <v>179</v>
       </c>
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="660"/>
+      <c r="I2" s="662"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="671" t="s">
+      <c r="K2" s="673" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="672"/>
-      <c r="M2" s="640" t="s">
+      <c r="L2" s="674"/>
+      <c r="M2" s="642" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="644" t="s">
+      <c r="O2" s="646" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="615" t="s">
+      <c r="Q2" s="617" t="s">
         <v>143</v>
       </c>
-      <c r="R2" s="598"/>
-      <c r="S2" s="657" t="s">
+      <c r="R2" s="600"/>
+      <c r="S2" s="659" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
       <c r="U2" s="124"/>
       <c r="V2" s="91"/>
       <c r="W2" s="146"/>
-      <c r="X2" s="432" t="s">
+      <c r="X2" s="431" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="654"/>
-      <c r="Z2" s="408">
+      <c r="Y2" s="656"/>
+      <c r="Z2" s="407">
         <v>1</v>
       </c>
       <c r="AA2" s="307"/>
@@ -7083,23 +7071,23 @@
       <c r="AH2" s="80"/>
       <c r="AI2" s="80"/>
       <c r="AJ2" s="80"/>
-      <c r="AK2" s="442" t="s">
+      <c r="AK2" s="441" t="s">
         <v>465</v>
       </c>
       <c r="AL2" s="238" t="s">
         <v>464</v>
       </c>
-      <c r="AM2" s="429"/>
-      <c r="AN2" s="636"/>
+      <c r="AM2" s="428"/>
+      <c r="AN2" s="638"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="618"/>
-      <c r="B3" s="620"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="622"/>
-      <c r="E3" s="670"/>
-      <c r="F3" s="641"/>
-      <c r="G3" s="395" t="s">
+      <c r="A3" s="620"/>
+      <c r="B3" s="622"/>
+      <c r="C3" s="618"/>
+      <c r="D3" s="624"/>
+      <c r="E3" s="672"/>
+      <c r="F3" s="643"/>
+      <c r="G3" s="394" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="82" t="s">
@@ -7117,26 +7105,26 @@
       <c r="L3" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="641"/>
+      <c r="M3" s="643"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="645"/>
+      <c r="O3" s="647"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="616"/>
-      <c r="R3" s="600"/>
-      <c r="S3" s="658"/>
+      <c r="Q3" s="618"/>
+      <c r="R3" s="602"/>
+      <c r="S3" s="660"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
       <c r="W3" s="145"/>
-      <c r="X3" s="432" t="s">
+      <c r="X3" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="654"/>
-      <c r="Z3" s="409">
+      <c r="Y3" s="656"/>
+      <c r="Z3" s="408">
         <v>1</v>
       </c>
       <c r="AA3" s="307"/>
@@ -7144,7 +7132,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="656" t="s">
+      <c r="AD3" s="658" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="257"/>
@@ -7155,17 +7143,17 @@
       <c r="AJ3" s="16"/>
       <c r="AK3" s="257"/>
       <c r="AL3" s="16"/>
-      <c r="AM3" s="429"/>
-      <c r="AN3" s="636"/>
+      <c r="AM3" s="428"/>
+      <c r="AN3" s="638"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="633" t="s">
+      <c r="B4" s="635" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="615" t="s">
+      <c r="C4" s="617" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="347" t="s">
@@ -7174,7 +7162,7 @@
       <c r="E4" s="378">
         <v>2</v>
       </c>
-      <c r="F4" s="641"/>
+      <c r="F4" s="643"/>
       <c r="G4" s="381" t="s">
         <v>202</v>
       </c>
@@ -7191,11 +7179,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="204"/>
-      <c r="M4" s="641"/>
+      <c r="M4" s="643"/>
       <c r="N4" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="645"/>
+      <c r="O4" s="647"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7214,15 +7202,15 @@
       <c r="W4" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="X4" s="432" t="s">
+      <c r="X4" s="431" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="654"/>
-      <c r="Z4" s="410"/>
+      <c r="Y4" s="656"/>
+      <c r="Z4" s="409"/>
       <c r="AA4" s="307"/>
       <c r="AB4" s="209"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="656"/>
+      <c r="AD4" s="658"/>
       <c r="AE4" s="257"/>
       <c r="AF4" s="257"/>
       <c r="AG4" s="16"/>
@@ -7231,47 +7219,47 @@
       <c r="AJ4" s="16"/>
       <c r="AK4" s="257"/>
       <c r="AL4" s="16"/>
-      <c r="AM4" s="429"/>
-      <c r="AN4" s="636"/>
+      <c r="AM4" s="428"/>
+      <c r="AN4" s="638"/>
       <c r="AO4" s="338" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="659" t="s">
+      <c r="A5" s="661" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="634"/>
-      <c r="C5" s="616"/>
+      <c r="B5" s="636"/>
+      <c r="C5" s="618"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="379">
         <v>1</v>
       </c>
-      <c r="F5" s="641"/>
-      <c r="G5" s="625" t="s">
+      <c r="F5" s="643"/>
+      <c r="G5" s="627" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="625"/>
-      <c r="I5" s="625"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="626"/>
-      <c r="M5" s="641"/>
+      <c r="H5" s="627"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="627"/>
+      <c r="L5" s="628"/>
+      <c r="M5" s="643"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="645"/>
+      <c r="O5" s="647"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
       <c r="W5" s="146"/>
-      <c r="X5" s="432" t="s">
+      <c r="X5" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="654"/>
-      <c r="Z5" s="410">
+      <c r="Y5" s="656"/>
+      <c r="Z5" s="409">
         <v>1</v>
       </c>
       <c r="AA5" s="307"/>
@@ -7292,58 +7280,58 @@
       <c r="AJ5" s="16"/>
       <c r="AK5" s="257"/>
       <c r="AL5" s="80"/>
-      <c r="AM5" s="429"/>
-      <c r="AN5" s="636"/>
+      <c r="AM5" s="428"/>
+      <c r="AN5" s="638"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="660"/>
-      <c r="B6" s="631" t="s">
+      <c r="A6" s="662"/>
+      <c r="B6" s="633" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="661"/>
-      <c r="D6" s="662"/>
-      <c r="F6" s="641"/>
-      <c r="G6" s="627"/>
-      <c r="H6" s="627"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="627"/>
-      <c r="L6" s="628"/>
-      <c r="M6" s="641"/>
-      <c r="O6" s="645"/>
+      <c r="C6" s="663"/>
+      <c r="D6" s="664"/>
+      <c r="F6" s="643"/>
+      <c r="G6" s="629"/>
+      <c r="H6" s="629"/>
+      <c r="I6" s="629"/>
+      <c r="J6" s="629"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="630"/>
+      <c r="M6" s="643"/>
+      <c r="O6" s="647"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
         <v>175</v>
       </c>
       <c r="W6" s="146"/>
-      <c r="X6" s="432" t="s">
+      <c r="X6" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="654"/>
-      <c r="Z6" s="408">
+      <c r="Y6" s="656"/>
+      <c r="Z6" s="407">
         <v>1</v>
       </c>
       <c r="AA6" s="307"/>
       <c r="AB6" s="209"/>
       <c r="AC6" s="16"/>
-      <c r="AD6" s="414" t="s">
+      <c r="AD6" s="413" t="s">
         <v>241</v>
       </c>
       <c r="AE6" s="257"/>
       <c r="AF6" s="257"/>
       <c r="AG6" s="257"/>
       <c r="AH6" s="257"/>
-      <c r="AI6" s="650"/>
-      <c r="AJ6" s="442" t="s">
+      <c r="AI6" s="652"/>
+      <c r="AJ6" s="441" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="650" t="s">
+      <c r="AK6" s="652" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="257"/>
-      <c r="AM6" s="429"/>
-      <c r="AN6" s="636"/>
+      <c r="AM6" s="428"/>
+      <c r="AN6" s="638"/>
       <c r="AO6" s="338" t="s">
         <v>471</v>
       </c>
@@ -7352,7 +7340,7 @@
       <c r="A7" s="232" t="s">
         <v>573</v>
       </c>
-      <c r="B7" s="632"/>
+      <c r="B7" s="634"/>
       <c r="C7" s="202" t="s">
         <v>375</v>
       </c>
@@ -7362,8 +7350,8 @@
       <c r="E7" s="265">
         <v>3</v>
       </c>
-      <c r="F7" s="641"/>
-      <c r="G7" s="396">
+      <c r="F7" s="643"/>
+      <c r="G7" s="395">
         <v>0</v>
       </c>
       <c r="H7" s="150">
@@ -7375,14 +7363,14 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="598">
+      <c r="K7" s="600">
         <v>0</v>
       </c>
       <c r="L7" s="212">
         <v>0</v>
       </c>
-      <c r="M7" s="641"/>
-      <c r="O7" s="645"/>
+      <c r="M7" s="643"/>
+      <c r="O7" s="647"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7393,11 +7381,11 @@
       <c r="U7" s="124"/>
       <c r="V7" s="92"/>
       <c r="W7" s="146"/>
-      <c r="X7" s="432" t="s">
+      <c r="X7" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="654"/>
-      <c r="Z7" s="408">
+      <c r="Y7" s="656"/>
+      <c r="Z7" s="407">
         <v>1</v>
       </c>
       <c r="AA7" s="307"/>
@@ -7406,18 +7394,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
-      <c r="AG7" s="656" t="s">
+      <c r="AG7" s="658" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="257"/>
-      <c r="AI7" s="650"/>
+      <c r="AI7" s="652"/>
       <c r="AJ7" s="257"/>
-      <c r="AK7" s="650"/>
+      <c r="AK7" s="652"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
-      <c r="AM7" s="429"/>
-      <c r="AN7" s="636"/>
+      <c r="AM7" s="428"/>
+      <c r="AN7" s="638"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7434,52 +7422,52 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="641"/>
-      <c r="G8" s="626">
-        <v>0</v>
-      </c>
-      <c r="H8" s="623" t="s">
+      <c r="F8" s="643"/>
+      <c r="G8" s="628">
+        <v>0</v>
+      </c>
+      <c r="H8" s="625" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="598">
-        <v>0</v>
-      </c>
-      <c r="J8" s="623" t="s">
+      <c r="I8" s="600">
+        <v>0</v>
+      </c>
+      <c r="J8" s="625" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="629"/>
-      <c r="L8" s="663"/>
-      <c r="M8" s="642"/>
-      <c r="N8" s="666">
+      <c r="K8" s="631"/>
+      <c r="L8" s="665"/>
+      <c r="M8" s="644"/>
+      <c r="N8" s="668">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="645"/>
+      <c r="O8" s="647"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
       <c r="U8" s="124"/>
       <c r="V8" s="92"/>
       <c r="W8" s="146"/>
-      <c r="X8" s="432" t="s">
+      <c r="X8" s="431" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="654"/>
-      <c r="Z8" s="410"/>
+      <c r="Y8" s="656"/>
+      <c r="Z8" s="409"/>
       <c r="AA8" s="307"/>
       <c r="AB8" s="209"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
-      <c r="AG8" s="656"/>
+      <c r="AG8" s="658"/>
       <c r="AH8" s="257"/>
-      <c r="AI8" s="650"/>
+      <c r="AI8" s="652"/>
       <c r="AJ8" s="257"/>
       <c r="AK8" s="257"/>
       <c r="AL8" s="257"/>
-      <c r="AM8" s="429"/>
-      <c r="AN8" s="636"/>
+      <c r="AM8" s="428"/>
+      <c r="AN8" s="638"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
@@ -7494,17 +7482,17 @@
       <c r="D9" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="641"/>
-      <c r="G9" s="628"/>
-      <c r="H9" s="624"/>
-      <c r="I9" s="600"/>
-      <c r="J9" s="624"/>
-      <c r="K9" s="630"/>
-      <c r="L9" s="664"/>
-      <c r="M9" s="643"/>
-      <c r="N9" s="667"/>
-      <c r="O9" s="646"/>
-      <c r="S9" s="657" t="s">
+      <c r="F9" s="643"/>
+      <c r="G9" s="630"/>
+      <c r="H9" s="626"/>
+      <c r="I9" s="602"/>
+      <c r="J9" s="626"/>
+      <c r="K9" s="632"/>
+      <c r="L9" s="666"/>
+      <c r="M9" s="645"/>
+      <c r="N9" s="669"/>
+      <c r="O9" s="648"/>
+      <c r="S9" s="659" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7513,29 +7501,29 @@
         <v>175</v>
       </c>
       <c r="W9" s="48"/>
-      <c r="X9" s="432" t="s">
+      <c r="X9" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="654"/>
-      <c r="Z9" s="411"/>
+      <c r="Y9" s="656"/>
+      <c r="Z9" s="410"/>
       <c r="AA9" s="307"/>
       <c r="AB9" s="209"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="414" t="s">
+      <c r="AD9" s="413" t="s">
         <v>241</v>
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
-      <c r="AG9" s="656"/>
+      <c r="AG9" s="658"/>
       <c r="AH9" s="257"/>
-      <c r="AI9" s="650"/>
+      <c r="AI9" s="652"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="650" t="s">
+      <c r="AK9" s="652" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="257"/>
-      <c r="AM9" s="429"/>
-      <c r="AN9" s="636"/>
+      <c r="AM9" s="428"/>
+      <c r="AN9" s="638"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7552,20 +7540,20 @@
         <f>Boat!W8</f>
         <v>45</v>
       </c>
-      <c r="F10" s="641"/>
-      <c r="N10" s="419" t="s">
+      <c r="F10" s="643"/>
+      <c r="N10" s="418" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="678" t="s">
+      <c r="O10" s="680" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="647" t="s">
+      <c r="P10" s="649" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="665"/>
+      <c r="S10" s="667"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7574,11 +7562,11 @@
         <v>221</v>
       </c>
       <c r="W10" s="146"/>
-      <c r="X10" s="432" t="s">
+      <c r="X10" s="431" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="654"/>
-      <c r="Z10" s="410">
+      <c r="Y10" s="656"/>
+      <c r="Z10" s="409">
         <v>0</v>
       </c>
       <c r="AA10" s="307">
@@ -7595,16 +7583,16 @@
       <c r="AF10" s="238" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="656"/>
+      <c r="AG10" s="658"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="650"/>
+      <c r="AI10" s="652"/>
       <c r="AJ10" s="257"/>
-      <c r="AK10" s="650"/>
+      <c r="AK10" s="652"/>
       <c r="AL10" s="257"/>
-      <c r="AM10" s="443" t="s">
+      <c r="AM10" s="442" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="636"/>
+      <c r="AN10" s="638"/>
       <c r="AO10" s="204" t="s">
         <v>94</v>
       </c>
@@ -7613,38 +7601,38 @@
       <c r="A11" s="223" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="598" t="s">
+      <c r="B11" s="600" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="458" t="s">
+      <c r="C11" s="457" t="s">
         <v>177</v>
       </c>
       <c r="D11" s="170" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="641"/>
+      <c r="F11" s="643"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="679"/>
-      <c r="P11" s="648"/>
+      <c r="O11" s="681"/>
+      <c r="P11" s="650"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="665"/>
+      <c r="S11" s="667"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
       <c r="U11" s="124"/>
       <c r="V11" s="121"/>
       <c r="W11" s="146"/>
-      <c r="X11" s="432" t="s">
+      <c r="X11" s="431" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="654"/>
-      <c r="Z11" s="410"/>
+      <c r="Y11" s="656"/>
+      <c r="Z11" s="409"/>
       <c r="AA11" s="307">
         <v>1</v>
       </c>
@@ -7657,14 +7645,14 @@
       <c r="AF11" s="257" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="656"/>
+      <c r="AG11" s="658"/>
       <c r="AH11" s="257"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="257"/>
       <c r="AK11" s="257"/>
       <c r="AL11" s="257"/>
-      <c r="AM11" s="429"/>
-      <c r="AN11" s="636"/>
+      <c r="AM11" s="428"/>
+      <c r="AN11" s="638"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7673,8 +7661,8 @@
       <c r="A12" s="227" t="s">
         <v>384</v>
       </c>
-      <c r="B12" s="600"/>
-      <c r="C12" s="459" t="s">
+      <c r="B12" s="602"/>
+      <c r="C12" s="458" t="s">
         <v>385</v>
       </c>
       <c r="D12" s="61" t="s">
@@ -7683,36 +7671,36 @@
       <c r="E12" s="224">
         <v>3</v>
       </c>
-      <c r="F12" s="641"/>
+      <c r="F12" s="643"/>
       <c r="G12" s="337" t="s">
         <v>401</v>
       </c>
-      <c r="H12" s="603" t="s">
+      <c r="H12" s="605" t="s">
         <v>430</v>
       </c>
-      <c r="I12" s="605"/>
-      <c r="J12" s="605"/>
-      <c r="K12" s="683"/>
+      <c r="I12" s="607"/>
+      <c r="J12" s="607"/>
+      <c r="K12" s="685"/>
       <c r="L12" s="203"/>
       <c r="M12" s="203"/>
       <c r="N12" s="203"/>
-      <c r="O12" s="679"/>
-      <c r="P12" s="648"/>
+      <c r="O12" s="681"/>
+      <c r="P12" s="650"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="658"/>
+      <c r="S12" s="660"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
       <c r="U12" s="124"/>
       <c r="V12" s="146"/>
       <c r="W12" s="146"/>
-      <c r="X12" s="432" t="s">
+      <c r="X12" s="431" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="654"/>
-      <c r="Z12" s="408">
+      <c r="Y12" s="656"/>
+      <c r="Z12" s="407">
         <v>1</v>
       </c>
       <c r="AA12" s="307">
@@ -7722,16 +7710,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="668" t="s">
+      <c r="AD12" s="670" t="s">
         <v>241</v>
       </c>
-      <c r="AE12" s="442" t="s">
+      <c r="AE12" s="441" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="656" t="s">
+      <c r="AF12" s="658" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="656"/>
+      <c r="AG12" s="658"/>
       <c r="AH12" s="238" t="s">
         <v>260</v>
       </c>
@@ -7741,43 +7729,43 @@
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
-      <c r="AM12" s="651" t="s">
+      <c r="AM12" s="653" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="636"/>
+      <c r="AN12" s="638"/>
       <c r="AO12" s="338" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="448" t="s">
+      <c r="B13" s="447" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="449">
+      <c r="E13" s="448">
         <v>-3</v>
       </c>
-      <c r="F13" s="641"/>
-      <c r="G13" s="605" t="s">
+      <c r="F13" s="643"/>
+      <c r="G13" s="607" t="s">
         <v>431</v>
       </c>
-      <c r="H13" s="605"/>
-      <c r="I13" s="605"/>
-      <c r="J13" s="683"/>
+      <c r="H13" s="607"/>
+      <c r="I13" s="607"/>
+      <c r="J13" s="685"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="679"/>
-      <c r="P13" s="649"/>
+      <c r="O13" s="681"/>
+      <c r="P13" s="651"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
       <c r="U13" s="124"/>
       <c r="V13" s="146"/>
       <c r="W13" s="146"/>
-      <c r="X13" s="432" t="s">
+      <c r="X13" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="654"/>
-      <c r="Z13" s="408">
+      <c r="Y13" s="656"/>
+      <c r="Z13" s="407">
         <v>1</v>
       </c>
       <c r="AA13" s="307">
@@ -7787,8 +7775,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="668"/>
-      <c r="AF13" s="656"/>
+      <c r="AD13" s="670"/>
+      <c r="AF13" s="658"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
         <v>309</v>
@@ -7799,27 +7787,27 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
       <c r="AL13" s="257"/>
-      <c r="AM13" s="651"/>
-      <c r="AN13" s="636"/>
+      <c r="AM13" s="653"/>
+      <c r="AN13" s="638"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="451"/>
-      <c r="B14" s="452"/>
-      <c r="C14" s="460"/>
-      <c r="D14" s="453"/>
-      <c r="E14" s="454"/>
-      <c r="F14" s="641"/>
-      <c r="G14" s="605" t="s">
+      <c r="A14" s="450"/>
+      <c r="B14" s="451"/>
+      <c r="C14" s="459"/>
+      <c r="D14" s="452"/>
+      <c r="E14" s="453"/>
+      <c r="F14" s="643"/>
+      <c r="G14" s="607" t="s">
         <v>430</v>
       </c>
-      <c r="H14" s="605"/>
-      <c r="I14" s="605"/>
-      <c r="J14" s="683"/>
+      <c r="H14" s="607"/>
+      <c r="I14" s="607"/>
+      <c r="J14" s="685"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="679"/>
+      <c r="O14" s="681"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7830,37 +7818,37 @@
       <c r="U14" s="124"/>
       <c r="V14" s="93"/>
       <c r="W14" s="146"/>
-      <c r="X14" s="432" t="s">
+      <c r="X14" s="431" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="654"/>
-      <c r="Z14" s="408">
+      <c r="Y14" s="656"/>
+      <c r="Z14" s="407">
         <v>1</v>
       </c>
       <c r="AA14" s="307"/>
       <c r="AB14" s="209"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="668"/>
+      <c r="AD14" s="670"/>
       <c r="AE14" s="257"/>
-      <c r="AF14" s="656"/>
+      <c r="AF14" s="658"/>
       <c r="AG14" s="257"/>
       <c r="AH14" s="257"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="257"/>
       <c r="AK14" s="257"/>
       <c r="AL14" s="257"/>
-      <c r="AM14" s="651"/>
-      <c r="AN14" s="636"/>
+      <c r="AM14" s="653"/>
+      <c r="AN14" s="638"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="450" t="s">
+      <c r="A15" s="449" t="s">
         <v>507</v>
       </c>
-      <c r="C15" s="598" t="s">
+      <c r="C15" s="600" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="641"/>
-      <c r="O15" s="679"/>
+      <c r="F15" s="643"/>
+      <c r="O15" s="681"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7870,11 +7858,11 @@
       <c r="W15" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="X15" s="432" t="s">
+      <c r="X15" s="431" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="654"/>
-      <c r="Z15" s="410">
+      <c r="Y15" s="656"/>
+      <c r="Z15" s="409">
         <v>1</v>
       </c>
       <c r="AA15" s="307"/>
@@ -7882,8 +7870,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="668"/>
-      <c r="AF15" s="656"/>
+      <c r="AD15" s="670"/>
+      <c r="AF15" s="658"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
         <v>449</v>
@@ -7896,8 +7884,8 @@
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
-      <c r="AM15" s="651"/>
-      <c r="AN15" s="636"/>
+      <c r="AM15" s="653"/>
+      <c r="AN15" s="638"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7912,32 +7900,32 @@
       <c r="B16" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="C16" s="600"/>
+      <c r="C16" s="602"/>
       <c r="D16" s="61" t="s">
         <v>494</v>
       </c>
       <c r="E16" s="224">
         <v>1</v>
       </c>
-      <c r="F16" s="641"/>
+      <c r="F16" s="643"/>
       <c r="G16" s="337" t="s">
         <v>489</v>
       </c>
-      <c r="I16" s="470"/>
+      <c r="I16" s="469"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="679"/>
-      <c r="R16" s="436" t="s">
+      <c r="O16" s="681"/>
+      <c r="R16" s="435" t="s">
         <v>184</v>
       </c>
       <c r="T16" s="89"/>
       <c r="U16" s="124"/>
       <c r="V16" s="94"/>
       <c r="W16" s="146"/>
-      <c r="X16" s="432" t="s">
+      <c r="X16" s="431" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="654"/>
-      <c r="Z16" s="408">
+      <c r="Y16" s="656"/>
+      <c r="Z16" s="407">
         <v>1</v>
       </c>
       <c r="AA16" s="307"/>
@@ -7954,21 +7942,21 @@
       </c>
       <c r="AK16" s="257"/>
       <c r="AL16" s="80"/>
-      <c r="AM16" s="429" t="s">
+      <c r="AM16" s="428" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="636"/>
+      <c r="AN16" s="638"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="641"/>
-      <c r="I17" s="471"/>
+      <c r="F17" s="643"/>
+      <c r="I17" s="470"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="679"/>
+      <c r="O17" s="681"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -7985,11 +7973,11 @@
       <c r="W17" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="X17" s="432" t="s">
+      <c r="X17" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="654"/>
-      <c r="Z17" s="410"/>
+      <c r="Y17" s="656"/>
+      <c r="Z17" s="409"/>
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
       <c r="AC17" s="76" t="s">
@@ -8012,8 +8000,8 @@
       <c r="AJ17" s="80"/>
       <c r="AK17" s="257"/>
       <c r="AL17" s="80"/>
-      <c r="AM17" s="429"/>
-      <c r="AN17" s="636"/>
+      <c r="AM17" s="428"/>
+      <c r="AN17" s="638"/>
       <c r="AO17" s="204" t="s">
         <v>498</v>
       </c>
@@ -8022,13 +8010,13 @@
       </c>
     </row>
     <row r="18" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="466" t="s">
+      <c r="A18" s="465" t="s">
         <v>577</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C18" s="455" t="s">
+      <c r="C18" s="454" t="s">
         <v>518</v>
       </c>
       <c r="D18" s="384" t="s">
@@ -8037,32 +8025,32 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="641"/>
+      <c r="F18" s="643"/>
       <c r="G18" s="337" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="679"/>
+      <c r="O18" s="681"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="673" t="s">
+      <c r="R18" s="675" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="612" t="s">
+      <c r="U18" s="614" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
       <c r="W18" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="X18" s="432" t="s">
+      <c r="X18" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="654"/>
-      <c r="Z18" s="410">
+      <c r="Y18" s="656"/>
+      <c r="Z18" s="409">
         <v>1</v>
       </c>
       <c r="AA18" s="307"/>
@@ -8072,39 +8060,39 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
-      <c r="AF18" s="650" t="s">
+      <c r="AF18" s="652" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="652" t="s">
+      <c r="AJ18" s="654" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
-      <c r="AM18" s="429"/>
-      <c r="AN18" s="636"/>
+      <c r="AM18" s="428"/>
+      <c r="AN18" s="638"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="641"/>
+      <c r="F19" s="643"/>
       <c r="I19" s="219"/>
-      <c r="O19" s="679"/>
-      <c r="R19" s="674"/>
+      <c r="O19" s="681"/>
+      <c r="R19" s="676"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="613"/>
+      <c r="U19" s="615"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
-      <c r="X19" s="432" t="s">
+      <c r="X19" s="431" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="654"/>
-      <c r="Z19" s="408">
+      <c r="Y19" s="656"/>
+      <c r="Z19" s="407">
         <v>1</v>
       </c>
       <c r="AA19" s="307"/>
@@ -8112,17 +8100,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="257"/>
-      <c r="AF19" s="650"/>
+      <c r="AF19" s="652"/>
       <c r="AG19" s="257"/>
       <c r="AH19" s="257"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="652"/>
-      <c r="AK19" s="461" t="s">
+      <c r="AJ19" s="654"/>
+      <c r="AK19" s="460" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
-      <c r="AM19" s="429"/>
-      <c r="AN19" s="636"/>
+      <c r="AM19" s="428"/>
+      <c r="AN19" s="638"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8134,58 +8122,58 @@
       <c r="B20" s="216" t="s">
         <v>512</v>
       </c>
-      <c r="C20" s="457" t="s">
+      <c r="C20" s="456" t="s">
         <v>487</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="E20" s="438">
+      <c r="E20" s="437">
         <v>-1</v>
       </c>
-      <c r="F20" s="641"/>
+      <c r="F20" s="643"/>
       <c r="G20" s="337" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="219"/>
-      <c r="O20" s="679"/>
-      <c r="Q20" s="681" t="s">
+      <c r="O20" s="681"/>
+      <c r="Q20" s="683" t="s">
         <v>48</v>
       </c>
-      <c r="T20" s="405" t="s">
+      <c r="T20" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="614"/>
-      <c r="W20" s="406"/>
-      <c r="X20" s="433" t="s">
+      <c r="U20" s="616"/>
+      <c r="W20" s="405"/>
+      <c r="X20" s="432" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="654"/>
-      <c r="Z20" s="412">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="413">
+      <c r="Y20" s="656"/>
+      <c r="Z20" s="411">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="412">
         <v>1</v>
       </c>
       <c r="AB20" s="256"/>
-      <c r="AC20" s="415"/>
-      <c r="AD20" s="415"/>
+      <c r="AC20" s="414"/>
+      <c r="AD20" s="414"/>
       <c r="AE20" s="339"/>
-      <c r="AF20" s="404"/>
+      <c r="AF20" s="403"/>
       <c r="AG20" s="339"/>
       <c r="AH20" s="340"/>
       <c r="AI20" s="341" t="s">
         <v>299</v>
       </c>
       <c r="AJ20" s="339"/>
-      <c r="AK20" s="462"/>
+      <c r="AK20" s="461"/>
       <c r="AL20" s="340" t="s">
         <v>500</v>
       </c>
       <c r="AM20" s="381" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="636"/>
+      <c r="AN20" s="638"/>
       <c r="AO20" s="338" t="s">
         <v>461</v>
       </c>
@@ -8206,29 +8194,29 @@
       <c r="E21" s="265">
         <v>0</v>
       </c>
-      <c r="F21" s="641"/>
+      <c r="F21" s="643"/>
       <c r="I21" s="219"/>
-      <c r="O21" s="679"/>
-      <c r="Q21" s="682"/>
-      <c r="T21" s="423"/>
+      <c r="O21" s="681"/>
+      <c r="Q21" s="684"/>
+      <c r="T21" s="422"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="609"/>
-      <c r="W21" s="427" t="s">
+      <c r="V21" s="611"/>
+      <c r="W21" s="426" t="s">
         <v>175</v>
       </c>
-      <c r="X21" s="430" t="s">
+      <c r="X21" s="429" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="654"/>
-      <c r="Z21" s="446">
+      <c r="Y21" s="656"/>
+      <c r="Z21" s="445">
         <v>3</v>
       </c>
-      <c r="AA21" s="447">
+      <c r="AA21" s="446">
         <v>3</v>
       </c>
-      <c r="AB21" s="416"/>
+      <c r="AB21" s="415"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="414" t="s">
+      <c r="AD21" s="413" t="s">
         <v>241</v>
       </c>
       <c r="AE21" s="6"/>
@@ -8247,36 +8235,36 @@
         <v>252</v>
       </c>
       <c r="AL21" s="6"/>
-      <c r="AM21" s="429" t="s">
+      <c r="AM21" s="428" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="636"/>
+      <c r="AN21" s="638"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="641"/>
+      <c r="F22" s="643"/>
       <c r="G22" s="337" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="219"/>
-      <c r="O22" s="679"/>
-      <c r="R22" s="435" t="s">
+      <c r="O22" s="681"/>
+      <c r="R22" s="434" t="s">
         <v>44</v>
       </c>
-      <c r="T22" s="424" t="s">
+      <c r="T22" s="423" t="s">
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="610"/>
-      <c r="W22" s="427" t="s">
+      <c r="V22" s="612"/>
+      <c r="W22" s="426" t="s">
         <v>175</v>
       </c>
-      <c r="X22" s="430" t="s">
+      <c r="X22" s="429" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="654"/>
-      <c r="Z22" s="416"/>
+      <c r="Y22" s="656"/>
+      <c r="Z22" s="415"/>
       <c r="AA22" s="10"/>
-      <c r="AB22" s="416"/>
+      <c r="AB22" s="415"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
@@ -8284,7 +8272,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="650" t="s">
+      <c r="AJ22" s="652" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="257"/>
@@ -8292,7 +8280,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="300"/>
-      <c r="AN22" s="636"/>
+      <c r="AN22" s="638"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
@@ -8301,7 +8289,7 @@
       <c r="B23" s="173" t="s">
         <v>360</v>
       </c>
-      <c r="C23" s="456" t="s">
+      <c r="C23" s="455" t="s">
         <v>141</v>
       </c>
       <c r="D23" s="347" t="s">
@@ -8310,25 +8298,25 @@
       <c r="E23" s="225">
         <v>1</v>
       </c>
-      <c r="F23" s="641"/>
+      <c r="F23" s="643"/>
       <c r="I23" s="219"/>
-      <c r="O23" s="679"/>
-      <c r="Q23" s="681" t="s">
+      <c r="O23" s="681"/>
+      <c r="Q23" s="683" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
-      <c r="U23" s="421" t="s">
+      <c r="U23" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="610"/>
+      <c r="V23" s="612"/>
       <c r="W23" s="148"/>
-      <c r="X23" s="430" t="s">
+      <c r="X23" s="429" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="654"/>
+      <c r="Y23" s="656"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
-      <c r="AB23" s="416"/>
+      <c r="AB23" s="415"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
@@ -8336,50 +8324,50 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="650"/>
+      <c r="AJ23" s="652"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="300"/>
-      <c r="AN23" s="636"/>
+      <c r="AN23" s="638"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="441" t="s">
+      <c r="A24" s="440" t="s">
         <v>429</v>
       </c>
       <c r="B24" s="216" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="458" t="s">
+      <c r="C24" s="457" t="s">
         <v>154</v>
       </c>
       <c r="D24" s="170" t="s">
         <v>266</v>
       </c>
-      <c r="E24" s="437">
-        <v>1</v>
-      </c>
-      <c r="F24" s="641"/>
+      <c r="E24" s="436">
+        <v>1</v>
+      </c>
+      <c r="F24" s="643"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="219"/>
-      <c r="O24" s="679"/>
-      <c r="Q24" s="682"/>
+      <c r="O24" s="681"/>
+      <c r="Q24" s="684"/>
       <c r="T24" s="17"/>
       <c r="U24" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="610"/>
+      <c r="V24" s="612"/>
       <c r="W24" s="148"/>
-      <c r="X24" s="430" t="s">
+      <c r="X24" s="429" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="654"/>
+      <c r="Y24" s="656"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
-      <c r="AB24" s="416"/>
+      <c r="AB24" s="415"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
@@ -8388,40 +8376,40 @@
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="442" t="s">
+      <c r="AK24" s="441" t="s">
         <v>465</v>
       </c>
       <c r="AL24" s="238" t="s">
         <v>464</v>
       </c>
       <c r="AM24" s="300"/>
-      <c r="AN24" s="636"/>
+      <c r="AN24" s="638"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="641"/>
+      <c r="F25" s="643"/>
       <c r="I25" s="219"/>
-      <c r="O25" s="679"/>
+      <c r="O25" s="681"/>
       <c r="P25" s="204" t="s">
         <v>281</v>
       </c>
       <c r="Q25" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="428" t="s">
+      <c r="T25" s="427" t="s">
         <v>44</v>
       </c>
-      <c r="U25" s="401" t="s">
+      <c r="U25" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="611"/>
+      <c r="V25" s="613"/>
       <c r="W25" s="148"/>
-      <c r="X25" s="430" t="s">
+      <c r="X25" s="429" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="654"/>
+      <c r="Y25" s="656"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
-      <c r="AB25" s="416"/>
+      <c r="AB25" s="415"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="238" t="s">
@@ -8435,7 +8423,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="300"/>
-      <c r="AN25" s="636"/>
+      <c r="AN25" s="638"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
@@ -8444,7 +8432,7 @@
       <c r="B26" s="216" t="s">
         <v>412</v>
       </c>
-      <c r="C26" s="457" t="s">
+      <c r="C26" s="456" t="s">
         <v>487</v>
       </c>
       <c r="D26" s="61" t="s">
@@ -8453,36 +8441,36 @@
       <c r="E26" s="380">
         <v>1</v>
       </c>
-      <c r="F26" s="641"/>
+      <c r="F26" s="643"/>
       <c r="G26" s="337" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="O26" s="679"/>
-      <c r="P26" s="638" t="s">
+      <c r="O26" s="681"/>
+      <c r="P26" s="640" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="639"/>
-      <c r="R26" s="675" t="s">
+      <c r="Q26" s="641"/>
+      <c r="R26" s="677" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="178"/>
-      <c r="U26" s="420"/>
+      <c r="U26" s="419"/>
       <c r="V26" s="100" t="s">
         <v>44</v>
       </c>
       <c r="W26" s="148"/>
-      <c r="X26" s="430" t="s">
+      <c r="X26" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="654"/>
+      <c r="Y26" s="656"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
-      <c r="AB26" s="416"/>
+      <c r="AB26" s="415"/>
       <c r="AC26" s="76" t="s">
         <v>466</v>
       </c>
-      <c r="AD26" s="414" t="s">
+      <c r="AD26" s="413" t="s">
         <v>458</v>
       </c>
       <c r="AE26" s="6"/>
@@ -8499,10 +8487,10 @@
       <c r="AL26" s="80" t="s">
         <v>500</v>
       </c>
-      <c r="AM26" s="443" t="s">
+      <c r="AM26" s="442" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="636"/>
+      <c r="AN26" s="638"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8514,43 +8502,43 @@
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="677"/>
+      <c r="F27" s="679"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="220"/>
-      <c r="O27" s="680"/>
-      <c r="R27" s="676"/>
-      <c r="S27" s="422" t="s">
+      <c r="O27" s="682"/>
+      <c r="R27" s="678"/>
+      <c r="S27" s="421" t="s">
         <v>54</v>
       </c>
-      <c r="T27" s="426" t="s">
+      <c r="T27" s="425" t="s">
         <v>44</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="425"/>
+      <c r="V27" s="424"/>
       <c r="W27" s="149"/>
-      <c r="X27" s="430" t="s">
+      <c r="X27" s="429" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="655"/>
+      <c r="Y27" s="657"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
-      <c r="AB27" s="417"/>
-      <c r="AC27" s="418"/>
-      <c r="AD27" s="418"/>
-      <c r="AE27" s="418"/>
-      <c r="AF27" s="418"/>
-      <c r="AG27" s="418"/>
-      <c r="AH27" s="418"/>
-      <c r="AI27" s="418"/>
-      <c r="AJ27" s="418"/>
-      <c r="AK27" s="445"/>
-      <c r="AL27" s="418"/>
+      <c r="AB27" s="416"/>
+      <c r="AC27" s="417"/>
+      <c r="AD27" s="417"/>
+      <c r="AE27" s="417"/>
+      <c r="AF27" s="417"/>
+      <c r="AG27" s="417"/>
+      <c r="AH27" s="417"/>
+      <c r="AI27" s="417"/>
+      <c r="AJ27" s="417"/>
+      <c r="AK27" s="444"/>
+      <c r="AL27" s="417"/>
       <c r="AM27" s="381" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="637"/>
+      <c r="AN27" s="639"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -8641,15 +8629,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="603" t="s">
+      <c r="B1" s="605" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="683"/>
+      <c r="C1" s="685"/>
       <c r="D1" s="204"/>
-      <c r="J1" s="603" t="s">
+      <c r="J1" s="605" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="683"/>
+      <c r="K1" s="685"/>
       <c r="L1" s="195" t="s">
         <v>331</v>
       </c>
@@ -8687,13 +8675,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="196"/>
-      <c r="M2" s="684"/>
+      <c r="M2" s="686"/>
       <c r="N2" s="153">
         <v>2</v>
       </c>
       <c r="O2" s="154"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="687" t="s">
+      <c r="Q2" s="689" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -8716,13 +8704,13 @@
       <c r="K3" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="M3" s="685"/>
+      <c r="M3" s="687"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="688"/>
+      <c r="Q3" s="690"/>
       <c r="R3" s="219"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8741,13 +8729,13 @@
       <c r="K4" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="M4" s="685"/>
+      <c r="M4" s="687"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="688"/>
+      <c r="Q4" s="690"/>
       <c r="R4" s="219"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8767,13 +8755,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="196"/>
-      <c r="M5" s="685"/>
+      <c r="M5" s="687"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="688"/>
+      <c r="Q5" s="690"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -8794,13 +8782,13 @@
       <c r="K6" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="M6" s="685"/>
+      <c r="M6" s="687"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="688"/>
+      <c r="Q6" s="690"/>
       <c r="R6" s="219"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8820,13 +8808,13 @@
         <v>328</v>
       </c>
       <c r="L7" s="198"/>
-      <c r="M7" s="685"/>
+      <c r="M7" s="687"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="688"/>
+      <c r="Q7" s="690"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -8847,13 +8835,13 @@
       <c r="K8" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M8" s="685"/>
+      <c r="M8" s="687"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="688"/>
+      <c r="Q8" s="690"/>
       <c r="R8" s="219"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8873,13 +8861,13 @@
         <v>330</v>
       </c>
       <c r="L9" s="181"/>
-      <c r="M9" s="686"/>
+      <c r="M9" s="688"/>
       <c r="N9" s="161"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="689"/>
+      <c r="Q9" s="691"/>
       <c r="R9" s="220"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -8983,8 +8971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" topLeftCell="N8" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9049,10 +9037,10 @@
       <c r="O1" s="208" t="s">
         <v>295</v>
       </c>
-      <c r="P1" s="399" t="s">
+      <c r="P1" s="398" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="714" t="s">
+      <c r="Q1" s="716" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9073,10 +9061,10 @@
       <c r="Z1" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="AA1" s="518" t="s">
+      <c r="AA1" s="517" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="708" t="s">
+      <c r="AB1" s="710" t="s">
         <v>595</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9091,42 +9079,42 @@
       <c r="AI1" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="AJ1" s="553"/>
+      <c r="AJ1" s="552"/>
       <c r="AK1" s="343"/>
       <c r="AL1" s="67" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="693">
+      <c r="A2" s="695">
         <f ca="1">TODAY()</f>
-        <v>45284</v>
-      </c>
-      <c r="B2" s="695" t="s">
+        <v>45285</v>
+      </c>
+      <c r="B2" s="697" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="615" t="s">
+      <c r="C2" s="617" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="697" t="s">
+      <c r="D2" s="699" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="699" t="s">
+      <c r="E2" s="701" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="659" t="s">
+      <c r="G2" s="661" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="705" t="s">
+      <c r="I2" s="707" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="397" t="s">
+      <c r="J2" s="396" t="s">
         <v>141</v>
       </c>
       <c r="K2" s="168" t="s">
@@ -9144,13 +9132,13 @@
       <c r="O2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="400">
+      <c r="P2" s="399">
         <v>40</v>
       </c>
-      <c r="Q2" s="715"/>
+      <c r="Q2" s="717"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
@@ -9161,57 +9149,57 @@
         <v>0</v>
       </c>
       <c r="U2" s="6"/>
-      <c r="V2" s="470"/>
+      <c r="V2" s="469"/>
       <c r="W2" s="6"/>
-      <c r="X2" s="470"/>
+      <c r="X2" s="469"/>
       <c r="Z2" s="24">
         <f>BoardRW!V3</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA2" s="68">
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="709"/>
+      <c r="AB2" s="711"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AI2" s="470">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="554"/>
+      <c r="AI2" s="469">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="553"/>
       <c r="AK2" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="AL2" s="470">
+      <c r="AL2" s="469">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="694"/>
-      <c r="B3" s="696"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="698"/>
-      <c r="E3" s="700"/>
-      <c r="G3" s="660"/>
+      <c r="A3" s="696"/>
+      <c r="B3" s="698"/>
+      <c r="C3" s="618"/>
+      <c r="D3" s="700"/>
+      <c r="E3" s="702"/>
+      <c r="G3" s="662"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="706"/>
+      <c r="I3" s="708"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
       <c r="N3" s="80" t="s">
         <v>278</v>
       </c>
-      <c r="Q3" s="472">
+      <c r="Q3" s="471">
         <f>SUM(X23:X31)</f>
         <v>1</v>
       </c>
       <c r="U3" s="6"/>
-      <c r="V3" s="471"/>
+      <c r="V3" s="470"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="471"/>
-      <c r="AB3" s="709"/>
+      <c r="X3" s="470"/>
+      <c r="AB3" s="711"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>590</v>
@@ -9224,10 +9212,10 @@
       <c r="AH3" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AI3" s="471">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="554"/>
+      <c r="AI3" s="470">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="553"/>
       <c r="AK3" s="6" t="s">
         <v>250</v>
       </c>
@@ -9240,11 +9228,11 @@
         <v>381</v>
       </c>
       <c r="B4" s="243"/>
-      <c r="C4" s="701" t="s">
+      <c r="C4" s="703" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="706"/>
-      <c r="R4" s="472" t="s">
+      <c r="I4" s="708"/>
+      <c r="R4" s="471" t="s">
         <v>590</v>
       </c>
       <c r="T4" s="24">
@@ -9252,10 +9240,10 @@
         <v>0</v>
       </c>
       <c r="U4" s="6"/>
-      <c r="V4" s="471"/>
+      <c r="V4" s="470"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="471"/>
-      <c r="AB4" s="709"/>
+      <c r="X4" s="470"/>
+      <c r="AB4" s="711"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9266,8 +9254,8 @@
         <v>0</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="471"/>
-      <c r="AJ4" s="554"/>
+      <c r="AI4" s="470"/>
+      <c r="AJ4" s="553"/>
       <c r="AK4" s="6" t="s">
         <v>614</v>
       </c>
@@ -9282,7 +9270,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="702"/>
+      <c r="C5" s="704"/>
       <c r="D5" s="222" t="s">
         <v>102</v>
       </c>
@@ -9292,14 +9280,14 @@
       <c r="F5" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="G5" s="598" t="s">
+      <c r="G5" s="600" t="s">
         <v>272</v>
       </c>
       <c r="H5" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="706"/>
-      <c r="J5" s="398" t="s">
+      <c r="I5" s="708"/>
+      <c r="J5" s="397" t="s">
         <v>269</v>
       </c>
       <c r="K5" s="168" t="s">
@@ -9314,7 +9302,7 @@
       <c r="N5" s="80" t="s">
         <v>311</v>
       </c>
-      <c r="S5" s="472" t="s">
+      <c r="S5" s="471" t="s">
         <v>591</v>
       </c>
       <c r="T5" s="24">
@@ -9322,10 +9310,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="6"/>
-      <c r="V5" s="469"/>
+      <c r="V5" s="468"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="469"/>
-      <c r="AB5" s="709"/>
+      <c r="X5" s="468"/>
+      <c r="AB5" s="711"/>
       <c r="AC5" s="2" t="s">
         <v>593</v>
       </c>
@@ -9333,33 +9321,33 @@
         <v>44</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="AI5" s="469">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="554"/>
+        <v>622</v>
+      </c>
+      <c r="AI5" s="468">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="553"/>
       <c r="AK5" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AL5" s="469">
+      <c r="AL5" s="468">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="690" t="s">
+      <c r="A6" s="692" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="661"/>
-      <c r="D6" s="662"/>
+      <c r="C6" s="663"/>
+      <c r="D6" s="664"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="599"/>
-      <c r="I6" s="706"/>
+      <c r="G6" s="601"/>
+      <c r="I6" s="708"/>
       <c r="P6" s="61" t="s">
         <v>593</v>
       </c>
@@ -9371,7 +9359,7 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>2</v>
       </c>
-      <c r="AB6" s="709"/>
+      <c r="AB6" s="711"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9382,12 +9370,12 @@
         <v>2</v>
       </c>
       <c r="AH6" s="6"/>
-      <c r="AI6" s="526"/>
-      <c r="AJ6" s="554"/>
+      <c r="AI6" s="525"/>
+      <c r="AJ6" s="553"/>
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="691"/>
+      <c r="A7" s="693"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9397,8 +9385,8 @@
       <c r="D7" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="599"/>
-      <c r="I7" s="706"/>
+      <c r="G7" s="601"/>
+      <c r="I7" s="708"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9425,16 +9413,16 @@
       <c r="U7" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="V7" s="470">
+      <c r="V7" s="469">
         <v>1</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="X7" s="470">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="709"/>
+      <c r="X7" s="469">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="711"/>
       <c r="AC7" s="99" t="s">
         <v>594</v>
       </c>
@@ -9450,8 +9438,8 @@
         <v>7</v>
       </c>
       <c r="AH7" s="6"/>
-      <c r="AI7" s="470"/>
-      <c r="AJ7" s="554"/>
+      <c r="AI7" s="469"/>
+      <c r="AJ7" s="553"/>
       <c r="AK7" s="6" t="s">
         <v>617</v>
       </c>
@@ -9460,7 +9448,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="692"/>
+      <c r="A8" s="694"/>
       <c r="B8" s="212" t="s">
         <v>28</v>
       </c>
@@ -9468,26 +9456,26 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="599"/>
-      <c r="I8" s="706"/>
+      <c r="G8" s="601"/>
+      <c r="I8" s="708"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="471"/>
-      <c r="AB8" s="709"/>
-      <c r="AC8" s="516"/>
+      <c r="X8" s="470"/>
+      <c r="AB8" s="711"/>
+      <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="AI8" s="471">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="554"/>
+      <c r="AI8" s="470">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="553"/>
       <c r="AK8" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="AL8" s="470">
+      <c r="AL8" s="469">
         <v>1</v>
       </c>
     </row>
@@ -9504,9 +9492,9 @@
       <c r="D9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="599"/>
+      <c r="G9" s="601"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="706"/>
+      <c r="I9" s="708"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9514,22 +9502,22 @@
       <c r="U9" s="6"/>
       <c r="V9" s="24"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="471"/>
-      <c r="AB9" s="709"/>
-      <c r="AC9" s="516"/>
+      <c r="X9" s="470"/>
+      <c r="AB9" s="711"/>
+      <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
       <c r="AH9" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AI9" s="471">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="554"/>
+      <c r="AI9" s="470">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="553"/>
       <c r="AK9" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="AL9" s="550">
+      <c r="AL9" s="549">
         <v>1</v>
       </c>
     </row>
@@ -9546,8 +9534,8 @@
         <f>Boat!W8</f>
         <v>45</v>
       </c>
-      <c r="G10" s="599"/>
-      <c r="I10" s="706"/>
+      <c r="G10" s="601"/>
+      <c r="I10" s="708"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9559,26 +9547,24 @@
       </c>
       <c r="N10" s="80"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="471"/>
-      <c r="W10" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="X10" s="471"/>
-      <c r="AB10" s="709"/>
-      <c r="AC10" s="516"/>
+      <c r="V10" s="470"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="470"/>
+      <c r="AB10" s="711"/>
+      <c r="AC10" s="515"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AH10" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="AI10" s="471">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="555"/>
+      <c r="AI10" s="470">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="554"/>
       <c r="AK10" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="AL10" s="469">
+      <c r="AL10" s="468">
         <v>1</v>
       </c>
     </row>
@@ -9586,7 +9572,7 @@
       <c r="A11" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="598" t="s">
+      <c r="B11" s="600" t="s">
         <v>383</v>
       </c>
       <c r="C11" s="171" t="s">
@@ -9595,8 +9581,8 @@
       <c r="D11" s="217" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="599"/>
-      <c r="I11" s="706"/>
+      <c r="G11" s="601"/>
+      <c r="I11" s="708"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9622,13 +9608,13 @@
       <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="U11" s="711" t="s">
+      <c r="U11" s="713" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="712"/>
-      <c r="W11" s="712"/>
-      <c r="X11" s="713"/>
-      <c r="AB11" s="710"/>
+      <c r="V11" s="714"/>
+      <c r="W11" s="714"/>
+      <c r="X11" s="715"/>
+      <c r="AB11" s="712"/>
       <c r="AC11" s="99" t="s">
         <v>596</v>
       </c>
@@ -9641,25 +9627,25 @@
       <c r="AF11" s="24">
         <v>1</v>
       </c>
-      <c r="AG11" s="415"/>
-      <c r="AH11" s="711" t="s">
+      <c r="AG11" s="414"/>
+      <c r="AH11" s="713" t="s">
         <v>606</v>
       </c>
-      <c r="AI11" s="712"/>
-      <c r="AJ11" s="712"/>
-      <c r="AK11" s="712"/>
-      <c r="AL11" s="713"/>
+      <c r="AI11" s="714"/>
+      <c r="AJ11" s="714"/>
+      <c r="AK11" s="714"/>
+      <c r="AL11" s="715"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
         <v>384</v>
       </c>
-      <c r="B12" s="600"/>
+      <c r="B12" s="602"/>
       <c r="E12" s="229">
         <v>3</v>
       </c>
-      <c r="G12" s="599"/>
-      <c r="I12" s="706"/>
+      <c r="G12" s="601"/>
+      <c r="I12" s="708"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9681,18 +9667,18 @@
       <c r="W12" s="6"/>
     </row>
     <row r="13" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="441" t="s">
+      <c r="A13" s="440" t="s">
         <v>429</v>
       </c>
       <c r="B13" s="216" t="s">
         <v>324</v>
       </c>
-      <c r="C13" s="598" t="s">
+      <c r="C13" s="600" t="s">
         <v>194</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="599"/>
-      <c r="I13" s="706"/>
+      <c r="G13" s="601"/>
+      <c r="I13" s="708"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9705,13 +9691,13 @@
       <c r="M13" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="N13" s="402" t="s">
+      <c r="N13" s="401" t="s">
         <v>523</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="112"/>
       <c r="W13" s="6"/>
-      <c r="Z13" s="517" t="s">
+      <c r="Z13" s="516" t="s">
         <v>256</v>
       </c>
     </row>
@@ -9722,7 +9708,7 @@
       <c r="B14" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="600"/>
+      <c r="C14" s="602"/>
       <c r="D14" s="204" t="s">
         <v>153</v>
       </c>
@@ -9732,11 +9718,11 @@
       <c r="F14" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="600"/>
+      <c r="G14" s="602"/>
       <c r="H14" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="706"/>
+      <c r="I14" s="708"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9763,7 +9749,7 @@
       <c r="H15" s="271">
         <v>0</v>
       </c>
-      <c r="I15" s="706"/>
+      <c r="I15" s="708"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9776,7 +9762,7 @@
       <c r="M15" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="R15" s="472" t="s">
+      <c r="R15" s="471" t="s">
         <v>590</v>
       </c>
       <c r="T15" s="24">
@@ -9794,12 +9780,12 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="706"/>
+      <c r="I16" s="708"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="S16" s="472" t="s">
+      <c r="S16" s="471" t="s">
         <v>591</v>
       </c>
       <c r="T16" s="21">
@@ -9809,11 +9795,11 @@
       <c r="U16" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V16" s="470">
+      <c r="V16" s="469">
         <v>1</v>
       </c>
       <c r="W16" s="19"/>
-      <c r="X16" s="470"/>
+      <c r="X16" s="469"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="231" t="s">
@@ -9834,7 +9820,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="706"/>
+      <c r="I17" s="708"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9852,19 +9838,19 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="706"/>
+      <c r="I18" s="708"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="703" t="s">
+      <c r="O18" s="705" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="704"/>
+      <c r="P18" s="706"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
       <c r="R18" s="24">
         <f>5-R26</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S18" s="24">
         <f>5-S26</f>
@@ -9880,7 +9866,7 @@
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="706"/>
+      <c r="I19" s="708"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9916,7 +9902,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="706"/>
+      <c r="I20" s="708"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -9931,7 +9917,7 @@
       </c>
       <c r="R20" s="24">
         <f>R18-SUM(X16:X21)+R26</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S20" s="24">
         <f>S18-SUM(V16:V21)+S26</f>
@@ -9940,23 +9926,27 @@
       <c r="U20" s="220" t="s">
         <v>83</v>
       </c>
-      <c r="V20" s="469">
+      <c r="V20" s="468">
         <v>1</v>
       </c>
       <c r="W20" s="6"/>
-      <c r="X20" s="469"/>
+      <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="706"/>
+      <c r="I21" s="708"/>
       <c r="M21" s="216" t="s">
         <v>412</v>
       </c>
-      <c r="U21" s="469"/>
-      <c r="V21" s="469">
-        <v>0</v>
-      </c>
-      <c r="W21" s="19"/>
-      <c r="X21" s="469"/>
+      <c r="U21" s="468"/>
+      <c r="V21" s="468">
+        <v>0</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="X21" s="468">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="231" t="s">
@@ -9977,7 +9967,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="706"/>
+      <c r="I22" s="708"/>
       <c r="P22" s="99" t="s">
         <v>592</v>
       </c>
@@ -9992,7 +9982,7 @@
       <c r="E23" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="706"/>
+      <c r="I23" s="708"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>10</v>
@@ -10009,9 +9999,9 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="706"/>
+      <c r="I24" s="708"/>
       <c r="U24" s="35"/>
-      <c r="V24" s="510">
+      <c r="V24" s="509">
         <v>2</v>
       </c>
       <c r="W24" s="54" t="s">
@@ -10037,8 +10027,8 @@
       <c r="H25" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="706"/>
-      <c r="J25" s="398" t="s">
+      <c r="I25" s="708"/>
+      <c r="J25" s="397" t="s">
         <v>270</v>
       </c>
       <c r="K25" s="100" t="s">
@@ -10047,11 +10037,11 @@
       <c r="L25" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="P25" s="392">
+      <c r="P25" s="391">
         <v>1</v>
       </c>
       <c r="U25" s="35"/>
-      <c r="V25" s="510">
+      <c r="V25" s="509">
         <v>1</v>
       </c>
       <c r="W25" s="54" t="s">
@@ -10068,13 +10058,13 @@
       <c r="B26" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C26" s="440" t="s">
+      <c r="C26" s="439" t="s">
         <v>154</v>
       </c>
       <c r="D26" s="384" t="s">
         <v>516</v>
       </c>
-      <c r="E26" s="439" t="s">
+      <c r="E26" s="438" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="16"/>
@@ -10082,7 +10072,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="706"/>
+      <c r="I26" s="708"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10092,12 +10082,12 @@
       <c r="M26" s="384" t="s">
         <v>516</v>
       </c>
-      <c r="P26" s="467"/>
+      <c r="P26" s="466"/>
       <c r="Q26" s="127" t="s">
         <v>44</v>
       </c>
       <c r="R26" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S26" s="24">
         <v>0</v>
@@ -10105,8 +10095,8 @@
       <c r="T26" s="61" t="s">
         <v>557</v>
       </c>
-      <c r="U26" s="416"/>
-      <c r="V26" s="510">
+      <c r="U26" s="415"/>
+      <c r="V26" s="509">
         <v>1</v>
       </c>
       <c r="W26" s="54" t="s">
@@ -10117,17 +10107,17 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="706"/>
+      <c r="I27" s="708"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P27" s="401" t="s">
+      <c r="P27" s="400" t="s">
         <v>44</v>
       </c>
       <c r="R27" s="112"/>
       <c r="S27" s="112"/>
       <c r="U27" s="35"/>
-      <c r="V27" s="510">
+      <c r="V27" s="509">
         <v>0</v>
       </c>
       <c r="W27" s="54" t="s">
@@ -10144,12 +10134,12 @@
       <c r="E28" s="215">
         <v>2</v>
       </c>
-      <c r="I28" s="706"/>
+      <c r="I28" s="708"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
       <c r="U28" s="35"/>
-      <c r="V28" s="510">
+      <c r="V28" s="509">
         <v>2</v>
       </c>
       <c r="W28" s="54" t="s">
@@ -10166,7 +10156,7 @@
       <c r="H29" s="191" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="707"/>
+      <c r="I29" s="709"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10174,19 +10164,19 @@
       <c r="M29" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="R29" s="468"/>
+      <c r="R29" s="467"/>
       <c r="S29" s="112"/>
       <c r="T29" s="80"/>
-      <c r="U29" s="515" t="s">
+      <c r="U29" s="514" t="s">
         <v>558</v>
       </c>
-      <c r="V29" s="510">
+      <c r="V29" s="509">
         <v>1</v>
       </c>
       <c r="W29" s="54" t="s">
         <v>498</v>
       </c>
-      <c r="X29" s="473">
+      <c r="X29" s="472">
         <v>0</v>
       </c>
     </row>
@@ -10197,10 +10187,10 @@
       <c r="B30" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="U30" s="515" t="s">
+      <c r="U30" s="514" t="s">
         <v>582</v>
       </c>
-      <c r="V30" s="510">
+      <c r="V30" s="509">
         <v>1</v>
       </c>
       <c r="W30" s="54" t="s">
@@ -10211,8 +10201,8 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U31" s="481"/>
-      <c r="V31" s="507">
+      <c r="U31" s="480"/>
+      <c r="V31" s="506">
         <v>1</v>
       </c>
       <c r="W31" s="54" t="s">
@@ -10252,8 +10242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10331,7 +10321,7 @@
       <c r="K1" s="72" t="s">
         <v>608</v>
       </c>
-      <c r="L1" s="580" t="s">
+      <c r="L1" s="579" t="s">
         <v>576</v>
       </c>
       <c r="M1" s="21" t="s">
@@ -10351,16 +10341,16 @@
       </c>
       <c r="S1" s="151">
         <f ca="1">TODAY()</f>
-        <v>45284</v>
-      </c>
-      <c r="T1" s="742"/>
+        <v>45285</v>
+      </c>
+      <c r="T1" s="744"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="726" t="s">
+      <c r="X1" s="728" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="727"/>
+      <c r="Y1" s="729"/>
       <c r="Z1" s="306">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10376,62 +10366,62 @@
       <c r="AD1" s="302" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="728" t="s">
+      <c r="AE1" s="730" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="729"/>
-      <c r="AG1" s="730"/>
-      <c r="AH1" s="731" t="s">
+      <c r="AF1" s="731"/>
+      <c r="AG1" s="732"/>
+      <c r="AH1" s="733" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="732"/>
-      <c r="AJ1" s="733"/>
-      <c r="AK1" s="659" t="s">
+      <c r="AI1" s="734"/>
+      <c r="AJ1" s="735"/>
+      <c r="AK1" s="661" t="s">
         <v>620</v>
       </c>
-      <c r="AL1" s="552" t="s">
+      <c r="AL1" s="551" t="s">
         <v>621</v>
       </c>
-      <c r="AM1" s="723" t="s">
+      <c r="AM1" s="725" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="724"/>
-      <c r="AO1" s="725"/>
+      <c r="AN1" s="726"/>
+      <c r="AO1" s="727"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="508">
+      <c r="H2" s="507">
         <f>SUM(H4:H37)</f>
         <v>-3</v>
       </c>
       <c r="J2" s="318">
         <f>K2+L2</f>
-        <v>14</v>
-      </c>
-      <c r="K2" s="721">
+        <v>16</v>
+      </c>
+      <c r="K2" s="723">
         <f>SUM(K4:K37)</f>
-        <v>7</v>
-      </c>
-      <c r="L2" s="719">
+        <v>8</v>
+      </c>
+      <c r="L2" s="721">
         <f>SUM(L4:L37)</f>
-        <v>7</v>
-      </c>
-      <c r="M2" s="734">
+        <v>8</v>
+      </c>
+      <c r="M2" s="736">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="736">
+      <c r="N2" s="738">
         <f>SUM(N4:N29)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="738">
+      <c r="O2" s="740">
         <f>SUM(O4:O29)</f>
         <v>9</v>
       </c>
-      <c r="P2" s="666">
+      <c r="P2" s="668">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-1</v>
       </c>
@@ -10444,20 +10434,20 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="743"/>
-      <c r="U2" s="538" t="s">
+      <c r="T2" s="745"/>
+      <c r="U2" s="537" t="s">
         <v>263</v>
       </c>
-      <c r="V2" s="483" t="s">
+      <c r="V2" s="482" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="740" t="s">
+      <c r="W2" s="742" t="s">
         <v>235</v>
       </c>
-      <c r="X2" s="484" t="s">
+      <c r="X2" s="483" t="s">
         <v>439</v>
       </c>
-      <c r="Y2" s="482" t="s">
+      <c r="Y2" s="481" t="s">
         <v>254</v>
       </c>
       <c r="Z2" s="61" t="s">
@@ -10493,8 +10483,8 @@
       <c r="AJ2" s="150" t="s">
         <v>289</v>
       </c>
-      <c r="AK2" s="660"/>
-      <c r="AL2" s="793" t="s">
+      <c r="AK2" s="662"/>
+      <c r="AL2" s="594" t="s">
         <v>289</v>
       </c>
       <c r="AM2" s="21" t="s">
@@ -10521,12 +10511,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="722"/>
-      <c r="L3" s="720"/>
-      <c r="M3" s="735"/>
-      <c r="N3" s="737"/>
-      <c r="O3" s="739"/>
-      <c r="P3" s="667"/>
+      <c r="K3" s="724"/>
+      <c r="L3" s="722"/>
+      <c r="M3" s="737"/>
+      <c r="N3" s="739"/>
+      <c r="O3" s="741"/>
+      <c r="P3" s="669"/>
       <c r="Q3" s="172">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10534,21 +10524,21 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="744"/>
-      <c r="U3" s="539">
+      <c r="T3" s="746"/>
+      <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
         <v>13</v>
       </c>
-      <c r="V3" s="485">
+      <c r="V3" s="484">
         <f>SUM(V4:V29)</f>
         <v>45</v>
       </c>
-      <c r="W3" s="741"/>
-      <c r="X3" s="486">
+      <c r="W3" s="743"/>
+      <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>10</v>
       </c>
-      <c r="Y3" s="486">
+      <c r="Y3" s="485">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10592,15 +10582,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AJ3" s="405">
+      <c r="AJ3" s="404">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AK3" s="405">
+      <c r="AK3" s="404">
         <f>SUM(AK4:AK37)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="405">
+      <c r="AL3" s="404">
         <f>SUM(AL4:AL37)</f>
         <v>2</v>
       </c>
@@ -10636,9 +10626,9 @@
       </c>
       <c r="H4" s="271"/>
       <c r="I4" s="271"/>
-      <c r="J4" s="571"/>
-      <c r="K4" s="575"/>
-      <c r="L4" s="581">
+      <c r="J4" s="570"/>
+      <c r="K4" s="574"/>
+      <c r="L4" s="580">
         <v>0</v>
       </c>
       <c r="M4" s="325"/>
@@ -10649,28 +10639,28 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="716" t="s">
+      <c r="P4" s="718" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="S4" s="506" t="s">
+      <c r="S4" s="505" t="s">
         <v>203</v>
       </c>
-      <c r="T4" s="540">
+      <c r="T4" s="539">
         <v>2</v>
       </c>
-      <c r="U4" s="487"/>
-      <c r="V4" s="488">
+      <c r="U4" s="486"/>
+      <c r="V4" s="487">
         <v>2</v>
       </c>
-      <c r="W4" s="489">
+      <c r="W4" s="488">
         <v>-2</v>
       </c>
-      <c r="X4" s="490"/>
-      <c r="Y4" s="491">
+      <c r="X4" s="489"/>
+      <c r="Y4" s="490">
         <f t="shared" ref="Y4:Y37" si="2">SUM(M4:N4)</f>
         <v>0</v>
       </c>
@@ -10699,7 +10689,7 @@
         <f t="shared" ref="AH4:AH37" si="5">O4</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="556"/>
+      <c r="AI4" s="555"/>
       <c r="AJ4" s="183"/>
       <c r="AK4" s="162"/>
       <c r="AL4" s="319"/>
@@ -10715,18 +10705,18 @@
         <f>IF((AM4-AN4)&gt;AN4,(AM4-AN4),AN4)</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="506" t="s">
+      <c r="AP4" s="505" t="s">
         <v>203</v>
       </c>
-      <c r="AQ4" s="562"/>
-      <c r="AR4" s="540" t="s">
+      <c r="AQ4" s="561"/>
+      <c r="AR4" s="539" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J5" s="572"/>
-      <c r="K5" s="576"/>
-      <c r="L5" s="582"/>
+      <c r="J5" s="571"/>
+      <c r="K5" s="575"/>
+      <c r="L5" s="581"/>
       <c r="M5" s="295"/>
       <c r="N5" s="107">
         <v>0</v>
@@ -10735,26 +10725,26 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="717"/>
+      <c r="P5" s="719"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="S5" s="535" t="s">
+      <c r="S5" s="534" t="s">
         <v>240</v>
       </c>
-      <c r="T5" s="509">
+      <c r="T5" s="508">
         <v>2</v>
       </c>
-      <c r="U5" s="492"/>
-      <c r="V5" s="493">
+      <c r="U5" s="491"/>
+      <c r="V5" s="492">
         <v>2</v>
       </c>
-      <c r="W5" s="494">
+      <c r="W5" s="493">
         <v>-2</v>
       </c>
-      <c r="X5" s="495"/>
-      <c r="Y5" s="491">
+      <c r="X5" s="494"/>
+      <c r="Y5" s="490">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10782,8 +10772,8 @@
         <v>0</v>
       </c>
       <c r="AI5" s="375"/>
-      <c r="AJ5" s="510"/>
-      <c r="AK5" s="560"/>
+      <c r="AJ5" s="509"/>
+      <c r="AK5" s="559"/>
       <c r="AL5" s="317"/>
       <c r="AM5" s="336">
         <f t="shared" si="6"/>
@@ -10799,7 +10789,7 @@
       </c>
       <c r="AP5" s="6"/>
       <c r="AQ5" s="375"/>
-      <c r="AR5" s="509"/>
+      <c r="AR5" s="508"/>
     </row>
     <row r="6" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
@@ -10814,13 +10804,13 @@
       </c>
       <c r="G6" s="199"/>
       <c r="I6" s="112"/>
-      <c r="J6" s="573" t="s">
+      <c r="J6" s="572" t="s">
         <v>307</v>
       </c>
-      <c r="K6" s="587">
+      <c r="K6" s="586">
         <v>2</v>
       </c>
-      <c r="L6" s="583">
+      <c r="L6" s="582">
         <v>0</v>
       </c>
       <c r="M6" s="326">
@@ -10833,17 +10823,17 @@
         <f>AC6</f>
         <v>1</v>
       </c>
-      <c r="P6" s="717"/>
+      <c r="P6" s="719"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="S6" s="535" t="s">
+      <c r="S6" s="534" t="s">
         <v>229</v>
       </c>
-      <c r="T6" s="509">
+      <c r="T6" s="508">
         <v>7</v>
       </c>
-      <c r="U6" s="522">
+      <c r="U6" s="521">
         <v>3</v>
       </c>
       <c r="V6" s="316">
@@ -10852,7 +10842,7 @@
       <c r="W6" s="313">
         <v>-2</v>
       </c>
-      <c r="X6" s="521">
+      <c r="X6" s="520">
         <v>2</v>
       </c>
       <c r="Y6" s="183">
@@ -10887,10 +10877,10 @@
       <c r="AI6" s="375">
         <v>0</v>
       </c>
-      <c r="AJ6" s="510">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="560"/>
+      <c r="AJ6" s="509">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="559"/>
       <c r="AL6" s="317"/>
       <c r="AM6" s="336">
         <f t="shared" si="6"/>
@@ -10907,10 +10897,10 @@
       <c r="AP6" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="AQ6" s="563" t="s">
+      <c r="AQ6" s="562" t="s">
         <v>561</v>
       </c>
-      <c r="AR6" s="509" t="s">
+      <c r="AR6" s="508" t="s">
         <v>495</v>
       </c>
     </row>
@@ -10921,11 +10911,11 @@
       </c>
       <c r="H7" s="268"/>
       <c r="I7" s="111"/>
-      <c r="J7" s="572"/>
-      <c r="K7" s="588">
-        <v>0</v>
-      </c>
-      <c r="L7" s="582">
+      <c r="J7" s="571"/>
+      <c r="K7" s="587">
+        <v>0</v>
+      </c>
+      <c r="L7" s="581">
         <v>1</v>
       </c>
       <c r="M7" s="326">
@@ -10938,27 +10928,27 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="717"/>
+      <c r="P7" s="719"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="S7" s="535" t="s">
+      <c r="S7" s="534" t="s">
         <v>241</v>
       </c>
-      <c r="T7" s="509">
+      <c r="T7" s="508">
         <v>5</v>
       </c>
       <c r="U7" s="326">
         <v>1</v>
       </c>
-      <c r="V7" s="525">
+      <c r="V7" s="524">
         <v>1</v>
       </c>
       <c r="W7" s="314">
         <v>-1</v>
       </c>
-      <c r="X7" s="523">
+      <c r="X7" s="522">
         <v>3</v>
       </c>
       <c r="Y7" s="183">
@@ -10995,8 +10985,8 @@
         <v>1</v>
       </c>
       <c r="AI7" s="375"/>
-      <c r="AJ7" s="510"/>
-      <c r="AK7" s="560"/>
+      <c r="AJ7" s="509"/>
+      <c r="AK7" s="559"/>
       <c r="AL7" s="317"/>
       <c r="AM7" s="336">
         <f t="shared" si="6"/>
@@ -11013,7 +11003,7 @@
       <c r="AP7" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="AQ7" s="563" t="s">
+      <c r="AQ7" s="562" t="s">
         <v>566</v>
       </c>
       <c r="AR7" s="383"/>
@@ -11037,13 +11027,13 @@
       </c>
       <c r="H8" s="271"/>
       <c r="I8" s="117"/>
-      <c r="J8" s="573" t="s">
+      <c r="J8" s="572" t="s">
         <v>339</v>
       </c>
-      <c r="K8" s="577">
-        <v>0</v>
-      </c>
-      <c r="L8" s="583"/>
+      <c r="K8" s="576">
+        <v>1</v>
+      </c>
+      <c r="L8" s="582"/>
       <c r="M8" s="107">
         <v>0</v>
       </c>
@@ -11054,33 +11044,33 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="717"/>
+      <c r="P8" s="719"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
       <c r="R8" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="S8" s="536" t="s">
+      <c r="S8" s="535" t="s">
         <v>201</v>
       </c>
-      <c r="T8" s="509">
-        <v>0</v>
-      </c>
-      <c r="U8" s="500">
-        <v>0</v>
-      </c>
-      <c r="V8" s="524">
+      <c r="T8" s="508">
+        <v>0</v>
+      </c>
+      <c r="U8" s="499">
+        <v>0</v>
+      </c>
+      <c r="V8" s="523">
         <v>0</v>
       </c>
       <c r="W8" s="24">
         <f>V3</f>
         <v>45</v>
       </c>
-      <c r="X8" s="498">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="491">
+      <c r="X8" s="497">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="490">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11112,8 +11102,8 @@
       <c r="AI8" s="375">
         <v>0</v>
       </c>
-      <c r="AJ8" s="510"/>
-      <c r="AK8" s="560"/>
+      <c r="AJ8" s="509"/>
+      <c r="AK8" s="559"/>
       <c r="AL8" s="317"/>
       <c r="AM8" s="118">
         <f t="shared" si="6"/>
@@ -11128,15 +11118,15 @@
         <v>0</v>
       </c>
       <c r="AP8" s="6"/>
-      <c r="AQ8" s="563"/>
+      <c r="AQ8" s="562"/>
       <c r="AR8" s="383"/>
     </row>
     <row r="9" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="572" t="s">
+      <c r="J9" s="571" t="s">
         <v>353</v>
       </c>
-      <c r="K9" s="576"/>
-      <c r="L9" s="582"/>
+      <c r="K9" s="575"/>
+      <c r="L9" s="581"/>
       <c r="M9" s="327"/>
       <c r="N9" s="107">
         <v>0</v>
@@ -11145,25 +11135,25 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="717"/>
+      <c r="P9" s="719"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="S9" s="536" t="s">
+      <c r="S9" s="535" t="s">
         <v>260</v>
       </c>
-      <c r="T9" s="509">
+      <c r="T9" s="508">
         <v>2</v>
       </c>
-      <c r="U9" s="501"/>
-      <c r="V9" s="502">
+      <c r="U9" s="500"/>
+      <c r="V9" s="501">
         <v>2</v>
       </c>
-      <c r="W9" s="489">
+      <c r="W9" s="488">
         <v>-2</v>
       </c>
-      <c r="X9" s="503"/>
-      <c r="Y9" s="491">
+      <c r="X9" s="502"/>
+      <c r="Y9" s="490">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11195,10 +11185,10 @@
       <c r="AI9" s="375">
         <v>0</v>
       </c>
-      <c r="AJ9" s="561">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="560"/>
+      <c r="AJ9" s="560">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="559"/>
       <c r="AL9" s="317"/>
       <c r="AM9" s="336">
         <f t="shared" si="6"/>
@@ -11213,8 +11203,8 @@
         <v>0</v>
       </c>
       <c r="AP9" s="6"/>
-      <c r="AQ9" s="564"/>
-      <c r="AR9" s="509"/>
+      <c r="AQ9" s="563"/>
+      <c r="AR9" s="508"/>
     </row>
     <row r="10" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -11235,11 +11225,11 @@
       <c r="I10" s="111" t="s">
         <v>610</v>
       </c>
-      <c r="J10" s="572" t="s">
+      <c r="J10" s="571" t="s">
         <v>357</v>
       </c>
-      <c r="K10" s="576"/>
-      <c r="L10" s="582">
+      <c r="K10" s="575"/>
+      <c r="L10" s="581">
         <v>0</v>
       </c>
       <c r="M10" s="328"/>
@@ -11250,28 +11240,28 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P10" s="717"/>
+      <c r="P10" s="719"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="S10" s="535" t="s">
+      <c r="S10" s="534" t="s">
         <v>73</v>
       </c>
-      <c r="T10" s="509">
+      <c r="T10" s="508">
         <v>3</v>
       </c>
-      <c r="U10" s="504">
-        <v>1</v>
-      </c>
-      <c r="V10" s="493">
+      <c r="U10" s="503">
+        <v>1</v>
+      </c>
+      <c r="V10" s="492">
         <v>2</v>
       </c>
-      <c r="W10" s="494">
+      <c r="W10" s="493">
         <v>-2</v>
       </c>
-      <c r="X10" s="497"/>
-      <c r="Y10" s="491">
+      <c r="X10" s="496"/>
+      <c r="Y10" s="490">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11301,8 +11291,8 @@
         <v>0</v>
       </c>
       <c r="AI10" s="375"/>
-      <c r="AJ10" s="510"/>
-      <c r="AK10" s="560"/>
+      <c r="AJ10" s="509"/>
+      <c r="AK10" s="559"/>
       <c r="AL10" s="317"/>
       <c r="AM10" s="336">
         <f t="shared" si="6"/>
@@ -11322,16 +11312,16 @@
       <c r="AQ10" s="271" t="s">
         <v>584</v>
       </c>
-      <c r="AR10" s="509" t="s">
+      <c r="AR10" s="508" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="572" t="s">
+      <c r="J11" s="571" t="s">
         <v>306</v>
       </c>
-      <c r="K11" s="576"/>
-      <c r="L11" s="582"/>
+      <c r="K11" s="575"/>
+      <c r="L11" s="581"/>
       <c r="M11" s="328"/>
       <c r="N11" s="107">
         <v>0</v>
@@ -11340,26 +11330,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="717"/>
+      <c r="P11" s="719"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
       <c r="R11" s="16"/>
-      <c r="S11" s="535" t="s">
+      <c r="S11" s="534" t="s">
         <v>237</v>
       </c>
-      <c r="T11" s="509">
+      <c r="T11" s="508">
         <v>2</v>
       </c>
-      <c r="U11" s="504"/>
-      <c r="V11" s="493">
+      <c r="U11" s="503"/>
+      <c r="V11" s="492">
         <v>2</v>
       </c>
-      <c r="W11" s="494">
+      <c r="W11" s="493">
         <v>-2</v>
       </c>
-      <c r="X11" s="497"/>
-      <c r="Y11" s="491">
+      <c r="X11" s="496"/>
+      <c r="Y11" s="490">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11385,8 +11375,8 @@
         <v>0</v>
       </c>
       <c r="AI11" s="375"/>
-      <c r="AJ11" s="510"/>
-      <c r="AK11" s="560"/>
+      <c r="AJ11" s="509"/>
+      <c r="AK11" s="559"/>
       <c r="AL11" s="317"/>
       <c r="AM11" s="336">
         <f t="shared" si="6"/>
@@ -11401,32 +11391,32 @@
         <v>0</v>
       </c>
       <c r="AP11" s="6"/>
-      <c r="AQ11" s="563"/>
-      <c r="AR11" s="509"/>
+      <c r="AQ11" s="562"/>
+      <c r="AR11" s="508"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="626" t="s">
+      <c r="A12" s="628" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="681" t="s">
+      <c r="E12" s="683" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="262"/>
-      <c r="H12" s="513">
+      <c r="H12" s="512">
         <v>-1</v>
       </c>
       <c r="I12" s="61" t="s">
         <v>612</v>
       </c>
-      <c r="J12" s="572" t="s">
+      <c r="J12" s="571" t="s">
         <v>298</v>
       </c>
-      <c r="K12" s="576"/>
-      <c r="L12" s="582">
+      <c r="K12" s="575"/>
+      <c r="L12" s="581">
         <v>1</v>
       </c>
       <c r="M12" s="328"/>
@@ -11437,25 +11427,25 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="717"/>
+      <c r="P12" s="719"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
       <c r="R12" s="16"/>
-      <c r="S12" s="535" t="s">
+      <c r="S12" s="534" t="s">
         <v>236</v>
       </c>
-      <c r="T12" s="509">
+      <c r="T12" s="508">
         <v>2</v>
       </c>
-      <c r="U12" s="504"/>
-      <c r="V12" s="493">
+      <c r="U12" s="503"/>
+      <c r="V12" s="492">
         <v>2</v>
       </c>
-      <c r="W12" s="494">
+      <c r="W12" s="493">
         <v>-2</v>
       </c>
-      <c r="X12" s="497"/>
+      <c r="X12" s="496"/>
       <c r="Y12" s="183">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11486,10 +11476,10 @@
         <v>1</v>
       </c>
       <c r="AI12" s="375"/>
-      <c r="AJ12" s="510">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="560"/>
+      <c r="AJ12" s="509">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="559"/>
       <c r="AL12" s="317"/>
       <c r="AM12" s="336">
         <f t="shared" si="6"/>
@@ -11506,20 +11496,20 @@
       <c r="AP12" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AQ12" s="563" t="s">
+      <c r="AQ12" s="562" t="s">
         <v>511</v>
       </c>
-      <c r="AR12" s="510"/>
+      <c r="AR12" s="509"/>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="628"/>
-      <c r="B13" s="585">
+      <c r="A13" s="630"/>
+      <c r="B13" s="584">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="682"/>
+      <c r="E13" s="684"/>
       <c r="F13" s="172">
         <v>0</v>
       </c>
@@ -11530,11 +11520,11 @@
       <c r="I13" s="111" t="s">
         <v>613</v>
       </c>
-      <c r="J13" s="573" t="s">
+      <c r="J13" s="572" t="s">
         <v>303</v>
       </c>
-      <c r="K13" s="577"/>
-      <c r="L13" s="583"/>
+      <c r="K13" s="576"/>
+      <c r="L13" s="582"/>
       <c r="M13" s="328"/>
       <c r="N13" s="107">
         <v>0</v>
@@ -11543,26 +11533,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="717"/>
+      <c r="P13" s="719"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
       <c r="R13" s="16"/>
-      <c r="S13" s="535" t="s">
+      <c r="S13" s="534" t="s">
         <v>232</v>
       </c>
-      <c r="T13" s="509">
+      <c r="T13" s="508">
         <v>2</v>
       </c>
-      <c r="U13" s="504"/>
-      <c r="V13" s="493">
+      <c r="U13" s="503"/>
+      <c r="V13" s="492">
         <v>2</v>
       </c>
-      <c r="W13" s="494">
+      <c r="W13" s="493">
         <v>-2</v>
       </c>
-      <c r="X13" s="497"/>
-      <c r="Y13" s="491">
+      <c r="X13" s="496"/>
+      <c r="Y13" s="490">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11588,8 +11578,8 @@
         <v>0</v>
       </c>
       <c r="AI13" s="375"/>
-      <c r="AJ13" s="510"/>
-      <c r="AK13" s="560"/>
+      <c r="AJ13" s="509"/>
+      <c r="AK13" s="559"/>
       <c r="AL13" s="317"/>
       <c r="AM13" s="336">
         <f t="shared" si="6"/>
@@ -11604,17 +11594,17 @@
         <v>0</v>
       </c>
       <c r="AP13" s="16"/>
-      <c r="AQ13" s="563"/>
-      <c r="AR13" s="509"/>
+      <c r="AQ13" s="562"/>
+      <c r="AR13" s="508"/>
     </row>
     <row r="14" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="42"/>
-      <c r="J14" s="572"/>
-      <c r="K14" s="576"/>
-      <c r="L14" s="582">
+      <c r="J14" s="571"/>
+      <c r="K14" s="575"/>
+      <c r="L14" s="581">
         <v>0</v>
       </c>
       <c r="M14" s="328"/>
@@ -11625,26 +11615,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="717"/>
+      <c r="P14" s="719"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
         <v>340</v>
       </c>
-      <c r="S14" s="535" t="s">
+      <c r="S14" s="534" t="s">
         <v>242</v>
       </c>
-      <c r="T14" s="509">
-        <v>1</v>
-      </c>
-      <c r="U14" s="504"/>
-      <c r="V14" s="493">
-        <v>1</v>
-      </c>
-      <c r="W14" s="494">
+      <c r="T14" s="508">
+        <v>1</v>
+      </c>
+      <c r="U14" s="503"/>
+      <c r="V14" s="492">
+        <v>1</v>
+      </c>
+      <c r="W14" s="493">
         <v>-1</v>
       </c>
-      <c r="X14" s="497"/>
-      <c r="Y14" s="491">
+      <c r="X14" s="496"/>
+      <c r="Y14" s="490">
         <f>SUM(M14:N14)</f>
         <v>0</v>
       </c>
@@ -11674,10 +11664,10 @@
         <v>0</v>
       </c>
       <c r="AI14" s="375"/>
-      <c r="AJ14" s="510">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="560"/>
+      <c r="AJ14" s="509">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="559"/>
       <c r="AL14" s="317">
         <v>1</v>
       </c>
@@ -11696,10 +11686,10 @@
       <c r="AP14" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="AQ14" s="565" t="s">
+      <c r="AQ14" s="564" t="s">
         <v>563</v>
       </c>
-      <c r="AR14" s="509" t="s">
+      <c r="AR14" s="508" t="s">
         <v>471</v>
       </c>
     </row>
@@ -11713,13 +11703,13 @@
       <c r="G15" s="261" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="480"/>
+      <c r="H15" s="479"/>
       <c r="I15" s="271"/>
-      <c r="J15" s="573" t="s">
+      <c r="J15" s="572" t="s">
         <v>194</v>
       </c>
-      <c r="K15" s="577"/>
-      <c r="L15" s="583"/>
+      <c r="K15" s="576"/>
+      <c r="L15" s="582"/>
       <c r="M15" s="328"/>
       <c r="N15" s="291">
         <v>0</v>
@@ -11728,26 +11718,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="717"/>
+      <c r="P15" s="719"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
         <v>340</v>
       </c>
-      <c r="S15" s="535" t="s">
+      <c r="S15" s="534" t="s">
         <v>230</v>
       </c>
-      <c r="T15" s="509">
+      <c r="T15" s="508">
         <v>2</v>
       </c>
-      <c r="U15" s="504"/>
-      <c r="V15" s="493">
+      <c r="U15" s="503"/>
+      <c r="V15" s="492">
         <v>2</v>
       </c>
-      <c r="W15" s="494">
+      <c r="W15" s="493">
         <v>-2</v>
       </c>
-      <c r="X15" s="503"/>
-      <c r="Y15" s="491">
+      <c r="X15" s="502"/>
+      <c r="Y15" s="490">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11777,8 +11767,8 @@
         <v>0</v>
       </c>
       <c r="AI15" s="375"/>
-      <c r="AJ15" s="510"/>
-      <c r="AK15" s="560"/>
+      <c r="AJ15" s="509"/>
+      <c r="AK15" s="559"/>
       <c r="AL15" s="317"/>
       <c r="AM15" s="336">
         <f t="shared" si="6"/>
@@ -11795,10 +11785,10 @@
       <c r="AP15" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="AQ15" s="563" t="s">
+      <c r="AQ15" s="562" t="s">
         <v>452</v>
       </c>
-      <c r="AR15" s="509"/>
+      <c r="AR15" s="508"/>
     </row>
     <row r="16" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="21" t="s">
@@ -11807,9 +11797,9 @@
       <c r="E16" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="574"/>
-      <c r="K16" s="578"/>
-      <c r="L16" s="582">
+      <c r="J16" s="573"/>
+      <c r="K16" s="577"/>
+      <c r="L16" s="581">
         <v>1</v>
       </c>
       <c r="M16" s="328"/>
@@ -11820,28 +11810,28 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="717"/>
+      <c r="P16" s="719"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="S16" s="535" t="s">
+      <c r="S16" s="534" t="s">
         <v>233</v>
       </c>
-      <c r="T16" s="509">
+      <c r="T16" s="508">
         <v>3</v>
       </c>
-      <c r="U16" s="504"/>
-      <c r="V16" s="493">
+      <c r="U16" s="503"/>
+      <c r="V16" s="492">
         <v>3</v>
       </c>
-      <c r="W16" s="494">
+      <c r="W16" s="493">
         <v>-3</v>
       </c>
-      <c r="X16" s="503"/>
-      <c r="Y16" s="491">
+      <c r="X16" s="502"/>
+      <c r="Y16" s="490">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11873,10 +11863,10 @@
       <c r="AI16" s="375">
         <v>0</v>
       </c>
-      <c r="AJ16" s="510">
+      <c r="AJ16" s="509">
         <v>2</v>
       </c>
-      <c r="AK16" s="560"/>
+      <c r="AK16" s="559"/>
       <c r="AL16" s="317"/>
       <c r="AM16" s="336">
         <f t="shared" si="6"/>
@@ -11893,10 +11883,10 @@
       <c r="AP16" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AQ16" s="566" t="s">
+      <c r="AQ16" s="565" t="s">
         <v>556</v>
       </c>
-      <c r="AR16" s="509" t="s">
+      <c r="AR16" s="508" t="s">
         <v>564</v>
       </c>
     </row>
@@ -11910,11 +11900,11 @@
       <c r="G17" s="143"/>
       <c r="H17" s="268"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="573" t="s">
+      <c r="J17" s="572" t="s">
         <v>310</v>
       </c>
-      <c r="K17" s="577"/>
-      <c r="L17" s="583"/>
+      <c r="K17" s="576"/>
+      <c r="L17" s="582"/>
       <c r="M17" s="328"/>
       <c r="N17" s="107">
         <v>0</v>
@@ -11923,28 +11913,28 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="717"/>
+      <c r="P17" s="719"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="S17" s="535" t="s">
+      <c r="S17" s="534" t="s">
         <v>96</v>
       </c>
-      <c r="T17" s="509">
+      <c r="T17" s="508">
         <v>2</v>
       </c>
-      <c r="U17" s="504">
-        <v>1</v>
-      </c>
-      <c r="V17" s="493">
-        <v>1</v>
-      </c>
-      <c r="W17" s="494">
+      <c r="U17" s="503">
+        <v>1</v>
+      </c>
+      <c r="V17" s="492">
+        <v>1</v>
+      </c>
+      <c r="W17" s="493">
         <v>-1</v>
       </c>
-      <c r="X17" s="497"/>
-      <c r="Y17" s="491">
+      <c r="X17" s="496"/>
+      <c r="Y17" s="490">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11972,8 +11962,8 @@
         <v>0</v>
       </c>
       <c r="AI17" s="375"/>
-      <c r="AJ17" s="510"/>
-      <c r="AK17" s="560"/>
+      <c r="AJ17" s="509"/>
+      <c r="AK17" s="559"/>
       <c r="AL17" s="317"/>
       <c r="AM17" s="336">
         <f t="shared" si="6"/>
@@ -11990,10 +11980,10 @@
       <c r="AP17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AQ17" s="567" t="s">
+      <c r="AQ17" s="566" t="s">
         <v>565</v>
       </c>
-      <c r="AR17" s="509" t="s">
+      <c r="AR17" s="508" t="s">
         <v>94</v>
       </c>
     </row>
@@ -12010,11 +12000,11 @@
       </c>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
-      <c r="J18" s="573" t="s">
+      <c r="J18" s="572" t="s">
         <v>303</v>
       </c>
-      <c r="K18" s="577"/>
-      <c r="L18" s="583"/>
+      <c r="K18" s="576"/>
+      <c r="L18" s="582"/>
       <c r="M18" s="329"/>
       <c r="N18" s="107">
         <v>0</v>
@@ -12023,26 +12013,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="717"/>
+      <c r="P18" s="719"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
       <c r="R18" s="16"/>
-      <c r="S18" s="535" t="s">
+      <c r="S18" s="534" t="s">
         <v>244</v>
       </c>
-      <c r="T18" s="509">
+      <c r="T18" s="508">
         <v>3</v>
       </c>
-      <c r="U18" s="504"/>
-      <c r="V18" s="493">
+      <c r="U18" s="503"/>
+      <c r="V18" s="492">
         <v>3</v>
       </c>
-      <c r="W18" s="494">
+      <c r="W18" s="493">
         <v>-3</v>
       </c>
-      <c r="X18" s="495"/>
-      <c r="Y18" s="491">
+      <c r="X18" s="494"/>
+      <c r="Y18" s="490">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12072,8 +12062,8 @@
         <v>0</v>
       </c>
       <c r="AI18" s="375"/>
-      <c r="AJ18" s="510"/>
-      <c r="AK18" s="560"/>
+      <c r="AJ18" s="509"/>
+      <c r="AK18" s="559"/>
       <c r="AL18" s="317"/>
       <c r="AM18" s="336">
         <f t="shared" si="6"/>
@@ -12088,21 +12078,21 @@
         <v>0</v>
       </c>
       <c r="AP18" s="6"/>
-      <c r="AQ18" s="568"/>
-      <c r="AR18" s="509"/>
+      <c r="AQ18" s="567"/>
+      <c r="AR18" s="508"/>
     </row>
     <row r="19" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H19" s="268"/>
-      <c r="J19" s="573" t="s">
+      <c r="J19" s="572" t="s">
         <v>305</v>
       </c>
-      <c r="K19" s="577">
+      <c r="K19" s="576">
         <v>2</v>
       </c>
-      <c r="L19" s="583">
+      <c r="L19" s="582">
         <v>0</v>
       </c>
       <c r="M19" s="118"/>
@@ -12113,25 +12103,25 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="717"/>
+      <c r="P19" s="719"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="S19" s="535" t="s">
+      <c r="S19" s="534" t="s">
         <v>243</v>
       </c>
-      <c r="T19" s="509">
+      <c r="T19" s="508">
         <v>3</v>
       </c>
-      <c r="U19" s="504"/>
-      <c r="V19" s="493">
-        <v>1</v>
-      </c>
-      <c r="W19" s="494">
+      <c r="U19" s="503"/>
+      <c r="V19" s="492">
+        <v>1</v>
+      </c>
+      <c r="W19" s="493">
         <v>-1</v>
       </c>
-      <c r="X19" s="496">
+      <c r="X19" s="495">
         <v>2</v>
       </c>
       <c r="Y19" s="183">
@@ -12164,8 +12154,8 @@
         <v>1</v>
       </c>
       <c r="AI19" s="375"/>
-      <c r="AJ19" s="510"/>
-      <c r="AK19" s="560"/>
+      <c r="AJ19" s="509"/>
+      <c r="AK19" s="559"/>
       <c r="AL19" s="317"/>
       <c r="AM19" s="336">
         <f t="shared" si="6"/>
@@ -12206,11 +12196,11 @@
       <c r="I20" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="J20" s="573" t="s">
+      <c r="J20" s="572" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="577"/>
-      <c r="L20" s="583">
+      <c r="K20" s="576"/>
+      <c r="L20" s="582">
         <v>0</v>
       </c>
       <c r="M20" s="327"/>
@@ -12221,25 +12211,25 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P20" s="718"/>
-      <c r="Q20" s="603" t="s">
+      <c r="P20" s="720"/>
+      <c r="Q20" s="605" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="683"/>
-      <c r="S20" s="535" t="s">
+      <c r="R20" s="685"/>
+      <c r="S20" s="534" t="s">
         <v>85</v>
       </c>
-      <c r="T20" s="509">
+      <c r="T20" s="508">
         <v>3</v>
       </c>
-      <c r="U20" s="504"/>
-      <c r="V20" s="493">
+      <c r="U20" s="503"/>
+      <c r="V20" s="492">
         <v>3</v>
       </c>
-      <c r="W20" s="494">
+      <c r="W20" s="493">
         <v>-3</v>
       </c>
-      <c r="X20" s="505"/>
+      <c r="X20" s="504"/>
       <c r="Y20" s="183">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -12270,10 +12260,10 @@
         <v>0</v>
       </c>
       <c r="AI20" s="375"/>
-      <c r="AJ20" s="510">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="560"/>
+      <c r="AJ20" s="509">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="559"/>
       <c r="AL20" s="317">
         <v>1</v>
       </c>
@@ -12292,10 +12282,10 @@
       <c r="AP20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AQ20" s="563" t="s">
+      <c r="AQ20" s="562" t="s">
         <v>448</v>
       </c>
-      <c r="AR20" s="586" t="s">
+      <c r="AR20" s="585" t="s">
         <v>499</v>
       </c>
     </row>
@@ -12313,11 +12303,11 @@
       <c r="I21" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="J21" s="572" t="s">
+      <c r="J21" s="571" t="s">
         <v>304</v>
       </c>
-      <c r="K21" s="576"/>
-      <c r="L21" s="582">
+      <c r="K21" s="575"/>
+      <c r="L21" s="581">
         <v>1</v>
       </c>
       <c r="M21" s="330"/>
@@ -12332,22 +12322,22 @@
       <c r="R21" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="S21" s="535" t="s">
+      <c r="S21" s="534" t="s">
         <v>246</v>
       </c>
-      <c r="T21" s="509">
+      <c r="T21" s="508">
         <v>2</v>
       </c>
-      <c r="U21" s="504">
-        <v>1</v>
-      </c>
-      <c r="V21" s="493">
-        <v>1</v>
-      </c>
-      <c r="W21" s="494">
+      <c r="U21" s="503">
+        <v>1</v>
+      </c>
+      <c r="V21" s="492">
+        <v>1</v>
+      </c>
+      <c r="W21" s="493">
         <v>-1</v>
       </c>
-      <c r="X21" s="495"/>
+      <c r="X21" s="494"/>
       <c r="Y21" s="183">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -12380,10 +12370,10 @@
       <c r="AI21" s="375">
         <v>0</v>
       </c>
-      <c r="AJ21" s="510">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="560"/>
+      <c r="AJ21" s="509">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="559"/>
       <c r="AL21" s="317"/>
       <c r="AM21" s="336">
         <f t="shared" si="6"/>
@@ -12400,17 +12390,17 @@
       <c r="AP21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AQ21" s="563" t="s">
+      <c r="AQ21" s="562" t="s">
         <v>448</v>
       </c>
-      <c r="AR21" s="509"/>
+      <c r="AR21" s="508"/>
     </row>
     <row r="22" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J22" s="572" t="s">
+      <c r="J22" s="571" t="s">
         <v>301</v>
       </c>
-      <c r="K22" s="576"/>
-      <c r="L22" s="582"/>
+      <c r="K22" s="575"/>
+      <c r="L22" s="581"/>
       <c r="M22" s="331"/>
       <c r="N22" s="107">
         <v>0</v>
@@ -12422,21 +12412,21 @@
       <c r="Q22" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="S22" s="535" t="s">
+      <c r="S22" s="534" t="s">
         <v>261</v>
       </c>
-      <c r="T22" s="509">
+      <c r="T22" s="508">
         <v>2</v>
       </c>
-      <c r="U22" s="504"/>
-      <c r="V22" s="493">
+      <c r="U22" s="503"/>
+      <c r="V22" s="492">
         <v>2</v>
       </c>
-      <c r="W22" s="494">
+      <c r="W22" s="493">
         <v>-2</v>
       </c>
-      <c r="X22" s="505"/>
-      <c r="Y22" s="491">
+      <c r="X22" s="504"/>
+      <c r="Y22" s="490">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12468,8 +12458,8 @@
         <v>0</v>
       </c>
       <c r="AI22" s="375"/>
-      <c r="AJ22" s="561"/>
-      <c r="AK22" s="560"/>
+      <c r="AJ22" s="560"/>
+      <c r="AK22" s="559"/>
       <c r="AL22" s="317"/>
       <c r="AM22" s="336">
         <f t="shared" si="6"/>
@@ -12484,24 +12474,24 @@
         <v>0</v>
       </c>
       <c r="AP22" s="16"/>
-      <c r="AQ22" s="568"/>
-      <c r="AR22" s="509"/>
+      <c r="AQ22" s="567"/>
+      <c r="AR22" s="508"/>
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="633" t="s">
+      <c r="E23" s="635" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="180"/>
       <c r="H23" s="42"/>
       <c r="I23" s="216"/>
-      <c r="J23" s="572" t="s">
+      <c r="J23" s="571" t="s">
         <v>259</v>
       </c>
-      <c r="K23" s="576">
-        <v>1</v>
-      </c>
-      <c r="L23" s="582">
+      <c r="K23" s="575">
+        <v>1</v>
+      </c>
+      <c r="L23" s="581">
         <v>0</v>
       </c>
       <c r="M23" s="326">
@@ -12515,20 +12505,20 @@
         <v>1</v>
       </c>
       <c r="Q23" s="20"/>
-      <c r="S23" s="535" t="s">
+      <c r="S23" s="534" t="s">
         <v>248</v>
       </c>
-      <c r="T23" s="509">
+      <c r="T23" s="508">
         <v>2</v>
       </c>
-      <c r="U23" s="504"/>
-      <c r="V23" s="493">
-        <v>1</v>
-      </c>
-      <c r="W23" s="494">
+      <c r="U23" s="503"/>
+      <c r="V23" s="492">
+        <v>1</v>
+      </c>
+      <c r="W23" s="493">
         <v>-1</v>
       </c>
-      <c r="X23" s="530">
+      <c r="X23" s="529">
         <v>1</v>
       </c>
       <c r="Y23" s="183">
@@ -12563,10 +12553,10 @@
       <c r="AI23" s="375">
         <v>0</v>
       </c>
-      <c r="AJ23" s="510">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="560"/>
+      <c r="AJ23" s="509">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="559"/>
       <c r="AL23" s="317"/>
       <c r="AM23" s="336">
         <f t="shared" si="6"/>
@@ -12583,10 +12573,10 @@
       <c r="AP23" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="AQ23" s="563" t="s">
+      <c r="AQ23" s="562" t="s">
         <v>566</v>
       </c>
-      <c r="AR23" s="509" t="s">
+      <c r="AR23" s="508" t="s">
         <v>567</v>
       </c>
     </row>
@@ -12594,16 +12584,16 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="634"/>
+      <c r="E24" s="636"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
-      <c r="J24" s="572" t="s">
+      <c r="J24" s="571" t="s">
         <v>297</v>
       </c>
-      <c r="K24" s="576">
-        <v>1</v>
-      </c>
-      <c r="L24" s="582">
+      <c r="K24" s="575">
+        <v>1</v>
+      </c>
+      <c r="L24" s="581">
         <v>0</v>
       </c>
       <c r="M24" s="326">
@@ -12616,27 +12606,27 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="603" t="s">
+      <c r="Q24" s="605" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="683"/>
-      <c r="S24" s="535" t="s">
+      <c r="R24" s="685"/>
+      <c r="S24" s="534" t="s">
         <v>250</v>
       </c>
-      <c r="T24" s="509">
+      <c r="T24" s="508">
         <v>4</v>
       </c>
-      <c r="U24" s="504">
+      <c r="U24" s="503">
         <v>2</v>
       </c>
-      <c r="V24" s="493">
+      <c r="V24" s="492">
         <v>2</v>
       </c>
-      <c r="W24" s="527">
+      <c r="W24" s="526">
         <v>-2</v>
       </c>
       <c r="X24" s="26"/>
-      <c r="Y24" s="549">
+      <c r="Y24" s="548">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12670,10 +12660,10 @@
         <v>1</v>
       </c>
       <c r="AI24" s="375"/>
-      <c r="AJ24" s="510">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="560"/>
+      <c r="AJ24" s="509">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="559"/>
       <c r="AL24" s="317"/>
       <c r="AM24" s="336">
         <f t="shared" si="6"/>
@@ -12690,10 +12680,10 @@
       <c r="AP24" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="AQ24" s="569" t="s">
+      <c r="AQ24" s="568" t="s">
         <v>336</v>
       </c>
-      <c r="AR24" s="509" t="s">
+      <c r="AR24" s="508" t="s">
         <v>250</v>
       </c>
     </row>
@@ -12702,14 +12692,14 @@
       <c r="I25" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="J25" s="572" t="s">
+      <c r="J25" s="571" t="s">
         <v>296</v>
       </c>
-      <c r="K25" s="576"/>
-      <c r="L25" s="582">
-        <v>1</v>
-      </c>
-      <c r="M25" s="526">
+      <c r="K25" s="575"/>
+      <c r="L25" s="581">
+        <v>1</v>
+      </c>
+      <c r="M25" s="525">
         <v>0</v>
       </c>
       <c r="N25" s="107">
@@ -12722,25 +12712,25 @@
       <c r="Q25" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="S25" s="535" t="s">
+      <c r="S25" s="534" t="s">
         <v>251</v>
       </c>
-      <c r="T25" s="509">
+      <c r="T25" s="508">
         <v>4</v>
       </c>
-      <c r="U25" s="504">
-        <v>1</v>
-      </c>
-      <c r="V25" s="493">
+      <c r="U25" s="503">
+        <v>1</v>
+      </c>
+      <c r="V25" s="492">
         <v>2</v>
       </c>
-      <c r="W25" s="527">
+      <c r="W25" s="526">
         <v>-2</v>
       </c>
-      <c r="X25" s="551">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="529">
+      <c r="X25" s="550">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="528">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12770,8 +12760,8 @@
         <v>1</v>
       </c>
       <c r="AI25" s="375"/>
-      <c r="AJ25" s="510"/>
-      <c r="AK25" s="560"/>
+      <c r="AJ25" s="509"/>
+      <c r="AK25" s="559"/>
       <c r="AL25" s="317"/>
       <c r="AM25" s="336">
         <f t="shared" si="6"/>
@@ -12788,10 +12778,10 @@
       <c r="AP25" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="AQ25" s="563" t="s">
+      <c r="AQ25" s="562" t="s">
         <v>454</v>
       </c>
-      <c r="AR25" s="509"/>
+      <c r="AR25" s="508"/>
     </row>
     <row r="26" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="31" t="s">
@@ -12801,13 +12791,13 @@
       <c r="I26" s="111" t="s">
         <v>264</v>
       </c>
-      <c r="J26" s="572" t="s">
+      <c r="J26" s="571" t="s">
         <v>302</v>
       </c>
-      <c r="K26" s="576">
-        <v>1</v>
-      </c>
-      <c r="L26" s="582">
+      <c r="K26" s="575">
+        <v>1</v>
+      </c>
+      <c r="L26" s="581">
         <v>0</v>
       </c>
       <c r="M26" s="326">
@@ -12824,25 +12814,25 @@
       <c r="R26" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="S26" s="535" t="s">
+      <c r="S26" s="534" t="s">
         <v>252</v>
       </c>
-      <c r="T26" s="509">
+      <c r="T26" s="508">
         <v>3</v>
       </c>
-      <c r="U26" s="504">
-        <v>1</v>
-      </c>
-      <c r="V26" s="493">
-        <v>1</v>
-      </c>
-      <c r="W26" s="527">
+      <c r="U26" s="503">
+        <v>1</v>
+      </c>
+      <c r="V26" s="492">
+        <v>1</v>
+      </c>
+      <c r="W26" s="526">
         <v>-1</v>
       </c>
       <c r="X26" s="26">
         <v>1</v>
       </c>
-      <c r="Y26" s="549">
+      <c r="Y26" s="548">
         <f>SUM(M26:N26)</f>
         <v>0</v>
       </c>
@@ -12872,8 +12862,8 @@
         <v>1</v>
       </c>
       <c r="AI26" s="375"/>
-      <c r="AJ26" s="510"/>
-      <c r="AK26" s="560"/>
+      <c r="AJ26" s="509"/>
+      <c r="AK26" s="559"/>
       <c r="AL26" s="317"/>
       <c r="AM26" s="336">
         <f t="shared" si="6"/>
@@ -12887,13 +12877,13 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AP26" s="520" t="s">
+      <c r="AP26" s="519" t="s">
         <v>252</v>
       </c>
-      <c r="AQ26" s="563" t="s">
+      <c r="AQ26" s="562" t="s">
         <v>595</v>
       </c>
-      <c r="AR26" s="509"/>
+      <c r="AR26" s="508"/>
     </row>
     <row r="27" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="31" t="s">
@@ -12901,11 +12891,11 @@
       </c>
       <c r="G27" s="176"/>
       <c r="I27" s="20"/>
-      <c r="J27" s="572" t="s">
+      <c r="J27" s="571" t="s">
         <v>257</v>
       </c>
-      <c r="K27" s="576"/>
-      <c r="L27" s="582"/>
+      <c r="K27" s="575"/>
+      <c r="L27" s="581"/>
       <c r="M27" s="332"/>
       <c r="N27" s="107">
         <v>0</v>
@@ -12918,23 +12908,23 @@
       <c r="R27" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="S27" s="535" t="s">
+      <c r="S27" s="534" t="s">
         <v>253</v>
       </c>
-      <c r="T27" s="509">
+      <c r="T27" s="508">
         <v>4</v>
       </c>
-      <c r="U27" s="504">
+      <c r="U27" s="503">
         <v>2</v>
       </c>
-      <c r="V27" s="493">
+      <c r="V27" s="492">
         <v>2</v>
       </c>
-      <c r="W27" s="527">
+      <c r="W27" s="526">
         <v>-2</v>
       </c>
-      <c r="X27" s="534"/>
-      <c r="Y27" s="529">
+      <c r="X27" s="533"/>
+      <c r="Y27" s="528">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12960,8 +12950,8 @@
         <v>0</v>
       </c>
       <c r="AI27" s="375"/>
-      <c r="AJ27" s="510"/>
-      <c r="AK27" s="560"/>
+      <c r="AJ27" s="509"/>
+      <c r="AK27" s="559"/>
       <c r="AL27" s="317"/>
       <c r="AM27" s="336">
         <f t="shared" si="6"/>
@@ -12976,13 +12966,13 @@
         <v>0</v>
       </c>
       <c r="AP27" s="16"/>
-      <c r="AQ27" s="568"/>
-      <c r="AR27" s="509"/>
+      <c r="AQ27" s="567"/>
+      <c r="AR27" s="508"/>
     </row>
     <row r="28" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="573"/>
-      <c r="K28" s="577"/>
-      <c r="L28" s="583"/>
+      <c r="J28" s="572"/>
+      <c r="K28" s="576"/>
+      <c r="L28" s="582"/>
       <c r="M28" s="331"/>
       <c r="N28" s="107">
         <v>0</v>
@@ -12992,21 +12982,21 @@
         <v>0</v>
       </c>
       <c r="Q28" s="20"/>
-      <c r="S28" s="535" t="s">
+      <c r="S28" s="534" t="s">
         <v>249</v>
       </c>
-      <c r="T28" s="509">
-        <v>1</v>
-      </c>
-      <c r="U28" s="504"/>
-      <c r="V28" s="493">
-        <v>1</v>
-      </c>
-      <c r="W28" s="527">
+      <c r="T28" s="508">
+        <v>1</v>
+      </c>
+      <c r="U28" s="503"/>
+      <c r="V28" s="492">
+        <v>1</v>
+      </c>
+      <c r="W28" s="526">
         <v>-1</v>
       </c>
-      <c r="X28" s="532"/>
-      <c r="Y28" s="529">
+      <c r="X28" s="531"/>
+      <c r="Y28" s="528">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13032,8 +13022,8 @@
         <v>0</v>
       </c>
       <c r="AI28" s="375"/>
-      <c r="AJ28" s="510"/>
-      <c r="AK28" s="560"/>
+      <c r="AJ28" s="509"/>
+      <c r="AK28" s="559"/>
       <c r="AL28" s="317"/>
       <c r="AM28" s="336">
         <f t="shared" si="6"/>
@@ -13047,19 +13037,19 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ28" s="568"/>
-      <c r="AR28" s="509"/>
+      <c r="AQ28" s="567"/>
+      <c r="AR28" s="508"/>
     </row>
     <row r="29" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="258" t="s">
         <v>293</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="J29" s="573" t="s">
+      <c r="J29" s="572" t="s">
         <v>359</v>
       </c>
-      <c r="K29" s="579"/>
-      <c r="L29" s="583"/>
+      <c r="K29" s="578"/>
+      <c r="L29" s="582"/>
       <c r="M29" s="324"/>
       <c r="N29" s="64">
         <v>0</v>
@@ -13072,21 +13062,21 @@
       <c r="R29" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="S29" s="537" t="s">
+      <c r="S29" s="536" t="s">
         <v>262</v>
       </c>
-      <c r="T29" s="541">
+      <c r="T29" s="540">
         <v>2</v>
       </c>
-      <c r="U29" s="492"/>
-      <c r="V29" s="499">
+      <c r="U29" s="491"/>
+      <c r="V29" s="498">
         <v>2</v>
       </c>
-      <c r="W29" s="528">
+      <c r="W29" s="527">
         <v>-2</v>
       </c>
-      <c r="X29" s="533"/>
-      <c r="Y29" s="529">
+      <c r="X29" s="532"/>
+      <c r="Y29" s="528">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13116,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="377"/>
-      <c r="AJ29" s="507"/>
+      <c r="AJ29" s="506"/>
       <c r="AK29" s="163"/>
       <c r="AL29" s="320"/>
       <c r="AM29" s="336">
@@ -13131,14 +13121,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ29" s="568"/>
-      <c r="AR29" s="509"/>
+      <c r="AQ29" s="567"/>
+      <c r="AR29" s="508"/>
     </row>
     <row r="30" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="268"/>
-      <c r="J30" s="574"/>
-      <c r="K30" s="589"/>
-      <c r="L30" s="582"/>
+      <c r="J30" s="573"/>
+      <c r="K30" s="588"/>
+      <c r="L30" s="581"/>
       <c r="M30" s="333"/>
       <c r="N30" s="245"/>
       <c r="O30" s="293">
@@ -13147,11 +13137,11 @@
       </c>
       <c r="Q30" s="20"/>
       <c r="S30" s="153"/>
-      <c r="T30" s="542"/>
+      <c r="T30" s="541"/>
       <c r="U30" s="186"/>
       <c r="V30" s="158"/>
       <c r="W30" s="154"/>
-      <c r="X30" s="531"/>
+      <c r="X30" s="530"/>
       <c r="Y30" s="183">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -13177,11 +13167,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI30" s="557"/>
+      <c r="AI30" s="556"/>
       <c r="AJ30" s="186"/>
       <c r="AK30" s="186"/>
       <c r="AL30" s="319"/>
-      <c r="AM30" s="570">
+      <c r="AM30" s="569">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13193,8 +13183,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ30" s="568"/>
-      <c r="AR30" s="509"/>
+      <c r="AQ30" s="567"/>
+      <c r="AR30" s="508"/>
     </row>
     <row r="31" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="80"/>
@@ -13208,12 +13198,12 @@
       <c r="F31" s="100">
         <v>-1</v>
       </c>
-      <c r="H31" s="513">
+      <c r="H31" s="512">
         <v>-1</v>
       </c>
-      <c r="J31" s="572"/>
-      <c r="K31" s="590"/>
-      <c r="L31" s="582"/>
+      <c r="J31" s="571"/>
+      <c r="K31" s="589"/>
+      <c r="L31" s="581"/>
       <c r="M31" s="334"/>
       <c r="N31" s="246"/>
       <c r="O31" s="293">
@@ -13222,7 +13212,7 @@
       </c>
       <c r="Q31" s="20"/>
       <c r="S31" s="17"/>
-      <c r="T31" s="543"/>
+      <c r="T31" s="542"/>
       <c r="U31" s="155"/>
       <c r="V31" s="156"/>
       <c r="W31" s="15"/>
@@ -13256,7 +13246,7 @@
       <c r="AJ31" s="155"/>
       <c r="AK31" s="155"/>
       <c r="AL31" s="317"/>
-      <c r="AM31" s="570">
+      <c r="AM31" s="569">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13268,16 +13258,16 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ31" s="568"/>
-      <c r="AR31" s="509"/>
+      <c r="AQ31" s="567"/>
+      <c r="AR31" s="508"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="650"/>
-      <c r="B32" s="650"/>
-      <c r="J32" s="573"/>
-      <c r="K32" s="590"/>
-      <c r="L32" s="582"/>
-      <c r="M32" s="511">
+      <c r="A32" s="652"/>
+      <c r="B32" s="652"/>
+      <c r="J32" s="572"/>
+      <c r="K32" s="589"/>
+      <c r="L32" s="581"/>
+      <c r="M32" s="510">
         <v>0</v>
       </c>
       <c r="N32" s="250">
@@ -13291,7 +13281,7 @@
       <c r="S32" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="T32" s="543">
+      <c r="T32" s="542">
         <v>5</v>
       </c>
       <c r="U32" s="155">
@@ -13343,7 +13333,7 @@
       </c>
       <c r="AK32" s="155"/>
       <c r="AL32" s="317"/>
-      <c r="AM32" s="570">
+      <c r="AM32" s="569">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13358,25 +13348,27 @@
       <c r="AP32" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AQ32" s="563" t="s">
+      <c r="AQ32" s="562" t="s">
         <v>451</v>
       </c>
-      <c r="AR32" s="509" t="s">
+      <c r="AR32" s="508" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="80"/>
-      <c r="B33" s="24"/>
+      <c r="B33" s="24">
+        <v>1</v>
+      </c>
       <c r="G33" s="382">
         <v>-1</v>
       </c>
       <c r="I33" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="J33" s="574"/>
-      <c r="K33" s="591"/>
-      <c r="L33" s="582">
+      <c r="J33" s="573"/>
+      <c r="K33" s="590"/>
+      <c r="L33" s="581">
         <v>2</v>
       </c>
       <c r="M33" s="334"/>
@@ -13391,7 +13383,7 @@
       <c r="S33" s="184" t="s">
         <v>345</v>
       </c>
-      <c r="T33" s="544">
+      <c r="T33" s="543">
         <v>3</v>
       </c>
       <c r="U33" s="185">
@@ -13400,10 +13392,10 @@
       <c r="V33" s="160">
         <v>0</v>
       </c>
-      <c r="W33" s="791">
+      <c r="W33" s="592">
         <v>-1</v>
       </c>
-      <c r="X33" s="792">
+      <c r="X33" s="593">
         <v>1</v>
       </c>
       <c r="Y33" s="183">
@@ -13445,7 +13437,7 @@
       <c r="AL33" s="317">
         <v>0</v>
       </c>
-      <c r="AM33" s="570">
+      <c r="AM33" s="569">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -13460,10 +13452,10 @@
       <c r="AP33" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AQ33" s="563" t="s">
+      <c r="AQ33" s="562" t="s">
         <v>619</v>
       </c>
-      <c r="AR33" s="509" t="s">
+      <c r="AR33" s="508" t="s">
         <v>500</v>
       </c>
     </row>
@@ -13474,13 +13466,13 @@
       <c r="E34" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="J34" s="572" t="s">
+      <c r="J34" s="571" t="s">
         <v>301</v>
       </c>
-      <c r="K34" s="590">
-        <v>0</v>
-      </c>
-      <c r="L34" s="582">
+      <c r="K34" s="589">
+        <v>0</v>
+      </c>
+      <c r="L34" s="581">
         <v>0</v>
       </c>
       <c r="M34" s="334"/>
@@ -13497,7 +13489,7 @@
       <c r="S34" s="187" t="s">
         <v>299</v>
       </c>
-      <c r="T34" s="545">
+      <c r="T34" s="544">
         <v>4</v>
       </c>
       <c r="U34" s="188">
@@ -13545,7 +13537,7 @@
       </c>
       <c r="AK34" s="155"/>
       <c r="AL34" s="317"/>
-      <c r="AM34" s="570">
+      <c r="AM34" s="569">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13560,18 +13552,18 @@
       <c r="AP34" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="AQ34" s="563" t="s">
+      <c r="AQ34" s="562" t="s">
         <v>566</v>
       </c>
-      <c r="AR34" s="509"/>
+      <c r="AR34" s="508"/>
     </row>
     <row r="35" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="23"/>
-      <c r="J35" s="572" t="s">
+      <c r="J35" s="571" t="s">
         <v>296</v>
       </c>
-      <c r="K35" s="590"/>
-      <c r="L35" s="582">
+      <c r="K35" s="589"/>
+      <c r="L35" s="581">
         <v>0</v>
       </c>
       <c r="M35" s="334"/>
@@ -13586,7 +13578,7 @@
       <c r="S35" s="153" t="s">
         <v>309</v>
       </c>
-      <c r="T35" s="546">
+      <c r="T35" s="545">
         <v>2</v>
       </c>
       <c r="U35" s="162">
@@ -13632,7 +13624,7 @@
       <c r="AJ35" s="155"/>
       <c r="AK35" s="155"/>
       <c r="AL35" s="155"/>
-      <c r="AM35" s="570">
+      <c r="AM35" s="569">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13647,8 +13639,8 @@
       <c r="AP35" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="AQ35" s="563"/>
-      <c r="AR35" s="509"/>
+      <c r="AQ35" s="562"/>
+      <c r="AR35" s="508"/>
     </row>
     <row r="36" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="259" t="s">
@@ -13658,18 +13650,18 @@
         <v>-1</v>
       </c>
       <c r="I36" s="112"/>
-      <c r="J36" s="572" t="s">
+      <c r="J36" s="571" t="s">
         <v>296</v>
       </c>
-      <c r="K36" s="590"/>
-      <c r="L36" s="582">
+      <c r="K36" s="589"/>
+      <c r="L36" s="581">
         <v>0</v>
       </c>
       <c r="M36" s="334"/>
       <c r="N36" s="250">
         <v>0</v>
       </c>
-      <c r="O36" s="519">
+      <c r="O36" s="518">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13677,7 +13669,7 @@
       <c r="S36" s="161" t="s">
         <v>308</v>
       </c>
-      <c r="T36" s="547">
+      <c r="T36" s="546">
         <v>2</v>
       </c>
       <c r="U36" s="163">
@@ -13738,14 +13730,14 @@
       <c r="AP36" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="AQ36" s="568"/>
-      <c r="AR36" s="509" t="s">
+      <c r="AQ36" s="567"/>
+      <c r="AR36" s="508" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37" s="382">
         <v>1</v>
@@ -13753,16 +13745,16 @@
       <c r="E37" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="H37" s="513">
+      <c r="H37" s="512">
         <v>-1</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="K37" s="592"/>
-      <c r="L37" s="584">
-        <v>0</v>
+      <c r="K37" s="591"/>
+      <c r="L37" s="583">
+        <v>1</v>
       </c>
       <c r="M37" s="335"/>
       <c r="N37" s="249">
@@ -13770,13 +13762,13 @@
       </c>
       <c r="O37" s="175">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="20"/>
       <c r="S37" s="251" t="s">
         <v>469</v>
       </c>
-      <c r="T37" s="548">
+      <c r="T37" s="547">
         <v>2</v>
       </c>
       <c r="U37" s="252">
@@ -13796,55 +13788,55 @@
       <c r="Z37" s="65"/>
       <c r="AA37" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37" s="64">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="301">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE37" s="350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF37" s="356"/>
       <c r="AG37" s="357"/>
       <c r="AH37" s="351">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI37" s="558">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="559">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="559"/>
+        <v>1</v>
+      </c>
+      <c r="AI37" s="557">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="558">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="558"/>
       <c r="AL37" s="320"/>
       <c r="AM37" s="68">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37" s="308">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO37" s="309">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="AQ37" s="567" t="s">
+      <c r="AQ37" s="566" t="s">
         <v>565</v>
       </c>
-      <c r="AR37" s="541" t="s">
+      <c r="AR37" s="540" t="s">
         <v>564</v>
       </c>
     </row>
@@ -13932,12 +13924,12 @@
       <c r="P1" s="38"/>
       <c r="S1" s="58">
         <f ca="1">TODAY()</f>
-        <v>45284</v>
-      </c>
-      <c r="V1" s="603" t="s">
+        <v>45285</v>
+      </c>
+      <c r="V1" s="605" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="683"/>
+      <c r="W1" s="685"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13956,7 +13948,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="759" t="s">
+      <c r="AD1" s="761" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13973,10 +13965,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="790" t="s">
+      <c r="F2" s="792" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="747" t="s">
+      <c r="G2" s="749" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -14004,10 +13996,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="726" t="s">
+      <c r="V2" s="728" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="727"/>
+      <c r="W2" s="729"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -14026,7 +14018,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="760"/>
+      <c r="AD2" s="762"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14045,8 +14037,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="630"/>
-      <c r="G3" s="748"/>
+      <c r="F3" s="632"/>
+      <c r="G3" s="750"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14057,13 +14049,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="757" t="s">
+      <c r="O3" s="759" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="780" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="779"/>
+      <c r="Q3" s="781"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14073,15 +14065,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="760"/>
+      <c r="AD3" s="762"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="748"/>
+      <c r="G4" s="750"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="687" t="s">
+      <c r="L4" s="689" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="758"/>
+      <c r="O4" s="760"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14091,12 +14083,12 @@
       <c r="X4" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="Y4" s="603" t="s">
+      <c r="Y4" s="605" t="s">
         <v>194</v>
       </c>
-      <c r="Z4" s="605"/>
-      <c r="AA4" s="683"/>
-      <c r="AD4" s="760"/>
+      <c r="Z4" s="607"/>
+      <c r="AA4" s="685"/>
+      <c r="AD4" s="762"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14111,21 +14103,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="748"/>
+      <c r="G5" s="750"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="765" t="s">
+      <c r="K5" s="767" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="780"/>
+      <c r="L5" s="782"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="758"/>
+      <c r="O5" s="760"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14141,11 +14133,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="768" t="s">
+      <c r="Y5" s="770" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="769"/>
-      <c r="AD5" s="760"/>
+      <c r="Z5" s="771"/>
+      <c r="AD5" s="762"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14155,16 +14147,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="748"/>
+      <c r="G6" s="750"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="766"/>
-      <c r="L6" s="780"/>
-      <c r="O6" s="758"/>
+      <c r="K6" s="768"/>
+      <c r="L6" s="782"/>
+      <c r="O6" s="760"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14174,23 +14166,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="760"/>
+      <c r="AD6" s="762"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="748"/>
+      <c r="G7" s="750"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="766"/>
-      <c r="L7" s="780"/>
+      <c r="K7" s="768"/>
+      <c r="L7" s="782"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="758"/>
+      <c r="O7" s="760"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="760"/>
+      <c r="AD7" s="762"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14203,7 +14195,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="748"/>
+      <c r="G8" s="750"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14213,41 +14205,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="766"/>
-      <c r="L8" s="780"/>
-      <c r="O8" s="758"/>
+      <c r="K8" s="768"/>
+      <c r="L8" s="782"/>
+      <c r="O8" s="760"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="762" t="s">
+      <c r="S8" s="764" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="763"/>
-      <c r="U8" s="763"/>
-      <c r="V8" s="763"/>
-      <c r="W8" s="763"/>
-      <c r="X8" s="763"/>
-      <c r="Y8" s="763"/>
-      <c r="Z8" s="763"/>
-      <c r="AA8" s="763"/>
-      <c r="AB8" s="763"/>
-      <c r="AC8" s="764"/>
-      <c r="AD8" s="760"/>
+      <c r="T8" s="765"/>
+      <c r="U8" s="765"/>
+      <c r="V8" s="765"/>
+      <c r="W8" s="765"/>
+      <c r="X8" s="765"/>
+      <c r="Y8" s="765"/>
+      <c r="Z8" s="765"/>
+      <c r="AA8" s="765"/>
+      <c r="AB8" s="765"/>
+      <c r="AC8" s="766"/>
+      <c r="AD8" s="762"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="784"/>
-      <c r="G9" s="748"/>
+      <c r="C9" s="786"/>
+      <c r="G9" s="750"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="766"/>
-      <c r="L9" s="751" t="s">
+      <c r="K9" s="768"/>
+      <c r="L9" s="753" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="752"/>
-      <c r="N9" s="753"/>
-      <c r="O9" s="758"/>
+      <c r="M9" s="754"/>
+      <c r="N9" s="755"/>
+      <c r="O9" s="760"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="760"/>
+      <c r="AD9" s="762"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="785"/>
+      <c r="C10" s="787"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14255,7 +14247,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="748"/>
+      <c r="G10" s="750"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14263,33 +14255,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="766"/>
-      <c r="M10" s="787" t="s">
+      <c r="K10" s="768"/>
+      <c r="M10" s="789" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="788"/>
-      <c r="O10" s="788"/>
-      <c r="P10" s="788"/>
-      <c r="Q10" s="788"/>
-      <c r="R10" s="788"/>
-      <c r="S10" s="788"/>
-      <c r="T10" s="788"/>
-      <c r="U10" s="788"/>
-      <c r="V10" s="788"/>
-      <c r="W10" s="788"/>
-      <c r="X10" s="788"/>
-      <c r="Y10" s="788"/>
-      <c r="Z10" s="788"/>
-      <c r="AA10" s="788"/>
-      <c r="AB10" s="788"/>
-      <c r="AC10" s="789"/>
-      <c r="AD10" s="760"/>
+      <c r="N10" s="790"/>
+      <c r="O10" s="790"/>
+      <c r="P10" s="790"/>
+      <c r="Q10" s="790"/>
+      <c r="R10" s="790"/>
+      <c r="S10" s="790"/>
+      <c r="T10" s="790"/>
+      <c r="U10" s="790"/>
+      <c r="V10" s="790"/>
+      <c r="W10" s="790"/>
+      <c r="X10" s="790"/>
+      <c r="Y10" s="790"/>
+      <c r="Z10" s="790"/>
+      <c r="AA10" s="790"/>
+      <c r="AB10" s="790"/>
+      <c r="AC10" s="791"/>
+      <c r="AD10" s="762"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="786"/>
-      <c r="G11" s="748"/>
+      <c r="C11" s="788"/>
+      <c r="G11" s="750"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="766"/>
+      <c r="K11" s="768"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14297,17 +14289,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="776" t="s">
+      <c r="Z11" s="778" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="777"/>
+      <c r="AA11" s="779"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="760"/>
+      <c r="AD11" s="762"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14320,7 +14312,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="748"/>
+      <c r="G12" s="750"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14328,8 +14320,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="766"/>
-      <c r="L12" s="781" t="s">
+      <c r="K12" s="768"/>
+      <c r="L12" s="783" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14344,7 +14336,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="598" t="s">
+      <c r="S12" s="600" t="s">
         <v>106</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -14360,26 +14352,26 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="770" t="s">
+      <c r="AA12" s="772" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="771"/>
+      <c r="AB12" s="773"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="760"/>
+      <c r="AD12" s="762"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="784"/>
-      <c r="G13" s="748"/>
-      <c r="K13" s="766"/>
-      <c r="L13" s="782"/>
+      <c r="C13" s="786"/>
+      <c r="G13" s="750"/>
+      <c r="K13" s="768"/>
+      <c r="L13" s="784"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="750" t="s">
+      <c r="Q13" s="752" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="639"/>
-      <c r="S13" s="599"/>
+      <c r="R13" s="641"/>
+      <c r="S13" s="601"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>131</v>
@@ -14387,17 +14379,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="772"/>
-      <c r="AB13" s="773"/>
-      <c r="AD13" s="760"/>
+      <c r="AA13" s="774"/>
+      <c r="AB13" s="775"/>
+      <c r="AD13" s="762"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="786"/>
+      <c r="C14" s="788"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="748"/>
+      <c r="G14" s="750"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14405,8 +14397,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="766"/>
-      <c r="L14" s="782"/>
+      <c r="K14" s="768"/>
+      <c r="L14" s="784"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14416,7 +14408,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="599"/>
+      <c r="S14" s="601"/>
       <c r="T14" s="77" t="s">
         <v>129</v>
       </c>
@@ -14427,9 +14419,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="772"/>
-      <c r="AB14" s="773"/>
-      <c r="AD14" s="760"/>
+      <c r="AA14" s="774"/>
+      <c r="AB14" s="775"/>
+      <c r="AD14" s="762"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14444,20 +14436,20 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="748"/>
+      <c r="G15" s="750"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="766"/>
-      <c r="L15" s="783"/>
-      <c r="Q15" s="750" t="s">
+      <c r="K15" s="768"/>
+      <c r="L15" s="785"/>
+      <c r="Q15" s="752" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="639"/>
-      <c r="S15" s="599"/>
+      <c r="R15" s="641"/>
+      <c r="S15" s="601"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -14465,14 +14457,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="772"/>
-      <c r="AB15" s="773"/>
-      <c r="AD15" s="760"/>
+      <c r="AA15" s="774"/>
+      <c r="AB15" s="775"/>
+      <c r="AD15" s="762"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="748"/>
-      <c r="K16" s="766"/>
+      <c r="G16" s="750"/>
+      <c r="K16" s="768"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14480,7 +14472,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="599"/>
+      <c r="S16" s="601"/>
       <c r="T16" s="76" t="s">
         <v>128</v>
       </c>
@@ -14491,34 +14483,34 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="772"/>
-      <c r="AB16" s="773"/>
-      <c r="AD16" s="760"/>
+      <c r="AA16" s="774"/>
+      <c r="AB16" s="775"/>
+      <c r="AD16" s="762"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="745" t="s">
+      <c r="F17" s="747" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="748"/>
+      <c r="G17" s="750"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="766"/>
-      <c r="S17" s="599"/>
+      <c r="K17" s="768"/>
+      <c r="S17" s="601"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="772"/>
-      <c r="AB17" s="773"/>
-      <c r="AD17" s="760"/>
+      <c r="AA17" s="774"/>
+      <c r="AB17" s="775"/>
+      <c r="AD17" s="762"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14528,50 +14520,50 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="746"/>
-      <c r="G18" s="748"/>
+      <c r="F18" s="748"/>
+      <c r="G18" s="750"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="766"/>
+      <c r="K18" s="768"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="S18" s="599"/>
+      <c r="S18" s="601"/>
       <c r="U18" s="76" t="s">
         <v>132</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="774"/>
-      <c r="AB18" s="775"/>
-      <c r="AD18" s="760"/>
+      <c r="AA18" s="776"/>
+      <c r="AB18" s="777"/>
+      <c r="AD18" s="762"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="749"/>
-      <c r="K19" s="767"/>
+      <c r="G19" s="751"/>
+      <c r="K19" s="769"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="754" t="s">
+      <c r="R19" s="756" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="755"/>
-      <c r="T19" s="756"/>
+      <c r="S19" s="757"/>
+      <c r="T19" s="758"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="761"/>
+      <c r="AD19" s="763"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F140FB7-BFF4-457B-BF99-59E2579F02CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B6AA50-57FA-401D-B684-F57F7FA7D91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="626">
   <si>
     <t>Zone</t>
   </si>
@@ -1910,10 +1910,13 @@
     <t>ndtv 24*7</t>
   </si>
   <si>
-    <t>6F Reserved</t>
-  </si>
-  <si>
-    <t>Wbt_X_7F</t>
+    <t>Wbt_X_8F</t>
+  </si>
+  <si>
+    <t>3F Reserved</t>
+  </si>
+  <si>
+    <t>France24 ES</t>
   </si>
 </sst>
 </file>
@@ -5883,8 +5886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6614,7 +6617,7 @@
       <c r="P22" s="313"/>
       <c r="T22" s="609"/>
       <c r="X22" s="19" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6646,7 +6649,7 @@
       <c r="P23" s="313"/>
       <c r="T23" s="609"/>
       <c r="U23" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V23" s="100" t="s">
         <v>44</v>
@@ -8971,8 +8974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N8" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9142,7 +9145,7 @@
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" s="172">
         <f>SUM(T4:T16)</f>
@@ -9193,7 +9196,7 @@
       </c>
       <c r="Q3" s="471">
         <f>SUM(X23:X31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="470"/>
@@ -9367,7 +9370,7 @@
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AI2:AI10)+AF11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="525"/>
@@ -9435,7 +9438,7 @@
       </c>
       <c r="AF7" s="295">
         <f>8-AF11</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH7" s="6"/>
       <c r="AI7" s="469"/>
@@ -9507,12 +9510,8 @@
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
-      <c r="AH9" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI9" s="470">
-        <v>1</v>
-      </c>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="470"/>
       <c r="AJ9" s="553"/>
       <c r="AK9" s="6" t="s">
         <v>598</v>
@@ -9625,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG11" s="414"/>
       <c r="AH11" s="713" t="s">
@@ -9733,7 +9732,7 @@
       <c r="X14"/>
       <c r="Z14" s="68">
         <f>SUM(X23:X31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9828,11 +9827,9 @@
         <v>424</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="V17" s="24">
-        <v>1</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="V17" s="24"/>
       <c r="W17" s="6"/>
       <c r="X17" s="24"/>
     </row>
@@ -9854,14 +9851,10 @@
       </c>
       <c r="S18" s="24">
         <f>5-S26</f>
-        <v>5</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="V18" s="24">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="U18" s="19"/>
+      <c r="V18" s="24"/>
       <c r="W18" s="19"/>
       <c r="X18" s="24"/>
     </row>
@@ -9874,7 +9867,7 @@
         <v>233</v>
       </c>
       <c r="V19" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W19" s="19" t="s">
         <v>345</v>
@@ -9921,7 +9914,7 @@
       </c>
       <c r="S20" s="24">
         <f>S18-SUM(V16:V21)+S26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="220" t="s">
         <v>83</v>
@@ -9985,7 +9978,7 @@
       <c r="I23" s="708"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U23" s="342"/>
       <c r="V23" s="183">
@@ -10002,13 +9995,13 @@
       <c r="I24" s="708"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24" s="54" t="s">
         <v>73</v>
       </c>
       <c r="X24" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10090,7 +10083,7 @@
         <v>2</v>
       </c>
       <c r="S26" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="61" t="s">
         <v>557</v>
@@ -10171,13 +10164,13 @@
         <v>558</v>
       </c>
       <c r="V29" s="509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="54" t="s">
         <v>498</v>
       </c>
       <c r="X29" s="472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10242,8 +10235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10399,7 +10392,7 @@
       </c>
       <c r="J2" s="318">
         <f>K2+L2</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" s="723">
         <f>SUM(K4:K37)</f>
@@ -10407,7 +10400,7 @@
       </c>
       <c r="L2" s="721">
         <f>SUM(L4:L37)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M2" s="736">
         <f>SUM(M5:M30)</f>
@@ -10419,7 +10412,7 @@
       </c>
       <c r="O2" s="740">
         <f>SUM(O4:O29)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P2" s="668">
         <f>SUM(N30:N37)* (-1)</f>
@@ -10548,15 +10541,15 @@
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" ref="AD3:AO3" si="1">SUM(AD4:AD29)</f>
@@ -10564,7 +10557,7 @@
       </c>
       <c r="AE3" s="66">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF3" s="66">
         <f t="shared" si="1"/>
@@ -10576,7 +10569,7 @@
       </c>
       <c r="AH3" s="66">
         <f>SUM(AH4:AH29)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI3" s="374">
         <f t="shared" si="1"/>
@@ -10588,23 +10581,23 @@
       </c>
       <c r="AK3" s="404">
         <f>SUM(AK4:AK37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="404">
         <f>SUM(AL4:AL37)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="100">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN3" s="310">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO3" s="311">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR3" s="142"/>
     </row>
@@ -11230,7 +11223,7 @@
       </c>
       <c r="K10" s="575"/>
       <c r="L10" s="581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="328"/>
       <c r="N10" s="107">
@@ -11238,7 +11231,7 @@
       </c>
       <c r="O10" s="293">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="719"/>
       <c r="Q10" s="20"/>
@@ -11268,27 +11261,27 @@
       <c r="Z10" s="296"/>
       <c r="AA10" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="290">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="290">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE10" s="294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="300"/>
       <c r="AG10" s="296"/>
       <c r="AH10" s="296">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="375"/>
       <c r="AJ10" s="509"/>
@@ -11296,15 +11289,15 @@
       <c r="AL10" s="317"/>
       <c r="AM10" s="336">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="308">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="309">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="6" t="s">
         <v>73</v>
@@ -11605,7 +11598,7 @@
       <c r="J14" s="571"/>
       <c r="K14" s="575"/>
       <c r="L14" s="581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="328"/>
       <c r="N14" s="291">
@@ -11667,10 +11660,10 @@
       <c r="AJ14" s="509">
         <v>1</v>
       </c>
-      <c r="AK14" s="559"/>
-      <c r="AL14" s="317">
-        <v>1</v>
-      </c>
+      <c r="AK14" s="559">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="317"/>
       <c r="AM14" s="336">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -11684,13 +11677,13 @@
         <v>0</v>
       </c>
       <c r="AP14" s="6" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="AQ14" s="564" t="s">
         <v>563</v>
       </c>
       <c r="AR14" s="508" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13357,9 +13350,7 @@
     </row>
     <row r="33" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="80"/>
-      <c r="B33" s="24">
-        <v>1</v>
-      </c>
+      <c r="B33" s="24"/>
       <c r="G33" s="382">
         <v>-1</v>
       </c>
@@ -13737,7 +13728,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" s="382">
         <v>1</v>

--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B6AA50-57FA-401D-B684-F57F7FA7D91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5607769B-F2FB-4BFD-9F63-15CBCCA3A4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="625">
   <si>
     <t>Zone</t>
   </si>
@@ -1911,9 +1911,6 @@
   </si>
   <si>
     <t>Wbt_X_8F</t>
-  </si>
-  <si>
-    <t>3F Reserved</t>
   </si>
   <si>
     <t>France24 ES</t>
@@ -5887,7 +5884,7 @@
   <dimension ref="B1:X28"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6072,7 +6069,7 @@
         <v>226</v>
       </c>
       <c r="V5" s="24">
-        <v>6900</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6289,7 +6286,7 @@
         <v>225</v>
       </c>
       <c r="V11" s="64">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6616,9 +6613,7 @@
       </c>
       <c r="P22" s="313"/>
       <c r="T22" s="609"/>
-      <c r="X22" s="19" t="s">
-        <v>624</v>
-      </c>
+      <c r="X22" s="19"/>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -7541,7 +7536,7 @@
       <c r="D10" s="142"/>
       <c r="E10" s="237">
         <f>Boat!W8</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="643"/>
       <c r="N10" s="418" t="s">
@@ -8974,8 +8969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AO7" sqref="AO7"/>
+    <sheetView topLeftCell="N12" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9141,11 +9136,11 @@
       <c r="Q2" s="717"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" s="172">
         <f>SUM(T4:T16)</f>
@@ -9196,7 +9191,7 @@
       </c>
       <c r="Q3" s="471">
         <f>SUM(X23:X31)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="470"/>
@@ -9212,12 +9207,8 @@
         <f>IF((AE7-SUM(AL2:AL10)&lt;0),AE7-SUM(AI2:AI10),0)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AI3" s="470">
-        <v>1</v>
-      </c>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="470"/>
       <c r="AJ3" s="553"/>
       <c r="AK3" s="6" t="s">
         <v>250</v>
@@ -9360,7 +9351,7 @@
       </c>
       <c r="S6" s="64">
         <f>S7+S11-SUM(V2:V10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6" s="711"/>
       <c r="AC6" s="35"/>
@@ -9370,7 +9361,7 @@
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AI2:AI10)+AF11</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="525"/>
@@ -9407,20 +9398,16 @@
       </c>
       <c r="R7" s="24">
         <f>3-R11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="24">
         <f>3-S11</f>
-        <v>1</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="V7" s="469">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="469"/>
       <c r="W7" s="6" t="s">
-        <v>345</v>
+        <v>250</v>
       </c>
       <c r="X7" s="469">
         <v>1</v>
@@ -9438,7 +9425,7 @@
       </c>
       <c r="AF7" s="295">
         <f>8-AF11</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="6"/>
       <c r="AI7" s="469"/>
@@ -9531,7 +9518,7 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!W8</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="601"/>
       <c r="I10" s="708"/>
@@ -9602,10 +9589,10 @@
         <v>44</v>
       </c>
       <c r="R11" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U11" s="713" t="s">
         <v>559</v>
@@ -9624,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG11" s="414"/>
       <c r="AH11" s="713" t="s">
@@ -9732,7 +9719,7 @@
       <c r="X14"/>
       <c r="Z14" s="68">
         <f>SUM(X23:X31)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9827,7 +9814,7 @@
         <v>424</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="V17" s="24"/>
       <c r="W17" s="6"/>
@@ -9873,7 +9860,7 @@
         <v>345</v>
       </c>
       <c r="X19" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9910,7 +9897,7 @@
       </c>
       <c r="R20" s="24">
         <f>R18-SUM(X16:X21)+R26</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S20" s="24">
         <f>S18-SUM(V16:V21)+S26</f>
@@ -9978,17 +9965,17 @@
       <c r="I23" s="708"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U23" s="342"/>
       <c r="V23" s="183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="54" t="s">
         <v>495</v>
       </c>
       <c r="X23" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10235,8 +10222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10392,7 +10379,7 @@
       </c>
       <c r="J2" s="318">
         <f>K2+L2</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="723">
         <f>SUM(K4:K37)</f>
@@ -10400,7 +10387,7 @@
       </c>
       <c r="L2" s="721">
         <f>SUM(L4:L37)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" s="736">
         <f>SUM(M5:M30)</f>
@@ -10408,7 +10395,7 @@
       </c>
       <c r="N2" s="738">
         <f>SUM(N4:N29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="740">
         <f>SUM(O4:O29)</f>
@@ -10524,7 +10511,7 @@
       </c>
       <c r="V3" s="484">
         <f>SUM(V4:V29)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W3" s="743"/>
       <c r="X3" s="485">
@@ -10533,7 +10520,7 @@
       </c>
       <c r="Y3" s="485">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="59">
         <f t="shared" si="0"/>
@@ -10545,7 +10532,7 @@
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
@@ -10577,11 +10564,11 @@
       </c>
       <c r="AJ3" s="404">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK3" s="404">
         <f>SUM(AK4:AK37)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL3" s="404">
         <f>SUM(AL4:AL37)</f>
@@ -11058,7 +11045,7 @@
       </c>
       <c r="W8" s="24">
         <f>V3</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X8" s="497">
         <v>0</v>
@@ -11285,7 +11272,9 @@
       </c>
       <c r="AI10" s="375"/>
       <c r="AJ10" s="509"/>
-      <c r="AK10" s="559"/>
+      <c r="AK10" s="559">
+        <v>1</v>
+      </c>
       <c r="AL10" s="317"/>
       <c r="AM10" s="336">
         <f t="shared" si="6"/>
@@ -11677,7 +11666,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ14" s="564" t="s">
         <v>563</v>
@@ -12587,13 +12576,13 @@
         <v>1</v>
       </c>
       <c r="L24" s="581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="326">
         <v>0</v>
       </c>
       <c r="N24" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="293">
         <f t="shared" si="10"/>
@@ -12613,7 +12602,7 @@
         <v>2</v>
       </c>
       <c r="V24" s="492">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24" s="526">
         <v>-2</v>
@@ -12621,7 +12610,7 @@
       <c r="X24" s="26"/>
       <c r="Y24" s="548">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="296"/>
       <c r="AA24" s="117">
@@ -12630,7 +12619,7 @@
       </c>
       <c r="AB24" s="290">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC24" s="290">
         <v>1</v>
@@ -12653,9 +12642,7 @@
         <v>1</v>
       </c>
       <c r="AI24" s="375"/>
-      <c r="AJ24" s="509">
-        <v>1</v>
-      </c>
+      <c r="AJ24" s="509"/>
       <c r="AK24" s="559"/>
       <c r="AL24" s="317"/>
       <c r="AM24" s="336">
@@ -13419,9 +13406,7 @@
         <v>1</v>
       </c>
       <c r="AI33" s="375"/>
-      <c r="AJ33" s="155">
-        <v>2</v>
-      </c>
+      <c r="AJ33" s="155"/>
       <c r="AK33" s="155">
         <v>0</v>
       </c>
@@ -13728,7 +13713,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="382">
         <v>1</v>

--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5607769B-F2FB-4BFD-9F63-15CBCCA3A4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38290A64-5E2B-42D4-98A9-4D25A8A101B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5042,6 +5042,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5060,12 +5213,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5120,169 +5267,61 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5324,43 +5363,70 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5384,112 +5450,25 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5567,25 +5546,46 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6924,7 +6924,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="661" t="s">
+      <c r="I1" s="615" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6960,7 +6960,7 @@
       <c r="X1" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="655" t="s">
+      <c r="Y1" s="659" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="406">
@@ -6985,7 +6985,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="402"/>
-      <c r="AN1" s="637"/>
+      <c r="AN1" s="642"/>
       <c r="AO1" s="338" t="s">
         <v>470</v>
       </c>
@@ -6994,23 +6994,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="619">
+      <c r="A2" s="668">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="621" t="s">
+      <c r="B2" s="670" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="617" t="s">
+      <c r="C2" s="647" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="623" t="s">
+      <c r="D2" s="672" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="671" t="s">
+      <c r="E2" s="611" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="642" t="s">
+      <c r="F2" s="621" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="393" t="s">
@@ -7019,31 +7019,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="662"/>
+      <c r="I2" s="616"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="673" t="s">
+      <c r="K2" s="613" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="674"/>
-      <c r="M2" s="642" t="s">
+      <c r="L2" s="614"/>
+      <c r="M2" s="621" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="646" t="s">
+      <c r="O2" s="651" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="617" t="s">
+      <c r="Q2" s="647" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="600"/>
-      <c r="S2" s="659" t="s">
+      <c r="S2" s="636" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7053,7 +7053,7 @@
       <c r="X2" s="431" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="656"/>
+      <c r="Y2" s="660"/>
       <c r="Z2" s="407">
         <v>1</v>
       </c>
@@ -7076,15 +7076,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="428"/>
-      <c r="AN2" s="638"/>
+      <c r="AN2" s="643"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="620"/>
-      <c r="B3" s="622"/>
-      <c r="C3" s="618"/>
-      <c r="D3" s="624"/>
-      <c r="E3" s="672"/>
-      <c r="F3" s="643"/>
+      <c r="A3" s="669"/>
+      <c r="B3" s="671"/>
+      <c r="C3" s="648"/>
+      <c r="D3" s="673"/>
+      <c r="E3" s="612"/>
+      <c r="F3" s="622"/>
       <c r="G3" s="394" t="s">
         <v>28</v>
       </c>
@@ -7103,17 +7103,17 @@
       <c r="L3" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="643"/>
+      <c r="M3" s="622"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="647"/>
+      <c r="O3" s="652"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="618"/>
+      <c r="Q3" s="648"/>
       <c r="R3" s="602"/>
-      <c r="S3" s="660"/>
+      <c r="S3" s="638"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7121,7 +7121,7 @@
       <c r="X3" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="656"/>
+      <c r="Y3" s="660"/>
       <c r="Z3" s="408">
         <v>1</v>
       </c>
@@ -7130,7 +7130,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="658" t="s">
+      <c r="AD3" s="633" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="257"/>
@@ -7142,16 +7142,16 @@
       <c r="AK3" s="257"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="428"/>
-      <c r="AN3" s="638"/>
+      <c r="AN3" s="643"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="635" t="s">
+      <c r="B4" s="684" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="617" t="s">
+      <c r="C4" s="647" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="347" t="s">
@@ -7160,7 +7160,7 @@
       <c r="E4" s="378">
         <v>2</v>
       </c>
-      <c r="F4" s="643"/>
+      <c r="F4" s="622"/>
       <c r="G4" s="381" t="s">
         <v>202</v>
       </c>
@@ -7177,11 +7177,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="204"/>
-      <c r="M4" s="643"/>
+      <c r="M4" s="622"/>
       <c r="N4" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="647"/>
+      <c r="O4" s="652"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7203,12 +7203,12 @@
       <c r="X4" s="431" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="656"/>
+      <c r="Y4" s="660"/>
       <c r="Z4" s="409"/>
       <c r="AA4" s="307"/>
       <c r="AB4" s="209"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="658"/>
+      <c r="AD4" s="633"/>
       <c r="AE4" s="257"/>
       <c r="AF4" s="257"/>
       <c r="AG4" s="16"/>
@@ -7218,37 +7218,37 @@
       <c r="AK4" s="257"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="428"/>
-      <c r="AN4" s="638"/>
+      <c r="AN4" s="643"/>
       <c r="AO4" s="338" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="661" t="s">
+      <c r="A5" s="615" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="636"/>
-      <c r="C5" s="618"/>
+      <c r="B5" s="685"/>
+      <c r="C5" s="648"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="379">
         <v>1</v>
       </c>
-      <c r="F5" s="643"/>
-      <c r="G5" s="627" t="s">
+      <c r="F5" s="622"/>
+      <c r="G5" s="676" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="627"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="627"/>
-      <c r="L5" s="628"/>
-      <c r="M5" s="643"/>
+      <c r="H5" s="676"/>
+      <c r="I5" s="676"/>
+      <c r="J5" s="676"/>
+      <c r="K5" s="676"/>
+      <c r="L5" s="677"/>
+      <c r="M5" s="622"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="647"/>
+      <c r="O5" s="652"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7256,7 +7256,7 @@
       <c r="X5" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="656"/>
+      <c r="Y5" s="660"/>
       <c r="Z5" s="409">
         <v>1</v>
       </c>
@@ -7279,24 +7279,24 @@
       <c r="AK5" s="257"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="428"/>
-      <c r="AN5" s="638"/>
+      <c r="AN5" s="643"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="662"/>
-      <c r="B6" s="633" t="s">
+      <c r="A6" s="616"/>
+      <c r="B6" s="682" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="663"/>
-      <c r="D6" s="664"/>
-      <c r="F6" s="643"/>
-      <c r="G6" s="629"/>
-      <c r="H6" s="629"/>
-      <c r="I6" s="629"/>
-      <c r="J6" s="629"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="630"/>
-      <c r="M6" s="643"/>
-      <c r="O6" s="647"/>
+      <c r="C6" s="630"/>
+      <c r="D6" s="631"/>
+      <c r="F6" s="622"/>
+      <c r="G6" s="678"/>
+      <c r="H6" s="678"/>
+      <c r="I6" s="678"/>
+      <c r="J6" s="678"/>
+      <c r="K6" s="678"/>
+      <c r="L6" s="679"/>
+      <c r="M6" s="622"/>
+      <c r="O6" s="652"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7306,7 +7306,7 @@
       <c r="X6" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="656"/>
+      <c r="Y6" s="660"/>
       <c r="Z6" s="407">
         <v>1</v>
       </c>
@@ -7320,16 +7320,16 @@
       <c r="AF6" s="257"/>
       <c r="AG6" s="257"/>
       <c r="AH6" s="257"/>
-      <c r="AI6" s="652"/>
+      <c r="AI6" s="632"/>
       <c r="AJ6" s="441" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="652" t="s">
+      <c r="AK6" s="632" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="257"/>
       <c r="AM6" s="428"/>
-      <c r="AN6" s="638"/>
+      <c r="AN6" s="643"/>
       <c r="AO6" s="338" t="s">
         <v>471</v>
       </c>
@@ -7338,7 +7338,7 @@
       <c r="A7" s="232" t="s">
         <v>573</v>
       </c>
-      <c r="B7" s="634"/>
+      <c r="B7" s="683"/>
       <c r="C7" s="202" t="s">
         <v>375</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="E7" s="265">
         <v>3</v>
       </c>
-      <c r="F7" s="643"/>
+      <c r="F7" s="622"/>
       <c r="G7" s="395">
         <v>0</v>
       </c>
@@ -7367,8 +7367,8 @@
       <c r="L7" s="212">
         <v>0</v>
       </c>
-      <c r="M7" s="643"/>
-      <c r="O7" s="647"/>
+      <c r="M7" s="622"/>
+      <c r="O7" s="652"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="X7" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="656"/>
+      <c r="Y7" s="660"/>
       <c r="Z7" s="407">
         <v>1</v>
       </c>
@@ -7392,18 +7392,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
-      <c r="AG7" s="658" t="s">
+      <c r="AG7" s="633" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="257"/>
-      <c r="AI7" s="652"/>
+      <c r="AI7" s="632"/>
       <c r="AJ7" s="257"/>
-      <c r="AK7" s="652"/>
+      <c r="AK7" s="632"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="428"/>
-      <c r="AN7" s="638"/>
+      <c r="AN7" s="643"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7420,27 +7420,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="643"/>
-      <c r="G8" s="628">
-        <v>0</v>
-      </c>
-      <c r="H8" s="625" t="s">
+      <c r="F8" s="622"/>
+      <c r="G8" s="677">
+        <v>0</v>
+      </c>
+      <c r="H8" s="674" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="600">
         <v>0</v>
       </c>
-      <c r="J8" s="625" t="s">
+      <c r="J8" s="674" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="631"/>
-      <c r="L8" s="665"/>
-      <c r="M8" s="644"/>
-      <c r="N8" s="668">
+      <c r="K8" s="680"/>
+      <c r="L8" s="634"/>
+      <c r="M8" s="649"/>
+      <c r="N8" s="639">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="647"/>
+      <c r="O8" s="652"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7450,7 +7450,7 @@
       <c r="X8" s="431" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="656"/>
+      <c r="Y8" s="660"/>
       <c r="Z8" s="409"/>
       <c r="AA8" s="307"/>
       <c r="AB8" s="209"/>
@@ -7458,14 +7458,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
-      <c r="AG8" s="658"/>
+      <c r="AG8" s="633"/>
       <c r="AH8" s="257"/>
-      <c r="AI8" s="652"/>
+      <c r="AI8" s="632"/>
       <c r="AJ8" s="257"/>
       <c r="AK8" s="257"/>
       <c r="AL8" s="257"/>
       <c r="AM8" s="428"/>
-      <c r="AN8" s="638"/>
+      <c r="AN8" s="643"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
@@ -7480,17 +7480,17 @@
       <c r="D9" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="643"/>
-      <c r="G9" s="630"/>
-      <c r="H9" s="626"/>
+      <c r="F9" s="622"/>
+      <c r="G9" s="679"/>
+      <c r="H9" s="675"/>
       <c r="I9" s="602"/>
-      <c r="J9" s="626"/>
-      <c r="K9" s="632"/>
-      <c r="L9" s="666"/>
-      <c r="M9" s="645"/>
-      <c r="N9" s="669"/>
-      <c r="O9" s="648"/>
-      <c r="S9" s="659" t="s">
+      <c r="J9" s="675"/>
+      <c r="K9" s="681"/>
+      <c r="L9" s="635"/>
+      <c r="M9" s="650"/>
+      <c r="N9" s="640"/>
+      <c r="O9" s="653"/>
+      <c r="S9" s="636" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7502,7 +7502,7 @@
       <c r="X9" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="656"/>
+      <c r="Y9" s="660"/>
       <c r="Z9" s="410"/>
       <c r="AA9" s="307"/>
       <c r="AB9" s="209"/>
@@ -7512,16 +7512,16 @@
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
-      <c r="AG9" s="658"/>
+      <c r="AG9" s="633"/>
       <c r="AH9" s="257"/>
-      <c r="AI9" s="652"/>
+      <c r="AI9" s="632"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="652" t="s">
+      <c r="AK9" s="632" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="257"/>
       <c r="AM9" s="428"/>
-      <c r="AN9" s="638"/>
+      <c r="AN9" s="643"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7536,22 +7536,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="237">
         <f>Boat!W8</f>
-        <v>44</v>
-      </c>
-      <c r="F10" s="643"/>
+        <v>43</v>
+      </c>
+      <c r="F10" s="622"/>
       <c r="N10" s="418" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="680" t="s">
+      <c r="O10" s="624" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="649" t="s">
+      <c r="P10" s="654" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="667"/>
+      <c r="S10" s="637"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7563,7 +7563,7 @@
       <c r="X10" s="431" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="656"/>
+      <c r="Y10" s="660"/>
       <c r="Z10" s="409">
         <v>0</v>
       </c>
@@ -7581,16 +7581,16 @@
       <c r="AF10" s="238" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="658"/>
+      <c r="AG10" s="633"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="652"/>
+      <c r="AI10" s="632"/>
       <c r="AJ10" s="257"/>
-      <c r="AK10" s="652"/>
+      <c r="AK10" s="632"/>
       <c r="AL10" s="257"/>
       <c r="AM10" s="442" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="638"/>
+      <c r="AN10" s="643"/>
       <c r="AO10" s="204" t="s">
         <v>94</v>
       </c>
@@ -7608,18 +7608,18 @@
       <c r="D11" s="170" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="643"/>
+      <c r="F11" s="622"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="681"/>
-      <c r="P11" s="650"/>
+      <c r="O11" s="625"/>
+      <c r="P11" s="655"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="667"/>
+      <c r="S11" s="637"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7629,7 +7629,7 @@
       <c r="X11" s="431" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="656"/>
+      <c r="Y11" s="660"/>
       <c r="Z11" s="409"/>
       <c r="AA11" s="307">
         <v>1</v>
@@ -7643,14 +7643,14 @@
       <c r="AF11" s="257" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="658"/>
+      <c r="AG11" s="633"/>
       <c r="AH11" s="257"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="257"/>
       <c r="AK11" s="257"/>
       <c r="AL11" s="257"/>
       <c r="AM11" s="428"/>
-      <c r="AN11" s="638"/>
+      <c r="AN11" s="643"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7669,7 +7669,7 @@
       <c r="E12" s="224">
         <v>3</v>
       </c>
-      <c r="F12" s="643"/>
+      <c r="F12" s="622"/>
       <c r="G12" s="337" t="s">
         <v>401</v>
       </c>
@@ -7678,16 +7678,16 @@
       </c>
       <c r="I12" s="607"/>
       <c r="J12" s="607"/>
-      <c r="K12" s="685"/>
+      <c r="K12" s="629"/>
       <c r="L12" s="203"/>
       <c r="M12" s="203"/>
       <c r="N12" s="203"/>
-      <c r="O12" s="681"/>
-      <c r="P12" s="650"/>
+      <c r="O12" s="625"/>
+      <c r="P12" s="655"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="660"/>
+      <c r="S12" s="638"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7697,7 +7697,7 @@
       <c r="X12" s="431" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="656"/>
+      <c r="Y12" s="660"/>
       <c r="Z12" s="407">
         <v>1</v>
       </c>
@@ -7708,16 +7708,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="670" t="s">
+      <c r="AD12" s="641" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="441" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="658" t="s">
+      <c r="AF12" s="633" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="658"/>
+      <c r="AG12" s="633"/>
       <c r="AH12" s="238" t="s">
         <v>260</v>
       </c>
@@ -7727,10 +7727,10 @@
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
-      <c r="AM12" s="653" t="s">
+      <c r="AM12" s="657" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="638"/>
+      <c r="AN12" s="643"/>
       <c r="AO12" s="338" t="s">
         <v>96</v>
       </c>
@@ -7742,17 +7742,17 @@
       <c r="E13" s="448">
         <v>-3</v>
       </c>
-      <c r="F13" s="643"/>
+      <c r="F13" s="622"/>
       <c r="G13" s="607" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="607"/>
       <c r="I13" s="607"/>
-      <c r="J13" s="685"/>
+      <c r="J13" s="629"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="681"/>
-      <c r="P13" s="651"/>
+      <c r="O13" s="625"/>
+      <c r="P13" s="656"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7762,7 +7762,7 @@
       <c r="X13" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="656"/>
+      <c r="Y13" s="660"/>
       <c r="Z13" s="407">
         <v>1</v>
       </c>
@@ -7773,8 +7773,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="670"/>
-      <c r="AF13" s="658"/>
+      <c r="AD13" s="641"/>
+      <c r="AF13" s="633"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
         <v>309</v>
@@ -7785,8 +7785,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
       <c r="AL13" s="257"/>
-      <c r="AM13" s="653"/>
-      <c r="AN13" s="638"/>
+      <c r="AM13" s="657"/>
+      <c r="AN13" s="643"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="450"/>
@@ -7794,18 +7794,18 @@
       <c r="C14" s="459"/>
       <c r="D14" s="452"/>
       <c r="E14" s="453"/>
-      <c r="F14" s="643"/>
+      <c r="F14" s="622"/>
       <c r="G14" s="607" t="s">
         <v>430</v>
       </c>
       <c r="H14" s="607"/>
       <c r="I14" s="607"/>
-      <c r="J14" s="685"/>
+      <c r="J14" s="629"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="681"/>
+      <c r="O14" s="625"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7819,24 +7819,24 @@
       <c r="X14" s="431" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="656"/>
+      <c r="Y14" s="660"/>
       <c r="Z14" s="407">
         <v>1</v>
       </c>
       <c r="AA14" s="307"/>
       <c r="AB14" s="209"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="670"/>
+      <c r="AD14" s="641"/>
       <c r="AE14" s="257"/>
-      <c r="AF14" s="658"/>
+      <c r="AF14" s="633"/>
       <c r="AG14" s="257"/>
       <c r="AH14" s="257"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="257"/>
       <c r="AK14" s="257"/>
       <c r="AL14" s="257"/>
-      <c r="AM14" s="653"/>
-      <c r="AN14" s="638"/>
+      <c r="AM14" s="657"/>
+      <c r="AN14" s="643"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="449" t="s">
@@ -7845,8 +7845,8 @@
       <c r="C15" s="600" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="643"/>
-      <c r="O15" s="681"/>
+      <c r="F15" s="622"/>
+      <c r="O15" s="625"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7859,7 +7859,7 @@
       <c r="X15" s="431" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="656"/>
+      <c r="Y15" s="660"/>
       <c r="Z15" s="409">
         <v>1</v>
       </c>
@@ -7868,8 +7868,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="670"/>
-      <c r="AF15" s="658"/>
+      <c r="AD15" s="641"/>
+      <c r="AF15" s="633"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
         <v>449</v>
@@ -7882,8 +7882,8 @@
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
-      <c r="AM15" s="653"/>
-      <c r="AN15" s="638"/>
+      <c r="AM15" s="657"/>
+      <c r="AN15" s="643"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7905,13 +7905,13 @@
       <c r="E16" s="224">
         <v>1</v>
       </c>
-      <c r="F16" s="643"/>
+      <c r="F16" s="622"/>
       <c r="G16" s="337" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="469"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="681"/>
+      <c r="O16" s="625"/>
       <c r="R16" s="435" t="s">
         <v>184</v>
       </c>
@@ -7922,7 +7922,7 @@
       <c r="X16" s="431" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="656"/>
+      <c r="Y16" s="660"/>
       <c r="Z16" s="407">
         <v>1</v>
       </c>
@@ -7943,18 +7943,18 @@
       <c r="AM16" s="428" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="638"/>
+      <c r="AN16" s="643"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="643"/>
+      <c r="F17" s="622"/>
       <c r="I17" s="470"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="681"/>
+      <c r="O17" s="625"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -7974,7 +7974,7 @@
       <c r="X17" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="656"/>
+      <c r="Y17" s="660"/>
       <c r="Z17" s="409"/>
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
@@ -7999,7 +7999,7 @@
       <c r="AK17" s="257"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="428"/>
-      <c r="AN17" s="638"/>
+      <c r="AN17" s="643"/>
       <c r="AO17" s="204" t="s">
         <v>498</v>
       </c>
@@ -8023,21 +8023,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="643"/>
+      <c r="F18" s="622"/>
       <c r="G18" s="337" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="681"/>
+      <c r="O18" s="625"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="675" t="s">
+      <c r="R18" s="617" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="614" t="s">
+      <c r="U18" s="665" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8047,7 +8047,7 @@
       <c r="X18" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="656"/>
+      <c r="Y18" s="660"/>
       <c r="Z18" s="409">
         <v>1</v>
       </c>
@@ -8058,38 +8058,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
-      <c r="AF18" s="652" t="s">
+      <c r="AF18" s="632" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="654" t="s">
+      <c r="AJ18" s="658" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="428"/>
-      <c r="AN18" s="638"/>
+      <c r="AN18" s="643"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="643"/>
+      <c r="F19" s="622"/>
       <c r="I19" s="219"/>
-      <c r="O19" s="681"/>
-      <c r="R19" s="676"/>
+      <c r="O19" s="625"/>
+      <c r="R19" s="618"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="615"/>
+      <c r="U19" s="666"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="431" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="656"/>
+      <c r="Y19" s="660"/>
       <c r="Z19" s="407">
         <v>1</v>
       </c>
@@ -8098,17 +8098,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="257"/>
-      <c r="AF19" s="652"/>
+      <c r="AF19" s="632"/>
       <c r="AG19" s="257"/>
       <c r="AH19" s="257"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="654"/>
+      <c r="AJ19" s="658"/>
       <c r="AK19" s="460" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="428"/>
-      <c r="AN19" s="638"/>
+      <c r="AN19" s="643"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8129,24 +8129,24 @@
       <c r="E20" s="437">
         <v>-1</v>
       </c>
-      <c r="F20" s="643"/>
+      <c r="F20" s="622"/>
       <c r="G20" s="337" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="219"/>
-      <c r="O20" s="681"/>
-      <c r="Q20" s="683" t="s">
+      <c r="O20" s="625"/>
+      <c r="Q20" s="627" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="616"/>
+      <c r="U20" s="667"/>
       <c r="W20" s="405"/>
       <c r="X20" s="432" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="656"/>
+      <c r="Y20" s="660"/>
       <c r="Z20" s="411">
         <v>1</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="AM20" s="381" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="638"/>
+      <c r="AN20" s="643"/>
       <c r="AO20" s="338" t="s">
         <v>461</v>
       </c>
@@ -8192,20 +8192,20 @@
       <c r="E21" s="265">
         <v>0</v>
       </c>
-      <c r="F21" s="643"/>
+      <c r="F21" s="622"/>
       <c r="I21" s="219"/>
-      <c r="O21" s="681"/>
-      <c r="Q21" s="684"/>
+      <c r="O21" s="625"/>
+      <c r="Q21" s="628"/>
       <c r="T21" s="422"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="611"/>
+      <c r="V21" s="662"/>
       <c r="W21" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="429" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="656"/>
+      <c r="Y21" s="660"/>
       <c r="Z21" s="445">
         <v>3</v>
       </c>
@@ -8236,15 +8236,15 @@
       <c r="AM21" s="428" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="638"/>
+      <c r="AN21" s="643"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="643"/>
+      <c r="F22" s="622"/>
       <c r="G22" s="337" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="219"/>
-      <c r="O22" s="681"/>
+      <c r="O22" s="625"/>
       <c r="R22" s="434" t="s">
         <v>44</v>
       </c>
@@ -8252,14 +8252,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="612"/>
+      <c r="V22" s="663"/>
       <c r="W22" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="429" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="656"/>
+      <c r="Y22" s="660"/>
       <c r="Z22" s="415"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="415"/>
@@ -8270,7 +8270,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="652" t="s">
+      <c r="AJ22" s="632" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="257"/>
@@ -8278,7 +8278,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="300"/>
-      <c r="AN22" s="638"/>
+      <c r="AN22" s="643"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
@@ -8296,22 +8296,22 @@
       <c r="E23" s="225">
         <v>1</v>
       </c>
-      <c r="F23" s="643"/>
+      <c r="F23" s="622"/>
       <c r="I23" s="219"/>
-      <c r="O23" s="681"/>
-      <c r="Q23" s="683" t="s">
+      <c r="O23" s="625"/>
+      <c r="Q23" s="627" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="612"/>
+      <c r="V23" s="663"/>
       <c r="W23" s="148"/>
       <c r="X23" s="429" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="656"/>
+      <c r="Y23" s="660"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="415"/>
@@ -8322,13 +8322,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="652"/>
+      <c r="AJ23" s="632"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="300"/>
-      <c r="AN23" s="638"/>
+      <c r="AN23" s="643"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="440" t="s">
@@ -8346,23 +8346,23 @@
       <c r="E24" s="436">
         <v>1</v>
       </c>
-      <c r="F24" s="643"/>
+      <c r="F24" s="622"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="219"/>
-      <c r="O24" s="681"/>
-      <c r="Q24" s="684"/>
+      <c r="O24" s="625"/>
+      <c r="Q24" s="628"/>
       <c r="T24" s="17"/>
       <c r="U24" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="612"/>
+      <c r="V24" s="663"/>
       <c r="W24" s="148"/>
       <c r="X24" s="429" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="656"/>
+      <c r="Y24" s="660"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="415"/>
@@ -8381,12 +8381,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="300"/>
-      <c r="AN24" s="638"/>
+      <c r="AN24" s="643"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="643"/>
+      <c r="F25" s="622"/>
       <c r="I25" s="219"/>
-      <c r="O25" s="681"/>
+      <c r="O25" s="625"/>
       <c r="P25" s="204" t="s">
         <v>281</v>
       </c>
@@ -8399,12 +8399,12 @@
       <c r="U25" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="613"/>
+      <c r="V25" s="664"/>
       <c r="W25" s="148"/>
       <c r="X25" s="429" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="656"/>
+      <c r="Y25" s="660"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="415"/>
@@ -8421,7 +8421,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="300"/>
-      <c r="AN25" s="638"/>
+      <c r="AN25" s="643"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
@@ -8439,17 +8439,17 @@
       <c r="E26" s="380">
         <v>1</v>
       </c>
-      <c r="F26" s="643"/>
+      <c r="F26" s="622"/>
       <c r="G26" s="337" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="O26" s="681"/>
-      <c r="P26" s="640" t="s">
+      <c r="O26" s="625"/>
+      <c r="P26" s="645" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="641"/>
-      <c r="R26" s="677" t="s">
+      <c r="Q26" s="646"/>
+      <c r="R26" s="619" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="178"/>
@@ -8461,7 +8461,7 @@
       <c r="X26" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="656"/>
+      <c r="Y26" s="660"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="415"/>
@@ -8488,7 +8488,7 @@
       <c r="AM26" s="442" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="638"/>
+      <c r="AN26" s="643"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8500,13 +8500,13 @@
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="679"/>
+      <c r="F27" s="623"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="220"/>
-      <c r="O27" s="682"/>
-      <c r="R27" s="678"/>
+      <c r="O27" s="626"/>
+      <c r="R27" s="620"/>
       <c r="S27" s="421" t="s">
         <v>54</v>
       </c>
@@ -8519,7 +8519,7 @@
       <c r="X27" s="429" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="657"/>
+      <c r="Y27" s="661"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="416"/>
@@ -8536,32 +8536,26 @@
       <c r="AM27" s="381" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="639"/>
+      <c r="AN27" s="644"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8578,22 +8572,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8630,12 +8630,12 @@
       <c r="B1" s="605" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="685"/>
+      <c r="C1" s="629"/>
       <c r="D1" s="204"/>
       <c r="J1" s="605" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="685"/>
+      <c r="K1" s="629"/>
       <c r="L1" s="195" t="s">
         <v>331</v>
       </c>
@@ -8969,8 +8969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="N12" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9038,7 +9038,7 @@
       <c r="P1" s="398" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="716" t="s">
+      <c r="Q1" s="703" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9062,7 +9062,7 @@
       <c r="AA1" s="517" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="710" t="s">
+      <c r="AB1" s="697" t="s">
         <v>595</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9084,32 +9084,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="695">
+      <c r="A2" s="708">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="697" t="s">
+      <c r="B2" s="710" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="617" t="s">
+      <c r="C2" s="647" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="699" t="s">
+      <c r="D2" s="712" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="701" t="s">
+      <c r="E2" s="714" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="661" t="s">
+      <c r="G2" s="615" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="707" t="s">
+      <c r="I2" s="694" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="396" t="s">
@@ -9133,7 +9133,7 @@
       <c r="P2" s="399">
         <v>40</v>
       </c>
-      <c r="Q2" s="717"/>
+      <c r="Q2" s="704"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>2</v>
@@ -9158,7 +9158,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="711"/>
+      <c r="AB2" s="698"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>345</v>
@@ -9175,14 +9175,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="696"/>
-      <c r="B3" s="698"/>
-      <c r="C3" s="618"/>
-      <c r="D3" s="700"/>
-      <c r="E3" s="702"/>
-      <c r="G3" s="662"/>
+      <c r="A3" s="709"/>
+      <c r="B3" s="711"/>
+      <c r="C3" s="648"/>
+      <c r="D3" s="713"/>
+      <c r="E3" s="715"/>
+      <c r="G3" s="616"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="708"/>
+      <c r="I3" s="695"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9197,7 +9197,7 @@
       <c r="V3" s="470"/>
       <c r="W3" s="6"/>
       <c r="X3" s="470"/>
-      <c r="AB3" s="711"/>
+      <c r="AB3" s="698"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>590</v>
@@ -9222,10 +9222,10 @@
         <v>381</v>
       </c>
       <c r="B4" s="243"/>
-      <c r="C4" s="703" t="s">
+      <c r="C4" s="716" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="708"/>
+      <c r="I4" s="695"/>
       <c r="R4" s="471" t="s">
         <v>590</v>
       </c>
@@ -9237,7 +9237,7 @@
       <c r="V4" s="470"/>
       <c r="W4" s="6"/>
       <c r="X4" s="470"/>
-      <c r="AB4" s="711"/>
+      <c r="AB4" s="698"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9264,7 +9264,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="704"/>
+      <c r="C5" s="717"/>
       <c r="D5" s="222" t="s">
         <v>102</v>
       </c>
@@ -9280,7 +9280,7 @@
       <c r="H5" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="708"/>
+      <c r="I5" s="695"/>
       <c r="J5" s="397" t="s">
         <v>269</v>
       </c>
@@ -9307,7 +9307,7 @@
       <c r="V5" s="468"/>
       <c r="W5" s="6"/>
       <c r="X5" s="468"/>
-      <c r="AB5" s="711"/>
+      <c r="AB5" s="698"/>
       <c r="AC5" s="2" t="s">
         <v>593</v>
       </c>
@@ -9329,19 +9329,19 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="692" t="s">
+      <c r="A6" s="705" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="663"/>
-      <c r="D6" s="664"/>
+      <c r="C6" s="630"/>
+      <c r="D6" s="631"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="601"/>
-      <c r="I6" s="708"/>
+      <c r="I6" s="695"/>
       <c r="P6" s="61" t="s">
         <v>593</v>
       </c>
@@ -9353,7 +9353,7 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="711"/>
+      <c r="AB6" s="698"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9369,7 +9369,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="693"/>
+      <c r="A7" s="706"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="601"/>
-      <c r="I7" s="708"/>
+      <c r="I7" s="695"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9412,7 +9412,7 @@
       <c r="X7" s="469">
         <v>1</v>
       </c>
-      <c r="AB7" s="711"/>
+      <c r="AB7" s="698"/>
       <c r="AC7" s="99" t="s">
         <v>594</v>
       </c>
@@ -9438,7 +9438,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="694"/>
+      <c r="A8" s="707"/>
       <c r="B8" s="212" t="s">
         <v>28</v>
       </c>
@@ -9447,13 +9447,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="601"/>
-      <c r="I8" s="708"/>
+      <c r="I8" s="695"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
       <c r="W8" s="6"/>
       <c r="X8" s="470"/>
-      <c r="AB8" s="711"/>
+      <c r="AB8" s="698"/>
       <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
         <v>615</v>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="G9" s="601"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="708"/>
+      <c r="I9" s="695"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9493,7 +9493,7 @@
       <c r="V9" s="24"/>
       <c r="W9" s="6"/>
       <c r="X9" s="470"/>
-      <c r="AB9" s="711"/>
+      <c r="AB9" s="698"/>
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9518,10 +9518,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!W8</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="601"/>
-      <c r="I10" s="708"/>
+      <c r="I10" s="695"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9536,7 +9536,7 @@
       <c r="V10" s="470"/>
       <c r="W10" s="6"/>
       <c r="X10" s="470"/>
-      <c r="AB10" s="711"/>
+      <c r="AB10" s="698"/>
       <c r="AC10" s="515"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9568,7 +9568,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="601"/>
-      <c r="I11" s="708"/>
+      <c r="I11" s="695"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9594,13 +9594,13 @@
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="713" t="s">
+      <c r="U11" s="700" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="714"/>
-      <c r="W11" s="714"/>
-      <c r="X11" s="715"/>
-      <c r="AB11" s="712"/>
+      <c r="V11" s="701"/>
+      <c r="W11" s="701"/>
+      <c r="X11" s="702"/>
+      <c r="AB11" s="699"/>
       <c r="AC11" s="99" t="s">
         <v>596</v>
       </c>
@@ -9614,13 +9614,13 @@
         <v>4</v>
       </c>
       <c r="AG11" s="414"/>
-      <c r="AH11" s="713" t="s">
+      <c r="AH11" s="700" t="s">
         <v>606</v>
       </c>
-      <c r="AI11" s="714"/>
-      <c r="AJ11" s="714"/>
-      <c r="AK11" s="714"/>
-      <c r="AL11" s="715"/>
+      <c r="AI11" s="701"/>
+      <c r="AJ11" s="701"/>
+      <c r="AK11" s="701"/>
+      <c r="AL11" s="702"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
@@ -9631,7 +9631,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="601"/>
-      <c r="I12" s="708"/>
+      <c r="I12" s="695"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9664,7 +9664,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="601"/>
-      <c r="I13" s="708"/>
+      <c r="I13" s="695"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9708,7 +9708,7 @@
       <c r="H14" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="708"/>
+      <c r="I14" s="695"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9735,7 +9735,7 @@
       <c r="H15" s="271">
         <v>0</v>
       </c>
-      <c r="I15" s="708"/>
+      <c r="I15" s="695"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9766,7 +9766,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="708"/>
+      <c r="I16" s="695"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9806,7 +9806,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="708"/>
+      <c r="I17" s="695"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9822,13 +9822,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="708"/>
+      <c r="I18" s="695"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="705" t="s">
+      <c r="O18" s="692" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="706"/>
+      <c r="P18" s="693"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9846,7 +9846,7 @@
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="708"/>
+      <c r="I19" s="695"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9882,7 +9882,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="708"/>
+      <c r="I20" s="695"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -9913,7 +9913,7 @@
       <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="708"/>
+      <c r="I21" s="695"/>
       <c r="M21" s="216" t="s">
         <v>412</v>
       </c>
@@ -9947,7 +9947,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="708"/>
+      <c r="I22" s="695"/>
       <c r="P22" s="99" t="s">
         <v>592</v>
       </c>
@@ -9962,7 +9962,7 @@
       <c r="E23" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="708"/>
+      <c r="I23" s="695"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>7</v>
@@ -9979,7 +9979,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="708"/>
+      <c r="I24" s="695"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
         <v>1</v>
@@ -10007,7 +10007,7 @@
       <c r="H25" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="708"/>
+      <c r="I25" s="695"/>
       <c r="J25" s="397" t="s">
         <v>270</v>
       </c>
@@ -10052,7 +10052,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="708"/>
+      <c r="I26" s="695"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10087,7 +10087,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="708"/>
+      <c r="I27" s="695"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10114,7 +10114,7 @@
       <c r="E28" s="215">
         <v>2</v>
       </c>
-      <c r="I28" s="708"/>
+      <c r="I28" s="695"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10136,7 +10136,7 @@
       <c r="H29" s="191" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="709"/>
+      <c r="I29" s="696"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10194,13 +10194,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10212,6 +10205,13 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10222,8 +10222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="AQ23" sqref="AQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10323,14 +10323,14 @@
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="T1" s="744"/>
+      <c r="T1" s="737"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="728" t="s">
+      <c r="X1" s="721" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="729"/>
+      <c r="Y1" s="722"/>
       <c r="Z1" s="306">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10346,27 +10346,27 @@
       <c r="AD1" s="302" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="730" t="s">
+      <c r="AE1" s="723" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="731"/>
-      <c r="AG1" s="732"/>
-      <c r="AH1" s="733" t="s">
+      <c r="AF1" s="724"/>
+      <c r="AG1" s="725"/>
+      <c r="AH1" s="726" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="734"/>
-      <c r="AJ1" s="735"/>
-      <c r="AK1" s="661" t="s">
+      <c r="AI1" s="727"/>
+      <c r="AJ1" s="728"/>
+      <c r="AK1" s="615" t="s">
         <v>620</v>
       </c>
       <c r="AL1" s="551" t="s">
         <v>621</v>
       </c>
-      <c r="AM1" s="725" t="s">
+      <c r="AM1" s="718" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="726"/>
-      <c r="AO1" s="727"/>
+      <c r="AN1" s="719"/>
+      <c r="AO1" s="720"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10379,29 +10379,29 @@
       </c>
       <c r="J2" s="318">
         <f>K2+L2</f>
-        <v>19</v>
-      </c>
-      <c r="K2" s="723">
+        <v>20</v>
+      </c>
+      <c r="K2" s="745">
         <f>SUM(K4:K37)</f>
         <v>8</v>
       </c>
-      <c r="L2" s="721">
+      <c r="L2" s="743">
         <f>SUM(L4:L37)</f>
-        <v>11</v>
-      </c>
-      <c r="M2" s="736">
+        <v>12</v>
+      </c>
+      <c r="M2" s="729">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="738">
+      <c r="N2" s="731">
         <f>SUM(N4:N29)</f>
-        <v>1</v>
-      </c>
-      <c r="O2" s="740">
+        <v>2</v>
+      </c>
+      <c r="O2" s="733">
         <f>SUM(O4:O29)</f>
         <v>10</v>
       </c>
-      <c r="P2" s="668">
+      <c r="P2" s="639">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-1</v>
       </c>
@@ -10414,14 +10414,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="745"/>
+      <c r="T2" s="738"/>
       <c r="U2" s="537" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="482" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="742" t="s">
+      <c r="W2" s="735" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="483" t="s">
@@ -10463,7 +10463,7 @@
       <c r="AJ2" s="150" t="s">
         <v>289</v>
       </c>
-      <c r="AK2" s="662"/>
+      <c r="AK2" s="616"/>
       <c r="AL2" s="594" t="s">
         <v>289</v>
       </c>
@@ -10491,12 +10491,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="724"/>
-      <c r="L3" s="722"/>
-      <c r="M3" s="737"/>
-      <c r="N3" s="739"/>
-      <c r="O3" s="741"/>
-      <c r="P3" s="669"/>
+      <c r="K3" s="746"/>
+      <c r="L3" s="744"/>
+      <c r="M3" s="730"/>
+      <c r="N3" s="732"/>
+      <c r="O3" s="734"/>
+      <c r="P3" s="640"/>
       <c r="Q3" s="172">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10504,23 +10504,23 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="746"/>
+      <c r="T3" s="739"/>
       <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
         <v>13</v>
       </c>
       <c r="V3" s="484">
         <f>SUM(V4:V29)</f>
-        <v>44</v>
-      </c>
-      <c r="W3" s="743"/>
+        <v>43</v>
+      </c>
+      <c r="W3" s="736"/>
       <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>10</v>
       </c>
       <c r="Y3" s="485">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="59">
         <f t="shared" si="0"/>
@@ -10532,7 +10532,7 @@
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
@@ -10564,7 +10564,7 @@
       </c>
       <c r="AJ3" s="404">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK3" s="404">
         <f>SUM(AK4:AK37)</f>
@@ -10619,7 +10619,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="718" t="s">
+      <c r="P4" s="740" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10705,7 +10705,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="719"/>
+      <c r="P5" s="741"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10803,7 +10803,7 @@
         <f>AC6</f>
         <v>1</v>
       </c>
-      <c r="P6" s="719"/>
+      <c r="P6" s="741"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -10908,7 +10908,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="719"/>
+      <c r="P7" s="741"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -11024,7 +11024,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="719"/>
+      <c r="P8" s="741"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11045,7 +11045,7 @@
       </c>
       <c r="W8" s="24">
         <f>V3</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X8" s="497">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="719"/>
+      <c r="P9" s="741"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11220,7 +11220,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="719"/>
+      <c r="P10" s="741"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11312,7 +11312,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="719"/>
+      <c r="P11" s="741"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11377,14 +11377,14 @@
       <c r="AR11" s="508"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="628" t="s">
+      <c r="A12" s="677" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="683" t="s">
+      <c r="E12" s="627" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="262"/>
@@ -11409,7 +11409,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="719"/>
+      <c r="P12" s="741"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11484,14 +11484,14 @@
       <c r="AR12" s="509"/>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="630"/>
+      <c r="A13" s="679"/>
       <c r="B13" s="584">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="684"/>
+      <c r="E13" s="628"/>
       <c r="F13" s="172">
         <v>0</v>
       </c>
@@ -11515,7 +11515,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="719"/>
+      <c r="P13" s="741"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11597,7 +11597,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="719"/>
+      <c r="P14" s="741"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
         <v>340</v>
@@ -11700,7 +11700,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="719"/>
+      <c r="P15" s="741"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
         <v>340</v>
@@ -11792,7 +11792,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="719"/>
+      <c r="P16" s="741"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -11895,7 +11895,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="719"/>
+      <c r="P17" s="741"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -11995,7 +11995,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="719"/>
+      <c r="P18" s="741"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12085,7 +12085,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="719"/>
+      <c r="P19" s="741"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12193,11 +12193,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P20" s="720"/>
+      <c r="P20" s="742"/>
       <c r="Q20" s="605" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="685"/>
+      <c r="R20" s="629"/>
       <c r="S20" s="534" t="s">
         <v>85</v>
       </c>
@@ -12461,7 +12461,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="635" t="s">
+      <c r="E23" s="684" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="180"/>
@@ -12474,13 +12474,13 @@
         <v>1</v>
       </c>
       <c r="L23" s="581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="326">
         <v>0</v>
       </c>
       <c r="N23" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="293">
         <f t="shared" si="10"/>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="U23" s="503"/>
       <c r="V23" s="492">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="493">
         <v>-1</v>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="Y23" s="183">
         <f>SUM(M23:N23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="296"/>
       <c r="AA23" s="117">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="AB23" s="290">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC23" s="290">
         <v>1</v>
@@ -12535,9 +12535,7 @@
       <c r="AI23" s="375">
         <v>0</v>
       </c>
-      <c r="AJ23" s="509">
-        <v>1</v>
-      </c>
+      <c r="AJ23" s="509"/>
       <c r="AK23" s="559"/>
       <c r="AL23" s="317"/>
       <c r="AM23" s="336">
@@ -12566,7 +12564,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="636"/>
+      <c r="E24" s="685"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
       <c r="J24" s="571" t="s">
@@ -12591,7 +12589,7 @@
       <c r="Q24" s="605" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="685"/>
+      <c r="R24" s="629"/>
       <c r="S24" s="534" t="s">
         <v>250</v>
       </c>
@@ -13242,8 +13240,8 @@
       <c r="AR31" s="508"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="652"/>
-      <c r="B32" s="652"/>
+      <c r="A32" s="632"/>
+      <c r="B32" s="632"/>
       <c r="J32" s="572"/>
       <c r="K32" s="589"/>
       <c r="L32" s="581"/>
@@ -13712,9 +13710,7 @@
       </c>
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="24">
-        <v>1</v>
-      </c>
+      <c r="B37" s="24"/>
       <c r="D37" s="382">
         <v>1</v>
       </c>
@@ -13818,6 +13814,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13829,15 +13834,6 @@
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13905,7 +13901,7 @@
       <c r="V1" s="605" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="685"/>
+      <c r="W1" s="629"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13924,7 +13920,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="761" t="s">
+      <c r="AD1" s="754" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13941,10 +13937,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="792" t="s">
+      <c r="F2" s="753" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="749" t="s">
+      <c r="G2" s="781" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13972,10 +13968,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="728" t="s">
+      <c r="V2" s="721" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="729"/>
+      <c r="W2" s="722"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13994,7 +13990,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="762"/>
+      <c r="AD2" s="755"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14013,8 +14009,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="632"/>
-      <c r="G3" s="750"/>
+      <c r="F3" s="681"/>
+      <c r="G3" s="782"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14025,13 +14021,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="759" t="s">
+      <c r="O3" s="791" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="780" t="s">
+      <c r="P3" s="773" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="781"/>
+      <c r="Q3" s="774"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14041,15 +14037,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="762"/>
+      <c r="AD3" s="755"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="750"/>
+      <c r="G4" s="782"/>
       <c r="H4" s="6"/>
       <c r="L4" s="689" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="760"/>
+      <c r="O4" s="792"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14063,8 +14059,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="607"/>
-      <c r="AA4" s="685"/>
-      <c r="AD4" s="762"/>
+      <c r="AA4" s="629"/>
+      <c r="AD4" s="755"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14079,21 +14075,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="750"/>
+      <c r="G5" s="782"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="767" t="s">
+      <c r="K5" s="760" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="782"/>
+      <c r="L5" s="775"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="760"/>
+      <c r="O5" s="792"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14109,11 +14105,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="770" t="s">
+      <c r="Y5" s="763" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="771"/>
-      <c r="AD5" s="762"/>
+      <c r="Z5" s="764"/>
+      <c r="AD5" s="755"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14123,16 +14119,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="750"/>
+      <c r="G6" s="782"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="768"/>
-      <c r="L6" s="782"/>
-      <c r="O6" s="760"/>
+      <c r="K6" s="761"/>
+      <c r="L6" s="775"/>
+      <c r="O6" s="792"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14142,23 +14138,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="762"/>
+      <c r="AD6" s="755"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="750"/>
+      <c r="G7" s="782"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="768"/>
-      <c r="L7" s="782"/>
+      <c r="K7" s="761"/>
+      <c r="L7" s="775"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="760"/>
+      <c r="O7" s="792"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="762"/>
+      <c r="AD7" s="755"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14171,7 +14167,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="750"/>
+      <c r="G8" s="782"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14181,41 +14177,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="768"/>
-      <c r="L8" s="782"/>
-      <c r="O8" s="760"/>
+      <c r="K8" s="761"/>
+      <c r="L8" s="775"/>
+      <c r="O8" s="792"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="764" t="s">
+      <c r="S8" s="757" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="765"/>
-      <c r="U8" s="765"/>
-      <c r="V8" s="765"/>
-      <c r="W8" s="765"/>
-      <c r="X8" s="765"/>
-      <c r="Y8" s="765"/>
-      <c r="Z8" s="765"/>
-      <c r="AA8" s="765"/>
-      <c r="AB8" s="765"/>
-      <c r="AC8" s="766"/>
-      <c r="AD8" s="762"/>
+      <c r="T8" s="758"/>
+      <c r="U8" s="758"/>
+      <c r="V8" s="758"/>
+      <c r="W8" s="758"/>
+      <c r="X8" s="758"/>
+      <c r="Y8" s="758"/>
+      <c r="Z8" s="758"/>
+      <c r="AA8" s="758"/>
+      <c r="AB8" s="758"/>
+      <c r="AC8" s="759"/>
+      <c r="AD8" s="755"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="786"/>
-      <c r="G9" s="750"/>
+      <c r="C9" s="747"/>
+      <c r="G9" s="782"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="768"/>
-      <c r="L9" s="753" t="s">
+      <c r="K9" s="761"/>
+      <c r="L9" s="785" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="754"/>
-      <c r="N9" s="755"/>
-      <c r="O9" s="760"/>
+      <c r="M9" s="786"/>
+      <c r="N9" s="787"/>
+      <c r="O9" s="792"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="762"/>
+      <c r="AD9" s="755"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="787"/>
+      <c r="C10" s="748"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14223,7 +14219,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="750"/>
+      <c r="G10" s="782"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14231,33 +14227,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="768"/>
-      <c r="M10" s="789" t="s">
+      <c r="K10" s="761"/>
+      <c r="M10" s="750" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="790"/>
-      <c r="O10" s="790"/>
-      <c r="P10" s="790"/>
-      <c r="Q10" s="790"/>
-      <c r="R10" s="790"/>
-      <c r="S10" s="790"/>
-      <c r="T10" s="790"/>
-      <c r="U10" s="790"/>
-      <c r="V10" s="790"/>
-      <c r="W10" s="790"/>
-      <c r="X10" s="790"/>
-      <c r="Y10" s="790"/>
-      <c r="Z10" s="790"/>
-      <c r="AA10" s="790"/>
-      <c r="AB10" s="790"/>
-      <c r="AC10" s="791"/>
-      <c r="AD10" s="762"/>
+      <c r="N10" s="751"/>
+      <c r="O10" s="751"/>
+      <c r="P10" s="751"/>
+      <c r="Q10" s="751"/>
+      <c r="R10" s="751"/>
+      <c r="S10" s="751"/>
+      <c r="T10" s="751"/>
+      <c r="U10" s="751"/>
+      <c r="V10" s="751"/>
+      <c r="W10" s="751"/>
+      <c r="X10" s="751"/>
+      <c r="Y10" s="751"/>
+      <c r="Z10" s="751"/>
+      <c r="AA10" s="751"/>
+      <c r="AB10" s="751"/>
+      <c r="AC10" s="752"/>
+      <c r="AD10" s="755"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="788"/>
-      <c r="G11" s="750"/>
+      <c r="C11" s="749"/>
+      <c r="G11" s="782"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="768"/>
+      <c r="K11" s="761"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14265,17 +14261,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="778" t="s">
+      <c r="Z11" s="771" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="779"/>
+      <c r="AA11" s="772"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="762"/>
+      <c r="AD11" s="755"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14288,7 +14284,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="750"/>
+      <c r="G12" s="782"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14296,8 +14292,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="768"/>
-      <c r="L12" s="783" t="s">
+      <c r="K12" s="761"/>
+      <c r="L12" s="776" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14328,25 +14324,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="772" t="s">
+      <c r="AA12" s="765" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="773"/>
+      <c r="AB12" s="766"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="762"/>
+      <c r="AD12" s="755"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="786"/>
-      <c r="G13" s="750"/>
-      <c r="K13" s="768"/>
-      <c r="L13" s="784"/>
+      <c r="C13" s="747"/>
+      <c r="G13" s="782"/>
+      <c r="K13" s="761"/>
+      <c r="L13" s="777"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="752" t="s">
+      <c r="Q13" s="784" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="641"/>
+      <c r="R13" s="646"/>
       <c r="S13" s="601"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14355,17 +14351,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="774"/>
-      <c r="AB13" s="775"/>
-      <c r="AD13" s="762"/>
+      <c r="AA13" s="767"/>
+      <c r="AB13" s="768"/>
+      <c r="AD13" s="755"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="788"/>
+      <c r="C14" s="749"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="750"/>
+      <c r="G14" s="782"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14373,8 +14369,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="768"/>
-      <c r="L14" s="784"/>
+      <c r="K14" s="761"/>
+      <c r="L14" s="777"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14395,9 +14391,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="774"/>
-      <c r="AB14" s="775"/>
-      <c r="AD14" s="762"/>
+      <c r="AA14" s="767"/>
+      <c r="AB14" s="768"/>
+      <c r="AD14" s="755"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14412,19 +14408,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="750"/>
+      <c r="G15" s="782"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="768"/>
-      <c r="L15" s="785"/>
-      <c r="Q15" s="752" t="s">
+      <c r="K15" s="761"/>
+      <c r="L15" s="778"/>
+      <c r="Q15" s="784" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="641"/>
+      <c r="R15" s="646"/>
       <c r="S15" s="601"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14433,14 +14429,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="774"/>
-      <c r="AB15" s="775"/>
-      <c r="AD15" s="762"/>
+      <c r="AA15" s="767"/>
+      <c r="AB15" s="768"/>
+      <c r="AD15" s="755"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="750"/>
-      <c r="K16" s="768"/>
+      <c r="G16" s="782"/>
+      <c r="K16" s="761"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14459,24 +14455,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="774"/>
-      <c r="AB16" s="775"/>
-      <c r="AD16" s="762"/>
+      <c r="AA16" s="767"/>
+      <c r="AB16" s="768"/>
+      <c r="AD16" s="755"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="747" t="s">
+      <c r="F17" s="779" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="750"/>
+      <c r="G17" s="782"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="768"/>
+      <c r="K17" s="761"/>
       <c r="S17" s="601"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14484,9 +14480,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="774"/>
-      <c r="AB17" s="775"/>
-      <c r="AD17" s="762"/>
+      <c r="AA17" s="767"/>
+      <c r="AB17" s="768"/>
+      <c r="AD17" s="755"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14496,15 +14492,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="748"/>
-      <c r="G18" s="750"/>
+      <c r="F18" s="780"/>
+      <c r="G18" s="782"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="768"/>
+      <c r="K18" s="761"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14515,39 +14511,42 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="776"/>
-      <c r="AB18" s="777"/>
-      <c r="AD18" s="762"/>
+      <c r="AA18" s="769"/>
+      <c r="AB18" s="770"/>
+      <c r="AD18" s="755"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="751"/>
-      <c r="K19" s="769"/>
+      <c r="G19" s="783"/>
+      <c r="K19" s="762"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="756" t="s">
+      <c r="R19" s="788" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="757"/>
-      <c r="T19" s="758"/>
+      <c r="S19" s="789"/>
+      <c r="T19" s="790"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="763"/>
+      <c r="AD19" s="756"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14559,14 +14558,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38290A64-5E2B-42D4-98A9-4D25A8A101B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF172885-0E7B-431F-9A31-2C47F1E2E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="623">
   <si>
     <t>Zone</t>
   </si>
@@ -1835,15 +1835,9 @@
     <t>TN</t>
   </si>
   <si>
-    <t>aajtak</t>
-  </si>
-  <si>
     <t>IT_X_Media</t>
   </si>
   <si>
-    <t>SP</t>
-  </si>
-  <si>
     <t>WL F IT</t>
   </si>
   <si>
@@ -1907,13 +1901,13 @@
     <t>C0Host</t>
   </si>
   <si>
-    <t>ndtv 24*7</t>
-  </si>
-  <si>
-    <t>Wbt_X_8F</t>
-  </si>
-  <si>
     <t>France24 ES</t>
+  </si>
+  <si>
+    <t>Wbt_X_7F</t>
+  </si>
+  <si>
+    <t>Nippon TV</t>
   </si>
 </sst>
 </file>
@@ -3546,7 +3540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="793">
+  <cellXfs count="791">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4969,12 +4963,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="47" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5042,6 +5030,186 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5054,12 +5222,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5071,12 +5233,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -5099,190 +5255,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5324,43 +5351,25 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5429,46 +5438,46 @@
     <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5546,46 +5555,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5883,8 +5871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5940,10 +5928,10 @@
       <c r="I2" s="391" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="603" t="s">
+      <c r="J2" s="601" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="604"/>
+      <c r="K2" s="602"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5953,14 +5941,14 @@
       <c r="N2" s="349" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="605" t="s">
+      <c r="O2" s="603" t="s">
         <v>376</v>
       </c>
-      <c r="P2" s="606"/>
-      <c r="Q2" s="607"/>
-      <c r="R2" s="607"/>
-      <c r="S2" s="607"/>
-      <c r="T2" s="608" t="s">
+      <c r="P2" s="604"/>
+      <c r="Q2" s="605"/>
+      <c r="R2" s="605"/>
+      <c r="S2" s="605"/>
+      <c r="T2" s="606" t="s">
         <v>377</v>
       </c>
       <c r="V2" s="21" t="s">
@@ -5974,7 +5962,7 @@
       <c r="C3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="600"/>
+      <c r="D3" s="598"/>
       <c r="E3" s="337"/>
       <c r="F3" s="265" t="s">
         <v>68</v>
@@ -5996,22 +5984,20 @@
         <v>12</v>
       </c>
       <c r="O3" s="6"/>
-      <c r="P3" s="183">
-        <v>1</v>
-      </c>
+      <c r="P3" s="183"/>
       <c r="R3" s="34" t="s">
         <v>44</v>
       </c>
       <c r="S3" s="24">
         <v>1</v>
       </c>
-      <c r="T3" s="609"/>
+      <c r="T3" s="607"/>
       <c r="U3" s="19" t="s">
         <v>567</v>
       </c>
       <c r="V3" s="24">
         <f>SUM(P3:P28)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6021,7 +6007,7 @@
       <c r="C4" s="165" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="601"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="61"/>
       <c r="F4" s="359" t="s">
         <v>42</v>
@@ -6038,7 +6024,7 @@
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="313"/>
-      <c r="T4" s="609"/>
+      <c r="T4" s="607"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -6047,7 +6033,7 @@
       <c r="C5" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="602"/>
+      <c r="D5" s="600"/>
       <c r="F5" s="363" t="s">
         <v>42</v>
       </c>
@@ -6064,7 +6050,7 @@
         <v>504</v>
       </c>
       <c r="P5" s="313"/>
-      <c r="T5" s="609"/>
+      <c r="T5" s="607"/>
       <c r="U5" s="204" t="s">
         <v>226</v>
       </c>
@@ -6101,7 +6087,7 @@
       <c r="P6" s="313"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="6"/>
-      <c r="T6" s="609"/>
+      <c r="T6" s="607"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="209" t="s">
@@ -6139,7 +6125,7 @@
       <c r="S7" s="24">
         <v>1</v>
       </c>
-      <c r="T7" s="609"/>
+      <c r="T7" s="607"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -6168,7 +6154,7 @@
       <c r="P8" s="313"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="6"/>
-      <c r="T8" s="609"/>
+      <c r="T8" s="607"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -6199,19 +6185,15 @@
       <c r="O9" s="474" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="313">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>600</v>
-      </c>
+      <c r="P9" s="313"/>
+      <c r="Q9" s="2"/>
       <c r="R9" s="34" t="s">
         <v>44</v>
       </c>
       <c r="S9" s="24">
         <v>1</v>
       </c>
-      <c r="T9" s="609"/>
+      <c r="T9" s="607"/>
     </row>
     <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -6222,7 +6204,7 @@
       </c>
       <c r="D10" s="61"/>
       <c r="F10" s="359" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
@@ -6241,7 +6223,7 @@
         <v>504</v>
       </c>
       <c r="P10" s="313"/>
-      <c r="T10" s="609"/>
+      <c r="T10" s="607"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -6281,7 +6263,7 @@
       <c r="S11" s="24">
         <v>1</v>
       </c>
-      <c r="T11" s="609"/>
+      <c r="T11" s="607"/>
       <c r="U11" s="204" t="s">
         <v>225</v>
       </c>
@@ -6314,7 +6296,7 @@
       <c r="P12" s="313"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="142"/>
-      <c r="T12" s="609"/>
+      <c r="T12" s="607"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="256" t="s">
@@ -6344,7 +6326,7 @@
       </c>
       <c r="P13" s="313"/>
       <c r="R13" s="142"/>
-      <c r="T13" s="609"/>
+      <c r="T13" s="607"/>
       <c r="U13" s="2" t="s">
         <v>588</v>
       </c>
@@ -6354,7 +6336,7 @@
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P14" s="313"/>
-      <c r="T14" s="609"/>
+      <c r="T14" s="607"/>
     </row>
     <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -6380,8 +6362,8 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="597"/>
-      <c r="N15" s="600" t="s">
+      <c r="M15" s="595"/>
+      <c r="N15" s="598" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="474" t="s">
@@ -6394,7 +6376,7 @@
       <c r="S15" s="24">
         <v>1</v>
       </c>
-      <c r="T15" s="609"/>
+      <c r="T15" s="607"/>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="462" t="s">
@@ -6420,8 +6402,8 @@
       <c r="L16" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="598"/>
-      <c r="N16" s="601"/>
+      <c r="M16" s="596"/>
+      <c r="N16" s="599"/>
       <c r="P16" s="313">
         <v>1</v>
       </c>
@@ -6434,7 +6416,7 @@
       <c r="S16" s="112">
         <v>1</v>
       </c>
-      <c r="T16" s="609"/>
+      <c r="T16" s="607"/>
     </row>
     <row r="17" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -6458,8 +6440,8 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="599"/>
-      <c r="N17" s="602"/>
+      <c r="M17" s="597"/>
+      <c r="N17" s="600"/>
       <c r="O17" s="474" t="s">
         <v>44</v>
       </c>
@@ -6472,11 +6454,11 @@
       <c r="S17" s="24">
         <v>1</v>
       </c>
-      <c r="T17" s="609"/>
+      <c r="T17" s="607"/>
     </row>
     <row r="18" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P18" s="313"/>
-      <c r="T18" s="609"/>
+      <c r="T18" s="607"/>
     </row>
     <row r="19" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -6500,12 +6482,12 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="597"/>
+      <c r="M19" s="595"/>
       <c r="N19" s="390" t="s">
         <v>504</v>
       </c>
       <c r="P19" s="313"/>
-      <c r="T19" s="609"/>
+      <c r="T19" s="607"/>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="241" t="s">
@@ -6531,7 +6513,7 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="598"/>
+      <c r="M20" s="596"/>
       <c r="N20" s="383" t="s">
         <v>26</v>
       </c>
@@ -6542,7 +6524,7 @@
       <c r="S20" s="24">
         <v>1</v>
       </c>
-      <c r="T20" s="609"/>
+      <c r="T20" s="607"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="241" t="s">
@@ -6568,7 +6550,7 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="598"/>
+      <c r="M21" s="596"/>
       <c r="N21" s="383" t="s">
         <v>18</v>
       </c>
@@ -6579,11 +6561,11 @@
       <c r="S21" s="24">
         <v>1</v>
       </c>
-      <c r="T21" s="609"/>
-      <c r="U21" s="595" t="s">
+      <c r="T21" s="607"/>
+      <c r="U21" s="593" t="s">
         <v>224</v>
       </c>
-      <c r="V21" s="596"/>
+      <c r="V21" s="594"/>
     </row>
     <row r="22" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="270" t="s">
@@ -6607,12 +6589,12 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="598"/>
+      <c r="M22" s="596"/>
       <c r="N22" s="372" t="s">
         <v>26</v>
       </c>
       <c r="P22" s="313"/>
-      <c r="T22" s="609"/>
+      <c r="T22" s="607"/>
       <c r="X22" s="19"/>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6626,7 +6608,7 @@
       <c r="E23" s="61"/>
       <c r="F23" s="100"/>
       <c r="G23" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>411</v>
@@ -6637,14 +6619,14 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="598"/>
+      <c r="M23" s="596"/>
       <c r="N23" s="61" t="s">
         <v>505</v>
       </c>
       <c r="P23" s="313"/>
-      <c r="T23" s="609"/>
+      <c r="T23" s="607"/>
       <c r="U23" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="V23" s="100" t="s">
         <v>44</v>
@@ -6664,7 +6646,7 @@
       <c r="E24" s="464"/>
       <c r="F24" s="386"/>
       <c r="G24" s="239" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H24" s="210" t="s">
         <v>393</v>
@@ -6675,7 +6657,7 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="598"/>
+      <c r="M24" s="596"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
@@ -6684,7 +6666,7 @@
       </c>
       <c r="P24" s="513"/>
       <c r="S24" s="80"/>
-      <c r="T24" s="609"/>
+      <c r="T24" s="607"/>
       <c r="X24" s="19"/>
     </row>
     <row r="25" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6711,7 +6693,7 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="598"/>
+      <c r="M25" s="596"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
@@ -6727,7 +6709,7 @@
       <c r="S25" s="21">
         <v>1</v>
       </c>
-      <c r="T25" s="609"/>
+      <c r="T25" s="607"/>
       <c r="V25" s="24"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6741,10 +6723,10 @@
       <c r="E26" s="392"/>
       <c r="F26" s="359"/>
       <c r="G26" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I26" s="61"/>
       <c r="J26" s="242"/>
@@ -6752,14 +6734,14 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="598"/>
+      <c r="M26" s="596"/>
       <c r="N26" s="61" t="s">
         <v>506</v>
       </c>
       <c r="P26" s="313"/>
-      <c r="T26" s="609"/>
+      <c r="T26" s="607"/>
       <c r="V26" s="24" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6773,7 +6755,7 @@
       <c r="E27" s="392"/>
       <c r="F27" s="382"/>
       <c r="G27" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H27" s="210" t="s">
         <v>515</v>
@@ -6782,7 +6764,7 @@
       <c r="J27" s="387"/>
       <c r="K27" s="388"/>
       <c r="L27" s="389"/>
-      <c r="M27" s="598"/>
+      <c r="M27" s="596"/>
       <c r="N27" s="61"/>
       <c r="P27" s="313"/>
       <c r="R27" s="34" t="s">
@@ -6791,7 +6773,7 @@
       <c r="S27" s="24">
         <v>1</v>
       </c>
-      <c r="T27" s="609"/>
+      <c r="T27" s="607"/>
       <c r="W27" s="2" t="s">
         <v>581</v>
       </c>
@@ -6809,7 +6791,7 @@
       <c r="E28" s="392"/>
       <c r="F28" s="384"/>
       <c r="G28" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H28" s="210" t="s">
         <v>579</v>
@@ -6820,7 +6802,7 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="599"/>
+      <c r="M28" s="597"/>
       <c r="N28" s="61" t="s">
         <v>506</v>
       </c>
@@ -6836,7 +6818,7 @@
       <c r="S28" s="21">
         <v>1</v>
       </c>
-      <c r="T28" s="610"/>
+      <c r="T28" s="608"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6924,7 +6906,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="615" t="s">
+      <c r="I1" s="659" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6960,7 +6942,7 @@
       <c r="X1" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="659" t="s">
+      <c r="Y1" s="653" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="406">
@@ -6985,7 +6967,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="402"/>
-      <c r="AN1" s="642"/>
+      <c r="AN1" s="635"/>
       <c r="AO1" s="338" t="s">
         <v>470</v>
       </c>
@@ -6994,23 +6976,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="668">
+      <c r="A2" s="617">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="670" t="s">
+      <c r="B2" s="619" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="647" t="s">
+      <c r="C2" s="615" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="672" t="s">
+      <c r="D2" s="621" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="611" t="s">
+      <c r="E2" s="669" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="621" t="s">
+      <c r="F2" s="640" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="393" t="s">
@@ -7019,31 +7001,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="616"/>
+      <c r="I2" s="660"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="613" t="s">
+      <c r="K2" s="671" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="614"/>
-      <c r="M2" s="621" t="s">
+      <c r="L2" s="672"/>
+      <c r="M2" s="640" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="651" t="s">
+      <c r="O2" s="644" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="647" t="s">
+      <c r="Q2" s="615" t="s">
         <v>143</v>
       </c>
-      <c r="R2" s="600"/>
-      <c r="S2" s="636" t="s">
+      <c r="R2" s="598"/>
+      <c r="S2" s="657" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7053,7 +7035,7 @@
       <c r="X2" s="431" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="660"/>
+      <c r="Y2" s="654"/>
       <c r="Z2" s="407">
         <v>1</v>
       </c>
@@ -7076,15 +7058,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="428"/>
-      <c r="AN2" s="643"/>
+      <c r="AN2" s="636"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="669"/>
-      <c r="B3" s="671"/>
-      <c r="C3" s="648"/>
-      <c r="D3" s="673"/>
-      <c r="E3" s="612"/>
-      <c r="F3" s="622"/>
+      <c r="A3" s="618"/>
+      <c r="B3" s="620"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="622"/>
+      <c r="E3" s="670"/>
+      <c r="F3" s="641"/>
       <c r="G3" s="394" t="s">
         <v>28</v>
       </c>
@@ -7103,17 +7085,17 @@
       <c r="L3" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="622"/>
+      <c r="M3" s="641"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="652"/>
+      <c r="O3" s="645"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="648"/>
-      <c r="R3" s="602"/>
-      <c r="S3" s="638"/>
+      <c r="Q3" s="616"/>
+      <c r="R3" s="600"/>
+      <c r="S3" s="658"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7121,7 +7103,7 @@
       <c r="X3" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="660"/>
+      <c r="Y3" s="654"/>
       <c r="Z3" s="408">
         <v>1</v>
       </c>
@@ -7130,7 +7112,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="633" t="s">
+      <c r="AD3" s="656" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="257"/>
@@ -7142,16 +7124,16 @@
       <c r="AK3" s="257"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="428"/>
-      <c r="AN3" s="643"/>
+      <c r="AN3" s="636"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="684" t="s">
+      <c r="B4" s="633" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="647" t="s">
+      <c r="C4" s="615" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="347" t="s">
@@ -7160,7 +7142,7 @@
       <c r="E4" s="378">
         <v>2</v>
       </c>
-      <c r="F4" s="622"/>
+      <c r="F4" s="641"/>
       <c r="G4" s="381" t="s">
         <v>202</v>
       </c>
@@ -7177,11 +7159,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="204"/>
-      <c r="M4" s="622"/>
+      <c r="M4" s="641"/>
       <c r="N4" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="652"/>
+      <c r="O4" s="645"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7203,12 +7185,12 @@
       <c r="X4" s="431" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="660"/>
+      <c r="Y4" s="654"/>
       <c r="Z4" s="409"/>
       <c r="AA4" s="307"/>
       <c r="AB4" s="209"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="633"/>
+      <c r="AD4" s="656"/>
       <c r="AE4" s="257"/>
       <c r="AF4" s="257"/>
       <c r="AG4" s="16"/>
@@ -7218,37 +7200,37 @@
       <c r="AK4" s="257"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="428"/>
-      <c r="AN4" s="643"/>
+      <c r="AN4" s="636"/>
       <c r="AO4" s="338" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="615" t="s">
+      <c r="A5" s="659" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="685"/>
-      <c r="C5" s="648"/>
+      <c r="B5" s="634"/>
+      <c r="C5" s="616"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="379">
         <v>1</v>
       </c>
-      <c r="F5" s="622"/>
-      <c r="G5" s="676" t="s">
+      <c r="F5" s="641"/>
+      <c r="G5" s="625" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="676"/>
-      <c r="I5" s="676"/>
-      <c r="J5" s="676"/>
-      <c r="K5" s="676"/>
-      <c r="L5" s="677"/>
-      <c r="M5" s="622"/>
+      <c r="H5" s="625"/>
+      <c r="I5" s="625"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="626"/>
+      <c r="M5" s="641"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="652"/>
+      <c r="O5" s="645"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7256,7 +7238,7 @@
       <c r="X5" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="660"/>
+      <c r="Y5" s="654"/>
       <c r="Z5" s="409">
         <v>1</v>
       </c>
@@ -7279,24 +7261,24 @@
       <c r="AK5" s="257"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="428"/>
-      <c r="AN5" s="643"/>
+      <c r="AN5" s="636"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="616"/>
-      <c r="B6" s="682" t="s">
+      <c r="A6" s="660"/>
+      <c r="B6" s="631" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="631"/>
-      <c r="F6" s="622"/>
-      <c r="G6" s="678"/>
-      <c r="H6" s="678"/>
-      <c r="I6" s="678"/>
-      <c r="J6" s="678"/>
-      <c r="K6" s="678"/>
-      <c r="L6" s="679"/>
-      <c r="M6" s="622"/>
-      <c r="O6" s="652"/>
+      <c r="C6" s="661"/>
+      <c r="D6" s="662"/>
+      <c r="F6" s="641"/>
+      <c r="G6" s="627"/>
+      <c r="H6" s="627"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="627"/>
+      <c r="L6" s="628"/>
+      <c r="M6" s="641"/>
+      <c r="O6" s="645"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7306,7 +7288,7 @@
       <c r="X6" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="660"/>
+      <c r="Y6" s="654"/>
       <c r="Z6" s="407">
         <v>1</v>
       </c>
@@ -7320,16 +7302,16 @@
       <c r="AF6" s="257"/>
       <c r="AG6" s="257"/>
       <c r="AH6" s="257"/>
-      <c r="AI6" s="632"/>
+      <c r="AI6" s="650"/>
       <c r="AJ6" s="441" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="632" t="s">
+      <c r="AK6" s="650" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="257"/>
       <c r="AM6" s="428"/>
-      <c r="AN6" s="643"/>
+      <c r="AN6" s="636"/>
       <c r="AO6" s="338" t="s">
         <v>471</v>
       </c>
@@ -7338,7 +7320,7 @@
       <c r="A7" s="232" t="s">
         <v>573</v>
       </c>
-      <c r="B7" s="683"/>
+      <c r="B7" s="632"/>
       <c r="C7" s="202" t="s">
         <v>375</v>
       </c>
@@ -7348,7 +7330,7 @@
       <c r="E7" s="265">
         <v>3</v>
       </c>
-      <c r="F7" s="622"/>
+      <c r="F7" s="641"/>
       <c r="G7" s="395">
         <v>0</v>
       </c>
@@ -7361,14 +7343,14 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="600">
+      <c r="K7" s="598">
         <v>0</v>
       </c>
       <c r="L7" s="212">
         <v>0</v>
       </c>
-      <c r="M7" s="622"/>
-      <c r="O7" s="652"/>
+      <c r="M7" s="641"/>
+      <c r="O7" s="645"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7382,7 +7364,7 @@
       <c r="X7" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="660"/>
+      <c r="Y7" s="654"/>
       <c r="Z7" s="407">
         <v>1</v>
       </c>
@@ -7392,18 +7374,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
-      <c r="AG7" s="633" t="s">
+      <c r="AG7" s="656" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="257"/>
-      <c r="AI7" s="632"/>
+      <c r="AI7" s="650"/>
       <c r="AJ7" s="257"/>
-      <c r="AK7" s="632"/>
+      <c r="AK7" s="650"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="428"/>
-      <c r="AN7" s="643"/>
+      <c r="AN7" s="636"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7420,27 +7402,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="622"/>
-      <c r="G8" s="677">
-        <v>0</v>
-      </c>
-      <c r="H8" s="674" t="s">
+      <c r="F8" s="641"/>
+      <c r="G8" s="626">
+        <v>0</v>
+      </c>
+      <c r="H8" s="623" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="600">
-        <v>0</v>
-      </c>
-      <c r="J8" s="674" t="s">
+      <c r="I8" s="598">
+        <v>0</v>
+      </c>
+      <c r="J8" s="623" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="680"/>
-      <c r="L8" s="634"/>
-      <c r="M8" s="649"/>
-      <c r="N8" s="639">
+      <c r="K8" s="629"/>
+      <c r="L8" s="663"/>
+      <c r="M8" s="642"/>
+      <c r="N8" s="666">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="652"/>
+      <c r="O8" s="645"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7450,7 +7432,7 @@
       <c r="X8" s="431" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="660"/>
+      <c r="Y8" s="654"/>
       <c r="Z8" s="409"/>
       <c r="AA8" s="307"/>
       <c r="AB8" s="209"/>
@@ -7458,14 +7440,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
-      <c r="AG8" s="633"/>
+      <c r="AG8" s="656"/>
       <c r="AH8" s="257"/>
-      <c r="AI8" s="632"/>
+      <c r="AI8" s="650"/>
       <c r="AJ8" s="257"/>
       <c r="AK8" s="257"/>
       <c r="AL8" s="257"/>
       <c r="AM8" s="428"/>
-      <c r="AN8" s="643"/>
+      <c r="AN8" s="636"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
@@ -7480,17 +7462,17 @@
       <c r="D9" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="622"/>
-      <c r="G9" s="679"/>
-      <c r="H9" s="675"/>
-      <c r="I9" s="602"/>
-      <c r="J9" s="675"/>
-      <c r="K9" s="681"/>
-      <c r="L9" s="635"/>
-      <c r="M9" s="650"/>
-      <c r="N9" s="640"/>
-      <c r="O9" s="653"/>
-      <c r="S9" s="636" t="s">
+      <c r="F9" s="641"/>
+      <c r="G9" s="628"/>
+      <c r="H9" s="624"/>
+      <c r="I9" s="600"/>
+      <c r="J9" s="624"/>
+      <c r="K9" s="630"/>
+      <c r="L9" s="664"/>
+      <c r="M9" s="643"/>
+      <c r="N9" s="667"/>
+      <c r="O9" s="646"/>
+      <c r="S9" s="657" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7502,7 +7484,7 @@
       <c r="X9" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="660"/>
+      <c r="Y9" s="654"/>
       <c r="Z9" s="410"/>
       <c r="AA9" s="307"/>
       <c r="AB9" s="209"/>
@@ -7512,16 +7494,16 @@
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
-      <c r="AG9" s="633"/>
+      <c r="AG9" s="656"/>
       <c r="AH9" s="257"/>
-      <c r="AI9" s="632"/>
+      <c r="AI9" s="650"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="632" t="s">
+      <c r="AK9" s="650" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="257"/>
       <c r="AM9" s="428"/>
-      <c r="AN9" s="643"/>
+      <c r="AN9" s="636"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7538,20 +7520,20 @@
         <f>Boat!W8</f>
         <v>43</v>
       </c>
-      <c r="F10" s="622"/>
+      <c r="F10" s="641"/>
       <c r="N10" s="418" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="624" t="s">
+      <c r="O10" s="678" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="654" t="s">
+      <c r="P10" s="647" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="637"/>
+      <c r="S10" s="665"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7563,7 +7545,7 @@
       <c r="X10" s="431" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="660"/>
+      <c r="Y10" s="654"/>
       <c r="Z10" s="409">
         <v>0</v>
       </c>
@@ -7581,16 +7563,16 @@
       <c r="AF10" s="238" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="633"/>
+      <c r="AG10" s="656"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="632"/>
+      <c r="AI10" s="650"/>
       <c r="AJ10" s="257"/>
-      <c r="AK10" s="632"/>
+      <c r="AK10" s="650"/>
       <c r="AL10" s="257"/>
       <c r="AM10" s="442" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="643"/>
+      <c r="AN10" s="636"/>
       <c r="AO10" s="204" t="s">
         <v>94</v>
       </c>
@@ -7599,7 +7581,7 @@
       <c r="A11" s="223" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="600" t="s">
+      <c r="B11" s="598" t="s">
         <v>284</v>
       </c>
       <c r="C11" s="457" t="s">
@@ -7608,18 +7590,18 @@
       <c r="D11" s="170" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="622"/>
+      <c r="F11" s="641"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="625"/>
-      <c r="P11" s="655"/>
+      <c r="O11" s="679"/>
+      <c r="P11" s="648"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="637"/>
+      <c r="S11" s="665"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7629,7 +7611,7 @@
       <c r="X11" s="431" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="660"/>
+      <c r="Y11" s="654"/>
       <c r="Z11" s="409"/>
       <c r="AA11" s="307">
         <v>1</v>
@@ -7643,14 +7625,14 @@
       <c r="AF11" s="257" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="633"/>
+      <c r="AG11" s="656"/>
       <c r="AH11" s="257"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="257"/>
       <c r="AK11" s="257"/>
       <c r="AL11" s="257"/>
       <c r="AM11" s="428"/>
-      <c r="AN11" s="643"/>
+      <c r="AN11" s="636"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7659,7 +7641,7 @@
       <c r="A12" s="227" t="s">
         <v>384</v>
       </c>
-      <c r="B12" s="602"/>
+      <c r="B12" s="600"/>
       <c r="C12" s="458" t="s">
         <v>385</v>
       </c>
@@ -7669,25 +7651,25 @@
       <c r="E12" s="224">
         <v>3</v>
       </c>
-      <c r="F12" s="622"/>
+      <c r="F12" s="641"/>
       <c r="G12" s="337" t="s">
         <v>401</v>
       </c>
-      <c r="H12" s="605" t="s">
+      <c r="H12" s="603" t="s">
         <v>430</v>
       </c>
-      <c r="I12" s="607"/>
-      <c r="J12" s="607"/>
-      <c r="K12" s="629"/>
+      <c r="I12" s="605"/>
+      <c r="J12" s="605"/>
+      <c r="K12" s="683"/>
       <c r="L12" s="203"/>
       <c r="M12" s="203"/>
       <c r="N12" s="203"/>
-      <c r="O12" s="625"/>
-      <c r="P12" s="655"/>
+      <c r="O12" s="679"/>
+      <c r="P12" s="648"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="638"/>
+      <c r="S12" s="658"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7697,7 +7679,7 @@
       <c r="X12" s="431" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="660"/>
+      <c r="Y12" s="654"/>
       <c r="Z12" s="407">
         <v>1</v>
       </c>
@@ -7708,16 +7690,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="641" t="s">
+      <c r="AD12" s="668" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="441" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="633" t="s">
+      <c r="AF12" s="656" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="633"/>
+      <c r="AG12" s="656"/>
       <c r="AH12" s="238" t="s">
         <v>260</v>
       </c>
@@ -7727,10 +7709,10 @@
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
-      <c r="AM12" s="657" t="s">
+      <c r="AM12" s="651" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="643"/>
+      <c r="AN12" s="636"/>
       <c r="AO12" s="338" t="s">
         <v>96</v>
       </c>
@@ -7742,17 +7724,17 @@
       <c r="E13" s="448">
         <v>-3</v>
       </c>
-      <c r="F13" s="622"/>
-      <c r="G13" s="607" t="s">
+      <c r="F13" s="641"/>
+      <c r="G13" s="605" t="s">
         <v>431</v>
       </c>
-      <c r="H13" s="607"/>
-      <c r="I13" s="607"/>
-      <c r="J13" s="629"/>
+      <c r="H13" s="605"/>
+      <c r="I13" s="605"/>
+      <c r="J13" s="683"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="625"/>
-      <c r="P13" s="656"/>
+      <c r="O13" s="679"/>
+      <c r="P13" s="649"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7762,7 +7744,7 @@
       <c r="X13" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="660"/>
+      <c r="Y13" s="654"/>
       <c r="Z13" s="407">
         <v>1</v>
       </c>
@@ -7773,8 +7755,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="641"/>
-      <c r="AF13" s="633"/>
+      <c r="AD13" s="668"/>
+      <c r="AF13" s="656"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
         <v>309</v>
@@ -7785,8 +7767,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
       <c r="AL13" s="257"/>
-      <c r="AM13" s="657"/>
-      <c r="AN13" s="643"/>
+      <c r="AM13" s="651"/>
+      <c r="AN13" s="636"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="450"/>
@@ -7794,18 +7776,18 @@
       <c r="C14" s="459"/>
       <c r="D14" s="452"/>
       <c r="E14" s="453"/>
-      <c r="F14" s="622"/>
-      <c r="G14" s="607" t="s">
+      <c r="F14" s="641"/>
+      <c r="G14" s="605" t="s">
         <v>430</v>
       </c>
-      <c r="H14" s="607"/>
-      <c r="I14" s="607"/>
-      <c r="J14" s="629"/>
+      <c r="H14" s="605"/>
+      <c r="I14" s="605"/>
+      <c r="J14" s="683"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="625"/>
+      <c r="O14" s="679"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7819,34 +7801,34 @@
       <c r="X14" s="431" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="660"/>
+      <c r="Y14" s="654"/>
       <c r="Z14" s="407">
         <v>1</v>
       </c>
       <c r="AA14" s="307"/>
       <c r="AB14" s="209"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="641"/>
+      <c r="AD14" s="668"/>
       <c r="AE14" s="257"/>
-      <c r="AF14" s="633"/>
+      <c r="AF14" s="656"/>
       <c r="AG14" s="257"/>
       <c r="AH14" s="257"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="257"/>
       <c r="AK14" s="257"/>
       <c r="AL14" s="257"/>
-      <c r="AM14" s="657"/>
-      <c r="AN14" s="643"/>
+      <c r="AM14" s="651"/>
+      <c r="AN14" s="636"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="449" t="s">
         <v>507</v>
       </c>
-      <c r="C15" s="600" t="s">
+      <c r="C15" s="598" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="622"/>
-      <c r="O15" s="625"/>
+      <c r="F15" s="641"/>
+      <c r="O15" s="679"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7859,7 +7841,7 @@
       <c r="X15" s="431" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="660"/>
+      <c r="Y15" s="654"/>
       <c r="Z15" s="409">
         <v>1</v>
       </c>
@@ -7868,8 +7850,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="641"/>
-      <c r="AF15" s="633"/>
+      <c r="AD15" s="668"/>
+      <c r="AF15" s="656"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
         <v>449</v>
@@ -7882,8 +7864,8 @@
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
-      <c r="AM15" s="657"/>
-      <c r="AN15" s="643"/>
+      <c r="AM15" s="651"/>
+      <c r="AN15" s="636"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7898,20 +7880,20 @@
       <c r="B16" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="C16" s="602"/>
+      <c r="C16" s="600"/>
       <c r="D16" s="61" t="s">
         <v>494</v>
       </c>
       <c r="E16" s="224">
         <v>1</v>
       </c>
-      <c r="F16" s="622"/>
+      <c r="F16" s="641"/>
       <c r="G16" s="337" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="469"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="625"/>
+      <c r="O16" s="679"/>
       <c r="R16" s="435" t="s">
         <v>184</v>
       </c>
@@ -7922,7 +7904,7 @@
       <c r="X16" s="431" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="660"/>
+      <c r="Y16" s="654"/>
       <c r="Z16" s="407">
         <v>1</v>
       </c>
@@ -7943,18 +7925,18 @@
       <c r="AM16" s="428" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="643"/>
+      <c r="AN16" s="636"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="622"/>
+      <c r="F17" s="641"/>
       <c r="I17" s="470"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="625"/>
+      <c r="O17" s="679"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -7974,7 +7956,7 @@
       <c r="X17" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="660"/>
+      <c r="Y17" s="654"/>
       <c r="Z17" s="409"/>
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
@@ -7999,7 +7981,7 @@
       <c r="AK17" s="257"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="428"/>
-      <c r="AN17" s="643"/>
+      <c r="AN17" s="636"/>
       <c r="AO17" s="204" t="s">
         <v>498</v>
       </c>
@@ -8023,21 +8005,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="622"/>
+      <c r="F18" s="641"/>
       <c r="G18" s="337" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="625"/>
+      <c r="O18" s="679"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="617" t="s">
+      <c r="R18" s="673" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="665" t="s">
+      <c r="U18" s="612" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8047,7 +8029,7 @@
       <c r="X18" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="660"/>
+      <c r="Y18" s="654"/>
       <c r="Z18" s="409">
         <v>1</v>
       </c>
@@ -8058,38 +8040,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
-      <c r="AF18" s="632" t="s">
+      <c r="AF18" s="650" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="658" t="s">
+      <c r="AJ18" s="652" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="428"/>
-      <c r="AN18" s="643"/>
+      <c r="AN18" s="636"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="622"/>
+      <c r="F19" s="641"/>
       <c r="I19" s="219"/>
-      <c r="O19" s="625"/>
-      <c r="R19" s="618"/>
+      <c r="O19" s="679"/>
+      <c r="R19" s="674"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="666"/>
+      <c r="U19" s="613"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="431" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="660"/>
+      <c r="Y19" s="654"/>
       <c r="Z19" s="407">
         <v>1</v>
       </c>
@@ -8098,17 +8080,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="257"/>
-      <c r="AF19" s="632"/>
+      <c r="AF19" s="650"/>
       <c r="AG19" s="257"/>
       <c r="AH19" s="257"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="658"/>
+      <c r="AJ19" s="652"/>
       <c r="AK19" s="460" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="428"/>
-      <c r="AN19" s="643"/>
+      <c r="AN19" s="636"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8129,24 +8111,24 @@
       <c r="E20" s="437">
         <v>-1</v>
       </c>
-      <c r="F20" s="622"/>
+      <c r="F20" s="641"/>
       <c r="G20" s="337" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="219"/>
-      <c r="O20" s="625"/>
-      <c r="Q20" s="627" t="s">
+      <c r="O20" s="679"/>
+      <c r="Q20" s="681" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="667"/>
+      <c r="U20" s="614"/>
       <c r="W20" s="405"/>
       <c r="X20" s="432" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="660"/>
+      <c r="Y20" s="654"/>
       <c r="Z20" s="411">
         <v>1</v>
       </c>
@@ -8171,7 +8153,7 @@
       <c r="AM20" s="381" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="643"/>
+      <c r="AN20" s="636"/>
       <c r="AO20" s="338" t="s">
         <v>461</v>
       </c>
@@ -8192,20 +8174,20 @@
       <c r="E21" s="265">
         <v>0</v>
       </c>
-      <c r="F21" s="622"/>
+      <c r="F21" s="641"/>
       <c r="I21" s="219"/>
-      <c r="O21" s="625"/>
-      <c r="Q21" s="628"/>
+      <c r="O21" s="679"/>
+      <c r="Q21" s="682"/>
       <c r="T21" s="422"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="662"/>
+      <c r="V21" s="609"/>
       <c r="W21" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="429" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="660"/>
+      <c r="Y21" s="654"/>
       <c r="Z21" s="445">
         <v>3</v>
       </c>
@@ -8236,15 +8218,15 @@
       <c r="AM21" s="428" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="643"/>
+      <c r="AN21" s="636"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="622"/>
+      <c r="F22" s="641"/>
       <c r="G22" s="337" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="219"/>
-      <c r="O22" s="625"/>
+      <c r="O22" s="679"/>
       <c r="R22" s="434" t="s">
         <v>44</v>
       </c>
@@ -8252,14 +8234,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="663"/>
+      <c r="V22" s="610"/>
       <c r="W22" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="429" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="660"/>
+      <c r="Y22" s="654"/>
       <c r="Z22" s="415"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="415"/>
@@ -8270,7 +8252,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="632" t="s">
+      <c r="AJ22" s="650" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="257"/>
@@ -8278,7 +8260,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="300"/>
-      <c r="AN22" s="643"/>
+      <c r="AN22" s="636"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
@@ -8296,22 +8278,22 @@
       <c r="E23" s="225">
         <v>1</v>
       </c>
-      <c r="F23" s="622"/>
+      <c r="F23" s="641"/>
       <c r="I23" s="219"/>
-      <c r="O23" s="625"/>
-      <c r="Q23" s="627" t="s">
+      <c r="O23" s="679"/>
+      <c r="Q23" s="681" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="663"/>
+      <c r="V23" s="610"/>
       <c r="W23" s="148"/>
       <c r="X23" s="429" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="660"/>
+      <c r="Y23" s="654"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="415"/>
@@ -8322,13 +8304,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="632"/>
+      <c r="AJ23" s="650"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="300"/>
-      <c r="AN23" s="643"/>
+      <c r="AN23" s="636"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="440" t="s">
@@ -8346,23 +8328,23 @@
       <c r="E24" s="436">
         <v>1</v>
       </c>
-      <c r="F24" s="622"/>
+      <c r="F24" s="641"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="219"/>
-      <c r="O24" s="625"/>
-      <c r="Q24" s="628"/>
+      <c r="O24" s="679"/>
+      <c r="Q24" s="682"/>
       <c r="T24" s="17"/>
       <c r="U24" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="663"/>
+      <c r="V24" s="610"/>
       <c r="W24" s="148"/>
       <c r="X24" s="429" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="660"/>
+      <c r="Y24" s="654"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="415"/>
@@ -8381,12 +8363,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="300"/>
-      <c r="AN24" s="643"/>
+      <c r="AN24" s="636"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="622"/>
+      <c r="F25" s="641"/>
       <c r="I25" s="219"/>
-      <c r="O25" s="625"/>
+      <c r="O25" s="679"/>
       <c r="P25" s="204" t="s">
         <v>281</v>
       </c>
@@ -8399,12 +8381,12 @@
       <c r="U25" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="664"/>
+      <c r="V25" s="611"/>
       <c r="W25" s="148"/>
       <c r="X25" s="429" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="660"/>
+      <c r="Y25" s="654"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="415"/>
@@ -8421,7 +8403,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="300"/>
-      <c r="AN25" s="643"/>
+      <c r="AN25" s="636"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
@@ -8439,17 +8421,17 @@
       <c r="E26" s="380">
         <v>1</v>
       </c>
-      <c r="F26" s="622"/>
+      <c r="F26" s="641"/>
       <c r="G26" s="337" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="O26" s="625"/>
-      <c r="P26" s="645" t="s">
+      <c r="O26" s="679"/>
+      <c r="P26" s="638" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="646"/>
-      <c r="R26" s="619" t="s">
+      <c r="Q26" s="639"/>
+      <c r="R26" s="675" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="178"/>
@@ -8461,7 +8443,7 @@
       <c r="X26" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="660"/>
+      <c r="Y26" s="654"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="415"/>
@@ -8488,7 +8470,7 @@
       <c r="AM26" s="442" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="643"/>
+      <c r="AN26" s="636"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8500,13 +8482,13 @@
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="623"/>
+      <c r="F27" s="677"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="220"/>
-      <c r="O27" s="626"/>
-      <c r="R27" s="620"/>
+      <c r="O27" s="680"/>
+      <c r="R27" s="676"/>
       <c r="S27" s="421" t="s">
         <v>54</v>
       </c>
@@ -8519,7 +8501,7 @@
       <c r="X27" s="429" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="661"/>
+      <c r="Y27" s="655"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="416"/>
@@ -8536,10 +8518,48 @@
       <c r="AM27" s="381" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="644"/>
+      <c r="AN27" s="637"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8556,44 +8576,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8627,15 +8609,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="605" t="s">
+      <c r="B1" s="603" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="629"/>
+      <c r="C1" s="683"/>
       <c r="D1" s="204"/>
-      <c r="J1" s="605" t="s">
+      <c r="J1" s="603" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="629"/>
+      <c r="K1" s="683"/>
       <c r="L1" s="195" t="s">
         <v>331</v>
       </c>
@@ -8673,13 +8655,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="196"/>
-      <c r="M2" s="686"/>
+      <c r="M2" s="684"/>
       <c r="N2" s="153">
         <v>2</v>
       </c>
       <c r="O2" s="154"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="689" t="s">
+      <c r="Q2" s="687" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -8702,13 +8684,13 @@
       <c r="K3" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="M3" s="687"/>
+      <c r="M3" s="685"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="690"/>
+      <c r="Q3" s="688"/>
       <c r="R3" s="219"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8727,13 +8709,13 @@
       <c r="K4" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="M4" s="687"/>
+      <c r="M4" s="685"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="690"/>
+      <c r="Q4" s="688"/>
       <c r="R4" s="219"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8753,13 +8735,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="196"/>
-      <c r="M5" s="687"/>
+      <c r="M5" s="685"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="690"/>
+      <c r="Q5" s="688"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -8780,13 +8762,13 @@
       <c r="K6" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="M6" s="687"/>
+      <c r="M6" s="685"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="690"/>
+      <c r="Q6" s="688"/>
       <c r="R6" s="219"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8806,13 +8788,13 @@
         <v>328</v>
       </c>
       <c r="L7" s="198"/>
-      <c r="M7" s="687"/>
+      <c r="M7" s="685"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="690"/>
+      <c r="Q7" s="688"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -8833,13 +8815,13 @@
       <c r="K8" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M8" s="687"/>
+      <c r="M8" s="685"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="690"/>
+      <c r="Q8" s="688"/>
       <c r="R8" s="219"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8859,13 +8841,13 @@
         <v>330</v>
       </c>
       <c r="L9" s="181"/>
-      <c r="M9" s="688"/>
+      <c r="M9" s="686"/>
       <c r="N9" s="161"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="691"/>
+      <c r="Q9" s="689"/>
       <c r="R9" s="220"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -8970,7 +8952,7 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9038,7 +9020,7 @@
       <c r="P1" s="398" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="703" t="s">
+      <c r="Q1" s="714" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9062,7 +9044,7 @@
       <c r="AA1" s="517" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="697" t="s">
+      <c r="AB1" s="708" t="s">
         <v>595</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9084,32 +9066,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="708">
+      <c r="A2" s="693">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="710" t="s">
+      <c r="B2" s="695" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="647" t="s">
+      <c r="C2" s="615" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="712" t="s">
+      <c r="D2" s="697" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="714" t="s">
+      <c r="E2" s="699" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="615" t="s">
+      <c r="G2" s="659" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="694" t="s">
+      <c r="I2" s="705" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="396" t="s">
@@ -9133,14 +9115,14 @@
       <c r="P2" s="399">
         <v>40</v>
       </c>
-      <c r="Q2" s="704"/>
+      <c r="Q2" s="715"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>2</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" s="172">
         <f>SUM(T4:T16)</f>
@@ -9152,13 +9134,13 @@
       <c r="X2" s="469"/>
       <c r="Z2" s="24">
         <f>BoardRW!V3</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA2" s="68">
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="698"/>
+      <c r="AB2" s="709"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>345</v>
@@ -9167,22 +9149,18 @@
         <v>1</v>
       </c>
       <c r="AJ2" s="553"/>
-      <c r="AK2" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL2" s="469">
-        <v>1</v>
-      </c>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="469"/>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="709"/>
-      <c r="B3" s="711"/>
-      <c r="C3" s="648"/>
-      <c r="D3" s="713"/>
-      <c r="E3" s="715"/>
-      <c r="G3" s="616"/>
+      <c r="A3" s="694"/>
+      <c r="B3" s="696"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="698"/>
+      <c r="E3" s="700"/>
+      <c r="G3" s="660"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="695"/>
+      <c r="I3" s="706"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9197,7 +9175,7 @@
       <c r="V3" s="470"/>
       <c r="W3" s="6"/>
       <c r="X3" s="470"/>
-      <c r="AB3" s="698"/>
+      <c r="AB3" s="709"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>590</v>
@@ -9222,10 +9200,10 @@
         <v>381</v>
       </c>
       <c r="B4" s="243"/>
-      <c r="C4" s="716" t="s">
+      <c r="C4" s="701" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="695"/>
+      <c r="I4" s="706"/>
       <c r="R4" s="471" t="s">
         <v>590</v>
       </c>
@@ -9237,7 +9215,7 @@
       <c r="V4" s="470"/>
       <c r="W4" s="6"/>
       <c r="X4" s="470"/>
-      <c r="AB4" s="698"/>
+      <c r="AB4" s="709"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9251,7 +9229,7 @@
       <c r="AI4" s="470"/>
       <c r="AJ4" s="553"/>
       <c r="AK4" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AL4" s="24">
         <v>1</v>
@@ -9264,7 +9242,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="717"/>
+      <c r="C5" s="702"/>
       <c r="D5" s="222" t="s">
         <v>102</v>
       </c>
@@ -9274,13 +9252,13 @@
       <c r="F5" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="G5" s="600" t="s">
+      <c r="G5" s="598" t="s">
         <v>272</v>
       </c>
       <c r="H5" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="695"/>
+      <c r="I5" s="706"/>
       <c r="J5" s="397" t="s">
         <v>269</v>
       </c>
@@ -9307,19 +9285,15 @@
       <c r="V5" s="468"/>
       <c r="W5" s="6"/>
       <c r="X5" s="468"/>
-      <c r="AB5" s="698"/>
+      <c r="AB5" s="709"/>
       <c r="AC5" s="2" t="s">
         <v>593</v>
       </c>
       <c r="AD5" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="AH5" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="AI5" s="468">
-        <v>1</v>
-      </c>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="468"/>
       <c r="AJ5" s="553"/>
       <c r="AK5" s="6" t="s">
         <v>449</v>
@@ -9329,19 +9303,19 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="705" t="s">
+      <c r="A6" s="690" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="631"/>
+      <c r="C6" s="661"/>
+      <c r="D6" s="662"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="601"/>
-      <c r="I6" s="695"/>
+      <c r="G6" s="599"/>
+      <c r="I6" s="706"/>
       <c r="P6" s="61" t="s">
         <v>593</v>
       </c>
@@ -9353,15 +9327,15 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="698"/>
+      <c r="AB6" s="709"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AI2:AI10)+AF11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="525"/>
@@ -9369,7 +9343,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="706"/>
+      <c r="A7" s="691"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9379,8 +9353,8 @@
       <c r="D7" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="601"/>
-      <c r="I7" s="695"/>
+      <c r="G7" s="599"/>
+      <c r="I7" s="706"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9412,7 +9386,7 @@
       <c r="X7" s="469">
         <v>1</v>
       </c>
-      <c r="AB7" s="698"/>
+      <c r="AB7" s="709"/>
       <c r="AC7" s="99" t="s">
         <v>594</v>
       </c>
@@ -9421,24 +9395,24 @@
       </c>
       <c r="AE7" s="24">
         <f>8-AE11</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF7" s="295">
         <f>8-AF11</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH7" s="6"/>
       <c r="AI7" s="469"/>
       <c r="AJ7" s="553"/>
       <c r="AK7" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AL7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="707"/>
+      <c r="A8" s="692"/>
       <c r="B8" s="212" t="s">
         <v>28</v>
       </c>
@@ -9446,28 +9420,24 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="601"/>
-      <c r="I8" s="695"/>
+      <c r="G8" s="599"/>
+      <c r="I8" s="706"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
       <c r="W8" s="6"/>
       <c r="X8" s="470"/>
-      <c r="AB8" s="698"/>
+      <c r="AB8" s="709"/>
       <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AI8" s="470">
         <v>1</v>
       </c>
       <c r="AJ8" s="553"/>
-      <c r="AK8" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="AL8" s="469">
-        <v>1</v>
-      </c>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="469"/>
     </row>
     <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="231" t="s">
@@ -9482,9 +9452,9 @@
       <c r="D9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="601"/>
+      <c r="G9" s="599"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="695"/>
+      <c r="I9" s="706"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9493,19 +9463,15 @@
       <c r="V9" s="24"/>
       <c r="W9" s="6"/>
       <c r="X9" s="470"/>
-      <c r="AB9" s="698"/>
+      <c r="AB9" s="709"/>
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="470"/>
       <c r="AJ9" s="553"/>
-      <c r="AK9" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="AL9" s="549">
-        <v>1</v>
-      </c>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="549"/>
     </row>
     <row r="10" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="232" t="s">
@@ -9520,8 +9486,8 @@
         <f>Boat!W8</f>
         <v>43</v>
       </c>
-      <c r="G10" s="601"/>
-      <c r="I10" s="695"/>
+      <c r="G10" s="599"/>
+      <c r="I10" s="706"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9536,19 +9502,19 @@
       <c r="V10" s="470"/>
       <c r="W10" s="6"/>
       <c r="X10" s="470"/>
-      <c r="AB10" s="698"/>
+      <c r="AB10" s="709"/>
       <c r="AC10" s="515"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AH10" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AI10" s="470">
         <v>1</v>
       </c>
       <c r="AJ10" s="554"/>
       <c r="AK10" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AL10" s="468">
         <v>1</v>
@@ -9558,7 +9524,7 @@
       <c r="A11" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="600" t="s">
+      <c r="B11" s="598" t="s">
         <v>383</v>
       </c>
       <c r="C11" s="171" t="s">
@@ -9567,8 +9533,8 @@
       <c r="D11" s="217" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="601"/>
-      <c r="I11" s="695"/>
+      <c r="G11" s="599"/>
+      <c r="I11" s="706"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9594,13 +9560,13 @@
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="700" t="s">
+      <c r="U11" s="711" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="701"/>
-      <c r="W11" s="701"/>
-      <c r="X11" s="702"/>
-      <c r="AB11" s="699"/>
+      <c r="V11" s="712"/>
+      <c r="W11" s="712"/>
+      <c r="X11" s="713"/>
+      <c r="AB11" s="710"/>
       <c r="AC11" s="99" t="s">
         <v>596</v>
       </c>
@@ -9608,30 +9574,30 @@
         <v>44</v>
       </c>
       <c r="AE11" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG11" s="414"/>
-      <c r="AH11" s="700" t="s">
-        <v>606</v>
-      </c>
-      <c r="AI11" s="701"/>
-      <c r="AJ11" s="701"/>
-      <c r="AK11" s="701"/>
-      <c r="AL11" s="702"/>
+      <c r="AH11" s="711" t="s">
+        <v>604</v>
+      </c>
+      <c r="AI11" s="712"/>
+      <c r="AJ11" s="712"/>
+      <c r="AK11" s="712"/>
+      <c r="AL11" s="713"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
         <v>384</v>
       </c>
-      <c r="B12" s="602"/>
+      <c r="B12" s="600"/>
       <c r="E12" s="229">
         <v>3</v>
       </c>
-      <c r="G12" s="601"/>
-      <c r="I12" s="695"/>
+      <c r="G12" s="599"/>
+      <c r="I12" s="706"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9659,12 +9625,12 @@
       <c r="B13" s="216" t="s">
         <v>324</v>
       </c>
-      <c r="C13" s="600" t="s">
+      <c r="C13" s="598" t="s">
         <v>194</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="601"/>
-      <c r="I13" s="695"/>
+      <c r="G13" s="599"/>
+      <c r="I13" s="706"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9694,7 +9660,7 @@
       <c r="B14" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="602"/>
+      <c r="C14" s="600"/>
       <c r="D14" s="204" t="s">
         <v>153</v>
       </c>
@@ -9704,11 +9670,11 @@
       <c r="F14" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="602"/>
+      <c r="G14" s="600"/>
       <c r="H14" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="695"/>
+      <c r="I14" s="706"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9735,7 +9701,7 @@
       <c r="H15" s="271">
         <v>0</v>
       </c>
-      <c r="I15" s="695"/>
+      <c r="I15" s="706"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9766,7 +9732,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="695"/>
+      <c r="I16" s="706"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9778,12 +9744,8 @@
         <f>IF((S18-SUM(V16:V21))&lt;0,S18-SUM(V16:V21),0)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="V16" s="469">
-        <v>1</v>
-      </c>
+      <c r="U16" s="19"/>
+      <c r="V16" s="469"/>
       <c r="W16" s="19"/>
       <c r="X16" s="469"/>
     </row>
@@ -9806,7 +9768,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="695"/>
+      <c r="I17" s="706"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9814,7 +9776,7 @@
         <v>424</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="V17" s="24"/>
       <c r="W17" s="6"/>
@@ -9822,13 +9784,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="695"/>
+      <c r="I18" s="706"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="692" t="s">
+      <c r="O18" s="703" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="693"/>
+      <c r="P18" s="704"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9838,7 +9800,7 @@
       </c>
       <c r="S18" s="24">
         <f>5-S26</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="24"/>
@@ -9846,7 +9808,7 @@
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="695"/>
+      <c r="I19" s="706"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9882,7 +9844,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="695"/>
+      <c r="I20" s="706"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -9901,7 +9863,7 @@
       </c>
       <c r="S20" s="24">
         <f>S18-SUM(V16:V21)+S26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" s="220" t="s">
         <v>83</v>
@@ -9913,7 +9875,7 @@
       <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="695"/>
+      <c r="I21" s="706"/>
       <c r="M21" s="216" t="s">
         <v>412</v>
       </c>
@@ -9947,7 +9909,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="695"/>
+      <c r="I22" s="706"/>
       <c r="P22" s="99" t="s">
         <v>592</v>
       </c>
@@ -9962,7 +9924,7 @@
       <c r="E23" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="695"/>
+      <c r="I23" s="706"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>7</v>
@@ -9979,7 +9941,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="695"/>
+      <c r="I24" s="706"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
         <v>1</v>
@@ -10007,7 +9969,7 @@
       <c r="H25" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="695"/>
+      <c r="I25" s="706"/>
       <c r="J25" s="397" t="s">
         <v>270</v>
       </c>
@@ -10052,7 +10014,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="695"/>
+      <c r="I26" s="706"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10070,7 +10032,7 @@
         <v>2</v>
       </c>
       <c r="S26" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26" s="61" t="s">
         <v>557</v>
@@ -10087,7 +10049,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="695"/>
+      <c r="I27" s="706"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10114,7 +10076,7 @@
       <c r="E28" s="215">
         <v>2</v>
       </c>
-      <c r="I28" s="695"/>
+      <c r="I28" s="706"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10136,7 +10098,7 @@
       <c r="H29" s="191" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="696"/>
+      <c r="I29" s="707"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10194,6 +10156,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10205,13 +10174,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10223,7 +10185,7 @@
   <dimension ref="A1:AT37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="AQ23" sqref="AQ23"/>
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10290,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I1" s="95" t="s">
         <v>41</v>
@@ -10299,7 +10261,7 @@
         <v>200</v>
       </c>
       <c r="K1" s="72" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L1" s="579" t="s">
         <v>576</v>
@@ -10323,14 +10285,14 @@
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="T1" s="737"/>
+      <c r="T1" s="742"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="721" t="s">
+      <c r="X1" s="726" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="722"/>
+      <c r="Y1" s="727"/>
       <c r="Z1" s="306">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10346,27 +10308,27 @@
       <c r="AD1" s="302" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="723" t="s">
+      <c r="AE1" s="728" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="724"/>
-      <c r="AG1" s="725"/>
-      <c r="AH1" s="726" t="s">
+      <c r="AF1" s="729"/>
+      <c r="AG1" s="730"/>
+      <c r="AH1" s="731" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="727"/>
-      <c r="AJ1" s="728"/>
-      <c r="AK1" s="615" t="s">
-        <v>620</v>
+      <c r="AI1" s="732"/>
+      <c r="AJ1" s="733"/>
+      <c r="AK1" s="659" t="s">
+        <v>618</v>
       </c>
       <c r="AL1" s="551" t="s">
-        <v>621</v>
-      </c>
-      <c r="AM1" s="718" t="s">
+        <v>619</v>
+      </c>
+      <c r="AM1" s="723" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="719"/>
-      <c r="AO1" s="720"/>
+      <c r="AN1" s="724"/>
+      <c r="AO1" s="725"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10379,29 +10341,29 @@
       </c>
       <c r="J2" s="318">
         <f>K2+L2</f>
-        <v>20</v>
-      </c>
-      <c r="K2" s="745">
+        <v>17</v>
+      </c>
+      <c r="K2" s="721">
         <f>SUM(K4:K37)</f>
-        <v>8</v>
-      </c>
-      <c r="L2" s="743">
+        <v>6</v>
+      </c>
+      <c r="L2" s="719">
         <f>SUM(L4:L37)</f>
-        <v>12</v>
-      </c>
-      <c r="M2" s="729">
+        <v>11</v>
+      </c>
+      <c r="M2" s="734">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="731">
+      <c r="N2" s="736">
         <f>SUM(N4:N29)</f>
         <v>2</v>
       </c>
-      <c r="O2" s="733">
+      <c r="O2" s="738">
         <f>SUM(O4:O29)</f>
-        <v>10</v>
-      </c>
-      <c r="P2" s="639">
+        <v>7</v>
+      </c>
+      <c r="P2" s="666">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-1</v>
       </c>
@@ -10414,14 +10376,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="738"/>
+      <c r="T2" s="743"/>
       <c r="U2" s="537" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="482" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="735" t="s">
+      <c r="W2" s="740" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="483" t="s">
@@ -10463,8 +10425,8 @@
       <c r="AJ2" s="150" t="s">
         <v>289</v>
       </c>
-      <c r="AK2" s="616"/>
-      <c r="AL2" s="594" t="s">
+      <c r="AK2" s="660"/>
+      <c r="AL2" s="592" t="s">
         <v>289</v>
       </c>
       <c r="AM2" s="21" t="s">
@@ -10491,12 +10453,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="746"/>
-      <c r="L3" s="744"/>
-      <c r="M3" s="730"/>
-      <c r="N3" s="732"/>
-      <c r="O3" s="734"/>
-      <c r="P3" s="640"/>
+      <c r="K3" s="722"/>
+      <c r="L3" s="720"/>
+      <c r="M3" s="735"/>
+      <c r="N3" s="737"/>
+      <c r="O3" s="739"/>
+      <c r="P3" s="667"/>
       <c r="Q3" s="172">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10504,7 +10466,7 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="739"/>
+      <c r="T3" s="744"/>
       <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
         <v>13</v>
@@ -10513,7 +10475,7 @@
         <f>SUM(V4:V29)</f>
         <v>43</v>
       </c>
-      <c r="W3" s="736"/>
+      <c r="W3" s="741"/>
       <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>10</v>
@@ -10528,15 +10490,15 @@
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" ref="AD3:AO3" si="1">SUM(AD4:AD29)</f>
@@ -10544,7 +10506,7 @@
       </c>
       <c r="AE3" s="66">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF3" s="66">
         <f t="shared" si="1"/>
@@ -10556,7 +10518,7 @@
       </c>
       <c r="AH3" s="66">
         <f>SUM(AH4:AH29)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI3" s="374">
         <f t="shared" si="1"/>
@@ -10564,7 +10526,7 @@
       </c>
       <c r="AJ3" s="404">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK3" s="404">
         <f>SUM(AK4:AK37)</f>
@@ -10572,19 +10534,19 @@
       </c>
       <c r="AL3" s="404">
         <f>SUM(AL4:AL37)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="100">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AN3" s="310">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO3" s="311">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AR3" s="142"/>
     </row>
@@ -10619,7 +10581,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="740" t="s">
+      <c r="P4" s="716" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10705,7 +10667,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="741"/>
+      <c r="P5" s="717"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10787,23 +10749,19 @@
       <c r="J6" s="572" t="s">
         <v>307</v>
       </c>
-      <c r="K6" s="586">
-        <v>2</v>
-      </c>
+      <c r="K6" s="575"/>
       <c r="L6" s="582">
         <v>0</v>
       </c>
-      <c r="M6" s="326">
-        <v>0</v>
-      </c>
+      <c r="M6" s="326"/>
       <c r="N6" s="107">
         <v>0</v>
       </c>
       <c r="O6" s="293">
         <f>AC6</f>
-        <v>1</v>
-      </c>
-      <c r="P6" s="741"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="717"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -10832,27 +10790,27 @@
       <c r="Z6" s="296"/>
       <c r="AA6" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="290">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="290">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE6" s="294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="300"/>
       <c r="AG6" s="296"/>
       <c r="AH6" s="296">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="375">
         <v>0</v>
@@ -10864,15 +10822,15 @@
       <c r="AL6" s="317"/>
       <c r="AM6" s="336">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="308">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="309">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="6" t="s">
         <v>229</v>
@@ -10880,9 +10838,7 @@
       <c r="AQ6" s="562" t="s">
         <v>561</v>
       </c>
-      <c r="AR6" s="508" t="s">
-        <v>495</v>
-      </c>
+      <c r="AR6" s="508"/>
     </row>
     <row r="7" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="111"/>
@@ -10892,9 +10848,7 @@
       <c r="H7" s="268"/>
       <c r="I7" s="111"/>
       <c r="J7" s="571"/>
-      <c r="K7" s="587">
-        <v>0</v>
-      </c>
+      <c r="K7" s="575"/>
       <c r="L7" s="581">
         <v>1</v>
       </c>
@@ -10908,7 +10862,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="741"/>
+      <c r="P7" s="717"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -11024,7 +10978,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="741"/>
+      <c r="P8" s="717"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11115,7 +11069,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="741"/>
+      <c r="P9" s="717"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11203,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J10" s="571" t="s">
         <v>357</v>
@@ -11220,7 +11174,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="741"/>
+      <c r="P10" s="717"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11295,7 +11249,7 @@
         <v>584</v>
       </c>
       <c r="AR10" s="508" t="s">
-        <v>495</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11312,7 +11266,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="741"/>
+      <c r="P11" s="717"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11377,14 +11331,14 @@
       <c r="AR11" s="508"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="677" t="s">
+      <c r="A12" s="626" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="627" t="s">
+      <c r="E12" s="681" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="262"/>
@@ -11392,7 +11346,7 @@
         <v>-1</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J12" s="571" t="s">
         <v>298</v>
@@ -11409,7 +11363,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="741"/>
+      <c r="P12" s="717"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11484,14 +11438,14 @@
       <c r="AR12" s="509"/>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="679"/>
+      <c r="A13" s="628"/>
       <c r="B13" s="584">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="628"/>
+      <c r="E13" s="682"/>
       <c r="F13" s="172">
         <v>0</v>
       </c>
@@ -11500,7 +11454,7 @@
       </c>
       <c r="H13" s="271"/>
       <c r="I13" s="111" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J13" s="572" t="s">
         <v>303</v>
@@ -11515,7 +11469,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="741"/>
+      <c r="P13" s="717"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11597,7 +11551,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="741"/>
+      <c r="P14" s="717"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
         <v>340</v>
@@ -11666,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="6" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AQ14" s="564" t="s">
         <v>563</v>
@@ -11700,7 +11654,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="741"/>
+      <c r="P15" s="717"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
         <v>340</v>
@@ -11792,7 +11746,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="741"/>
+      <c r="P16" s="717"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -11895,7 +11849,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="741"/>
+      <c r="P17" s="717"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -11995,7 +11949,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="741"/>
+      <c r="P18" s="717"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12085,7 +12039,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="741"/>
+      <c r="P19" s="717"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12193,11 +12147,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P20" s="742"/>
-      <c r="Q20" s="605" t="s">
+      <c r="P20" s="718"/>
+      <c r="Q20" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="629"/>
+      <c r="R20" s="683"/>
       <c r="S20" s="534" t="s">
         <v>85</v>
       </c>
@@ -12242,13 +12196,9 @@
         <v>0</v>
       </c>
       <c r="AI20" s="375"/>
-      <c r="AJ20" s="509">
-        <v>1</v>
-      </c>
+      <c r="AJ20" s="509"/>
       <c r="AK20" s="559"/>
-      <c r="AL20" s="317">
-        <v>1</v>
-      </c>
+      <c r="AL20" s="317"/>
       <c r="AM20" s="336">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -12461,7 +12411,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="684" t="s">
+      <c r="E23" s="633" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="180"/>
@@ -12564,7 +12514,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="685"/>
+      <c r="E24" s="634"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
       <c r="J24" s="571" t="s">
@@ -12586,10 +12536,10 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="605" t="s">
+      <c r="Q24" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="629"/>
+      <c r="R24" s="683"/>
       <c r="S24" s="534" t="s">
         <v>250</v>
       </c>
@@ -12675,7 +12625,7 @@
       </c>
       <c r="K25" s="575"/>
       <c r="L25" s="581">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="525">
         <v>0</v>
@@ -12685,7 +12635,7 @@
       </c>
       <c r="O25" s="293">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="86" t="s">
         <v>336</v>
@@ -12715,27 +12665,27 @@
       <c r="Z25" s="296"/>
       <c r="AA25" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="290">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="290">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE25" s="294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="300"/>
       <c r="AG25" s="296"/>
       <c r="AH25" s="296">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="375"/>
       <c r="AJ25" s="509"/>
@@ -12743,15 +12693,15 @@
       <c r="AL25" s="317"/>
       <c r="AM25" s="336">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="308">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="309">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="16" t="s">
         <v>453</v>
@@ -12786,7 +12736,7 @@
       </c>
       <c r="O26" s="293">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="20"/>
       <c r="R26" s="2" t="s">
@@ -12817,27 +12767,27 @@
       <c r="Z26" s="296"/>
       <c r="AA26" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="290">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="290">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE26" s="294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="300"/>
       <c r="AG26" s="298"/>
       <c r="AH26" s="296">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="375"/>
       <c r="AJ26" s="509"/>
@@ -12845,15 +12795,15 @@
       <c r="AL26" s="317"/>
       <c r="AM26" s="336">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="308">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="309">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="519" t="s">
         <v>252</v>
@@ -13105,7 +13055,7 @@
     <row r="30" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="268"/>
       <c r="J30" s="573"/>
-      <c r="K30" s="588"/>
+      <c r="K30" s="586"/>
       <c r="L30" s="581"/>
       <c r="M30" s="333"/>
       <c r="N30" s="245"/>
@@ -13168,7 +13118,7 @@
       <c r="A31" s="80"/>
       <c r="B31" s="112"/>
       <c r="C31" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>361</v>
@@ -13180,7 +13130,7 @@
         <v>-1</v>
       </c>
       <c r="J31" s="571"/>
-      <c r="K31" s="589"/>
+      <c r="K31" s="587"/>
       <c r="L31" s="581"/>
       <c r="M31" s="334"/>
       <c r="N31" s="246"/>
@@ -13240,10 +13190,10 @@
       <c r="AR31" s="508"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="632"/>
-      <c r="B32" s="632"/>
+      <c r="A32" s="650"/>
+      <c r="B32" s="650"/>
       <c r="J32" s="572"/>
-      <c r="K32" s="589"/>
+      <c r="K32" s="587"/>
       <c r="L32" s="581"/>
       <c r="M32" s="510">
         <v>0</v>
@@ -13340,10 +13290,10 @@
         <v>-1</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J33" s="573"/>
-      <c r="K33" s="590"/>
+      <c r="K33" s="588"/>
       <c r="L33" s="581">
         <v>2</v>
       </c>
@@ -13368,10 +13318,10 @@
       <c r="V33" s="160">
         <v>0</v>
       </c>
-      <c r="W33" s="592">
+      <c r="W33" s="590">
         <v>-1</v>
       </c>
-      <c r="X33" s="593">
+      <c r="X33" s="591">
         <v>1</v>
       </c>
       <c r="Y33" s="183">
@@ -13427,7 +13377,7 @@
         <v>345</v>
       </c>
       <c r="AQ33" s="562" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AR33" s="508" t="s">
         <v>500</v>
@@ -13443,7 +13393,7 @@
       <c r="J34" s="571" t="s">
         <v>301</v>
       </c>
-      <c r="K34" s="589">
+      <c r="K34" s="587">
         <v>0</v>
       </c>
       <c r="L34" s="581">
@@ -13536,7 +13486,7 @@
       <c r="J35" s="571" t="s">
         <v>296</v>
       </c>
-      <c r="K35" s="589"/>
+      <c r="K35" s="587"/>
       <c r="L35" s="581">
         <v>0</v>
       </c>
@@ -13627,7 +13577,7 @@
       <c r="J36" s="571" t="s">
         <v>296</v>
       </c>
-      <c r="K36" s="589"/>
+      <c r="K36" s="587"/>
       <c r="L36" s="581">
         <v>0</v>
       </c>
@@ -13710,7 +13660,9 @@
       </c>
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
+      <c r="B37" s="21">
+        <v>3</v>
+      </c>
       <c r="D37" s="382">
         <v>1</v>
       </c>
@@ -13722,9 +13674,9 @@
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="K37" s="591"/>
+        <v>607</v>
+      </c>
+      <c r="K37" s="589"/>
       <c r="L37" s="583">
         <v>1</v>
       </c>
@@ -13814,15 +13766,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13834,6 +13777,15 @@
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13898,10 +13850,10 @@
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="V1" s="605" t="s">
+      <c r="V1" s="603" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="629"/>
+      <c r="W1" s="683"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13920,7 +13872,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="754" t="s">
+      <c r="AD1" s="759" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13937,10 +13889,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="753" t="s">
+      <c r="F2" s="790" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="781" t="s">
+      <c r="G2" s="747" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13968,10 +13920,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="721" t="s">
+      <c r="V2" s="726" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="722"/>
+      <c r="W2" s="727"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13990,7 +13942,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="755"/>
+      <c r="AD2" s="760"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14009,8 +13961,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="681"/>
-      <c r="G3" s="782"/>
+      <c r="F3" s="630"/>
+      <c r="G3" s="748"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14021,13 +13973,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="791" t="s">
+      <c r="O3" s="757" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="773" t="s">
+      <c r="P3" s="778" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="774"/>
+      <c r="Q3" s="779"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -14037,15 +13989,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="755"/>
+      <c r="AD3" s="760"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="782"/>
+      <c r="G4" s="748"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="689" t="s">
+      <c r="L4" s="687" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="792"/>
+      <c r="O4" s="758"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14055,12 +14007,12 @@
       <c r="X4" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="Y4" s="605" t="s">
+      <c r="Y4" s="603" t="s">
         <v>194</v>
       </c>
-      <c r="Z4" s="607"/>
-      <c r="AA4" s="629"/>
-      <c r="AD4" s="755"/>
+      <c r="Z4" s="605"/>
+      <c r="AA4" s="683"/>
+      <c r="AD4" s="760"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14075,21 +14027,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="782"/>
+      <c r="G5" s="748"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="760" t="s">
+      <c r="K5" s="765" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="775"/>
+      <c r="L5" s="780"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="792"/>
+      <c r="O5" s="758"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14105,11 +14057,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="763" t="s">
+      <c r="Y5" s="768" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="764"/>
-      <c r="AD5" s="755"/>
+      <c r="Z5" s="769"/>
+      <c r="AD5" s="760"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14119,16 +14071,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="782"/>
+      <c r="G6" s="748"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="761"/>
-      <c r="L6" s="775"/>
-      <c r="O6" s="792"/>
+      <c r="K6" s="766"/>
+      <c r="L6" s="780"/>
+      <c r="O6" s="758"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14138,23 +14090,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="755"/>
+      <c r="AD6" s="760"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="782"/>
+      <c r="G7" s="748"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="761"/>
-      <c r="L7" s="775"/>
+      <c r="K7" s="766"/>
+      <c r="L7" s="780"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="792"/>
+      <c r="O7" s="758"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="755"/>
+      <c r="AD7" s="760"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14167,7 +14119,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="782"/>
+      <c r="G8" s="748"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14177,41 +14129,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="761"/>
-      <c r="L8" s="775"/>
-      <c r="O8" s="792"/>
+      <c r="K8" s="766"/>
+      <c r="L8" s="780"/>
+      <c r="O8" s="758"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="757" t="s">
+      <c r="S8" s="762" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="758"/>
-      <c r="U8" s="758"/>
-      <c r="V8" s="758"/>
-      <c r="W8" s="758"/>
-      <c r="X8" s="758"/>
-      <c r="Y8" s="758"/>
-      <c r="Z8" s="758"/>
-      <c r="AA8" s="758"/>
-      <c r="AB8" s="758"/>
-      <c r="AC8" s="759"/>
-      <c r="AD8" s="755"/>
+      <c r="T8" s="763"/>
+      <c r="U8" s="763"/>
+      <c r="V8" s="763"/>
+      <c r="W8" s="763"/>
+      <c r="X8" s="763"/>
+      <c r="Y8" s="763"/>
+      <c r="Z8" s="763"/>
+      <c r="AA8" s="763"/>
+      <c r="AB8" s="763"/>
+      <c r="AC8" s="764"/>
+      <c r="AD8" s="760"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="747"/>
-      <c r="G9" s="782"/>
+      <c r="C9" s="784"/>
+      <c r="G9" s="748"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="761"/>
-      <c r="L9" s="785" t="s">
+      <c r="K9" s="766"/>
+      <c r="L9" s="751" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="786"/>
-      <c r="N9" s="787"/>
-      <c r="O9" s="792"/>
+      <c r="M9" s="752"/>
+      <c r="N9" s="753"/>
+      <c r="O9" s="758"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="755"/>
+      <c r="AD9" s="760"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="748"/>
+      <c r="C10" s="785"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14219,7 +14171,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="782"/>
+      <c r="G10" s="748"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14227,33 +14179,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="761"/>
-      <c r="M10" s="750" t="s">
+      <c r="K10" s="766"/>
+      <c r="M10" s="787" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="751"/>
-      <c r="O10" s="751"/>
-      <c r="P10" s="751"/>
-      <c r="Q10" s="751"/>
-      <c r="R10" s="751"/>
-      <c r="S10" s="751"/>
-      <c r="T10" s="751"/>
-      <c r="U10" s="751"/>
-      <c r="V10" s="751"/>
-      <c r="W10" s="751"/>
-      <c r="X10" s="751"/>
-      <c r="Y10" s="751"/>
-      <c r="Z10" s="751"/>
-      <c r="AA10" s="751"/>
-      <c r="AB10" s="751"/>
-      <c r="AC10" s="752"/>
-      <c r="AD10" s="755"/>
+      <c r="N10" s="788"/>
+      <c r="O10" s="788"/>
+      <c r="P10" s="788"/>
+      <c r="Q10" s="788"/>
+      <c r="R10" s="788"/>
+      <c r="S10" s="788"/>
+      <c r="T10" s="788"/>
+      <c r="U10" s="788"/>
+      <c r="V10" s="788"/>
+      <c r="W10" s="788"/>
+      <c r="X10" s="788"/>
+      <c r="Y10" s="788"/>
+      <c r="Z10" s="788"/>
+      <c r="AA10" s="788"/>
+      <c r="AB10" s="788"/>
+      <c r="AC10" s="789"/>
+      <c r="AD10" s="760"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="749"/>
-      <c r="G11" s="782"/>
+      <c r="C11" s="786"/>
+      <c r="G11" s="748"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="761"/>
+      <c r="K11" s="766"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14261,17 +14213,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="771" t="s">
+      <c r="Z11" s="776" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="772"/>
+      <c r="AA11" s="777"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="755"/>
+      <c r="AD11" s="760"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14284,7 +14236,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="782"/>
+      <c r="G12" s="748"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14292,8 +14244,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="761"/>
-      <c r="L12" s="776" t="s">
+      <c r="K12" s="766"/>
+      <c r="L12" s="781" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14308,7 +14260,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="600" t="s">
+      <c r="S12" s="598" t="s">
         <v>106</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -14324,26 +14276,26 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="765" t="s">
+      <c r="AA12" s="770" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="766"/>
+      <c r="AB12" s="771"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="755"/>
+      <c r="AD12" s="760"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="747"/>
-      <c r="G13" s="782"/>
-      <c r="K13" s="761"/>
-      <c r="L13" s="777"/>
+      <c r="C13" s="784"/>
+      <c r="G13" s="748"/>
+      <c r="K13" s="766"/>
+      <c r="L13" s="782"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="784" t="s">
+      <c r="Q13" s="750" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="646"/>
-      <c r="S13" s="601"/>
+      <c r="R13" s="639"/>
+      <c r="S13" s="599"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>131</v>
@@ -14351,17 +14303,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="767"/>
-      <c r="AB13" s="768"/>
-      <c r="AD13" s="755"/>
+      <c r="AA13" s="772"/>
+      <c r="AB13" s="773"/>
+      <c r="AD13" s="760"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="749"/>
+      <c r="C14" s="786"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="782"/>
+      <c r="G14" s="748"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14369,8 +14321,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="761"/>
-      <c r="L14" s="777"/>
+      <c r="K14" s="766"/>
+      <c r="L14" s="782"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14380,7 +14332,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="601"/>
+      <c r="S14" s="599"/>
       <c r="T14" s="77" t="s">
         <v>129</v>
       </c>
@@ -14391,9 +14343,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="767"/>
-      <c r="AB14" s="768"/>
-      <c r="AD14" s="755"/>
+      <c r="AA14" s="772"/>
+      <c r="AB14" s="773"/>
+      <c r="AD14" s="760"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14408,20 +14360,20 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="782"/>
+      <c r="G15" s="748"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="761"/>
-      <c r="L15" s="778"/>
-      <c r="Q15" s="784" t="s">
+      <c r="K15" s="766"/>
+      <c r="L15" s="783"/>
+      <c r="Q15" s="750" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="646"/>
-      <c r="S15" s="601"/>
+      <c r="R15" s="639"/>
+      <c r="S15" s="599"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -14429,14 +14381,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="767"/>
-      <c r="AB15" s="768"/>
-      <c r="AD15" s="755"/>
+      <c r="AA15" s="772"/>
+      <c r="AB15" s="773"/>
+      <c r="AD15" s="760"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="782"/>
-      <c r="K16" s="761"/>
+      <c r="G16" s="748"/>
+      <c r="K16" s="766"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14444,7 +14396,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="601"/>
+      <c r="S16" s="599"/>
       <c r="T16" s="76" t="s">
         <v>128</v>
       </c>
@@ -14455,34 +14407,34 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="767"/>
-      <c r="AB16" s="768"/>
-      <c r="AD16" s="755"/>
+      <c r="AA16" s="772"/>
+      <c r="AB16" s="773"/>
+      <c r="AD16" s="760"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="779" t="s">
+      <c r="F17" s="745" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="782"/>
+      <c r="G17" s="748"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="761"/>
-      <c r="S17" s="601"/>
+      <c r="K17" s="766"/>
+      <c r="S17" s="599"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="767"/>
-      <c r="AB17" s="768"/>
-      <c r="AD17" s="755"/>
+      <c r="AA17" s="772"/>
+      <c r="AB17" s="773"/>
+      <c r="AD17" s="760"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14492,61 +14444,58 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="780"/>
-      <c r="G18" s="782"/>
+      <c r="F18" s="746"/>
+      <c r="G18" s="748"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="761"/>
+      <c r="K18" s="766"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="S18" s="601"/>
+      <c r="S18" s="599"/>
       <c r="U18" s="76" t="s">
         <v>132</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="769"/>
-      <c r="AB18" s="770"/>
-      <c r="AD18" s="755"/>
+      <c r="AA18" s="774"/>
+      <c r="AB18" s="775"/>
+      <c r="AD18" s="760"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="783"/>
-      <c r="K19" s="762"/>
+      <c r="G19" s="749"/>
+      <c r="K19" s="767"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="788" t="s">
+      <c r="R19" s="754" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="789"/>
-      <c r="T19" s="790"/>
+      <c r="S19" s="755"/>
+      <c r="T19" s="756"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="756"/>
+      <c r="AD19" s="761"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14558,11 +14507,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF172885-0E7B-431F-9A31-2C47F1E2E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F57068F-CD9F-4624-90B7-CDC14676AE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="623">
   <si>
     <t>Zone</t>
   </si>
@@ -5030,6 +5030,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5048,12 +5201,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5108,169 +5255,61 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5312,43 +5351,70 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5372,112 +5438,25 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5555,25 +5534,46 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6906,7 +6906,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="659" t="s">
+      <c r="I1" s="613" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6942,7 +6942,7 @@
       <c r="X1" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="653" t="s">
+      <c r="Y1" s="657" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="406">
@@ -6967,7 +6967,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="402"/>
-      <c r="AN1" s="635"/>
+      <c r="AN1" s="640"/>
       <c r="AO1" s="338" t="s">
         <v>470</v>
       </c>
@@ -6976,23 +6976,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="617">
+      <c r="A2" s="666">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="619" t="s">
+      <c r="B2" s="668" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="615" t="s">
+      <c r="C2" s="645" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="621" t="s">
+      <c r="D2" s="670" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="669" t="s">
+      <c r="E2" s="609" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="640" t="s">
+      <c r="F2" s="619" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="393" t="s">
@@ -7001,31 +7001,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="660"/>
+      <c r="I2" s="614"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="671" t="s">
+      <c r="K2" s="611" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="672"/>
-      <c r="M2" s="640" t="s">
+      <c r="L2" s="612"/>
+      <c r="M2" s="619" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="644" t="s">
+      <c r="O2" s="649" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="615" t="s">
+      <c r="Q2" s="645" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="598"/>
-      <c r="S2" s="657" t="s">
+      <c r="S2" s="634" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7035,7 +7035,7 @@
       <c r="X2" s="431" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="654"/>
+      <c r="Y2" s="658"/>
       <c r="Z2" s="407">
         <v>1</v>
       </c>
@@ -7058,15 +7058,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="428"/>
-      <c r="AN2" s="636"/>
+      <c r="AN2" s="641"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="618"/>
-      <c r="B3" s="620"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="622"/>
-      <c r="E3" s="670"/>
-      <c r="F3" s="641"/>
+      <c r="A3" s="667"/>
+      <c r="B3" s="669"/>
+      <c r="C3" s="646"/>
+      <c r="D3" s="671"/>
+      <c r="E3" s="610"/>
+      <c r="F3" s="620"/>
       <c r="G3" s="394" t="s">
         <v>28</v>
       </c>
@@ -7085,17 +7085,17 @@
       <c r="L3" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="641"/>
+      <c r="M3" s="620"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="645"/>
+      <c r="O3" s="650"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="616"/>
+      <c r="Q3" s="646"/>
       <c r="R3" s="600"/>
-      <c r="S3" s="658"/>
+      <c r="S3" s="636"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7103,7 +7103,7 @@
       <c r="X3" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="654"/>
+      <c r="Y3" s="658"/>
       <c r="Z3" s="408">
         <v>1</v>
       </c>
@@ -7112,7 +7112,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="656" t="s">
+      <c r="AD3" s="631" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="257"/>
@@ -7124,16 +7124,16 @@
       <c r="AK3" s="257"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="428"/>
-      <c r="AN3" s="636"/>
+      <c r="AN3" s="641"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="633" t="s">
+      <c r="B4" s="682" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="615" t="s">
+      <c r="C4" s="645" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="347" t="s">
@@ -7142,7 +7142,7 @@
       <c r="E4" s="378">
         <v>2</v>
       </c>
-      <c r="F4" s="641"/>
+      <c r="F4" s="620"/>
       <c r="G4" s="381" t="s">
         <v>202</v>
       </c>
@@ -7159,11 +7159,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="204"/>
-      <c r="M4" s="641"/>
+      <c r="M4" s="620"/>
       <c r="N4" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="645"/>
+      <c r="O4" s="650"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7185,12 +7185,12 @@
       <c r="X4" s="431" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="654"/>
+      <c r="Y4" s="658"/>
       <c r="Z4" s="409"/>
       <c r="AA4" s="307"/>
       <c r="AB4" s="209"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="656"/>
+      <c r="AD4" s="631"/>
       <c r="AE4" s="257"/>
       <c r="AF4" s="257"/>
       <c r="AG4" s="16"/>
@@ -7200,37 +7200,37 @@
       <c r="AK4" s="257"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="428"/>
-      <c r="AN4" s="636"/>
+      <c r="AN4" s="641"/>
       <c r="AO4" s="338" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="659" t="s">
+      <c r="A5" s="613" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="634"/>
-      <c r="C5" s="616"/>
+      <c r="B5" s="683"/>
+      <c r="C5" s="646"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="379">
         <v>1</v>
       </c>
-      <c r="F5" s="641"/>
-      <c r="G5" s="625" t="s">
+      <c r="F5" s="620"/>
+      <c r="G5" s="674" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="625"/>
-      <c r="I5" s="625"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="626"/>
-      <c r="M5" s="641"/>
+      <c r="H5" s="674"/>
+      <c r="I5" s="674"/>
+      <c r="J5" s="674"/>
+      <c r="K5" s="674"/>
+      <c r="L5" s="675"/>
+      <c r="M5" s="620"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="645"/>
+      <c r="O5" s="650"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7238,7 +7238,7 @@
       <c r="X5" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="654"/>
+      <c r="Y5" s="658"/>
       <c r="Z5" s="409">
         <v>1</v>
       </c>
@@ -7261,24 +7261,24 @@
       <c r="AK5" s="257"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="428"/>
-      <c r="AN5" s="636"/>
+      <c r="AN5" s="641"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="660"/>
-      <c r="B6" s="631" t="s">
+      <c r="A6" s="614"/>
+      <c r="B6" s="680" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="661"/>
-      <c r="D6" s="662"/>
-      <c r="F6" s="641"/>
-      <c r="G6" s="627"/>
-      <c r="H6" s="627"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="627"/>
-      <c r="L6" s="628"/>
-      <c r="M6" s="641"/>
-      <c r="O6" s="645"/>
+      <c r="C6" s="628"/>
+      <c r="D6" s="629"/>
+      <c r="F6" s="620"/>
+      <c r="G6" s="676"/>
+      <c r="H6" s="676"/>
+      <c r="I6" s="676"/>
+      <c r="J6" s="676"/>
+      <c r="K6" s="676"/>
+      <c r="L6" s="677"/>
+      <c r="M6" s="620"/>
+      <c r="O6" s="650"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7288,7 +7288,7 @@
       <c r="X6" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="654"/>
+      <c r="Y6" s="658"/>
       <c r="Z6" s="407">
         <v>1</v>
       </c>
@@ -7302,16 +7302,16 @@
       <c r="AF6" s="257"/>
       <c r="AG6" s="257"/>
       <c r="AH6" s="257"/>
-      <c r="AI6" s="650"/>
+      <c r="AI6" s="630"/>
       <c r="AJ6" s="441" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="650" t="s">
+      <c r="AK6" s="630" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="257"/>
       <c r="AM6" s="428"/>
-      <c r="AN6" s="636"/>
+      <c r="AN6" s="641"/>
       <c r="AO6" s="338" t="s">
         <v>471</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="A7" s="232" t="s">
         <v>573</v>
       </c>
-      <c r="B7" s="632"/>
+      <c r="B7" s="681"/>
       <c r="C7" s="202" t="s">
         <v>375</v>
       </c>
@@ -7330,7 +7330,7 @@
       <c r="E7" s="265">
         <v>3</v>
       </c>
-      <c r="F7" s="641"/>
+      <c r="F7" s="620"/>
       <c r="G7" s="395">
         <v>0</v>
       </c>
@@ -7349,8 +7349,8 @@
       <c r="L7" s="212">
         <v>0</v>
       </c>
-      <c r="M7" s="641"/>
-      <c r="O7" s="645"/>
+      <c r="M7" s="620"/>
+      <c r="O7" s="650"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7364,7 +7364,7 @@
       <c r="X7" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="654"/>
+      <c r="Y7" s="658"/>
       <c r="Z7" s="407">
         <v>1</v>
       </c>
@@ -7374,18 +7374,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
-      <c r="AG7" s="656" t="s">
+      <c r="AG7" s="631" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="257"/>
-      <c r="AI7" s="650"/>
+      <c r="AI7" s="630"/>
       <c r="AJ7" s="257"/>
-      <c r="AK7" s="650"/>
+      <c r="AK7" s="630"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="428"/>
-      <c r="AN7" s="636"/>
+      <c r="AN7" s="641"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7402,27 +7402,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="641"/>
-      <c r="G8" s="626">
-        <v>0</v>
-      </c>
-      <c r="H8" s="623" t="s">
+      <c r="F8" s="620"/>
+      <c r="G8" s="675">
+        <v>0</v>
+      </c>
+      <c r="H8" s="672" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="598">
         <v>0</v>
       </c>
-      <c r="J8" s="623" t="s">
+      <c r="J8" s="672" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="629"/>
-      <c r="L8" s="663"/>
-      <c r="M8" s="642"/>
-      <c r="N8" s="666">
+      <c r="K8" s="678"/>
+      <c r="L8" s="632"/>
+      <c r="M8" s="647"/>
+      <c r="N8" s="637">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="645"/>
+      <c r="O8" s="650"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7432,7 +7432,7 @@
       <c r="X8" s="431" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="654"/>
+      <c r="Y8" s="658"/>
       <c r="Z8" s="409"/>
       <c r="AA8" s="307"/>
       <c r="AB8" s="209"/>
@@ -7440,14 +7440,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
-      <c r="AG8" s="656"/>
+      <c r="AG8" s="631"/>
       <c r="AH8" s="257"/>
-      <c r="AI8" s="650"/>
+      <c r="AI8" s="630"/>
       <c r="AJ8" s="257"/>
       <c r="AK8" s="257"/>
       <c r="AL8" s="257"/>
       <c r="AM8" s="428"/>
-      <c r="AN8" s="636"/>
+      <c r="AN8" s="641"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
@@ -7462,17 +7462,17 @@
       <c r="D9" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="641"/>
-      <c r="G9" s="628"/>
-      <c r="H9" s="624"/>
+      <c r="F9" s="620"/>
+      <c r="G9" s="677"/>
+      <c r="H9" s="673"/>
       <c r="I9" s="600"/>
-      <c r="J9" s="624"/>
-      <c r="K9" s="630"/>
-      <c r="L9" s="664"/>
-      <c r="M9" s="643"/>
-      <c r="N9" s="667"/>
-      <c r="O9" s="646"/>
-      <c r="S9" s="657" t="s">
+      <c r="J9" s="673"/>
+      <c r="K9" s="679"/>
+      <c r="L9" s="633"/>
+      <c r="M9" s="648"/>
+      <c r="N9" s="638"/>
+      <c r="O9" s="651"/>
+      <c r="S9" s="634" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7484,7 +7484,7 @@
       <c r="X9" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="654"/>
+      <c r="Y9" s="658"/>
       <c r="Z9" s="410"/>
       <c r="AA9" s="307"/>
       <c r="AB9" s="209"/>
@@ -7494,16 +7494,16 @@
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
-      <c r="AG9" s="656"/>
+      <c r="AG9" s="631"/>
       <c r="AH9" s="257"/>
-      <c r="AI9" s="650"/>
+      <c r="AI9" s="630"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="650" t="s">
+      <c r="AK9" s="630" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="257"/>
       <c r="AM9" s="428"/>
-      <c r="AN9" s="636"/>
+      <c r="AN9" s="641"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7520,20 +7520,20 @@
         <f>Boat!W8</f>
         <v>43</v>
       </c>
-      <c r="F10" s="641"/>
+      <c r="F10" s="620"/>
       <c r="N10" s="418" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="678" t="s">
+      <c r="O10" s="622" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="647" t="s">
+      <c r="P10" s="652" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="665"/>
+      <c r="S10" s="635"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7545,7 +7545,7 @@
       <c r="X10" s="431" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="654"/>
+      <c r="Y10" s="658"/>
       <c r="Z10" s="409">
         <v>0</v>
       </c>
@@ -7563,16 +7563,16 @@
       <c r="AF10" s="238" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="656"/>
+      <c r="AG10" s="631"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="650"/>
+      <c r="AI10" s="630"/>
       <c r="AJ10" s="257"/>
-      <c r="AK10" s="650"/>
+      <c r="AK10" s="630"/>
       <c r="AL10" s="257"/>
       <c r="AM10" s="442" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="636"/>
+      <c r="AN10" s="641"/>
       <c r="AO10" s="204" t="s">
         <v>94</v>
       </c>
@@ -7590,18 +7590,18 @@
       <c r="D11" s="170" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="641"/>
+      <c r="F11" s="620"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="679"/>
-      <c r="P11" s="648"/>
+      <c r="O11" s="623"/>
+      <c r="P11" s="653"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="665"/>
+      <c r="S11" s="635"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7611,7 +7611,7 @@
       <c r="X11" s="431" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="654"/>
+      <c r="Y11" s="658"/>
       <c r="Z11" s="409"/>
       <c r="AA11" s="307">
         <v>1</v>
@@ -7625,14 +7625,14 @@
       <c r="AF11" s="257" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="656"/>
+      <c r="AG11" s="631"/>
       <c r="AH11" s="257"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="257"/>
       <c r="AK11" s="257"/>
       <c r="AL11" s="257"/>
       <c r="AM11" s="428"/>
-      <c r="AN11" s="636"/>
+      <c r="AN11" s="641"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7651,7 +7651,7 @@
       <c r="E12" s="224">
         <v>3</v>
       </c>
-      <c r="F12" s="641"/>
+      <c r="F12" s="620"/>
       <c r="G12" s="337" t="s">
         <v>401</v>
       </c>
@@ -7660,16 +7660,16 @@
       </c>
       <c r="I12" s="605"/>
       <c r="J12" s="605"/>
-      <c r="K12" s="683"/>
+      <c r="K12" s="627"/>
       <c r="L12" s="203"/>
       <c r="M12" s="203"/>
       <c r="N12" s="203"/>
-      <c r="O12" s="679"/>
-      <c r="P12" s="648"/>
+      <c r="O12" s="623"/>
+      <c r="P12" s="653"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="658"/>
+      <c r="S12" s="636"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7679,7 +7679,7 @@
       <c r="X12" s="431" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="654"/>
+      <c r="Y12" s="658"/>
       <c r="Z12" s="407">
         <v>1</v>
       </c>
@@ -7690,16 +7690,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="668" t="s">
+      <c r="AD12" s="639" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="441" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="656" t="s">
+      <c r="AF12" s="631" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="656"/>
+      <c r="AG12" s="631"/>
       <c r="AH12" s="238" t="s">
         <v>260</v>
       </c>
@@ -7709,10 +7709,10 @@
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
-      <c r="AM12" s="651" t="s">
+      <c r="AM12" s="655" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="636"/>
+      <c r="AN12" s="641"/>
       <c r="AO12" s="338" t="s">
         <v>96</v>
       </c>
@@ -7724,17 +7724,17 @@
       <c r="E13" s="448">
         <v>-3</v>
       </c>
-      <c r="F13" s="641"/>
+      <c r="F13" s="620"/>
       <c r="G13" s="605" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="605"/>
       <c r="I13" s="605"/>
-      <c r="J13" s="683"/>
+      <c r="J13" s="627"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="679"/>
-      <c r="P13" s="649"/>
+      <c r="O13" s="623"/>
+      <c r="P13" s="654"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7744,7 +7744,7 @@
       <c r="X13" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="654"/>
+      <c r="Y13" s="658"/>
       <c r="Z13" s="407">
         <v>1</v>
       </c>
@@ -7755,8 +7755,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="668"/>
-      <c r="AF13" s="656"/>
+      <c r="AD13" s="639"/>
+      <c r="AF13" s="631"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
         <v>309</v>
@@ -7767,8 +7767,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
       <c r="AL13" s="257"/>
-      <c r="AM13" s="651"/>
-      <c r="AN13" s="636"/>
+      <c r="AM13" s="655"/>
+      <c r="AN13" s="641"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="450"/>
@@ -7776,18 +7776,18 @@
       <c r="C14" s="459"/>
       <c r="D14" s="452"/>
       <c r="E14" s="453"/>
-      <c r="F14" s="641"/>
+      <c r="F14" s="620"/>
       <c r="G14" s="605" t="s">
         <v>430</v>
       </c>
       <c r="H14" s="605"/>
       <c r="I14" s="605"/>
-      <c r="J14" s="683"/>
+      <c r="J14" s="627"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="679"/>
+      <c r="O14" s="623"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7801,24 +7801,24 @@
       <c r="X14" s="431" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="654"/>
+      <c r="Y14" s="658"/>
       <c r="Z14" s="407">
         <v>1</v>
       </c>
       <c r="AA14" s="307"/>
       <c r="AB14" s="209"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="668"/>
+      <c r="AD14" s="639"/>
       <c r="AE14" s="257"/>
-      <c r="AF14" s="656"/>
+      <c r="AF14" s="631"/>
       <c r="AG14" s="257"/>
       <c r="AH14" s="257"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="257"/>
       <c r="AK14" s="257"/>
       <c r="AL14" s="257"/>
-      <c r="AM14" s="651"/>
-      <c r="AN14" s="636"/>
+      <c r="AM14" s="655"/>
+      <c r="AN14" s="641"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="449" t="s">
@@ -7827,8 +7827,8 @@
       <c r="C15" s="598" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="641"/>
-      <c r="O15" s="679"/>
+      <c r="F15" s="620"/>
+      <c r="O15" s="623"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7841,7 +7841,7 @@
       <c r="X15" s="431" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="654"/>
+      <c r="Y15" s="658"/>
       <c r="Z15" s="409">
         <v>1</v>
       </c>
@@ -7850,8 +7850,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="668"/>
-      <c r="AF15" s="656"/>
+      <c r="AD15" s="639"/>
+      <c r="AF15" s="631"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
         <v>449</v>
@@ -7864,8 +7864,8 @@
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
-      <c r="AM15" s="651"/>
-      <c r="AN15" s="636"/>
+      <c r="AM15" s="655"/>
+      <c r="AN15" s="641"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7887,13 +7887,13 @@
       <c r="E16" s="224">
         <v>1</v>
       </c>
-      <c r="F16" s="641"/>
+      <c r="F16" s="620"/>
       <c r="G16" s="337" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="469"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="679"/>
+      <c r="O16" s="623"/>
       <c r="R16" s="435" t="s">
         <v>184</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="X16" s="431" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="654"/>
+      <c r="Y16" s="658"/>
       <c r="Z16" s="407">
         <v>1</v>
       </c>
@@ -7925,18 +7925,18 @@
       <c r="AM16" s="428" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="636"/>
+      <c r="AN16" s="641"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="641"/>
+      <c r="F17" s="620"/>
       <c r="I17" s="470"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="679"/>
+      <c r="O17" s="623"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -7956,7 +7956,7 @@
       <c r="X17" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="654"/>
+      <c r="Y17" s="658"/>
       <c r="Z17" s="409"/>
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
@@ -7981,7 +7981,7 @@
       <c r="AK17" s="257"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="428"/>
-      <c r="AN17" s="636"/>
+      <c r="AN17" s="641"/>
       <c r="AO17" s="204" t="s">
         <v>498</v>
       </c>
@@ -8005,21 +8005,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="641"/>
+      <c r="F18" s="620"/>
       <c r="G18" s="337" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="679"/>
+      <c r="O18" s="623"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="673" t="s">
+      <c r="R18" s="615" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="612" t="s">
+      <c r="U18" s="663" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8029,7 +8029,7 @@
       <c r="X18" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="654"/>
+      <c r="Y18" s="658"/>
       <c r="Z18" s="409">
         <v>1</v>
       </c>
@@ -8040,38 +8040,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
-      <c r="AF18" s="650" t="s">
+      <c r="AF18" s="630" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="652" t="s">
+      <c r="AJ18" s="656" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="428"/>
-      <c r="AN18" s="636"/>
+      <c r="AN18" s="641"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="641"/>
+      <c r="F19" s="620"/>
       <c r="I19" s="219"/>
-      <c r="O19" s="679"/>
-      <c r="R19" s="674"/>
+      <c r="O19" s="623"/>
+      <c r="R19" s="616"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="613"/>
+      <c r="U19" s="664"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="431" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="654"/>
+      <c r="Y19" s="658"/>
       <c r="Z19" s="407">
         <v>1</v>
       </c>
@@ -8080,17 +8080,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="257"/>
-      <c r="AF19" s="650"/>
+      <c r="AF19" s="630"/>
       <c r="AG19" s="257"/>
       <c r="AH19" s="257"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="652"/>
+      <c r="AJ19" s="656"/>
       <c r="AK19" s="460" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="428"/>
-      <c r="AN19" s="636"/>
+      <c r="AN19" s="641"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8111,24 +8111,24 @@
       <c r="E20" s="437">
         <v>-1</v>
       </c>
-      <c r="F20" s="641"/>
+      <c r="F20" s="620"/>
       <c r="G20" s="337" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="219"/>
-      <c r="O20" s="679"/>
-      <c r="Q20" s="681" t="s">
+      <c r="O20" s="623"/>
+      <c r="Q20" s="625" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="614"/>
+      <c r="U20" s="665"/>
       <c r="W20" s="405"/>
       <c r="X20" s="432" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="654"/>
+      <c r="Y20" s="658"/>
       <c r="Z20" s="411">
         <v>1</v>
       </c>
@@ -8153,7 +8153,7 @@
       <c r="AM20" s="381" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="636"/>
+      <c r="AN20" s="641"/>
       <c r="AO20" s="338" t="s">
         <v>461</v>
       </c>
@@ -8174,20 +8174,20 @@
       <c r="E21" s="265">
         <v>0</v>
       </c>
-      <c r="F21" s="641"/>
+      <c r="F21" s="620"/>
       <c r="I21" s="219"/>
-      <c r="O21" s="679"/>
-      <c r="Q21" s="682"/>
+      <c r="O21" s="623"/>
+      <c r="Q21" s="626"/>
       <c r="T21" s="422"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="609"/>
+      <c r="V21" s="660"/>
       <c r="W21" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="429" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="654"/>
+      <c r="Y21" s="658"/>
       <c r="Z21" s="445">
         <v>3</v>
       </c>
@@ -8218,15 +8218,15 @@
       <c r="AM21" s="428" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="636"/>
+      <c r="AN21" s="641"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="641"/>
+      <c r="F22" s="620"/>
       <c r="G22" s="337" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="219"/>
-      <c r="O22" s="679"/>
+      <c r="O22" s="623"/>
       <c r="R22" s="434" t="s">
         <v>44</v>
       </c>
@@ -8234,14 +8234,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="610"/>
+      <c r="V22" s="661"/>
       <c r="W22" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="429" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="654"/>
+      <c r="Y22" s="658"/>
       <c r="Z22" s="415"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="415"/>
@@ -8252,7 +8252,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="650" t="s">
+      <c r="AJ22" s="630" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="257"/>
@@ -8260,7 +8260,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="300"/>
-      <c r="AN22" s="636"/>
+      <c r="AN22" s="641"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
@@ -8278,22 +8278,22 @@
       <c r="E23" s="225">
         <v>1</v>
       </c>
-      <c r="F23" s="641"/>
+      <c r="F23" s="620"/>
       <c r="I23" s="219"/>
-      <c r="O23" s="679"/>
-      <c r="Q23" s="681" t="s">
+      <c r="O23" s="623"/>
+      <c r="Q23" s="625" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="610"/>
+      <c r="V23" s="661"/>
       <c r="W23" s="148"/>
       <c r="X23" s="429" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="654"/>
+      <c r="Y23" s="658"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="415"/>
@@ -8304,13 +8304,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="650"/>
+      <c r="AJ23" s="630"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="300"/>
-      <c r="AN23" s="636"/>
+      <c r="AN23" s="641"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="440" t="s">
@@ -8328,23 +8328,23 @@
       <c r="E24" s="436">
         <v>1</v>
       </c>
-      <c r="F24" s="641"/>
+      <c r="F24" s="620"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="219"/>
-      <c r="O24" s="679"/>
-      <c r="Q24" s="682"/>
+      <c r="O24" s="623"/>
+      <c r="Q24" s="626"/>
       <c r="T24" s="17"/>
       <c r="U24" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="610"/>
+      <c r="V24" s="661"/>
       <c r="W24" s="148"/>
       <c r="X24" s="429" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="654"/>
+      <c r="Y24" s="658"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="415"/>
@@ -8363,12 +8363,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="300"/>
-      <c r="AN24" s="636"/>
+      <c r="AN24" s="641"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="641"/>
+      <c r="F25" s="620"/>
       <c r="I25" s="219"/>
-      <c r="O25" s="679"/>
+      <c r="O25" s="623"/>
       <c r="P25" s="204" t="s">
         <v>281</v>
       </c>
@@ -8381,12 +8381,12 @@
       <c r="U25" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="611"/>
+      <c r="V25" s="662"/>
       <c r="W25" s="148"/>
       <c r="X25" s="429" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="654"/>
+      <c r="Y25" s="658"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="415"/>
@@ -8403,7 +8403,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="300"/>
-      <c r="AN25" s="636"/>
+      <c r="AN25" s="641"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
@@ -8421,17 +8421,17 @@
       <c r="E26" s="380">
         <v>1</v>
       </c>
-      <c r="F26" s="641"/>
+      <c r="F26" s="620"/>
       <c r="G26" s="337" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="O26" s="679"/>
-      <c r="P26" s="638" t="s">
+      <c r="O26" s="623"/>
+      <c r="P26" s="643" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="639"/>
-      <c r="R26" s="675" t="s">
+      <c r="Q26" s="644"/>
+      <c r="R26" s="617" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="178"/>
@@ -8443,7 +8443,7 @@
       <c r="X26" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="654"/>
+      <c r="Y26" s="658"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="415"/>
@@ -8470,7 +8470,7 @@
       <c r="AM26" s="442" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="636"/>
+      <c r="AN26" s="641"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8482,13 +8482,13 @@
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="677"/>
+      <c r="F27" s="621"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="220"/>
-      <c r="O27" s="680"/>
-      <c r="R27" s="676"/>
+      <c r="O27" s="624"/>
+      <c r="R27" s="618"/>
       <c r="S27" s="421" t="s">
         <v>54</v>
       </c>
@@ -8501,7 +8501,7 @@
       <c r="X27" s="429" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="655"/>
+      <c r="Y27" s="659"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="416"/>
@@ -8518,32 +8518,26 @@
       <c r="AM27" s="381" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="637"/>
+      <c r="AN27" s="642"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8560,22 +8554,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8612,12 +8612,12 @@
       <c r="B1" s="603" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="683"/>
+      <c r="C1" s="627"/>
       <c r="D1" s="204"/>
       <c r="J1" s="603" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="683"/>
+      <c r="K1" s="627"/>
       <c r="L1" s="195" t="s">
         <v>331</v>
       </c>
@@ -8951,8 +8951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+    <sheetView topLeftCell="N12" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9020,7 +9020,7 @@
       <c r="P1" s="398" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="714" t="s">
+      <c r="Q1" s="701" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9044,7 +9044,7 @@
       <c r="AA1" s="517" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="708" t="s">
+      <c r="AB1" s="695" t="s">
         <v>595</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9066,32 +9066,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="693">
+      <c r="A2" s="706">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="695" t="s">
+      <c r="B2" s="708" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="615" t="s">
+      <c r="C2" s="645" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="697" t="s">
+      <c r="D2" s="710" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="699" t="s">
+      <c r="E2" s="712" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="659" t="s">
+      <c r="G2" s="613" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="705" t="s">
+      <c r="I2" s="692" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="396" t="s">
@@ -9115,14 +9115,14 @@
       <c r="P2" s="399">
         <v>40</v>
       </c>
-      <c r="Q2" s="715"/>
+      <c r="Q2" s="702"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>2</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T2" s="172">
         <f>SUM(T4:T16)</f>
@@ -9140,7 +9140,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="709"/>
+      <c r="AB2" s="696"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>345</v>
@@ -9153,14 +9153,14 @@
       <c r="AL2" s="469"/>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="694"/>
-      <c r="B3" s="696"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="698"/>
-      <c r="E3" s="700"/>
-      <c r="G3" s="660"/>
+      <c r="A3" s="707"/>
+      <c r="B3" s="709"/>
+      <c r="C3" s="646"/>
+      <c r="D3" s="711"/>
+      <c r="E3" s="713"/>
+      <c r="G3" s="614"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="706"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9169,13 +9169,13 @@
       </c>
       <c r="Q3" s="471">
         <f>SUM(X23:X31)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="470"/>
       <c r="W3" s="6"/>
       <c r="X3" s="470"/>
-      <c r="AB3" s="709"/>
+      <c r="AB3" s="696"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>590</v>
@@ -9200,10 +9200,10 @@
         <v>381</v>
       </c>
       <c r="B4" s="243"/>
-      <c r="C4" s="701" t="s">
+      <c r="C4" s="714" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="693"/>
       <c r="R4" s="471" t="s">
         <v>590</v>
       </c>
@@ -9215,7 +9215,7 @@
       <c r="V4" s="470"/>
       <c r="W4" s="6"/>
       <c r="X4" s="470"/>
-      <c r="AB4" s="709"/>
+      <c r="AB4" s="696"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9242,7 +9242,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="702"/>
+      <c r="C5" s="715"/>
       <c r="D5" s="222" t="s">
         <v>102</v>
       </c>
@@ -9258,7 +9258,7 @@
       <c r="H5" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="706"/>
+      <c r="I5" s="693"/>
       <c r="J5" s="397" t="s">
         <v>269</v>
       </c>
@@ -9285,7 +9285,7 @@
       <c r="V5" s="468"/>
       <c r="W5" s="6"/>
       <c r="X5" s="468"/>
-      <c r="AB5" s="709"/>
+      <c r="AB5" s="696"/>
       <c r="AC5" s="2" t="s">
         <v>593</v>
       </c>
@@ -9303,19 +9303,19 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="690" t="s">
+      <c r="A6" s="703" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="661"/>
-      <c r="D6" s="662"/>
+      <c r="C6" s="628"/>
+      <c r="D6" s="629"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="599"/>
-      <c r="I6" s="706"/>
+      <c r="I6" s="693"/>
       <c r="P6" s="61" t="s">
         <v>593</v>
       </c>
@@ -9327,7 +9327,7 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="709"/>
+      <c r="AB6" s="696"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9343,7 +9343,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="691"/>
+      <c r="A7" s="704"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="599"/>
-      <c r="I7" s="706"/>
+      <c r="I7" s="693"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9386,7 +9386,7 @@
       <c r="X7" s="469">
         <v>1</v>
       </c>
-      <c r="AB7" s="709"/>
+      <c r="AB7" s="696"/>
       <c r="AC7" s="99" t="s">
         <v>594</v>
       </c>
@@ -9412,7 +9412,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="692"/>
+      <c r="A8" s="705"/>
       <c r="B8" s="212" t="s">
         <v>28</v>
       </c>
@@ -9421,13 +9421,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="599"/>
-      <c r="I8" s="706"/>
+      <c r="I8" s="693"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
       <c r="W8" s="6"/>
       <c r="X8" s="470"/>
-      <c r="AB8" s="709"/>
+      <c r="AB8" s="696"/>
       <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
         <v>613</v>
@@ -9454,7 +9454,7 @@
       </c>
       <c r="G9" s="599"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="706"/>
+      <c r="I9" s="693"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9463,7 +9463,7 @@
       <c r="V9" s="24"/>
       <c r="W9" s="6"/>
       <c r="X9" s="470"/>
-      <c r="AB9" s="709"/>
+      <c r="AB9" s="696"/>
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9487,7 +9487,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="599"/>
-      <c r="I10" s="706"/>
+      <c r="I10" s="693"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9502,7 +9502,7 @@
       <c r="V10" s="470"/>
       <c r="W10" s="6"/>
       <c r="X10" s="470"/>
-      <c r="AB10" s="709"/>
+      <c r="AB10" s="696"/>
       <c r="AC10" s="515"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9534,7 +9534,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="599"/>
-      <c r="I11" s="706"/>
+      <c r="I11" s="693"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9560,13 +9560,13 @@
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="711" t="s">
+      <c r="U11" s="698" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="712"/>
-      <c r="W11" s="712"/>
-      <c r="X11" s="713"/>
-      <c r="AB11" s="710"/>
+      <c r="V11" s="699"/>
+      <c r="W11" s="699"/>
+      <c r="X11" s="700"/>
+      <c r="AB11" s="697"/>
       <c r="AC11" s="99" t="s">
         <v>596</v>
       </c>
@@ -9580,13 +9580,13 @@
         <v>5</v>
       </c>
       <c r="AG11" s="414"/>
-      <c r="AH11" s="711" t="s">
+      <c r="AH11" s="698" t="s">
         <v>604</v>
       </c>
-      <c r="AI11" s="712"/>
-      <c r="AJ11" s="712"/>
-      <c r="AK11" s="712"/>
-      <c r="AL11" s="713"/>
+      <c r="AI11" s="699"/>
+      <c r="AJ11" s="699"/>
+      <c r="AK11" s="699"/>
+      <c r="AL11" s="700"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
@@ -9597,7 +9597,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="599"/>
-      <c r="I12" s="706"/>
+      <c r="I12" s="693"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="599"/>
-      <c r="I13" s="706"/>
+      <c r="I13" s="693"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9674,7 +9674,7 @@
       <c r="H14" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="706"/>
+      <c r="I14" s="693"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9685,7 +9685,7 @@
       <c r="X14"/>
       <c r="Z14" s="68">
         <f>SUM(X23:X31)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9701,7 +9701,7 @@
       <c r="H15" s="271">
         <v>0</v>
       </c>
-      <c r="I15" s="706"/>
+      <c r="I15" s="693"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9732,7 +9732,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="706"/>
+      <c r="I16" s="693"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9768,29 +9768,27 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="706"/>
+      <c r="I17" s="693"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
       <c r="M17" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="U17" s="19" t="s">
-        <v>620</v>
-      </c>
+      <c r="U17" s="19"/>
       <c r="V17" s="24"/>
       <c r="W17" s="6"/>
       <c r="X17" s="24"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="706"/>
+      <c r="I18" s="693"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="703" t="s">
+      <c r="O18" s="690" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="704"/>
+      <c r="P18" s="691"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9800,7 +9798,7 @@
       </c>
       <c r="S18" s="24">
         <f>5-S26</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="24"/>
@@ -9808,16 +9806,12 @@
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="706"/>
+      <c r="I19" s="693"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="U19" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="V19" s="24">
-        <v>2</v>
-      </c>
+      <c r="U19" s="19"/>
+      <c r="V19" s="24"/>
       <c r="W19" s="19" t="s">
         <v>345</v>
       </c>
@@ -9844,7 +9838,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="706"/>
+      <c r="I20" s="693"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -9863,19 +9857,15 @@
       </c>
       <c r="S20" s="24">
         <f>S18-SUM(V16:V21)+S26</f>
-        <v>2</v>
-      </c>
-      <c r="U20" s="220" t="s">
-        <v>83</v>
-      </c>
-      <c r="V20" s="468">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="U20" s="220"/>
+      <c r="V20" s="468"/>
       <c r="W20" s="6"/>
       <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="706"/>
+      <c r="I21" s="693"/>
       <c r="M21" s="216" t="s">
         <v>412</v>
       </c>
@@ -9909,7 +9899,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="706"/>
+      <c r="I22" s="693"/>
       <c r="P22" s="99" t="s">
         <v>592</v>
       </c>
@@ -9924,33 +9914,33 @@
       <c r="E23" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="706"/>
+      <c r="I23" s="693"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U23" s="342"/>
       <c r="V23" s="183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="54" t="s">
         <v>495</v>
       </c>
       <c r="X23" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="706"/>
+      <c r="I24" s="693"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24" s="54" t="s">
         <v>73</v>
       </c>
       <c r="X24" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9969,7 +9959,7 @@
       <c r="H25" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="706"/>
+      <c r="I25" s="693"/>
       <c r="J25" s="397" t="s">
         <v>270</v>
       </c>
@@ -10014,7 +10004,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="706"/>
+      <c r="I26" s="693"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10032,7 +10022,7 @@
         <v>2</v>
       </c>
       <c r="S26" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T26" s="61" t="s">
         <v>557</v>
@@ -10049,7 +10039,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="706"/>
+      <c r="I27" s="693"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10076,7 +10066,7 @@
       <c r="E28" s="215">
         <v>2</v>
       </c>
-      <c r="I28" s="706"/>
+      <c r="I28" s="693"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10098,7 +10088,7 @@
       <c r="H29" s="191" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="707"/>
+      <c r="I29" s="694"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10156,13 +10146,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10174,6 +10157,13 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10184,8 +10174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="AG27" sqref="AG27"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10285,14 +10275,14 @@
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="T1" s="742"/>
+      <c r="T1" s="735"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="726" t="s">
+      <c r="X1" s="719" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="727"/>
+      <c r="Y1" s="720"/>
       <c r="Z1" s="306">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10308,27 +10298,27 @@
       <c r="AD1" s="302" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="728" t="s">
+      <c r="AE1" s="721" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="729"/>
-      <c r="AG1" s="730"/>
-      <c r="AH1" s="731" t="s">
+      <c r="AF1" s="722"/>
+      <c r="AG1" s="723"/>
+      <c r="AH1" s="724" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="732"/>
-      <c r="AJ1" s="733"/>
-      <c r="AK1" s="659" t="s">
+      <c r="AI1" s="725"/>
+      <c r="AJ1" s="726"/>
+      <c r="AK1" s="613" t="s">
         <v>618</v>
       </c>
       <c r="AL1" s="551" t="s">
         <v>619</v>
       </c>
-      <c r="AM1" s="723" t="s">
+      <c r="AM1" s="716" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="724"/>
-      <c r="AO1" s="725"/>
+      <c r="AN1" s="717"/>
+      <c r="AO1" s="718"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10341,29 +10331,29 @@
       </c>
       <c r="J2" s="318">
         <f>K2+L2</f>
-        <v>17</v>
-      </c>
-      <c r="K2" s="721">
+        <v>15</v>
+      </c>
+      <c r="K2" s="743">
         <f>SUM(K4:K37)</f>
         <v>6</v>
       </c>
-      <c r="L2" s="719">
+      <c r="L2" s="741">
         <f>SUM(L4:L37)</f>
-        <v>11</v>
-      </c>
-      <c r="M2" s="734">
+        <v>9</v>
+      </c>
+      <c r="M2" s="727">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="736">
+      <c r="N2" s="729">
         <f>SUM(N4:N29)</f>
         <v>2</v>
       </c>
-      <c r="O2" s="738">
+      <c r="O2" s="731">
         <f>SUM(O4:O29)</f>
-        <v>7</v>
-      </c>
-      <c r="P2" s="666">
+        <v>6</v>
+      </c>
+      <c r="P2" s="637">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-1</v>
       </c>
@@ -10376,14 +10366,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="743"/>
+      <c r="T2" s="736"/>
       <c r="U2" s="537" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="482" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="740" t="s">
+      <c r="W2" s="733" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="483" t="s">
@@ -10425,7 +10415,7 @@
       <c r="AJ2" s="150" t="s">
         <v>289</v>
       </c>
-      <c r="AK2" s="660"/>
+      <c r="AK2" s="614"/>
       <c r="AL2" s="592" t="s">
         <v>289</v>
       </c>
@@ -10453,12 +10443,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="722"/>
-      <c r="L3" s="720"/>
-      <c r="M3" s="735"/>
-      <c r="N3" s="737"/>
-      <c r="O3" s="739"/>
-      <c r="P3" s="667"/>
+      <c r="K3" s="744"/>
+      <c r="L3" s="742"/>
+      <c r="M3" s="728"/>
+      <c r="N3" s="730"/>
+      <c r="O3" s="732"/>
+      <c r="P3" s="638"/>
       <c r="Q3" s="172">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10466,7 +10456,7 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="744"/>
+      <c r="T3" s="737"/>
       <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
         <v>13</v>
@@ -10475,7 +10465,7 @@
         <f>SUM(V4:V29)</f>
         <v>43</v>
       </c>
-      <c r="W3" s="741"/>
+      <c r="W3" s="734"/>
       <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>10</v>
@@ -10490,15 +10480,15 @@
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" ref="AD3:AO3" si="1">SUM(AD4:AD29)</f>
@@ -10506,7 +10496,7 @@
       </c>
       <c r="AE3" s="66">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF3" s="66">
         <f t="shared" si="1"/>
@@ -10518,7 +10508,7 @@
       </c>
       <c r="AH3" s="66">
         <f>SUM(AH4:AH29)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI3" s="374">
         <f t="shared" si="1"/>
@@ -10526,11 +10516,11 @@
       </c>
       <c r="AJ3" s="404">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="404">
         <f>SUM(AK4:AK37)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="404">
         <f>SUM(AL4:AL37)</f>
@@ -10538,15 +10528,15 @@
       </c>
       <c r="AM3" s="100">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN3" s="310">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO3" s="311">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR3" s="142"/>
     </row>
@@ -10581,7 +10571,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="716" t="s">
+      <c r="P4" s="738" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10667,7 +10657,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="717"/>
+      <c r="P5" s="739"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10761,7 +10751,7 @@
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="717"/>
+      <c r="P6" s="739"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -10862,7 +10852,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="717"/>
+      <c r="P7" s="739"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -10978,7 +10968,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="717"/>
+      <c r="P8" s="739"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11069,7 +11059,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="717"/>
+      <c r="P9" s="739"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11164,7 +11154,7 @@
       </c>
       <c r="K10" s="575"/>
       <c r="L10" s="581">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="328"/>
       <c r="N10" s="107">
@@ -11172,9 +11162,9 @@
       </c>
       <c r="O10" s="293">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="P10" s="717"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="739"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11202,45 +11192,45 @@
       <c r="Z10" s="296"/>
       <c r="AA10" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="290">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="290">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE10" s="294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="300"/>
       <c r="AG10" s="296"/>
       <c r="AH10" s="296">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="375"/>
       <c r="AJ10" s="509"/>
       <c r="AK10" s="559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="317"/>
       <c r="AM10" s="336">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="308">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="309">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="6" t="s">
         <v>73</v>
@@ -11266,7 +11256,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="717"/>
+      <c r="P11" s="739"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11331,14 +11321,14 @@
       <c r="AR11" s="508"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="626" t="s">
+      <c r="A12" s="675" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="681" t="s">
+      <c r="E12" s="625" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="262"/>
@@ -11363,7 +11353,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="717"/>
+      <c r="P12" s="739"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11438,14 +11428,14 @@
       <c r="AR12" s="509"/>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="628"/>
+      <c r="A13" s="677"/>
       <c r="B13" s="584">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="682"/>
+      <c r="E13" s="626"/>
       <c r="F13" s="172">
         <v>0</v>
       </c>
@@ -11469,7 +11459,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="717"/>
+      <c r="P13" s="739"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11551,7 +11541,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="717"/>
+      <c r="P14" s="739"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
         <v>340</v>
@@ -11600,9 +11590,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="375"/>
-      <c r="AJ14" s="509">
-        <v>1</v>
-      </c>
+      <c r="AJ14" s="509"/>
       <c r="AK14" s="559">
         <v>1</v>
       </c>
@@ -11654,7 +11642,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="717"/>
+      <c r="P15" s="739"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
         <v>340</v>
@@ -11746,7 +11734,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="717"/>
+      <c r="P16" s="739"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -11799,9 +11787,7 @@
       <c r="AI16" s="375">
         <v>0</v>
       </c>
-      <c r="AJ16" s="509">
-        <v>2</v>
-      </c>
+      <c r="AJ16" s="509"/>
       <c r="AK16" s="559"/>
       <c r="AL16" s="317"/>
       <c r="AM16" s="336">
@@ -11849,7 +11835,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="717"/>
+      <c r="P17" s="739"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -11949,7 +11935,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="717"/>
+      <c r="P18" s="739"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12039,7 +12025,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="717"/>
+      <c r="P19" s="739"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12147,11 +12133,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P20" s="718"/>
+      <c r="P20" s="740"/>
       <c r="Q20" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="683"/>
+      <c r="R20" s="627"/>
       <c r="S20" s="534" t="s">
         <v>85</v>
       </c>
@@ -12240,7 +12226,7 @@
       </c>
       <c r="K21" s="575"/>
       <c r="L21" s="581">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="330"/>
       <c r="N21" s="107">
@@ -12303,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="559"/>
       <c r="AL21" s="317"/>
@@ -12411,7 +12397,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="633" t="s">
+      <c r="E23" s="682" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="180"/>
@@ -12514,7 +12500,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="634"/>
+      <c r="E24" s="683"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
       <c r="J24" s="571" t="s">
@@ -12539,7 +12525,7 @@
       <c r="Q24" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="683"/>
+      <c r="R24" s="627"/>
       <c r="S24" s="534" t="s">
         <v>250</v>
       </c>
@@ -13190,8 +13176,8 @@
       <c r="AR31" s="508"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="650"/>
-      <c r="B32" s="650"/>
+      <c r="A32" s="630"/>
+      <c r="B32" s="630"/>
       <c r="J32" s="572"/>
       <c r="K32" s="587"/>
       <c r="L32" s="581"/>
@@ -13661,7 +13647,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" s="382">
         <v>1</v>
@@ -13766,6 +13752,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13777,15 +13772,6 @@
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13853,7 +13839,7 @@
       <c r="V1" s="603" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="683"/>
+      <c r="W1" s="627"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13872,7 +13858,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="759" t="s">
+      <c r="AD1" s="752" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13889,10 +13875,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="790" t="s">
+      <c r="F2" s="751" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="747" t="s">
+      <c r="G2" s="779" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13920,10 +13906,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="726" t="s">
+      <c r="V2" s="719" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="727"/>
+      <c r="W2" s="720"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13942,7 +13928,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="760"/>
+      <c r="AD2" s="753"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -13961,8 +13947,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="630"/>
-      <c r="G3" s="748"/>
+      <c r="F3" s="679"/>
+      <c r="G3" s="780"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -13973,13 +13959,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="757" t="s">
+      <c r="O3" s="789" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="771" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="779"/>
+      <c r="Q3" s="772"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -13989,15 +13975,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="760"/>
+      <c r="AD3" s="753"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="748"/>
+      <c r="G4" s="780"/>
       <c r="H4" s="6"/>
       <c r="L4" s="687" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="758"/>
+      <c r="O4" s="790"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14011,8 +13997,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="605"/>
-      <c r="AA4" s="683"/>
-      <c r="AD4" s="760"/>
+      <c r="AA4" s="627"/>
+      <c r="AD4" s="753"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14027,21 +14013,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="748"/>
+      <c r="G5" s="780"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="765" t="s">
+      <c r="K5" s="758" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="780"/>
+      <c r="L5" s="773"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="758"/>
+      <c r="O5" s="790"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14057,11 +14043,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="768" t="s">
+      <c r="Y5" s="761" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="769"/>
-      <c r="AD5" s="760"/>
+      <c r="Z5" s="762"/>
+      <c r="AD5" s="753"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14071,16 +14057,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="748"/>
+      <c r="G6" s="780"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="766"/>
-      <c r="L6" s="780"/>
-      <c r="O6" s="758"/>
+      <c r="K6" s="759"/>
+      <c r="L6" s="773"/>
+      <c r="O6" s="790"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14090,23 +14076,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="760"/>
+      <c r="AD6" s="753"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="748"/>
+      <c r="G7" s="780"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="766"/>
-      <c r="L7" s="780"/>
+      <c r="K7" s="759"/>
+      <c r="L7" s="773"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="758"/>
+      <c r="O7" s="790"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="760"/>
+      <c r="AD7" s="753"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14119,7 +14105,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="748"/>
+      <c r="G8" s="780"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14129,41 +14115,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="766"/>
-      <c r="L8" s="780"/>
-      <c r="O8" s="758"/>
+      <c r="K8" s="759"/>
+      <c r="L8" s="773"/>
+      <c r="O8" s="790"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="762" t="s">
+      <c r="S8" s="755" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="763"/>
-      <c r="U8" s="763"/>
-      <c r="V8" s="763"/>
-      <c r="W8" s="763"/>
-      <c r="X8" s="763"/>
-      <c r="Y8" s="763"/>
-      <c r="Z8" s="763"/>
-      <c r="AA8" s="763"/>
-      <c r="AB8" s="763"/>
-      <c r="AC8" s="764"/>
-      <c r="AD8" s="760"/>
+      <c r="T8" s="756"/>
+      <c r="U8" s="756"/>
+      <c r="V8" s="756"/>
+      <c r="W8" s="756"/>
+      <c r="X8" s="756"/>
+      <c r="Y8" s="756"/>
+      <c r="Z8" s="756"/>
+      <c r="AA8" s="756"/>
+      <c r="AB8" s="756"/>
+      <c r="AC8" s="757"/>
+      <c r="AD8" s="753"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="784"/>
-      <c r="G9" s="748"/>
+      <c r="C9" s="745"/>
+      <c r="G9" s="780"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="766"/>
-      <c r="L9" s="751" t="s">
+      <c r="K9" s="759"/>
+      <c r="L9" s="783" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="752"/>
-      <c r="N9" s="753"/>
-      <c r="O9" s="758"/>
+      <c r="M9" s="784"/>
+      <c r="N9" s="785"/>
+      <c r="O9" s="790"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="760"/>
+      <c r="AD9" s="753"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="785"/>
+      <c r="C10" s="746"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14171,7 +14157,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="748"/>
+      <c r="G10" s="780"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14179,33 +14165,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="766"/>
-      <c r="M10" s="787" t="s">
+      <c r="K10" s="759"/>
+      <c r="M10" s="748" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="788"/>
-      <c r="O10" s="788"/>
-      <c r="P10" s="788"/>
-      <c r="Q10" s="788"/>
-      <c r="R10" s="788"/>
-      <c r="S10" s="788"/>
-      <c r="T10" s="788"/>
-      <c r="U10" s="788"/>
-      <c r="V10" s="788"/>
-      <c r="W10" s="788"/>
-      <c r="X10" s="788"/>
-      <c r="Y10" s="788"/>
-      <c r="Z10" s="788"/>
-      <c r="AA10" s="788"/>
-      <c r="AB10" s="788"/>
-      <c r="AC10" s="789"/>
-      <c r="AD10" s="760"/>
+      <c r="N10" s="749"/>
+      <c r="O10" s="749"/>
+      <c r="P10" s="749"/>
+      <c r="Q10" s="749"/>
+      <c r="R10" s="749"/>
+      <c r="S10" s="749"/>
+      <c r="T10" s="749"/>
+      <c r="U10" s="749"/>
+      <c r="V10" s="749"/>
+      <c r="W10" s="749"/>
+      <c r="X10" s="749"/>
+      <c r="Y10" s="749"/>
+      <c r="Z10" s="749"/>
+      <c r="AA10" s="749"/>
+      <c r="AB10" s="749"/>
+      <c r="AC10" s="750"/>
+      <c r="AD10" s="753"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="786"/>
-      <c r="G11" s="748"/>
+      <c r="C11" s="747"/>
+      <c r="G11" s="780"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="766"/>
+      <c r="K11" s="759"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14213,17 +14199,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="776" t="s">
+      <c r="Z11" s="769" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="777"/>
+      <c r="AA11" s="770"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="760"/>
+      <c r="AD11" s="753"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14236,7 +14222,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="748"/>
+      <c r="G12" s="780"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14244,8 +14230,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="766"/>
-      <c r="L12" s="781" t="s">
+      <c r="K12" s="759"/>
+      <c r="L12" s="774" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14276,25 +14262,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="770" t="s">
+      <c r="AA12" s="763" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="771"/>
+      <c r="AB12" s="764"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="760"/>
+      <c r="AD12" s="753"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="784"/>
-      <c r="G13" s="748"/>
-      <c r="K13" s="766"/>
-      <c r="L13" s="782"/>
+      <c r="C13" s="745"/>
+      <c r="G13" s="780"/>
+      <c r="K13" s="759"/>
+      <c r="L13" s="775"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="750" t="s">
+      <c r="Q13" s="782" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="639"/>
+      <c r="R13" s="644"/>
       <c r="S13" s="599"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14303,17 +14289,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="772"/>
-      <c r="AB13" s="773"/>
-      <c r="AD13" s="760"/>
+      <c r="AA13" s="765"/>
+      <c r="AB13" s="766"/>
+      <c r="AD13" s="753"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="786"/>
+      <c r="C14" s="747"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="748"/>
+      <c r="G14" s="780"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14321,8 +14307,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="766"/>
-      <c r="L14" s="782"/>
+      <c r="K14" s="759"/>
+      <c r="L14" s="775"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14343,9 +14329,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="772"/>
-      <c r="AB14" s="773"/>
-      <c r="AD14" s="760"/>
+      <c r="AA14" s="765"/>
+      <c r="AB14" s="766"/>
+      <c r="AD14" s="753"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14360,19 +14346,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="748"/>
+      <c r="G15" s="780"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="766"/>
-      <c r="L15" s="783"/>
-      <c r="Q15" s="750" t="s">
+      <c r="K15" s="759"/>
+      <c r="L15" s="776"/>
+      <c r="Q15" s="782" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="639"/>
+      <c r="R15" s="644"/>
       <c r="S15" s="599"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14381,14 +14367,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="772"/>
-      <c r="AB15" s="773"/>
-      <c r="AD15" s="760"/>
+      <c r="AA15" s="765"/>
+      <c r="AB15" s="766"/>
+      <c r="AD15" s="753"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="748"/>
-      <c r="K16" s="766"/>
+      <c r="G16" s="780"/>
+      <c r="K16" s="759"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14407,24 +14393,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="772"/>
-      <c r="AB16" s="773"/>
-      <c r="AD16" s="760"/>
+      <c r="AA16" s="765"/>
+      <c r="AB16" s="766"/>
+      <c r="AD16" s="753"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="745" t="s">
+      <c r="F17" s="777" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="748"/>
+      <c r="G17" s="780"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="766"/>
+      <c r="K17" s="759"/>
       <c r="S17" s="599"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14432,9 +14418,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="772"/>
-      <c r="AB17" s="773"/>
-      <c r="AD17" s="760"/>
+      <c r="AA17" s="765"/>
+      <c r="AB17" s="766"/>
+      <c r="AD17" s="753"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14444,15 +14430,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="746"/>
-      <c r="G18" s="748"/>
+      <c r="F18" s="778"/>
+      <c r="G18" s="780"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="766"/>
+      <c r="K18" s="759"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14463,39 +14449,42 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="774"/>
-      <c r="AB18" s="775"/>
-      <c r="AD18" s="760"/>
+      <c r="AA18" s="767"/>
+      <c r="AB18" s="768"/>
+      <c r="AD18" s="753"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="749"/>
-      <c r="K19" s="767"/>
+      <c r="G19" s="781"/>
+      <c r="K19" s="760"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="754" t="s">
+      <c r="R19" s="786" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="755"/>
-      <c r="T19" s="756"/>
+      <c r="S19" s="787"/>
+      <c r="T19" s="788"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="761"/>
+      <c r="AD19" s="754"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14507,14 +14496,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F57068F-CD9F-4624-90B7-CDC14676AE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E80814-C835-44E9-92D9-BE3A93A388B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="624">
   <si>
     <t>Zone</t>
   </si>
@@ -1883,9 +1883,6 @@
     <t>abp</t>
   </si>
   <si>
-    <t>3M8F</t>
-  </si>
-  <si>
     <t>polimer</t>
   </si>
   <si>
@@ -1904,10 +1901,16 @@
     <t>France24 ES</t>
   </si>
   <si>
-    <t>Wbt_X_7F</t>
-  </si>
-  <si>
     <t>Nippon TV</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>5F INCapacity</t>
+  </si>
+  <si>
+    <t>Wbt_X_6F</t>
   </si>
 </sst>
 </file>
@@ -5030,6 +5033,186 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5042,12 +5225,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5059,12 +5236,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -5087,190 +5258,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5312,43 +5354,25 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5417,46 +5441,46 @@
     <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5534,46 +5558,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5871,8 +5874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5899,7 +5902,7 @@
     <col min="20" max="20" width="2.140625" customWidth="1"/>
     <col min="22" max="22" width="5.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.85546875" customWidth="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6055,7 +6058,7 @@
         <v>226</v>
       </c>
       <c r="V5" s="24">
-        <v>7020</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6268,7 +6271,7 @@
         <v>225</v>
       </c>
       <c r="V11" s="64">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6595,7 +6598,9 @@
       </c>
       <c r="P22" s="313"/>
       <c r="T22" s="607"/>
-      <c r="X22" s="19"/>
+      <c r="X22" s="19" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -6626,7 +6631,7 @@
       <c r="P23" s="313"/>
       <c r="T23" s="607"/>
       <c r="U23" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="V23" s="100" t="s">
         <v>44</v>
@@ -6741,7 +6746,7 @@
       <c r="P26" s="313"/>
       <c r="T26" s="607"/>
       <c r="V26" s="24" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6906,7 +6911,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="613" t="s">
+      <c r="I1" s="659" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6942,7 +6947,7 @@
       <c r="X1" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="657" t="s">
+      <c r="Y1" s="653" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="406">
@@ -6967,7 +6972,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="402"/>
-      <c r="AN1" s="640"/>
+      <c r="AN1" s="635"/>
       <c r="AO1" s="338" t="s">
         <v>470</v>
       </c>
@@ -6976,23 +6981,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="666">
+      <c r="A2" s="617">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="668" t="s">
+      <c r="B2" s="619" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="645" t="s">
+      <c r="C2" s="615" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="670" t="s">
+      <c r="D2" s="621" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="609" t="s">
+      <c r="E2" s="669" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="619" t="s">
+      <c r="F2" s="640" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="393" t="s">
@@ -7001,31 +7006,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="614"/>
+      <c r="I2" s="660"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="611" t="s">
+      <c r="K2" s="671" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="612"/>
-      <c r="M2" s="619" t="s">
+      <c r="L2" s="672"/>
+      <c r="M2" s="640" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="649" t="s">
+      <c r="O2" s="644" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="645" t="s">
+      <c r="Q2" s="615" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="598"/>
-      <c r="S2" s="634" t="s">
+      <c r="S2" s="657" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7035,7 +7040,7 @@
       <c r="X2" s="431" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="658"/>
+      <c r="Y2" s="654"/>
       <c r="Z2" s="407">
         <v>1</v>
       </c>
@@ -7058,15 +7063,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="428"/>
-      <c r="AN2" s="641"/>
+      <c r="AN2" s="636"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="667"/>
-      <c r="B3" s="669"/>
-      <c r="C3" s="646"/>
-      <c r="D3" s="671"/>
-      <c r="E3" s="610"/>
-      <c r="F3" s="620"/>
+      <c r="A3" s="618"/>
+      <c r="B3" s="620"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="622"/>
+      <c r="E3" s="670"/>
+      <c r="F3" s="641"/>
       <c r="G3" s="394" t="s">
         <v>28</v>
       </c>
@@ -7085,17 +7090,17 @@
       <c r="L3" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="620"/>
+      <c r="M3" s="641"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="650"/>
+      <c r="O3" s="645"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="646"/>
+      <c r="Q3" s="616"/>
       <c r="R3" s="600"/>
-      <c r="S3" s="636"/>
+      <c r="S3" s="658"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7103,7 +7108,7 @@
       <c r="X3" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="658"/>
+      <c r="Y3" s="654"/>
       <c r="Z3" s="408">
         <v>1</v>
       </c>
@@ -7112,7 +7117,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="631" t="s">
+      <c r="AD3" s="656" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="257"/>
@@ -7124,16 +7129,16 @@
       <c r="AK3" s="257"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="428"/>
-      <c r="AN3" s="641"/>
+      <c r="AN3" s="636"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="682" t="s">
+      <c r="B4" s="633" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="645" t="s">
+      <c r="C4" s="615" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="347" t="s">
@@ -7142,7 +7147,7 @@
       <c r="E4" s="378">
         <v>2</v>
       </c>
-      <c r="F4" s="620"/>
+      <c r="F4" s="641"/>
       <c r="G4" s="381" t="s">
         <v>202</v>
       </c>
@@ -7159,11 +7164,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="204"/>
-      <c r="M4" s="620"/>
+      <c r="M4" s="641"/>
       <c r="N4" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="650"/>
+      <c r="O4" s="645"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7185,12 +7190,12 @@
       <c r="X4" s="431" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="658"/>
+      <c r="Y4" s="654"/>
       <c r="Z4" s="409"/>
       <c r="AA4" s="307"/>
       <c r="AB4" s="209"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="631"/>
+      <c r="AD4" s="656"/>
       <c r="AE4" s="257"/>
       <c r="AF4" s="257"/>
       <c r="AG4" s="16"/>
@@ -7200,37 +7205,37 @@
       <c r="AK4" s="257"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="428"/>
-      <c r="AN4" s="641"/>
+      <c r="AN4" s="636"/>
       <c r="AO4" s="338" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="613" t="s">
+      <c r="A5" s="659" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="683"/>
-      <c r="C5" s="646"/>
+      <c r="B5" s="634"/>
+      <c r="C5" s="616"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="379">
         <v>1</v>
       </c>
-      <c r="F5" s="620"/>
-      <c r="G5" s="674" t="s">
+      <c r="F5" s="641"/>
+      <c r="G5" s="625" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="674"/>
-      <c r="I5" s="674"/>
-      <c r="J5" s="674"/>
-      <c r="K5" s="674"/>
-      <c r="L5" s="675"/>
-      <c r="M5" s="620"/>
+      <c r="H5" s="625"/>
+      <c r="I5" s="625"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="626"/>
+      <c r="M5" s="641"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="650"/>
+      <c r="O5" s="645"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7238,7 +7243,7 @@
       <c r="X5" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="658"/>
+      <c r="Y5" s="654"/>
       <c r="Z5" s="409">
         <v>1</v>
       </c>
@@ -7261,24 +7266,24 @@
       <c r="AK5" s="257"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="428"/>
-      <c r="AN5" s="641"/>
+      <c r="AN5" s="636"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="614"/>
-      <c r="B6" s="680" t="s">
+      <c r="A6" s="660"/>
+      <c r="B6" s="631" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="629"/>
-      <c r="F6" s="620"/>
-      <c r="G6" s="676"/>
-      <c r="H6" s="676"/>
-      <c r="I6" s="676"/>
-      <c r="J6" s="676"/>
-      <c r="K6" s="676"/>
-      <c r="L6" s="677"/>
-      <c r="M6" s="620"/>
-      <c r="O6" s="650"/>
+      <c r="C6" s="661"/>
+      <c r="D6" s="662"/>
+      <c r="F6" s="641"/>
+      <c r="G6" s="627"/>
+      <c r="H6" s="627"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="627"/>
+      <c r="L6" s="628"/>
+      <c r="M6" s="641"/>
+      <c r="O6" s="645"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7288,7 +7293,7 @@
       <c r="X6" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="658"/>
+      <c r="Y6" s="654"/>
       <c r="Z6" s="407">
         <v>1</v>
       </c>
@@ -7302,16 +7307,16 @@
       <c r="AF6" s="257"/>
       <c r="AG6" s="257"/>
       <c r="AH6" s="257"/>
-      <c r="AI6" s="630"/>
+      <c r="AI6" s="650"/>
       <c r="AJ6" s="441" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="630" t="s">
+      <c r="AK6" s="650" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="257"/>
       <c r="AM6" s="428"/>
-      <c r="AN6" s="641"/>
+      <c r="AN6" s="636"/>
       <c r="AO6" s="338" t="s">
         <v>471</v>
       </c>
@@ -7320,7 +7325,7 @@
       <c r="A7" s="232" t="s">
         <v>573</v>
       </c>
-      <c r="B7" s="681"/>
+      <c r="B7" s="632"/>
       <c r="C7" s="202" t="s">
         <v>375</v>
       </c>
@@ -7330,7 +7335,7 @@
       <c r="E7" s="265">
         <v>3</v>
       </c>
-      <c r="F7" s="620"/>
+      <c r="F7" s="641"/>
       <c r="G7" s="395">
         <v>0</v>
       </c>
@@ -7349,8 +7354,8 @@
       <c r="L7" s="212">
         <v>0</v>
       </c>
-      <c r="M7" s="620"/>
-      <c r="O7" s="650"/>
+      <c r="M7" s="641"/>
+      <c r="O7" s="645"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7364,7 +7369,7 @@
       <c r="X7" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="658"/>
+      <c r="Y7" s="654"/>
       <c r="Z7" s="407">
         <v>1</v>
       </c>
@@ -7374,18 +7379,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
-      <c r="AG7" s="631" t="s">
+      <c r="AG7" s="656" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="257"/>
-      <c r="AI7" s="630"/>
+      <c r="AI7" s="650"/>
       <c r="AJ7" s="257"/>
-      <c r="AK7" s="630"/>
+      <c r="AK7" s="650"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="428"/>
-      <c r="AN7" s="641"/>
+      <c r="AN7" s="636"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7402,27 +7407,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="620"/>
-      <c r="G8" s="675">
-        <v>0</v>
-      </c>
-      <c r="H8" s="672" t="s">
+      <c r="F8" s="641"/>
+      <c r="G8" s="626">
+        <v>0</v>
+      </c>
+      <c r="H8" s="623" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="598">
         <v>0</v>
       </c>
-      <c r="J8" s="672" t="s">
+      <c r="J8" s="623" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="678"/>
-      <c r="L8" s="632"/>
-      <c r="M8" s="647"/>
-      <c r="N8" s="637">
+      <c r="K8" s="629"/>
+      <c r="L8" s="663"/>
+      <c r="M8" s="642"/>
+      <c r="N8" s="666">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="650"/>
+      <c r="O8" s="645"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7432,7 +7437,7 @@
       <c r="X8" s="431" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="658"/>
+      <c r="Y8" s="654"/>
       <c r="Z8" s="409"/>
       <c r="AA8" s="307"/>
       <c r="AB8" s="209"/>
@@ -7440,14 +7445,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
-      <c r="AG8" s="631"/>
+      <c r="AG8" s="656"/>
       <c r="AH8" s="257"/>
-      <c r="AI8" s="630"/>
+      <c r="AI8" s="650"/>
       <c r="AJ8" s="257"/>
       <c r="AK8" s="257"/>
       <c r="AL8" s="257"/>
       <c r="AM8" s="428"/>
-      <c r="AN8" s="641"/>
+      <c r="AN8" s="636"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
@@ -7462,17 +7467,17 @@
       <c r="D9" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="620"/>
-      <c r="G9" s="677"/>
-      <c r="H9" s="673"/>
+      <c r="F9" s="641"/>
+      <c r="G9" s="628"/>
+      <c r="H9" s="624"/>
       <c r="I9" s="600"/>
-      <c r="J9" s="673"/>
-      <c r="K9" s="679"/>
-      <c r="L9" s="633"/>
-      <c r="M9" s="648"/>
-      <c r="N9" s="638"/>
-      <c r="O9" s="651"/>
-      <c r="S9" s="634" t="s">
+      <c r="J9" s="624"/>
+      <c r="K9" s="630"/>
+      <c r="L9" s="664"/>
+      <c r="M9" s="643"/>
+      <c r="N9" s="667"/>
+      <c r="O9" s="646"/>
+      <c r="S9" s="657" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7484,7 +7489,7 @@
       <c r="X9" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="658"/>
+      <c r="Y9" s="654"/>
       <c r="Z9" s="410"/>
       <c r="AA9" s="307"/>
       <c r="AB9" s="209"/>
@@ -7494,16 +7499,16 @@
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
-      <c r="AG9" s="631"/>
+      <c r="AG9" s="656"/>
       <c r="AH9" s="257"/>
-      <c r="AI9" s="630"/>
+      <c r="AI9" s="650"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="630" t="s">
+      <c r="AK9" s="650" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="257"/>
       <c r="AM9" s="428"/>
-      <c r="AN9" s="641"/>
+      <c r="AN9" s="636"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7520,20 +7525,20 @@
         <f>Boat!W8</f>
         <v>43</v>
       </c>
-      <c r="F10" s="620"/>
+      <c r="F10" s="641"/>
       <c r="N10" s="418" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="622" t="s">
+      <c r="O10" s="678" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="652" t="s">
+      <c r="P10" s="647" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="635"/>
+      <c r="S10" s="665"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7545,7 +7550,7 @@
       <c r="X10" s="431" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="658"/>
+      <c r="Y10" s="654"/>
       <c r="Z10" s="409">
         <v>0</v>
       </c>
@@ -7563,16 +7568,16 @@
       <c r="AF10" s="238" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="631"/>
+      <c r="AG10" s="656"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="630"/>
+      <c r="AI10" s="650"/>
       <c r="AJ10" s="257"/>
-      <c r="AK10" s="630"/>
+      <c r="AK10" s="650"/>
       <c r="AL10" s="257"/>
       <c r="AM10" s="442" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="641"/>
+      <c r="AN10" s="636"/>
       <c r="AO10" s="204" t="s">
         <v>94</v>
       </c>
@@ -7590,18 +7595,18 @@
       <c r="D11" s="170" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="620"/>
+      <c r="F11" s="641"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="623"/>
-      <c r="P11" s="653"/>
+      <c r="O11" s="679"/>
+      <c r="P11" s="648"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="635"/>
+      <c r="S11" s="665"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7611,7 +7616,7 @@
       <c r="X11" s="431" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="658"/>
+      <c r="Y11" s="654"/>
       <c r="Z11" s="409"/>
       <c r="AA11" s="307">
         <v>1</v>
@@ -7625,14 +7630,14 @@
       <c r="AF11" s="257" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="631"/>
+      <c r="AG11" s="656"/>
       <c r="AH11" s="257"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="257"/>
       <c r="AK11" s="257"/>
       <c r="AL11" s="257"/>
       <c r="AM11" s="428"/>
-      <c r="AN11" s="641"/>
+      <c r="AN11" s="636"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7651,7 +7656,7 @@
       <c r="E12" s="224">
         <v>3</v>
       </c>
-      <c r="F12" s="620"/>
+      <c r="F12" s="641"/>
       <c r="G12" s="337" t="s">
         <v>401</v>
       </c>
@@ -7660,16 +7665,16 @@
       </c>
       <c r="I12" s="605"/>
       <c r="J12" s="605"/>
-      <c r="K12" s="627"/>
+      <c r="K12" s="683"/>
       <c r="L12" s="203"/>
       <c r="M12" s="203"/>
       <c r="N12" s="203"/>
-      <c r="O12" s="623"/>
-      <c r="P12" s="653"/>
+      <c r="O12" s="679"/>
+      <c r="P12" s="648"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="636"/>
+      <c r="S12" s="658"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7679,7 +7684,7 @@
       <c r="X12" s="431" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="658"/>
+      <c r="Y12" s="654"/>
       <c r="Z12" s="407">
         <v>1</v>
       </c>
@@ -7690,16 +7695,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="639" t="s">
+      <c r="AD12" s="668" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="441" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="631" t="s">
+      <c r="AF12" s="656" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="631"/>
+      <c r="AG12" s="656"/>
       <c r="AH12" s="238" t="s">
         <v>260</v>
       </c>
@@ -7709,10 +7714,10 @@
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
-      <c r="AM12" s="655" t="s">
+      <c r="AM12" s="651" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="641"/>
+      <c r="AN12" s="636"/>
       <c r="AO12" s="338" t="s">
         <v>96</v>
       </c>
@@ -7724,17 +7729,17 @@
       <c r="E13" s="448">
         <v>-3</v>
       </c>
-      <c r="F13" s="620"/>
+      <c r="F13" s="641"/>
       <c r="G13" s="605" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="605"/>
       <c r="I13" s="605"/>
-      <c r="J13" s="627"/>
+      <c r="J13" s="683"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="623"/>
-      <c r="P13" s="654"/>
+      <c r="O13" s="679"/>
+      <c r="P13" s="649"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7744,7 +7749,7 @@
       <c r="X13" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="658"/>
+      <c r="Y13" s="654"/>
       <c r="Z13" s="407">
         <v>1</v>
       </c>
@@ -7755,8 +7760,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="639"/>
-      <c r="AF13" s="631"/>
+      <c r="AD13" s="668"/>
+      <c r="AF13" s="656"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
         <v>309</v>
@@ -7767,8 +7772,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
       <c r="AL13" s="257"/>
-      <c r="AM13" s="655"/>
-      <c r="AN13" s="641"/>
+      <c r="AM13" s="651"/>
+      <c r="AN13" s="636"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="450"/>
@@ -7776,18 +7781,18 @@
       <c r="C14" s="459"/>
       <c r="D14" s="452"/>
       <c r="E14" s="453"/>
-      <c r="F14" s="620"/>
+      <c r="F14" s="641"/>
       <c r="G14" s="605" t="s">
         <v>430</v>
       </c>
       <c r="H14" s="605"/>
       <c r="I14" s="605"/>
-      <c r="J14" s="627"/>
+      <c r="J14" s="683"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="623"/>
+      <c r="O14" s="679"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7801,24 +7806,24 @@
       <c r="X14" s="431" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="658"/>
+      <c r="Y14" s="654"/>
       <c r="Z14" s="407">
         <v>1</v>
       </c>
       <c r="AA14" s="307"/>
       <c r="AB14" s="209"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="639"/>
+      <c r="AD14" s="668"/>
       <c r="AE14" s="257"/>
-      <c r="AF14" s="631"/>
+      <c r="AF14" s="656"/>
       <c r="AG14" s="257"/>
       <c r="AH14" s="257"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="257"/>
       <c r="AK14" s="257"/>
       <c r="AL14" s="257"/>
-      <c r="AM14" s="655"/>
-      <c r="AN14" s="641"/>
+      <c r="AM14" s="651"/>
+      <c r="AN14" s="636"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="449" t="s">
@@ -7827,8 +7832,8 @@
       <c r="C15" s="598" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="620"/>
-      <c r="O15" s="623"/>
+      <c r="F15" s="641"/>
+      <c r="O15" s="679"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7841,7 +7846,7 @@
       <c r="X15" s="431" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="658"/>
+      <c r="Y15" s="654"/>
       <c r="Z15" s="409">
         <v>1</v>
       </c>
@@ -7850,8 +7855,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="639"/>
-      <c r="AF15" s="631"/>
+      <c r="AD15" s="668"/>
+      <c r="AF15" s="656"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
         <v>449</v>
@@ -7864,8 +7869,8 @@
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
-      <c r="AM15" s="655"/>
-      <c r="AN15" s="641"/>
+      <c r="AM15" s="651"/>
+      <c r="AN15" s="636"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7887,13 +7892,13 @@
       <c r="E16" s="224">
         <v>1</v>
       </c>
-      <c r="F16" s="620"/>
+      <c r="F16" s="641"/>
       <c r="G16" s="337" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="469"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="623"/>
+      <c r="O16" s="679"/>
       <c r="R16" s="435" t="s">
         <v>184</v>
       </c>
@@ -7904,7 +7909,7 @@
       <c r="X16" s="431" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="658"/>
+      <c r="Y16" s="654"/>
       <c r="Z16" s="407">
         <v>1</v>
       </c>
@@ -7925,18 +7930,18 @@
       <c r="AM16" s="428" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="641"/>
+      <c r="AN16" s="636"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="620"/>
+      <c r="F17" s="641"/>
       <c r="I17" s="470"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="623"/>
+      <c r="O17" s="679"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -7956,7 +7961,7 @@
       <c r="X17" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="658"/>
+      <c r="Y17" s="654"/>
       <c r="Z17" s="409"/>
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
@@ -7981,7 +7986,7 @@
       <c r="AK17" s="257"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="428"/>
-      <c r="AN17" s="641"/>
+      <c r="AN17" s="636"/>
       <c r="AO17" s="204" t="s">
         <v>498</v>
       </c>
@@ -8005,21 +8010,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="620"/>
+      <c r="F18" s="641"/>
       <c r="G18" s="337" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="623"/>
+      <c r="O18" s="679"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="615" t="s">
+      <c r="R18" s="673" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="663" t="s">
+      <c r="U18" s="612" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8029,7 +8034,7 @@
       <c r="X18" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="658"/>
+      <c r="Y18" s="654"/>
       <c r="Z18" s="409">
         <v>1</v>
       </c>
@@ -8040,38 +8045,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
-      <c r="AF18" s="630" t="s">
+      <c r="AF18" s="650" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="656" t="s">
+      <c r="AJ18" s="652" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="428"/>
-      <c r="AN18" s="641"/>
+      <c r="AN18" s="636"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="620"/>
+      <c r="F19" s="641"/>
       <c r="I19" s="219"/>
-      <c r="O19" s="623"/>
-      <c r="R19" s="616"/>
+      <c r="O19" s="679"/>
+      <c r="R19" s="674"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="664"/>
+      <c r="U19" s="613"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="431" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="658"/>
+      <c r="Y19" s="654"/>
       <c r="Z19" s="407">
         <v>1</v>
       </c>
@@ -8080,17 +8085,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="257"/>
-      <c r="AF19" s="630"/>
+      <c r="AF19" s="650"/>
       <c r="AG19" s="257"/>
       <c r="AH19" s="257"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="656"/>
+      <c r="AJ19" s="652"/>
       <c r="AK19" s="460" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="428"/>
-      <c r="AN19" s="641"/>
+      <c r="AN19" s="636"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8111,24 +8116,24 @@
       <c r="E20" s="437">
         <v>-1</v>
       </c>
-      <c r="F20" s="620"/>
+      <c r="F20" s="641"/>
       <c r="G20" s="337" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="219"/>
-      <c r="O20" s="623"/>
-      <c r="Q20" s="625" t="s">
+      <c r="O20" s="679"/>
+      <c r="Q20" s="681" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="665"/>
+      <c r="U20" s="614"/>
       <c r="W20" s="405"/>
       <c r="X20" s="432" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="658"/>
+      <c r="Y20" s="654"/>
       <c r="Z20" s="411">
         <v>1</v>
       </c>
@@ -8153,7 +8158,7 @@
       <c r="AM20" s="381" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="641"/>
+      <c r="AN20" s="636"/>
       <c r="AO20" s="338" t="s">
         <v>461</v>
       </c>
@@ -8174,20 +8179,20 @@
       <c r="E21" s="265">
         <v>0</v>
       </c>
-      <c r="F21" s="620"/>
+      <c r="F21" s="641"/>
       <c r="I21" s="219"/>
-      <c r="O21" s="623"/>
-      <c r="Q21" s="626"/>
+      <c r="O21" s="679"/>
+      <c r="Q21" s="682"/>
       <c r="T21" s="422"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="660"/>
+      <c r="V21" s="609"/>
       <c r="W21" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="429" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="658"/>
+      <c r="Y21" s="654"/>
       <c r="Z21" s="445">
         <v>3</v>
       </c>
@@ -8218,15 +8223,15 @@
       <c r="AM21" s="428" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="641"/>
+      <c r="AN21" s="636"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="620"/>
+      <c r="F22" s="641"/>
       <c r="G22" s="337" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="219"/>
-      <c r="O22" s="623"/>
+      <c r="O22" s="679"/>
       <c r="R22" s="434" t="s">
         <v>44</v>
       </c>
@@ -8234,14 +8239,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="661"/>
+      <c r="V22" s="610"/>
       <c r="W22" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="429" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="658"/>
+      <c r="Y22" s="654"/>
       <c r="Z22" s="415"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="415"/>
@@ -8252,7 +8257,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="630" t="s">
+      <c r="AJ22" s="650" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="257"/>
@@ -8260,7 +8265,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="300"/>
-      <c r="AN22" s="641"/>
+      <c r="AN22" s="636"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
@@ -8278,22 +8283,22 @@
       <c r="E23" s="225">
         <v>1</v>
       </c>
-      <c r="F23" s="620"/>
+      <c r="F23" s="641"/>
       <c r="I23" s="219"/>
-      <c r="O23" s="623"/>
-      <c r="Q23" s="625" t="s">
+      <c r="O23" s="679"/>
+      <c r="Q23" s="681" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="661"/>
+      <c r="V23" s="610"/>
       <c r="W23" s="148"/>
       <c r="X23" s="429" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="658"/>
+      <c r="Y23" s="654"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="415"/>
@@ -8304,13 +8309,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="630"/>
+      <c r="AJ23" s="650"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="300"/>
-      <c r="AN23" s="641"/>
+      <c r="AN23" s="636"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="440" t="s">
@@ -8328,23 +8333,23 @@
       <c r="E24" s="436">
         <v>1</v>
       </c>
-      <c r="F24" s="620"/>
+      <c r="F24" s="641"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="219"/>
-      <c r="O24" s="623"/>
-      <c r="Q24" s="626"/>
+      <c r="O24" s="679"/>
+      <c r="Q24" s="682"/>
       <c r="T24" s="17"/>
       <c r="U24" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="661"/>
+      <c r="V24" s="610"/>
       <c r="W24" s="148"/>
       <c r="X24" s="429" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="658"/>
+      <c r="Y24" s="654"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="415"/>
@@ -8363,12 +8368,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="300"/>
-      <c r="AN24" s="641"/>
+      <c r="AN24" s="636"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="620"/>
+      <c r="F25" s="641"/>
       <c r="I25" s="219"/>
-      <c r="O25" s="623"/>
+      <c r="O25" s="679"/>
       <c r="P25" s="204" t="s">
         <v>281</v>
       </c>
@@ -8381,12 +8386,12 @@
       <c r="U25" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="662"/>
+      <c r="V25" s="611"/>
       <c r="W25" s="148"/>
       <c r="X25" s="429" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="658"/>
+      <c r="Y25" s="654"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="415"/>
@@ -8403,7 +8408,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="300"/>
-      <c r="AN25" s="641"/>
+      <c r="AN25" s="636"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
@@ -8421,17 +8426,17 @@
       <c r="E26" s="380">
         <v>1</v>
       </c>
-      <c r="F26" s="620"/>
+      <c r="F26" s="641"/>
       <c r="G26" s="337" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="O26" s="623"/>
-      <c r="P26" s="643" t="s">
+      <c r="O26" s="679"/>
+      <c r="P26" s="638" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="644"/>
-      <c r="R26" s="617" t="s">
+      <c r="Q26" s="639"/>
+      <c r="R26" s="675" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="178"/>
@@ -8443,7 +8448,7 @@
       <c r="X26" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="658"/>
+      <c r="Y26" s="654"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="415"/>
@@ -8470,7 +8475,7 @@
       <c r="AM26" s="442" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="641"/>
+      <c r="AN26" s="636"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8482,13 +8487,13 @@
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="621"/>
+      <c r="F27" s="677"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="220"/>
-      <c r="O27" s="624"/>
-      <c r="R27" s="618"/>
+      <c r="O27" s="680"/>
+      <c r="R27" s="676"/>
       <c r="S27" s="421" t="s">
         <v>54</v>
       </c>
@@ -8501,7 +8506,7 @@
       <c r="X27" s="429" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="659"/>
+      <c r="Y27" s="655"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="416"/>
@@ -8518,10 +8523,48 @@
       <c r="AM27" s="381" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="642"/>
+      <c r="AN27" s="637"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8538,44 +8581,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8612,12 +8617,12 @@
       <c r="B1" s="603" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="627"/>
+      <c r="C1" s="683"/>
       <c r="D1" s="204"/>
       <c r="J1" s="603" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="627"/>
+      <c r="K1" s="683"/>
       <c r="L1" s="195" t="s">
         <v>331</v>
       </c>
@@ -8951,8 +8956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="N12" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9020,7 +9025,7 @@
       <c r="P1" s="398" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="701" t="s">
+      <c r="Q1" s="714" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9044,7 +9049,7 @@
       <c r="AA1" s="517" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="695" t="s">
+      <c r="AB1" s="708" t="s">
         <v>595</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9066,32 +9071,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="706">
+      <c r="A2" s="693">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="708" t="s">
+      <c r="B2" s="695" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="645" t="s">
+      <c r="C2" s="615" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="710" t="s">
+      <c r="D2" s="697" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="712" t="s">
+      <c r="E2" s="699" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="613" t="s">
+      <c r="G2" s="659" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="692" t="s">
+      <c r="I2" s="705" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="396" t="s">
@@ -9115,7 +9120,7 @@
       <c r="P2" s="399">
         <v>40</v>
       </c>
-      <c r="Q2" s="702"/>
+      <c r="Q2" s="715"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>2</v>
@@ -9140,7 +9145,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="696"/>
+      <c r="AB2" s="709"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>345</v>
@@ -9153,14 +9158,14 @@
       <c r="AL2" s="469"/>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="707"/>
-      <c r="B3" s="709"/>
-      <c r="C3" s="646"/>
-      <c r="D3" s="711"/>
-      <c r="E3" s="713"/>
-      <c r="G3" s="614"/>
+      <c r="A3" s="694"/>
+      <c r="B3" s="696"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="698"/>
+      <c r="E3" s="700"/>
+      <c r="G3" s="660"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="693"/>
+      <c r="I3" s="706"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9169,13 +9174,13 @@
       </c>
       <c r="Q3" s="471">
         <f>SUM(X23:X31)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="470"/>
       <c r="W3" s="6"/>
       <c r="X3" s="470"/>
-      <c r="AB3" s="696"/>
+      <c r="AB3" s="709"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>590</v>
@@ -9200,10 +9205,10 @@
         <v>381</v>
       </c>
       <c r="B4" s="243"/>
-      <c r="C4" s="714" t="s">
+      <c r="C4" s="701" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="706"/>
       <c r="R4" s="471" t="s">
         <v>590</v>
       </c>
@@ -9215,7 +9220,7 @@
       <c r="V4" s="470"/>
       <c r="W4" s="6"/>
       <c r="X4" s="470"/>
-      <c r="AB4" s="696"/>
+      <c r="AB4" s="709"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9242,7 +9247,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="715"/>
+      <c r="C5" s="702"/>
       <c r="D5" s="222" t="s">
         <v>102</v>
       </c>
@@ -9258,7 +9263,7 @@
       <c r="H5" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="693"/>
+      <c r="I5" s="706"/>
       <c r="J5" s="397" t="s">
         <v>269</v>
       </c>
@@ -9285,7 +9290,7 @@
       <c r="V5" s="468"/>
       <c r="W5" s="6"/>
       <c r="X5" s="468"/>
-      <c r="AB5" s="696"/>
+      <c r="AB5" s="709"/>
       <c r="AC5" s="2" t="s">
         <v>593</v>
       </c>
@@ -9303,19 +9308,19 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="703" t="s">
+      <c r="A6" s="690" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="629"/>
+      <c r="C6" s="661"/>
+      <c r="D6" s="662"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="599"/>
-      <c r="I6" s="693"/>
+      <c r="I6" s="706"/>
       <c r="P6" s="61" t="s">
         <v>593</v>
       </c>
@@ -9327,7 +9332,7 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="696"/>
+      <c r="AB6" s="709"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9343,7 +9348,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="704"/>
+      <c r="A7" s="691"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9354,7 +9359,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="599"/>
-      <c r="I7" s="693"/>
+      <c r="I7" s="706"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9386,7 +9391,7 @@
       <c r="X7" s="469">
         <v>1</v>
       </c>
-      <c r="AB7" s="696"/>
+      <c r="AB7" s="709"/>
       <c r="AC7" s="99" t="s">
         <v>594</v>
       </c>
@@ -9405,14 +9410,14 @@
       <c r="AI7" s="469"/>
       <c r="AJ7" s="553"/>
       <c r="AK7" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AL7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="705"/>
+      <c r="A8" s="692"/>
       <c r="B8" s="212" t="s">
         <v>28</v>
       </c>
@@ -9421,13 +9426,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="599"/>
-      <c r="I8" s="693"/>
+      <c r="I8" s="706"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
       <c r="W8" s="6"/>
       <c r="X8" s="470"/>
-      <c r="AB8" s="696"/>
+      <c r="AB8" s="709"/>
       <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
         <v>613</v>
@@ -9454,7 +9459,7 @@
       </c>
       <c r="G9" s="599"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="693"/>
+      <c r="I9" s="706"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9463,7 +9468,7 @@
       <c r="V9" s="24"/>
       <c r="W9" s="6"/>
       <c r="X9" s="470"/>
-      <c r="AB9" s="696"/>
+      <c r="AB9" s="709"/>
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9487,7 +9492,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="599"/>
-      <c r="I10" s="693"/>
+      <c r="I10" s="706"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9502,12 +9507,12 @@
       <c r="V10" s="470"/>
       <c r="W10" s="6"/>
       <c r="X10" s="470"/>
-      <c r="AB10" s="696"/>
+      <c r="AB10" s="709"/>
       <c r="AC10" s="515"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AH10" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AI10" s="470">
         <v>1</v>
@@ -9534,7 +9539,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="599"/>
-      <c r="I11" s="693"/>
+      <c r="I11" s="706"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9560,13 +9565,13 @@
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="698" t="s">
+      <c r="U11" s="711" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="699"/>
-      <c r="W11" s="699"/>
-      <c r="X11" s="700"/>
-      <c r="AB11" s="697"/>
+      <c r="V11" s="712"/>
+      <c r="W11" s="712"/>
+      <c r="X11" s="713"/>
+      <c r="AB11" s="710"/>
       <c r="AC11" s="99" t="s">
         <v>596</v>
       </c>
@@ -9580,13 +9585,13 @@
         <v>5</v>
       </c>
       <c r="AG11" s="414"/>
-      <c r="AH11" s="698" t="s">
+      <c r="AH11" s="711" t="s">
         <v>604</v>
       </c>
-      <c r="AI11" s="699"/>
-      <c r="AJ11" s="699"/>
-      <c r="AK11" s="699"/>
-      <c r="AL11" s="700"/>
+      <c r="AI11" s="712"/>
+      <c r="AJ11" s="712"/>
+      <c r="AK11" s="712"/>
+      <c r="AL11" s="713"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
@@ -9597,7 +9602,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="599"/>
-      <c r="I12" s="693"/>
+      <c r="I12" s="706"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9630,7 +9635,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="599"/>
-      <c r="I13" s="693"/>
+      <c r="I13" s="706"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9674,7 +9679,7 @@
       <c r="H14" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="693"/>
+      <c r="I14" s="706"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9685,7 +9690,7 @@
       <c r="X14"/>
       <c r="Z14" s="68">
         <f>SUM(X23:X31)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9701,7 +9706,7 @@
       <c r="H15" s="271">
         <v>0</v>
       </c>
-      <c r="I15" s="693"/>
+      <c r="I15" s="706"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9732,7 +9737,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="693"/>
+      <c r="I16" s="706"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9768,7 +9773,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="693"/>
+      <c r="I17" s="706"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9782,13 +9787,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="693"/>
+      <c r="I18" s="706"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="690" t="s">
+      <c r="O18" s="703" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="691"/>
+      <c r="P18" s="704"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9806,7 +9811,7 @@
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="693"/>
+      <c r="I19" s="706"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9838,7 +9843,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="693"/>
+      <c r="I20" s="706"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -9865,7 +9870,7 @@
       <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="693"/>
+      <c r="I21" s="706"/>
       <c r="M21" s="216" t="s">
         <v>412</v>
       </c>
@@ -9899,7 +9904,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="693"/>
+      <c r="I22" s="706"/>
       <c r="P22" s="99" t="s">
         <v>592</v>
       </c>
@@ -9914,10 +9919,10 @@
       <c r="E23" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="693"/>
+      <c r="I23" s="706"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U23" s="342"/>
       <c r="V23" s="183">
@@ -9931,7 +9936,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="693"/>
+      <c r="I24" s="706"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
         <v>2</v>
@@ -9959,7 +9964,7 @@
       <c r="H25" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="693"/>
+      <c r="I25" s="706"/>
       <c r="J25" s="397" t="s">
         <v>270</v>
       </c>
@@ -10004,7 +10009,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="693"/>
+      <c r="I26" s="706"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10039,7 +10044,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="693"/>
+      <c r="I27" s="706"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10066,7 +10071,7 @@
       <c r="E28" s="215">
         <v>2</v>
       </c>
-      <c r="I28" s="693"/>
+      <c r="I28" s="706"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10088,7 +10093,7 @@
       <c r="H29" s="191" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="694"/>
+      <c r="I29" s="707"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10103,13 +10108,13 @@
         <v>558</v>
       </c>
       <c r="V29" s="509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="54" t="s">
         <v>498</v>
       </c>
       <c r="X29" s="472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10146,6 +10151,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10157,13 +10169,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10174,8 +10179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10275,14 +10280,14 @@
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="T1" s="735"/>
+      <c r="T1" s="742"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="719" t="s">
+      <c r="X1" s="726" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="720"/>
+      <c r="Y1" s="727"/>
       <c r="Z1" s="306">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10298,27 +10303,27 @@
       <c r="AD1" s="302" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="721" t="s">
+      <c r="AE1" s="728" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="722"/>
-      <c r="AG1" s="723"/>
-      <c r="AH1" s="724" t="s">
+      <c r="AF1" s="729"/>
+      <c r="AG1" s="730"/>
+      <c r="AH1" s="731" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="725"/>
-      <c r="AJ1" s="726"/>
-      <c r="AK1" s="613" t="s">
+      <c r="AI1" s="732"/>
+      <c r="AJ1" s="733"/>
+      <c r="AK1" s="659" t="s">
+        <v>617</v>
+      </c>
+      <c r="AL1" s="551" t="s">
         <v>618</v>
       </c>
-      <c r="AL1" s="551" t="s">
-        <v>619</v>
-      </c>
-      <c r="AM1" s="716" t="s">
+      <c r="AM1" s="723" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="717"/>
-      <c r="AO1" s="718"/>
+      <c r="AN1" s="724"/>
+      <c r="AO1" s="725"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10333,27 +10338,27 @@
         <f>K2+L2</f>
         <v>15</v>
       </c>
-      <c r="K2" s="743">
+      <c r="K2" s="721">
         <f>SUM(K4:K37)</f>
         <v>6</v>
       </c>
-      <c r="L2" s="741">
+      <c r="L2" s="719">
         <f>SUM(L4:L37)</f>
         <v>9</v>
       </c>
-      <c r="M2" s="727">
+      <c r="M2" s="734">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="729">
+      <c r="N2" s="736">
         <f>SUM(N4:N29)</f>
         <v>2</v>
       </c>
-      <c r="O2" s="731">
+      <c r="O2" s="738">
         <f>SUM(O4:O29)</f>
         <v>6</v>
       </c>
-      <c r="P2" s="637">
+      <c r="P2" s="666">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-1</v>
       </c>
@@ -10366,14 +10371,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="736"/>
+      <c r="T2" s="743"/>
       <c r="U2" s="537" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="482" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="733" t="s">
+      <c r="W2" s="740" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="483" t="s">
@@ -10415,7 +10420,7 @@
       <c r="AJ2" s="150" t="s">
         <v>289</v>
       </c>
-      <c r="AK2" s="614"/>
+      <c r="AK2" s="660"/>
       <c r="AL2" s="592" t="s">
         <v>289</v>
       </c>
@@ -10443,12 +10448,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="744"/>
-      <c r="L3" s="742"/>
-      <c r="M3" s="728"/>
-      <c r="N3" s="730"/>
-      <c r="O3" s="732"/>
-      <c r="P3" s="638"/>
+      <c r="K3" s="722"/>
+      <c r="L3" s="720"/>
+      <c r="M3" s="735"/>
+      <c r="N3" s="737"/>
+      <c r="O3" s="739"/>
+      <c r="P3" s="667"/>
       <c r="Q3" s="172">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10456,7 +10461,7 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="737"/>
+      <c r="T3" s="744"/>
       <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
         <v>13</v>
@@ -10465,7 +10470,7 @@
         <f>SUM(V4:V29)</f>
         <v>43</v>
       </c>
-      <c r="W3" s="734"/>
+      <c r="W3" s="741"/>
       <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>10</v>
@@ -10520,7 +10525,7 @@
       </c>
       <c r="AK3" s="404">
         <f>SUM(AK4:AK37)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="404">
         <f>SUM(AL4:AL37)</f>
@@ -10571,7 +10576,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="738" t="s">
+      <c r="P4" s="716" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10657,7 +10662,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="739"/>
+      <c r="P5" s="717"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10751,7 +10756,7 @@
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="739"/>
+      <c r="P6" s="717"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -10852,7 +10857,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="739"/>
+      <c r="P7" s="717"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -10968,7 +10973,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="739"/>
+      <c r="P8" s="717"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -11059,7 +11064,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="739"/>
+      <c r="P9" s="717"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11164,7 +11169,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P10" s="739"/>
+      <c r="P10" s="717"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11239,7 +11244,7 @@
         <v>584</v>
       </c>
       <c r="AR10" s="508" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11256,7 +11261,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="739"/>
+      <c r="P11" s="717"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11321,14 +11326,14 @@
       <c r="AR11" s="508"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="675" t="s">
+      <c r="A12" s="626" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="625" t="s">
+      <c r="E12" s="681" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="262"/>
@@ -11353,7 +11358,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="739"/>
+      <c r="P12" s="717"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11428,14 +11433,14 @@
       <c r="AR12" s="509"/>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="677"/>
+      <c r="A13" s="628"/>
       <c r="B13" s="584">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="626"/>
+      <c r="E13" s="682"/>
       <c r="F13" s="172">
         <v>0</v>
       </c>
@@ -11459,7 +11464,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="739"/>
+      <c r="P13" s="717"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11541,7 +11546,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="739"/>
+      <c r="P14" s="717"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
         <v>340</v>
@@ -11592,7 +11597,7 @@
       <c r="AI14" s="375"/>
       <c r="AJ14" s="509"/>
       <c r="AK14" s="559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="317"/>
       <c r="AM14" s="336">
@@ -11608,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AQ14" s="564" t="s">
         <v>563</v>
@@ -11642,7 +11647,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="739"/>
+      <c r="P15" s="717"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
         <v>340</v>
@@ -11734,7 +11739,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="739"/>
+      <c r="P16" s="717"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -11835,7 +11840,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="739"/>
+      <c r="P17" s="717"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -11935,7 +11940,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="739"/>
+      <c r="P18" s="717"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12025,7 +12030,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="739"/>
+      <c r="P19" s="717"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12133,11 +12138,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P20" s="740"/>
+      <c r="P20" s="718"/>
       <c r="Q20" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="627"/>
+      <c r="R20" s="683"/>
       <c r="S20" s="534" t="s">
         <v>85</v>
       </c>
@@ -12397,7 +12402,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="682" t="s">
+      <c r="E23" s="633" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="180"/>
@@ -12500,7 +12505,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="683"/>
+      <c r="E24" s="634"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
       <c r="J24" s="571" t="s">
@@ -12525,7 +12530,7 @@
       <c r="Q24" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="627"/>
+      <c r="R24" s="683"/>
       <c r="S24" s="534" t="s">
         <v>250</v>
       </c>
@@ -13176,8 +13181,8 @@
       <c r="AR31" s="508"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="630"/>
-      <c r="B32" s="630"/>
+      <c r="A32" s="650"/>
+      <c r="B32" s="650"/>
       <c r="J32" s="572"/>
       <c r="K32" s="587"/>
       <c r="L32" s="581"/>
@@ -13363,7 +13368,7 @@
         <v>345</v>
       </c>
       <c r="AQ33" s="562" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AR33" s="508" t="s">
         <v>500</v>
@@ -13647,7 +13652,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D37" s="382">
         <v>1</v>
@@ -13752,15 +13757,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13772,6 +13768,15 @@
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13782,8 +13787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F389A6-DF8C-48FB-B1F3-A2AFD91E9805}">
   <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13839,7 +13844,7 @@
       <c r="V1" s="603" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="627"/>
+      <c r="W1" s="683"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13858,7 +13863,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="752" t="s">
+      <c r="AD1" s="759" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13875,10 +13880,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="751" t="s">
+      <c r="F2" s="790" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="779" t="s">
+      <c r="G2" s="747" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13906,10 +13911,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="719" t="s">
+      <c r="V2" s="726" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="720"/>
+      <c r="W2" s="727"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13928,7 +13933,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="753"/>
+      <c r="AD2" s="760"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -13947,8 +13952,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="679"/>
-      <c r="G3" s="780"/>
+      <c r="F3" s="630"/>
+      <c r="G3" s="748"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -13959,13 +13964,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="789" t="s">
+      <c r="O3" s="757" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="771" t="s">
+      <c r="P3" s="778" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="772"/>
+      <c r="Q3" s="779"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -13975,15 +13980,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="753"/>
+      <c r="AD3" s="760"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="780"/>
+      <c r="G4" s="748"/>
       <c r="H4" s="6"/>
       <c r="L4" s="687" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="790"/>
+      <c r="O4" s="758"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -13997,8 +14002,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="605"/>
-      <c r="AA4" s="627"/>
-      <c r="AD4" s="753"/>
+      <c r="AA4" s="683"/>
+      <c r="AD4" s="760"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14013,21 +14018,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="780"/>
+      <c r="G5" s="748"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="758" t="s">
+      <c r="K5" s="765" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="773"/>
+      <c r="L5" s="780"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="790"/>
+      <c r="O5" s="758"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14043,11 +14048,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="761" t="s">
+      <c r="Y5" s="768" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="762"/>
-      <c r="AD5" s="753"/>
+      <c r="Z5" s="769"/>
+      <c r="AD5" s="760"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14057,16 +14062,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="780"/>
+      <c r="G6" s="748"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="759"/>
-      <c r="L6" s="773"/>
-      <c r="O6" s="790"/>
+      <c r="K6" s="766"/>
+      <c r="L6" s="780"/>
+      <c r="O6" s="758"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14076,23 +14081,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="753"/>
+      <c r="AD6" s="760"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="780"/>
+      <c r="G7" s="748"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="759"/>
-      <c r="L7" s="773"/>
+      <c r="K7" s="766"/>
+      <c r="L7" s="780"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="790"/>
+      <c r="O7" s="758"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="753"/>
+      <c r="AD7" s="760"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14105,7 +14110,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="780"/>
+      <c r="G8" s="748"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14115,41 +14120,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="759"/>
-      <c r="L8" s="773"/>
-      <c r="O8" s="790"/>
+      <c r="K8" s="766"/>
+      <c r="L8" s="780"/>
+      <c r="O8" s="758"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="755" t="s">
+      <c r="S8" s="762" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="756"/>
-      <c r="U8" s="756"/>
-      <c r="V8" s="756"/>
-      <c r="W8" s="756"/>
-      <c r="X8" s="756"/>
-      <c r="Y8" s="756"/>
-      <c r="Z8" s="756"/>
-      <c r="AA8" s="756"/>
-      <c r="AB8" s="756"/>
-      <c r="AC8" s="757"/>
-      <c r="AD8" s="753"/>
+      <c r="T8" s="763"/>
+      <c r="U8" s="763"/>
+      <c r="V8" s="763"/>
+      <c r="W8" s="763"/>
+      <c r="X8" s="763"/>
+      <c r="Y8" s="763"/>
+      <c r="Z8" s="763"/>
+      <c r="AA8" s="763"/>
+      <c r="AB8" s="763"/>
+      <c r="AC8" s="764"/>
+      <c r="AD8" s="760"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="745"/>
-      <c r="G9" s="780"/>
+      <c r="C9" s="784"/>
+      <c r="G9" s="748"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="759"/>
-      <c r="L9" s="783" t="s">
+      <c r="K9" s="766"/>
+      <c r="L9" s="751" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="784"/>
-      <c r="N9" s="785"/>
-      <c r="O9" s="790"/>
+      <c r="M9" s="752"/>
+      <c r="N9" s="753"/>
+      <c r="O9" s="758"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="753"/>
+      <c r="AD9" s="760"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="746"/>
+      <c r="C10" s="785"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14157,7 +14162,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="780"/>
+      <c r="G10" s="748"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14165,33 +14170,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="759"/>
-      <c r="M10" s="748" t="s">
+      <c r="K10" s="766"/>
+      <c r="M10" s="787" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="749"/>
-      <c r="O10" s="749"/>
-      <c r="P10" s="749"/>
-      <c r="Q10" s="749"/>
-      <c r="R10" s="749"/>
-      <c r="S10" s="749"/>
-      <c r="T10" s="749"/>
-      <c r="U10" s="749"/>
-      <c r="V10" s="749"/>
-      <c r="W10" s="749"/>
-      <c r="X10" s="749"/>
-      <c r="Y10" s="749"/>
-      <c r="Z10" s="749"/>
-      <c r="AA10" s="749"/>
-      <c r="AB10" s="749"/>
-      <c r="AC10" s="750"/>
-      <c r="AD10" s="753"/>
+      <c r="N10" s="788"/>
+      <c r="O10" s="788"/>
+      <c r="P10" s="788"/>
+      <c r="Q10" s="788"/>
+      <c r="R10" s="788"/>
+      <c r="S10" s="788"/>
+      <c r="T10" s="788"/>
+      <c r="U10" s="788"/>
+      <c r="V10" s="788"/>
+      <c r="W10" s="788"/>
+      <c r="X10" s="788"/>
+      <c r="Y10" s="788"/>
+      <c r="Z10" s="788"/>
+      <c r="AA10" s="788"/>
+      <c r="AB10" s="788"/>
+      <c r="AC10" s="789"/>
+      <c r="AD10" s="760"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="747"/>
-      <c r="G11" s="780"/>
+      <c r="C11" s="786"/>
+      <c r="G11" s="748"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="759"/>
+      <c r="K11" s="766"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14199,17 +14204,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="769" t="s">
+      <c r="Z11" s="776" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="770"/>
+      <c r="AA11" s="777"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="753"/>
+      <c r="AD11" s="760"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14222,7 +14227,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="780"/>
+      <c r="G12" s="748"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14230,8 +14235,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="759"/>
-      <c r="L12" s="774" t="s">
+      <c r="K12" s="766"/>
+      <c r="L12" s="781" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14262,25 +14267,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="763" t="s">
+      <c r="AA12" s="770" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="764"/>
+      <c r="AB12" s="771"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="753"/>
+      <c r="AD12" s="760"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="745"/>
-      <c r="G13" s="780"/>
-      <c r="K13" s="759"/>
-      <c r="L13" s="775"/>
+      <c r="C13" s="784"/>
+      <c r="G13" s="748"/>
+      <c r="K13" s="766"/>
+      <c r="L13" s="782"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="782" t="s">
+      <c r="Q13" s="750" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="644"/>
+      <c r="R13" s="639"/>
       <c r="S13" s="599"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14289,17 +14294,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="765"/>
-      <c r="AB13" s="766"/>
-      <c r="AD13" s="753"/>
+      <c r="AA13" s="772"/>
+      <c r="AB13" s="773"/>
+      <c r="AD13" s="760"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="747"/>
+      <c r="C14" s="786"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="780"/>
+      <c r="G14" s="748"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14307,8 +14312,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="759"/>
-      <c r="L14" s="775"/>
+      <c r="K14" s="766"/>
+      <c r="L14" s="782"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14329,9 +14334,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="765"/>
-      <c r="AB14" s="766"/>
-      <c r="AD14" s="753"/>
+      <c r="AA14" s="772"/>
+      <c r="AB14" s="773"/>
+      <c r="AD14" s="760"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14346,19 +14351,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="780"/>
+      <c r="G15" s="748"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="759"/>
-      <c r="L15" s="776"/>
-      <c r="Q15" s="782" t="s">
+      <c r="K15" s="766"/>
+      <c r="L15" s="783"/>
+      <c r="Q15" s="750" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="644"/>
+      <c r="R15" s="639"/>
       <c r="S15" s="599"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14367,14 +14372,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="765"/>
-      <c r="AB15" s="766"/>
-      <c r="AD15" s="753"/>
+      <c r="AA15" s="772"/>
+      <c r="AB15" s="773"/>
+      <c r="AD15" s="760"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="780"/>
-      <c r="K16" s="759"/>
+      <c r="G16" s="748"/>
+      <c r="K16" s="766"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14393,24 +14398,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="765"/>
-      <c r="AB16" s="766"/>
-      <c r="AD16" s="753"/>
+      <c r="AA16" s="772"/>
+      <c r="AB16" s="773"/>
+      <c r="AD16" s="760"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="777" t="s">
+      <c r="F17" s="745" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="780"/>
+      <c r="G17" s="748"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="759"/>
+      <c r="K17" s="766"/>
       <c r="S17" s="599"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14418,9 +14423,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="765"/>
-      <c r="AB17" s="766"/>
-      <c r="AD17" s="753"/>
+      <c r="AA17" s="772"/>
+      <c r="AB17" s="773"/>
+      <c r="AD17" s="760"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14430,15 +14435,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="778"/>
-      <c r="G18" s="780"/>
+      <c r="F18" s="746"/>
+      <c r="G18" s="748"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="759"/>
+      <c r="K18" s="766"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14449,42 +14454,39 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="767"/>
-      <c r="AB18" s="768"/>
-      <c r="AD18" s="753"/>
+      <c r="AA18" s="774"/>
+      <c r="AB18" s="775"/>
+      <c r="AD18" s="760"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="781"/>
-      <c r="K19" s="760"/>
+      <c r="G19" s="749"/>
+      <c r="K19" s="767"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="786" t="s">
+      <c r="R19" s="754" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="787"/>
-      <c r="T19" s="788"/>
+      <c r="S19" s="755"/>
+      <c r="T19" s="756"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="754"/>
+      <c r="AD19" s="761"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14496,11 +14498,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E80814-C835-44E9-92D9-BE3A93A388B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BCC380-909B-4483-B401-3E83965E8B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="624">
   <si>
     <t>Zone</t>
   </si>
@@ -1904,13 +1904,13 @@
     <t>Nippon TV</t>
   </si>
   <si>
-    <t>7F</t>
-  </si>
-  <si>
-    <t>5F INCapacity</t>
-  </si>
-  <si>
     <t>Wbt_X_6F</t>
+  </si>
+  <si>
+    <t>Rbangla</t>
+  </si>
+  <si>
+    <t>10 F INCapacity</t>
   </si>
 </sst>
 </file>
@@ -5033,6 +5033,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5051,12 +5204,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5111,169 +5258,61 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5315,43 +5354,70 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5375,112 +5441,25 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5558,25 +5537,46 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5874,8 +5874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6599,7 +6599,7 @@
       <c r="P22" s="313"/>
       <c r="T22" s="607"/>
       <c r="X22" s="19" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6631,7 +6631,7 @@
       <c r="P23" s="313"/>
       <c r="T23" s="607"/>
       <c r="U23" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="V23" s="100" t="s">
         <v>44</v>
@@ -6745,9 +6745,7 @@
       </c>
       <c r="P26" s="313"/>
       <c r="T26" s="607"/>
-      <c r="V26" s="24" t="s">
-        <v>621</v>
-      </c>
+      <c r="V26" s="24"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="256" t="s">
@@ -6911,7 +6909,7 @@
       <c r="H1" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="659" t="s">
+      <c r="I1" s="613" t="s">
         <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6947,7 +6945,7 @@
       <c r="X1" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="653" t="s">
+      <c r="Y1" s="657" t="s">
         <v>530</v>
       </c>
       <c r="Z1" s="406">
@@ -6972,7 +6970,7 @@
         <v>499</v>
       </c>
       <c r="AM1" s="402"/>
-      <c r="AN1" s="635"/>
+      <c r="AN1" s="640"/>
       <c r="AO1" s="338" t="s">
         <v>470</v>
       </c>
@@ -6981,23 +6979,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="617">
+      <c r="A2" s="666">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="619" t="s">
+      <c r="B2" s="668" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="615" t="s">
+      <c r="C2" s="645" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="621" t="s">
+      <c r="D2" s="670" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="669" t="s">
+      <c r="E2" s="609" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="640" t="s">
+      <c r="F2" s="619" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="393" t="s">
@@ -7006,31 +7004,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="660"/>
+      <c r="I2" s="614"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="671" t="s">
+      <c r="K2" s="611" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="672"/>
-      <c r="M2" s="640" t="s">
+      <c r="L2" s="612"/>
+      <c r="M2" s="619" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="644" t="s">
+      <c r="O2" s="649" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="615" t="s">
+      <c r="Q2" s="645" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="598"/>
-      <c r="S2" s="657" t="s">
+      <c r="S2" s="634" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7040,7 +7038,7 @@
       <c r="X2" s="431" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="654"/>
+      <c r="Y2" s="658"/>
       <c r="Z2" s="407">
         <v>1</v>
       </c>
@@ -7063,15 +7061,15 @@
         <v>464</v>
       </c>
       <c r="AM2" s="428"/>
-      <c r="AN2" s="636"/>
+      <c r="AN2" s="641"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="618"/>
-      <c r="B3" s="620"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="622"/>
-      <c r="E3" s="670"/>
-      <c r="F3" s="641"/>
+      <c r="A3" s="667"/>
+      <c r="B3" s="669"/>
+      <c r="C3" s="646"/>
+      <c r="D3" s="671"/>
+      <c r="E3" s="610"/>
+      <c r="F3" s="620"/>
       <c r="G3" s="394" t="s">
         <v>28</v>
       </c>
@@ -7090,17 +7088,17 @@
       <c r="L3" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="641"/>
+      <c r="M3" s="620"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="645"/>
+      <c r="O3" s="650"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="616"/>
+      <c r="Q3" s="646"/>
       <c r="R3" s="600"/>
-      <c r="S3" s="658"/>
+      <c r="S3" s="636"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7108,7 +7106,7 @@
       <c r="X3" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="654"/>
+      <c r="Y3" s="658"/>
       <c r="Z3" s="408">
         <v>1</v>
       </c>
@@ -7117,7 +7115,7 @@
       <c r="AC3" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="656" t="s">
+      <c r="AD3" s="631" t="s">
         <v>456</v>
       </c>
       <c r="AE3" s="257"/>
@@ -7129,16 +7127,16 @@
       <c r="AK3" s="257"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="428"/>
-      <c r="AN3" s="636"/>
+      <c r="AN3" s="641"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="633" t="s">
+      <c r="B4" s="682" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="615" t="s">
+      <c r="C4" s="645" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="347" t="s">
@@ -7147,7 +7145,7 @@
       <c r="E4" s="378">
         <v>2</v>
       </c>
-      <c r="F4" s="641"/>
+      <c r="F4" s="620"/>
       <c r="G4" s="381" t="s">
         <v>202</v>
       </c>
@@ -7164,11 +7162,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="204"/>
-      <c r="M4" s="641"/>
+      <c r="M4" s="620"/>
       <c r="N4" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="645"/>
+      <c r="O4" s="650"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7190,12 +7188,12 @@
       <c r="X4" s="431" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="654"/>
+      <c r="Y4" s="658"/>
       <c r="Z4" s="409"/>
       <c r="AA4" s="307"/>
       <c r="AB4" s="209"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="656"/>
+      <c r="AD4" s="631"/>
       <c r="AE4" s="257"/>
       <c r="AF4" s="257"/>
       <c r="AG4" s="16"/>
@@ -7205,37 +7203,37 @@
       <c r="AK4" s="257"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="428"/>
-      <c r="AN4" s="636"/>
+      <c r="AN4" s="641"/>
       <c r="AO4" s="338" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="659" t="s">
+      <c r="A5" s="613" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="634"/>
-      <c r="C5" s="616"/>
+      <c r="B5" s="683"/>
+      <c r="C5" s="646"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="379">
         <v>1</v>
       </c>
-      <c r="F5" s="641"/>
-      <c r="G5" s="625" t="s">
+      <c r="F5" s="620"/>
+      <c r="G5" s="674" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="625"/>
-      <c r="I5" s="625"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="626"/>
-      <c r="M5" s="641"/>
+      <c r="H5" s="674"/>
+      <c r="I5" s="674"/>
+      <c r="J5" s="674"/>
+      <c r="K5" s="674"/>
+      <c r="L5" s="675"/>
+      <c r="M5" s="620"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="645"/>
+      <c r="O5" s="650"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7243,7 +7241,7 @@
       <c r="X5" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="654"/>
+      <c r="Y5" s="658"/>
       <c r="Z5" s="409">
         <v>1</v>
       </c>
@@ -7266,24 +7264,24 @@
       <c r="AK5" s="257"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="428"/>
-      <c r="AN5" s="636"/>
+      <c r="AN5" s="641"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="660"/>
-      <c r="B6" s="631" t="s">
+      <c r="A6" s="614"/>
+      <c r="B6" s="680" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="661"/>
-      <c r="D6" s="662"/>
-      <c r="F6" s="641"/>
-      <c r="G6" s="627"/>
-      <c r="H6" s="627"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="627"/>
-      <c r="L6" s="628"/>
-      <c r="M6" s="641"/>
-      <c r="O6" s="645"/>
+      <c r="C6" s="628"/>
+      <c r="D6" s="629"/>
+      <c r="F6" s="620"/>
+      <c r="G6" s="676"/>
+      <c r="H6" s="676"/>
+      <c r="I6" s="676"/>
+      <c r="J6" s="676"/>
+      <c r="K6" s="676"/>
+      <c r="L6" s="677"/>
+      <c r="M6" s="620"/>
+      <c r="O6" s="650"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7293,7 +7291,7 @@
       <c r="X6" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="654"/>
+      <c r="Y6" s="658"/>
       <c r="Z6" s="407">
         <v>1</v>
       </c>
@@ -7307,16 +7305,16 @@
       <c r="AF6" s="257"/>
       <c r="AG6" s="257"/>
       <c r="AH6" s="257"/>
-      <c r="AI6" s="650"/>
+      <c r="AI6" s="630"/>
       <c r="AJ6" s="441" t="s">
         <v>459</v>
       </c>
-      <c r="AK6" s="650" t="s">
+      <c r="AK6" s="630" t="s">
         <v>252</v>
       </c>
       <c r="AL6" s="257"/>
       <c r="AM6" s="428"/>
-      <c r="AN6" s="636"/>
+      <c r="AN6" s="641"/>
       <c r="AO6" s="338" t="s">
         <v>471</v>
       </c>
@@ -7325,7 +7323,7 @@
       <c r="A7" s="232" t="s">
         <v>573</v>
       </c>
-      <c r="B7" s="632"/>
+      <c r="B7" s="681"/>
       <c r="C7" s="202" t="s">
         <v>375</v>
       </c>
@@ -7335,7 +7333,7 @@
       <c r="E7" s="265">
         <v>3</v>
       </c>
-      <c r="F7" s="641"/>
+      <c r="F7" s="620"/>
       <c r="G7" s="395">
         <v>0</v>
       </c>
@@ -7354,8 +7352,8 @@
       <c r="L7" s="212">
         <v>0</v>
       </c>
-      <c r="M7" s="641"/>
-      <c r="O7" s="645"/>
+      <c r="M7" s="620"/>
+      <c r="O7" s="650"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7369,7 +7367,7 @@
       <c r="X7" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="654"/>
+      <c r="Y7" s="658"/>
       <c r="Z7" s="407">
         <v>1</v>
       </c>
@@ -7379,18 +7377,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
-      <c r="AG7" s="656" t="s">
+      <c r="AG7" s="631" t="s">
         <v>455</v>
       </c>
       <c r="AH7" s="257"/>
-      <c r="AI7" s="650"/>
+      <c r="AI7" s="630"/>
       <c r="AJ7" s="257"/>
-      <c r="AK7" s="650"/>
+      <c r="AK7" s="630"/>
       <c r="AL7" s="80" t="s">
         <v>497</v>
       </c>
       <c r="AM7" s="428"/>
-      <c r="AN7" s="636"/>
+      <c r="AN7" s="641"/>
       <c r="AP7" s="76" t="s">
         <v>472</v>
       </c>
@@ -7407,27 +7405,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="641"/>
-      <c r="G8" s="626">
-        <v>0</v>
-      </c>
-      <c r="H8" s="623" t="s">
+      <c r="F8" s="620"/>
+      <c r="G8" s="675">
+        <v>0</v>
+      </c>
+      <c r="H8" s="672" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="598">
         <v>0</v>
       </c>
-      <c r="J8" s="623" t="s">
+      <c r="J8" s="672" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="629"/>
-      <c r="L8" s="663"/>
-      <c r="M8" s="642"/>
-      <c r="N8" s="666">
+      <c r="K8" s="678"/>
+      <c r="L8" s="632"/>
+      <c r="M8" s="647"/>
+      <c r="N8" s="637">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="645"/>
+      <c r="O8" s="650"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7437,7 +7435,7 @@
       <c r="X8" s="431" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="654"/>
+      <c r="Y8" s="658"/>
       <c r="Z8" s="409"/>
       <c r="AA8" s="307"/>
       <c r="AB8" s="209"/>
@@ -7445,14 +7443,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
-      <c r="AG8" s="656"/>
+      <c r="AG8" s="631"/>
       <c r="AH8" s="257"/>
-      <c r="AI8" s="650"/>
+      <c r="AI8" s="630"/>
       <c r="AJ8" s="257"/>
       <c r="AK8" s="257"/>
       <c r="AL8" s="257"/>
       <c r="AM8" s="428"/>
-      <c r="AN8" s="636"/>
+      <c r="AN8" s="641"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
@@ -7467,17 +7465,17 @@
       <c r="D9" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="641"/>
-      <c r="G9" s="628"/>
-      <c r="H9" s="624"/>
+      <c r="F9" s="620"/>
+      <c r="G9" s="677"/>
+      <c r="H9" s="673"/>
       <c r="I9" s="600"/>
-      <c r="J9" s="624"/>
-      <c r="K9" s="630"/>
-      <c r="L9" s="664"/>
-      <c r="M9" s="643"/>
-      <c r="N9" s="667"/>
-      <c r="O9" s="646"/>
-      <c r="S9" s="657" t="s">
+      <c r="J9" s="673"/>
+      <c r="K9" s="679"/>
+      <c r="L9" s="633"/>
+      <c r="M9" s="648"/>
+      <c r="N9" s="638"/>
+      <c r="O9" s="651"/>
+      <c r="S9" s="634" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7489,7 +7487,7 @@
       <c r="X9" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="654"/>
+      <c r="Y9" s="658"/>
       <c r="Z9" s="410"/>
       <c r="AA9" s="307"/>
       <c r="AB9" s="209"/>
@@ -7499,16 +7497,16 @@
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
-      <c r="AG9" s="656"/>
+      <c r="AG9" s="631"/>
       <c r="AH9" s="257"/>
-      <c r="AI9" s="650"/>
+      <c r="AI9" s="630"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="650" t="s">
+      <c r="AK9" s="630" t="s">
         <v>252</v>
       </c>
       <c r="AL9" s="257"/>
       <c r="AM9" s="428"/>
-      <c r="AN9" s="636"/>
+      <c r="AN9" s="641"/>
       <c r="AP9" s="2" t="s">
         <v>509</v>
       </c>
@@ -7523,22 +7521,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="237">
         <f>Boat!W8</f>
-        <v>43</v>
-      </c>
-      <c r="F10" s="641"/>
+        <v>41</v>
+      </c>
+      <c r="F10" s="620"/>
       <c r="N10" s="418" t="s">
         <v>397</v>
       </c>
-      <c r="O10" s="678" t="s">
+      <c r="O10" s="622" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="647" t="s">
+      <c r="P10" s="652" t="s">
         <v>401</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="665"/>
+      <c r="S10" s="635"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7550,7 +7548,7 @@
       <c r="X10" s="431" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="654"/>
+      <c r="Y10" s="658"/>
       <c r="Z10" s="409">
         <v>0</v>
       </c>
@@ -7568,16 +7566,16 @@
       <c r="AF10" s="238" t="s">
         <v>312</v>
       </c>
-      <c r="AG10" s="656"/>
+      <c r="AG10" s="631"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="650"/>
+      <c r="AI10" s="630"/>
       <c r="AJ10" s="257"/>
-      <c r="AK10" s="650"/>
+      <c r="AK10" s="630"/>
       <c r="AL10" s="257"/>
       <c r="AM10" s="442" t="s">
         <v>319</v>
       </c>
-      <c r="AN10" s="636"/>
+      <c r="AN10" s="641"/>
       <c r="AO10" s="204" t="s">
         <v>94</v>
       </c>
@@ -7595,18 +7593,18 @@
       <c r="D11" s="170" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="641"/>
+      <c r="F11" s="620"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="679"/>
-      <c r="P11" s="648"/>
+      <c r="O11" s="623"/>
+      <c r="P11" s="653"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S11" s="665"/>
+      <c r="S11" s="635"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7616,7 +7614,7 @@
       <c r="X11" s="431" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="654"/>
+      <c r="Y11" s="658"/>
       <c r="Z11" s="409"/>
       <c r="AA11" s="307">
         <v>1</v>
@@ -7630,14 +7628,14 @@
       <c r="AF11" s="257" t="s">
         <v>477</v>
       </c>
-      <c r="AG11" s="656"/>
+      <c r="AG11" s="631"/>
       <c r="AH11" s="257"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="257"/>
       <c r="AK11" s="257"/>
       <c r="AL11" s="257"/>
       <c r="AM11" s="428"/>
-      <c r="AN11" s="636"/>
+      <c r="AN11" s="641"/>
       <c r="AP11" s="76" t="s">
         <v>485</v>
       </c>
@@ -7656,7 +7654,7 @@
       <c r="E12" s="224">
         <v>3</v>
       </c>
-      <c r="F12" s="641"/>
+      <c r="F12" s="620"/>
       <c r="G12" s="337" t="s">
         <v>401</v>
       </c>
@@ -7665,16 +7663,16 @@
       </c>
       <c r="I12" s="605"/>
       <c r="J12" s="605"/>
-      <c r="K12" s="683"/>
+      <c r="K12" s="627"/>
       <c r="L12" s="203"/>
       <c r="M12" s="203"/>
       <c r="N12" s="203"/>
-      <c r="O12" s="679"/>
-      <c r="P12" s="648"/>
+      <c r="O12" s="623"/>
+      <c r="P12" s="653"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="658"/>
+      <c r="S12" s="636"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7684,7 +7682,7 @@
       <c r="X12" s="431" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="654"/>
+      <c r="Y12" s="658"/>
       <c r="Z12" s="407">
         <v>1</v>
       </c>
@@ -7695,16 +7693,16 @@
       <c r="AC12" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="AD12" s="668" t="s">
+      <c r="AD12" s="639" t="s">
         <v>241</v>
       </c>
       <c r="AE12" s="441" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="656" t="s">
+      <c r="AF12" s="631" t="s">
         <v>229</v>
       </c>
-      <c r="AG12" s="656"/>
+      <c r="AG12" s="631"/>
       <c r="AH12" s="238" t="s">
         <v>260</v>
       </c>
@@ -7714,10 +7712,10 @@
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
-      <c r="AM12" s="651" t="s">
+      <c r="AM12" s="655" t="s">
         <v>250</v>
       </c>
-      <c r="AN12" s="636"/>
+      <c r="AN12" s="641"/>
       <c r="AO12" s="338" t="s">
         <v>96</v>
       </c>
@@ -7729,17 +7727,17 @@
       <c r="E13" s="448">
         <v>-3</v>
       </c>
-      <c r="F13" s="641"/>
+      <c r="F13" s="620"/>
       <c r="G13" s="605" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="605"/>
       <c r="I13" s="605"/>
-      <c r="J13" s="683"/>
+      <c r="J13" s="627"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="679"/>
-      <c r="P13" s="649"/>
+      <c r="O13" s="623"/>
+      <c r="P13" s="654"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7749,7 +7747,7 @@
       <c r="X13" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="654"/>
+      <c r="Y13" s="658"/>
       <c r="Z13" s="407">
         <v>1</v>
       </c>
@@ -7760,8 +7758,8 @@
         <v>501</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="668"/>
-      <c r="AF13" s="656"/>
+      <c r="AD13" s="639"/>
+      <c r="AF13" s="631"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
         <v>309</v>
@@ -7772,8 +7770,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
       <c r="AL13" s="257"/>
-      <c r="AM13" s="651"/>
-      <c r="AN13" s="636"/>
+      <c r="AM13" s="655"/>
+      <c r="AN13" s="641"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="450"/>
@@ -7781,18 +7779,18 @@
       <c r="C14" s="459"/>
       <c r="D14" s="452"/>
       <c r="E14" s="453"/>
-      <c r="F14" s="641"/>
+      <c r="F14" s="620"/>
       <c r="G14" s="605" t="s">
         <v>430</v>
       </c>
       <c r="H14" s="605"/>
       <c r="I14" s="605"/>
-      <c r="J14" s="683"/>
+      <c r="J14" s="627"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="679"/>
+      <c r="O14" s="623"/>
       <c r="Q14" s="61" t="s">
         <v>534</v>
       </c>
@@ -7806,24 +7804,24 @@
       <c r="X14" s="431" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="654"/>
+      <c r="Y14" s="658"/>
       <c r="Z14" s="407">
         <v>1</v>
       </c>
       <c r="AA14" s="307"/>
       <c r="AB14" s="209"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="668"/>
+      <c r="AD14" s="639"/>
       <c r="AE14" s="257"/>
-      <c r="AF14" s="656"/>
+      <c r="AF14" s="631"/>
       <c r="AG14" s="257"/>
       <c r="AH14" s="257"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="257"/>
       <c r="AK14" s="257"/>
       <c r="AL14" s="257"/>
-      <c r="AM14" s="651"/>
-      <c r="AN14" s="636"/>
+      <c r="AM14" s="655"/>
+      <c r="AN14" s="641"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="449" t="s">
@@ -7832,8 +7830,8 @@
       <c r="C15" s="598" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="641"/>
-      <c r="O15" s="679"/>
+      <c r="F15" s="620"/>
+      <c r="O15" s="623"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7846,7 +7844,7 @@
       <c r="X15" s="431" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="654"/>
+      <c r="Y15" s="658"/>
       <c r="Z15" s="409">
         <v>1</v>
       </c>
@@ -7855,8 +7853,8 @@
       <c r="AC15" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="AD15" s="668"/>
-      <c r="AF15" s="656"/>
+      <c r="AD15" s="639"/>
+      <c r="AF15" s="631"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
         <v>449</v>
@@ -7869,8 +7867,8 @@
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
-      <c r="AM15" s="651"/>
-      <c r="AN15" s="636"/>
+      <c r="AM15" s="655"/>
+      <c r="AN15" s="641"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7892,13 +7890,13 @@
       <c r="E16" s="224">
         <v>1</v>
       </c>
-      <c r="F16" s="641"/>
+      <c r="F16" s="620"/>
       <c r="G16" s="337" t="s">
         <v>489</v>
       </c>
       <c r="I16" s="469"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="679"/>
+      <c r="O16" s="623"/>
       <c r="R16" s="435" t="s">
         <v>184</v>
       </c>
@@ -7909,7 +7907,7 @@
       <c r="X16" s="431" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="654"/>
+      <c r="Y16" s="658"/>
       <c r="Z16" s="407">
         <v>1</v>
       </c>
@@ -7930,18 +7928,18 @@
       <c r="AM16" s="428" t="s">
         <v>318</v>
       </c>
-      <c r="AN16" s="636"/>
+      <c r="AN16" s="641"/>
       <c r="AP16" s="76" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="641"/>
+      <c r="F17" s="620"/>
       <c r="I17" s="470"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="679"/>
+      <c r="O17" s="623"/>
       <c r="Q17" s="21" t="s">
         <v>532</v>
       </c>
@@ -7961,7 +7959,7 @@
       <c r="X17" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="654"/>
+      <c r="Y17" s="658"/>
       <c r="Z17" s="409"/>
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
@@ -7986,7 +7984,7 @@
       <c r="AK17" s="257"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="428"/>
-      <c r="AN17" s="636"/>
+      <c r="AN17" s="641"/>
       <c r="AO17" s="204" t="s">
         <v>498</v>
       </c>
@@ -8010,21 +8008,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="641"/>
+      <c r="F18" s="620"/>
       <c r="G18" s="337" t="s">
         <v>529</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="679"/>
+      <c r="O18" s="623"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="673" t="s">
+      <c r="R18" s="615" t="s">
         <v>537</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="612" t="s">
+      <c r="U18" s="663" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8034,7 +8032,7 @@
       <c r="X18" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="654"/>
+      <c r="Y18" s="658"/>
       <c r="Z18" s="409">
         <v>1</v>
       </c>
@@ -8045,38 +8043,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
-      <c r="AF18" s="650" t="s">
+      <c r="AF18" s="630" t="s">
         <v>476</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="652" t="s">
+      <c r="AJ18" s="656" t="s">
         <v>316</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="428"/>
-      <c r="AN18" s="636"/>
+      <c r="AN18" s="641"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="641"/>
+      <c r="F19" s="620"/>
       <c r="I19" s="219"/>
-      <c r="O19" s="679"/>
-      <c r="R19" s="674"/>
+      <c r="O19" s="623"/>
+      <c r="R19" s="616"/>
       <c r="S19" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="U19" s="613"/>
+      <c r="U19" s="664"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="431" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="654"/>
+      <c r="Y19" s="658"/>
       <c r="Z19" s="407">
         <v>1</v>
       </c>
@@ -8085,17 +8083,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="257"/>
-      <c r="AF19" s="650"/>
+      <c r="AF19" s="630"/>
       <c r="AG19" s="257"/>
       <c r="AH19" s="257"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="652"/>
+      <c r="AJ19" s="656"/>
       <c r="AK19" s="460" t="s">
         <v>252</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="428"/>
-      <c r="AN19" s="636"/>
+      <c r="AN19" s="641"/>
       <c r="AP19" s="76" t="s">
         <v>469</v>
       </c>
@@ -8116,24 +8114,24 @@
       <c r="E20" s="437">
         <v>-1</v>
       </c>
-      <c r="F20" s="641"/>
+      <c r="F20" s="620"/>
       <c r="G20" s="337" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="219"/>
-      <c r="O20" s="679"/>
-      <c r="Q20" s="681" t="s">
+      <c r="O20" s="623"/>
+      <c r="Q20" s="625" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="614"/>
+      <c r="U20" s="665"/>
       <c r="W20" s="405"/>
       <c r="X20" s="432" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="654"/>
+      <c r="Y20" s="658"/>
       <c r="Z20" s="411">
         <v>1</v>
       </c>
@@ -8158,7 +8156,7 @@
       <c r="AM20" s="381" t="s">
         <v>250</v>
       </c>
-      <c r="AN20" s="636"/>
+      <c r="AN20" s="641"/>
       <c r="AO20" s="338" t="s">
         <v>461</v>
       </c>
@@ -8179,20 +8177,20 @@
       <c r="E21" s="265">
         <v>0</v>
       </c>
-      <c r="F21" s="641"/>
+      <c r="F21" s="620"/>
       <c r="I21" s="219"/>
-      <c r="O21" s="679"/>
-      <c r="Q21" s="682"/>
+      <c r="O21" s="623"/>
+      <c r="Q21" s="626"/>
       <c r="T21" s="422"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="609"/>
+      <c r="V21" s="660"/>
       <c r="W21" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="429" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="654"/>
+      <c r="Y21" s="658"/>
       <c r="Z21" s="445">
         <v>3</v>
       </c>
@@ -8223,15 +8221,15 @@
       <c r="AM21" s="428" t="s">
         <v>546</v>
       </c>
-      <c r="AN21" s="636"/>
+      <c r="AN21" s="641"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="641"/>
+      <c r="F22" s="620"/>
       <c r="G22" s="337" t="s">
         <v>490</v>
       </c>
       <c r="I22" s="219"/>
-      <c r="O22" s="679"/>
+      <c r="O22" s="623"/>
       <c r="R22" s="434" t="s">
         <v>44</v>
       </c>
@@ -8239,14 +8237,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="610"/>
+      <c r="V22" s="661"/>
       <c r="W22" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="429" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="654"/>
+      <c r="Y22" s="658"/>
       <c r="Z22" s="415"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="415"/>
@@ -8257,7 +8255,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="650" t="s">
+      <c r="AJ22" s="630" t="s">
         <v>473</v>
       </c>
       <c r="AK22" s="257"/>
@@ -8265,7 +8263,7 @@
         <v>479</v>
       </c>
       <c r="AM22" s="300"/>
-      <c r="AN22" s="636"/>
+      <c r="AN22" s="641"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
@@ -8283,22 +8281,22 @@
       <c r="E23" s="225">
         <v>1</v>
       </c>
-      <c r="F23" s="641"/>
+      <c r="F23" s="620"/>
       <c r="I23" s="219"/>
-      <c r="O23" s="679"/>
-      <c r="Q23" s="681" t="s">
+      <c r="O23" s="623"/>
+      <c r="Q23" s="625" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="610"/>
+      <c r="V23" s="661"/>
       <c r="W23" s="148"/>
       <c r="X23" s="429" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="654"/>
+      <c r="Y23" s="658"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="415"/>
@@ -8309,13 +8307,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="650"/>
+      <c r="AJ23" s="630"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
         <v>508</v>
       </c>
       <c r="AM23" s="300"/>
-      <c r="AN23" s="636"/>
+      <c r="AN23" s="641"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="440" t="s">
@@ -8333,23 +8331,23 @@
       <c r="E24" s="436">
         <v>1</v>
       </c>
-      <c r="F24" s="641"/>
+      <c r="F24" s="620"/>
       <c r="G24" s="61" t="s">
         <v>491</v>
       </c>
       <c r="I24" s="219"/>
-      <c r="O24" s="679"/>
-      <c r="Q24" s="682"/>
+      <c r="O24" s="623"/>
+      <c r="Q24" s="626"/>
       <c r="T24" s="17"/>
       <c r="U24" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="610"/>
+      <c r="V24" s="661"/>
       <c r="W24" s="148"/>
       <c r="X24" s="429" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="654"/>
+      <c r="Y24" s="658"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="415"/>
@@ -8368,12 +8366,12 @@
         <v>464</v>
       </c>
       <c r="AM24" s="300"/>
-      <c r="AN24" s="636"/>
+      <c r="AN24" s="641"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="641"/>
+      <c r="F25" s="620"/>
       <c r="I25" s="219"/>
-      <c r="O25" s="679"/>
+      <c r="O25" s="623"/>
       <c r="P25" s="204" t="s">
         <v>281</v>
       </c>
@@ -8386,12 +8384,12 @@
       <c r="U25" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="611"/>
+      <c r="V25" s="662"/>
       <c r="W25" s="148"/>
       <c r="X25" s="429" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="654"/>
+      <c r="Y25" s="658"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="415"/>
@@ -8408,7 +8406,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="300"/>
-      <c r="AN25" s="636"/>
+      <c r="AN25" s="641"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
@@ -8426,17 +8424,17 @@
       <c r="E26" s="380">
         <v>1</v>
       </c>
-      <c r="F26" s="641"/>
+      <c r="F26" s="620"/>
       <c r="G26" s="337" t="s">
         <v>488</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="O26" s="679"/>
-      <c r="P26" s="638" t="s">
+      <c r="O26" s="623"/>
+      <c r="P26" s="643" t="s">
         <v>527</v>
       </c>
-      <c r="Q26" s="639"/>
-      <c r="R26" s="675" t="s">
+      <c r="Q26" s="644"/>
+      <c r="R26" s="617" t="s">
         <v>536</v>
       </c>
       <c r="T26" s="178"/>
@@ -8448,7 +8446,7 @@
       <c r="X26" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="654"/>
+      <c r="Y26" s="658"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="415"/>
@@ -8475,7 +8473,7 @@
       <c r="AM26" s="442" t="s">
         <v>457</v>
       </c>
-      <c r="AN26" s="636"/>
+      <c r="AN26" s="641"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8487,13 +8485,13 @@
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="677"/>
+      <c r="F27" s="621"/>
       <c r="G27" s="61" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="220"/>
-      <c r="O27" s="680"/>
-      <c r="R27" s="676"/>
+      <c r="O27" s="624"/>
+      <c r="R27" s="618"/>
       <c r="S27" s="421" t="s">
         <v>54</v>
       </c>
@@ -8506,7 +8504,7 @@
       <c r="X27" s="429" t="s">
         <v>531</v>
       </c>
-      <c r="Y27" s="655"/>
+      <c r="Y27" s="659"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="416"/>
@@ -8523,32 +8521,26 @@
       <c r="AM27" s="381" t="s">
         <v>320</v>
       </c>
-      <c r="AN27" s="637"/>
+      <c r="AN27" s="642"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8565,22 +8557,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8617,12 +8615,12 @@
       <c r="B1" s="603" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="683"/>
+      <c r="C1" s="627"/>
       <c r="D1" s="204"/>
       <c r="J1" s="603" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="683"/>
+      <c r="K1" s="627"/>
       <c r="L1" s="195" t="s">
         <v>331</v>
       </c>
@@ -8956,8 +8954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AF27" sqref="AF27"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9025,7 +9023,7 @@
       <c r="P1" s="398" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="714" t="s">
+      <c r="Q1" s="701" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9049,7 +9047,7 @@
       <c r="AA1" s="517" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" s="708" t="s">
+      <c r="AB1" s="695" t="s">
         <v>595</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9071,32 +9069,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="693">
+      <c r="A2" s="706">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="695" t="s">
+      <c r="B2" s="708" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="615" t="s">
+      <c r="C2" s="645" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="697" t="s">
+      <c r="D2" s="710" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="699" t="s">
+      <c r="E2" s="712" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="659" t="s">
+      <c r="G2" s="613" t="s">
         <v>373</v>
       </c>
       <c r="H2" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="705" t="s">
+      <c r="I2" s="692" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="396" t="s">
@@ -9120,7 +9118,7 @@
       <c r="P2" s="399">
         <v>40</v>
       </c>
-      <c r="Q2" s="715"/>
+      <c r="Q2" s="702"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>2</v>
@@ -9145,7 +9143,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="709"/>
+      <c r="AB2" s="696"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>345</v>
@@ -9158,14 +9156,14 @@
       <c r="AL2" s="469"/>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="694"/>
-      <c r="B3" s="696"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="698"/>
-      <c r="E3" s="700"/>
-      <c r="G3" s="660"/>
+      <c r="A3" s="707"/>
+      <c r="B3" s="709"/>
+      <c r="C3" s="646"/>
+      <c r="D3" s="711"/>
+      <c r="E3" s="713"/>
+      <c r="G3" s="614"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="706"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9180,7 +9178,7 @@
       <c r="V3" s="470"/>
       <c r="W3" s="6"/>
       <c r="X3" s="470"/>
-      <c r="AB3" s="709"/>
+      <c r="AB3" s="696"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>590</v>
@@ -9205,10 +9203,10 @@
         <v>381</v>
       </c>
       <c r="B4" s="243"/>
-      <c r="C4" s="701" t="s">
+      <c r="C4" s="714" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="693"/>
       <c r="R4" s="471" t="s">
         <v>590</v>
       </c>
@@ -9220,7 +9218,7 @@
       <c r="V4" s="470"/>
       <c r="W4" s="6"/>
       <c r="X4" s="470"/>
-      <c r="AB4" s="709"/>
+      <c r="AB4" s="696"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9247,7 +9245,7 @@
       <c r="B5" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="702"/>
+      <c r="C5" s="715"/>
       <c r="D5" s="222" t="s">
         <v>102</v>
       </c>
@@ -9263,7 +9261,7 @@
       <c r="H5" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="706"/>
+      <c r="I5" s="693"/>
       <c r="J5" s="397" t="s">
         <v>269</v>
       </c>
@@ -9290,7 +9288,7 @@
       <c r="V5" s="468"/>
       <c r="W5" s="6"/>
       <c r="X5" s="468"/>
-      <c r="AB5" s="709"/>
+      <c r="AB5" s="696"/>
       <c r="AC5" s="2" t="s">
         <v>593</v>
       </c>
@@ -9308,19 +9306,19 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="690" t="s">
+      <c r="A6" s="703" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="661"/>
-      <c r="D6" s="662"/>
+      <c r="C6" s="628"/>
+      <c r="D6" s="629"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="599"/>
-      <c r="I6" s="706"/>
+      <c r="I6" s="693"/>
       <c r="P6" s="61" t="s">
         <v>593</v>
       </c>
@@ -9332,11 +9330,11 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="709"/>
+      <c r="AB6" s="696"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AI2:AI10)+AF11</f>
@@ -9348,7 +9346,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="691"/>
+      <c r="A7" s="704"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9359,7 +9357,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="599"/>
-      <c r="I7" s="706"/>
+      <c r="I7" s="693"/>
       <c r="M7" s="16" t="s">
         <v>348</v>
       </c>
@@ -9391,7 +9389,7 @@
       <c r="X7" s="469">
         <v>1</v>
       </c>
-      <c r="AB7" s="709"/>
+      <c r="AB7" s="696"/>
       <c r="AC7" s="99" t="s">
         <v>594</v>
       </c>
@@ -9413,11 +9411,11 @@
         <v>614</v>
       </c>
       <c r="AL7" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="692"/>
+      <c r="A8" s="705"/>
       <c r="B8" s="212" t="s">
         <v>28</v>
       </c>
@@ -9426,13 +9424,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="599"/>
-      <c r="I8" s="706"/>
+      <c r="I8" s="693"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
       <c r="W8" s="6"/>
       <c r="X8" s="470"/>
-      <c r="AB8" s="709"/>
+      <c r="AB8" s="696"/>
       <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
         <v>613</v>
@@ -9441,8 +9439,12 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="553"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="469"/>
+      <c r="AK8" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="AL8" s="469">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="231" t="s">
@@ -9459,7 +9461,7 @@
       </c>
       <c r="G9" s="599"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="706"/>
+      <c r="I9" s="693"/>
       <c r="M9" s="19" t="s">
         <v>526</v>
       </c>
@@ -9468,7 +9470,7 @@
       <c r="V9" s="24"/>
       <c r="W9" s="6"/>
       <c r="X9" s="470"/>
-      <c r="AB9" s="709"/>
+      <c r="AB9" s="696"/>
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9489,10 +9491,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!W8</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" s="599"/>
-      <c r="I10" s="706"/>
+      <c r="I10" s="693"/>
       <c r="J10" s="24" t="s">
         <v>373</v>
       </c>
@@ -9507,7 +9509,7 @@
       <c r="V10" s="470"/>
       <c r="W10" s="6"/>
       <c r="X10" s="470"/>
-      <c r="AB10" s="709"/>
+      <c r="AB10" s="696"/>
       <c r="AC10" s="515"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9539,7 +9541,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="599"/>
-      <c r="I11" s="706"/>
+      <c r="I11" s="693"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9565,13 +9567,13 @@
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="711" t="s">
+      <c r="U11" s="698" t="s">
         <v>559</v>
       </c>
-      <c r="V11" s="712"/>
-      <c r="W11" s="712"/>
-      <c r="X11" s="713"/>
-      <c r="AB11" s="710"/>
+      <c r="V11" s="699"/>
+      <c r="W11" s="699"/>
+      <c r="X11" s="700"/>
+      <c r="AB11" s="697"/>
       <c r="AC11" s="99" t="s">
         <v>596</v>
       </c>
@@ -9585,13 +9587,13 @@
         <v>5</v>
       </c>
       <c r="AG11" s="414"/>
-      <c r="AH11" s="711" t="s">
+      <c r="AH11" s="698" t="s">
         <v>604</v>
       </c>
-      <c r="AI11" s="712"/>
-      <c r="AJ11" s="712"/>
-      <c r="AK11" s="712"/>
-      <c r="AL11" s="713"/>
+      <c r="AI11" s="699"/>
+      <c r="AJ11" s="699"/>
+      <c r="AK11" s="699"/>
+      <c r="AL11" s="700"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
@@ -9602,7 +9604,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="599"/>
-      <c r="I12" s="706"/>
+      <c r="I12" s="693"/>
       <c r="J12" s="24" t="s">
         <v>517</v>
       </c>
@@ -9635,7 +9637,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="599"/>
-      <c r="I13" s="706"/>
+      <c r="I13" s="693"/>
       <c r="J13" s="108" t="s">
         <v>549</v>
       </c>
@@ -9679,7 +9681,7 @@
       <c r="H14" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="706"/>
+      <c r="I14" s="693"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9706,7 +9708,7 @@
       <c r="H15" s="271">
         <v>0</v>
       </c>
-      <c r="I15" s="706"/>
+      <c r="I15" s="693"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9737,7 +9739,7 @@
       <c r="D16" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I16" s="706"/>
+      <c r="I16" s="693"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9773,7 +9775,7 @@
       <c r="G17" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I17" s="706"/>
+      <c r="I17" s="693"/>
       <c r="L17" s="2" t="s">
         <v>427</v>
       </c>
@@ -9787,13 +9789,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="706"/>
+      <c r="I18" s="693"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="703" t="s">
+      <c r="O18" s="690" t="s">
         <v>518</v>
       </c>
-      <c r="P18" s="704"/>
+      <c r="P18" s="691"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9811,7 +9813,7 @@
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="706"/>
+      <c r="I19" s="693"/>
       <c r="M19" s="21" t="s">
         <v>426</v>
       </c>
@@ -9843,7 +9845,7 @@
       <c r="G20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I20" s="706"/>
+      <c r="I20" s="693"/>
       <c r="K20" s="19" t="s">
         <v>423</v>
       </c>
@@ -9870,7 +9872,7 @@
       <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="706"/>
+      <c r="I21" s="693"/>
       <c r="M21" s="216" t="s">
         <v>412</v>
       </c>
@@ -9904,7 +9906,7 @@
       <c r="G22" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I22" s="706"/>
+      <c r="I22" s="693"/>
       <c r="P22" s="99" t="s">
         <v>592</v>
       </c>
@@ -9919,7 +9921,7 @@
       <c r="E23" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="706"/>
+      <c r="I23" s="693"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>10</v>
@@ -9936,7 +9938,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="706"/>
+      <c r="I24" s="693"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
         <v>2</v>
@@ -9964,7 +9966,7 @@
       <c r="H25" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="706"/>
+      <c r="I25" s="693"/>
       <c r="J25" s="397" t="s">
         <v>270</v>
       </c>
@@ -10009,7 +10011,7 @@
       <c r="H26" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="706"/>
+      <c r="I26" s="693"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10044,7 +10046,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="706"/>
+      <c r="I27" s="693"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10071,7 +10073,7 @@
       <c r="E28" s="215">
         <v>2</v>
       </c>
-      <c r="I28" s="706"/>
+      <c r="I28" s="693"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10093,7 +10095,7 @@
       <c r="H29" s="191" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="707"/>
+      <c r="I29" s="694"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
         <v>274</v>
@@ -10151,13 +10153,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10169,6 +10164,13 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10180,7 +10182,7 @@
   <dimension ref="A1:AT37"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10280,14 +10282,14 @@
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="T1" s="742"/>
+      <c r="T1" s="735"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="726" t="s">
+      <c r="X1" s="719" t="s">
         <v>442</v>
       </c>
-      <c r="Y1" s="727"/>
+      <c r="Y1" s="720"/>
       <c r="Z1" s="306">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10303,27 +10305,27 @@
       <c r="AD1" s="302" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="728" t="s">
+      <c r="AE1" s="721" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="729"/>
-      <c r="AG1" s="730"/>
-      <c r="AH1" s="731" t="s">
+      <c r="AF1" s="722"/>
+      <c r="AG1" s="723"/>
+      <c r="AH1" s="724" t="s">
         <v>294</v>
       </c>
-      <c r="AI1" s="732"/>
-      <c r="AJ1" s="733"/>
-      <c r="AK1" s="659" t="s">
+      <c r="AI1" s="725"/>
+      <c r="AJ1" s="726"/>
+      <c r="AK1" s="613" t="s">
         <v>617</v>
       </c>
       <c r="AL1" s="551" t="s">
         <v>618</v>
       </c>
-      <c r="AM1" s="723" t="s">
+      <c r="AM1" s="716" t="s">
         <v>445</v>
       </c>
-      <c r="AN1" s="724"/>
-      <c r="AO1" s="725"/>
+      <c r="AN1" s="717"/>
+      <c r="AO1" s="718"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10336,29 +10338,29 @@
       </c>
       <c r="J2" s="318">
         <f>K2+L2</f>
-        <v>15</v>
-      </c>
-      <c r="K2" s="721">
+        <v>17</v>
+      </c>
+      <c r="K2" s="743">
         <f>SUM(K4:K37)</f>
         <v>6</v>
       </c>
-      <c r="L2" s="719">
+      <c r="L2" s="741">
         <f>SUM(L4:L37)</f>
-        <v>9</v>
-      </c>
-      <c r="M2" s="734">
+        <v>11</v>
+      </c>
+      <c r="M2" s="727">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="736">
+      <c r="N2" s="729">
         <f>SUM(N4:N29)</f>
-        <v>2</v>
-      </c>
-      <c r="O2" s="738">
+        <v>4</v>
+      </c>
+      <c r="O2" s="731">
         <f>SUM(O4:O29)</f>
         <v>6</v>
       </c>
-      <c r="P2" s="666">
+      <c r="P2" s="637">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-1</v>
       </c>
@@ -10371,14 +10373,14 @@
       <c r="S2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="743"/>
+      <c r="T2" s="736"/>
       <c r="U2" s="537" t="s">
         <v>263</v>
       </c>
       <c r="V2" s="482" t="s">
         <v>220</v>
       </c>
-      <c r="W2" s="740" t="s">
+      <c r="W2" s="733" t="s">
         <v>235</v>
       </c>
       <c r="X2" s="483" t="s">
@@ -10420,7 +10422,7 @@
       <c r="AJ2" s="150" t="s">
         <v>289</v>
       </c>
-      <c r="AK2" s="660"/>
+      <c r="AK2" s="614"/>
       <c r="AL2" s="592" t="s">
         <v>289</v>
       </c>
@@ -10448,12 +10450,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="722"/>
-      <c r="L3" s="720"/>
-      <c r="M3" s="735"/>
-      <c r="N3" s="737"/>
-      <c r="O3" s="739"/>
-      <c r="P3" s="667"/>
+      <c r="K3" s="744"/>
+      <c r="L3" s="742"/>
+      <c r="M3" s="728"/>
+      <c r="N3" s="730"/>
+      <c r="O3" s="732"/>
+      <c r="P3" s="638"/>
       <c r="Q3" s="172">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10461,23 +10463,23 @@
       <c r="S3" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="T3" s="744"/>
+      <c r="T3" s="737"/>
       <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
         <v>13</v>
       </c>
       <c r="V3" s="484">
         <f>SUM(V4:V29)</f>
-        <v>43</v>
-      </c>
-      <c r="W3" s="741"/>
+        <v>41</v>
+      </c>
+      <c r="W3" s="734"/>
       <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>10</v>
       </c>
       <c r="Y3" s="485">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z3" s="59">
         <f t="shared" si="0"/>
@@ -10489,7 +10491,7 @@
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
@@ -10576,7 +10578,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="716" t="s">
+      <c r="P4" s="738" t="s">
         <v>199</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10662,7 +10664,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="717"/>
+      <c r="P5" s="739"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>341</v>
@@ -10756,7 +10758,7 @@
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="717"/>
+      <c r="P6" s="739"/>
       <c r="Q6" s="19" t="s">
         <v>336</v>
       </c>
@@ -10857,7 +10859,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="717"/>
+      <c r="P7" s="739"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>336</v>
@@ -10973,7 +10975,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="717"/>
+      <c r="P8" s="739"/>
       <c r="Q8" s="21" t="s">
         <v>234</v>
       </c>
@@ -10994,7 +10996,7 @@
       </c>
       <c r="W8" s="24">
         <f>V3</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X8" s="497">
         <v>0</v>
@@ -11064,7 +11066,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="717"/>
+      <c r="P9" s="739"/>
       <c r="Q9" s="21" t="s">
         <v>336</v>
       </c>
@@ -11169,7 +11171,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P10" s="717"/>
+      <c r="P10" s="739"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>341</v>
@@ -11261,7 +11263,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="717"/>
+      <c r="P11" s="739"/>
       <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
@@ -11326,14 +11328,14 @@
       <c r="AR11" s="508"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="626" t="s">
+      <c r="A12" s="675" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="681" t="s">
+      <c r="E12" s="625" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="262"/>
@@ -11348,17 +11350,17 @@
       </c>
       <c r="K12" s="575"/>
       <c r="L12" s="581">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="328"/>
       <c r="N12" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="293">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="717"/>
+      <c r="P12" s="739"/>
       <c r="Q12" s="21" t="s">
         <v>336</v>
       </c>
@@ -11371,7 +11373,7 @@
       </c>
       <c r="U12" s="503"/>
       <c r="V12" s="492">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W12" s="493">
         <v>-2</v>
@@ -11379,7 +11381,7 @@
       <c r="X12" s="496"/>
       <c r="Y12" s="183">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="296"/>
       <c r="AA12" s="117">
@@ -11388,7 +11390,7 @@
       </c>
       <c r="AB12" s="290">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="290">
         <v>1</v>
@@ -11430,17 +11432,19 @@
       <c r="AQ12" s="562" t="s">
         <v>511</v>
       </c>
-      <c r="AR12" s="509"/>
+      <c r="AR12" s="509" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="628"/>
+      <c r="A13" s="677"/>
       <c r="B13" s="584">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="682"/>
+      <c r="E13" s="626"/>
       <c r="F13" s="172">
         <v>0</v>
       </c>
@@ -11464,7 +11468,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="717"/>
+      <c r="P13" s="739"/>
       <c r="Q13" s="21" t="s">
         <v>336</v>
       </c>
@@ -11546,7 +11550,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="717"/>
+      <c r="P14" s="739"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
         <v>340</v>
@@ -11647,7 +11651,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="717"/>
+      <c r="P15" s="739"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
         <v>340</v>
@@ -11739,7 +11743,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="717"/>
+      <c r="P16" s="739"/>
       <c r="Q16" s="21" t="s">
         <v>336</v>
       </c>
@@ -11840,7 +11844,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="717"/>
+      <c r="P17" s="739"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>342</v>
@@ -11940,7 +11944,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="717"/>
+      <c r="P18" s="739"/>
       <c r="Q18" s="21" t="s">
         <v>336</v>
       </c>
@@ -12020,17 +12024,17 @@
         <v>2</v>
       </c>
       <c r="L19" s="582">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="118"/>
       <c r="N19" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="293">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="717"/>
+      <c r="P19" s="739"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>335</v>
@@ -12043,7 +12047,7 @@
       </c>
       <c r="U19" s="503"/>
       <c r="V19" s="492">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="493">
         <v>-1</v>
@@ -12053,7 +12057,7 @@
       </c>
       <c r="Y19" s="183">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="296"/>
       <c r="AA19" s="117">
@@ -12062,7 +12066,7 @@
       </c>
       <c r="AB19" s="290">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC19" s="290">
         <v>1</v>
@@ -12138,11 +12142,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P20" s="718"/>
+      <c r="P20" s="740"/>
       <c r="Q20" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R20" s="683"/>
+      <c r="R20" s="627"/>
       <c r="S20" s="534" t="s">
         <v>85</v>
       </c>
@@ -12402,7 +12406,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="633" t="s">
+      <c r="E23" s="682" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="180"/>
@@ -12505,7 +12509,7 @@
       <c r="C24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="634"/>
+      <c r="E24" s="683"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
       <c r="J24" s="571" t="s">
@@ -12530,7 +12534,7 @@
       <c r="Q24" s="603" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="683"/>
+      <c r="R24" s="627"/>
       <c r="S24" s="534" t="s">
         <v>250</v>
       </c>
@@ -13181,8 +13185,8 @@
       <c r="AR31" s="508"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="650"/>
-      <c r="B32" s="650"/>
+      <c r="A32" s="630"/>
+      <c r="B32" s="630"/>
       <c r="J32" s="572"/>
       <c r="K32" s="587"/>
       <c r="L32" s="581"/>
@@ -13652,7 +13656,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D37" s="382">
         <v>1</v>
@@ -13757,6 +13761,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13768,15 +13781,6 @@
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13844,7 +13848,7 @@
       <c r="V1" s="603" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="683"/>
+      <c r="W1" s="627"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13863,7 +13867,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="759" t="s">
+      <c r="AD1" s="752" t="s">
         <v>212</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13880,10 +13884,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="790" t="s">
+      <c r="F2" s="751" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="747" t="s">
+      <c r="G2" s="779" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13911,10 +13915,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="726" t="s">
+      <c r="V2" s="719" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="727"/>
+      <c r="W2" s="720"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13933,7 +13937,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="760"/>
+      <c r="AD2" s="753"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -13952,8 +13956,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="630"/>
-      <c r="G3" s="748"/>
+      <c r="F3" s="679"/>
+      <c r="G3" s="780"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -13964,13 +13968,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="757" t="s">
+      <c r="O3" s="789" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="771" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="779"/>
+      <c r="Q3" s="772"/>
       <c r="S3" s="57" t="s">
         <v>219</v>
       </c>
@@ -13980,15 +13984,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="760"/>
+      <c r="AD3" s="753"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="748"/>
+      <c r="G4" s="780"/>
       <c r="H4" s="6"/>
       <c r="L4" s="687" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="758"/>
+      <c r="O4" s="790"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14002,8 +14006,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="605"/>
-      <c r="AA4" s="683"/>
-      <c r="AD4" s="760"/>
+      <c r="AA4" s="627"/>
+      <c r="AD4" s="753"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14018,21 +14022,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="748"/>
+      <c r="G5" s="780"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="765" t="s">
+      <c r="K5" s="758" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="780"/>
+      <c r="L5" s="773"/>
       <c r="M5" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="758"/>
+      <c r="O5" s="790"/>
       <c r="P5" s="108" t="s">
         <v>215</v>
       </c>
@@ -14048,11 +14052,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="768" t="s">
+      <c r="Y5" s="761" t="s">
         <v>283</v>
       </c>
-      <c r="Z5" s="769"/>
-      <c r="AD5" s="760"/>
+      <c r="Z5" s="762"/>
+      <c r="AD5" s="753"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14062,16 +14066,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="748"/>
+      <c r="G6" s="780"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="766"/>
-      <c r="L6" s="780"/>
-      <c r="O6" s="758"/>
+      <c r="K6" s="759"/>
+      <c r="L6" s="773"/>
+      <c r="O6" s="790"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14081,23 +14085,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="760"/>
+      <c r="AD6" s="753"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="748"/>
+      <c r="G7" s="780"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="766"/>
-      <c r="L7" s="780"/>
+      <c r="K7" s="759"/>
+      <c r="L7" s="773"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="758"/>
+      <c r="O7" s="790"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="760"/>
+      <c r="AD7" s="753"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14110,7 +14114,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="748"/>
+      <c r="G8" s="780"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14120,41 +14124,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="766"/>
-      <c r="L8" s="780"/>
-      <c r="O8" s="758"/>
+      <c r="K8" s="759"/>
+      <c r="L8" s="773"/>
+      <c r="O8" s="790"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="762" t="s">
+      <c r="S8" s="755" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="763"/>
-      <c r="U8" s="763"/>
-      <c r="V8" s="763"/>
-      <c r="W8" s="763"/>
-      <c r="X8" s="763"/>
-      <c r="Y8" s="763"/>
-      <c r="Z8" s="763"/>
-      <c r="AA8" s="763"/>
-      <c r="AB8" s="763"/>
-      <c r="AC8" s="764"/>
-      <c r="AD8" s="760"/>
+      <c r="T8" s="756"/>
+      <c r="U8" s="756"/>
+      <c r="V8" s="756"/>
+      <c r="W8" s="756"/>
+      <c r="X8" s="756"/>
+      <c r="Y8" s="756"/>
+      <c r="Z8" s="756"/>
+      <c r="AA8" s="756"/>
+      <c r="AB8" s="756"/>
+      <c r="AC8" s="757"/>
+      <c r="AD8" s="753"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="784"/>
-      <c r="G9" s="748"/>
+      <c r="C9" s="745"/>
+      <c r="G9" s="780"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="766"/>
-      <c r="L9" s="751" t="s">
+      <c r="K9" s="759"/>
+      <c r="L9" s="783" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="752"/>
-      <c r="N9" s="753"/>
-      <c r="O9" s="758"/>
+      <c r="M9" s="784"/>
+      <c r="N9" s="785"/>
+      <c r="O9" s="790"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="760"/>
+      <c r="AD9" s="753"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="785"/>
+      <c r="C10" s="746"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14162,7 +14166,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="748"/>
+      <c r="G10" s="780"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14170,33 +14174,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="766"/>
-      <c r="M10" s="787" t="s">
+      <c r="K10" s="759"/>
+      <c r="M10" s="748" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="788"/>
-      <c r="O10" s="788"/>
-      <c r="P10" s="788"/>
-      <c r="Q10" s="788"/>
-      <c r="R10" s="788"/>
-      <c r="S10" s="788"/>
-      <c r="T10" s="788"/>
-      <c r="U10" s="788"/>
-      <c r="V10" s="788"/>
-      <c r="W10" s="788"/>
-      <c r="X10" s="788"/>
-      <c r="Y10" s="788"/>
-      <c r="Z10" s="788"/>
-      <c r="AA10" s="788"/>
-      <c r="AB10" s="788"/>
-      <c r="AC10" s="789"/>
-      <c r="AD10" s="760"/>
+      <c r="N10" s="749"/>
+      <c r="O10" s="749"/>
+      <c r="P10" s="749"/>
+      <c r="Q10" s="749"/>
+      <c r="R10" s="749"/>
+      <c r="S10" s="749"/>
+      <c r="T10" s="749"/>
+      <c r="U10" s="749"/>
+      <c r="V10" s="749"/>
+      <c r="W10" s="749"/>
+      <c r="X10" s="749"/>
+      <c r="Y10" s="749"/>
+      <c r="Z10" s="749"/>
+      <c r="AA10" s="749"/>
+      <c r="AB10" s="749"/>
+      <c r="AC10" s="750"/>
+      <c r="AD10" s="753"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="786"/>
-      <c r="G11" s="748"/>
+      <c r="C11" s="747"/>
+      <c r="G11" s="780"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="766"/>
+      <c r="K11" s="759"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14204,17 +14208,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="776" t="s">
+      <c r="Z11" s="769" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="777"/>
+      <c r="AA11" s="770"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="760"/>
+      <c r="AD11" s="753"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14227,7 +14231,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="748"/>
+      <c r="G12" s="780"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14235,8 +14239,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="766"/>
-      <c r="L12" s="781" t="s">
+      <c r="K12" s="759"/>
+      <c r="L12" s="774" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14267,25 +14271,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="770" t="s">
+      <c r="AA12" s="763" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="771"/>
+      <c r="AB12" s="764"/>
       <c r="AC12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AD12" s="760"/>
+      <c r="AD12" s="753"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="784"/>
-      <c r="G13" s="748"/>
-      <c r="K13" s="766"/>
-      <c r="L13" s="782"/>
+      <c r="C13" s="745"/>
+      <c r="G13" s="780"/>
+      <c r="K13" s="759"/>
+      <c r="L13" s="775"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="750" t="s">
+      <c r="Q13" s="782" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="639"/>
+      <c r="R13" s="644"/>
       <c r="S13" s="599"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14294,17 +14298,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="772"/>
-      <c r="AB13" s="773"/>
-      <c r="AD13" s="760"/>
+      <c r="AA13" s="765"/>
+      <c r="AB13" s="766"/>
+      <c r="AD13" s="753"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="786"/>
+      <c r="C14" s="747"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="748"/>
+      <c r="G14" s="780"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14312,8 +14316,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="766"/>
-      <c r="L14" s="782"/>
+      <c r="K14" s="759"/>
+      <c r="L14" s="775"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14334,9 +14338,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="772"/>
-      <c r="AB14" s="773"/>
-      <c r="AD14" s="760"/>
+      <c r="AA14" s="765"/>
+      <c r="AB14" s="766"/>
+      <c r="AD14" s="753"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14351,19 +14355,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="748"/>
+      <c r="G15" s="780"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="766"/>
-      <c r="L15" s="783"/>
-      <c r="Q15" s="750" t="s">
+      <c r="K15" s="759"/>
+      <c r="L15" s="776"/>
+      <c r="Q15" s="782" t="s">
         <v>210</v>
       </c>
-      <c r="R15" s="639"/>
+      <c r="R15" s="644"/>
       <c r="S15" s="599"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14372,14 +14376,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="772"/>
-      <c r="AB15" s="773"/>
-      <c r="AD15" s="760"/>
+      <c r="AA15" s="765"/>
+      <c r="AB15" s="766"/>
+      <c r="AD15" s="753"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="748"/>
-      <c r="K16" s="766"/>
+      <c r="G16" s="780"/>
+      <c r="K16" s="759"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14398,24 +14402,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="772"/>
-      <c r="AB16" s="773"/>
-      <c r="AD16" s="760"/>
+      <c r="AA16" s="765"/>
+      <c r="AB16" s="766"/>
+      <c r="AD16" s="753"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="745" t="s">
+      <c r="F17" s="777" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="748"/>
+      <c r="G17" s="780"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="766"/>
+      <c r="K17" s="759"/>
       <c r="S17" s="599"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14423,9 +14427,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="772"/>
-      <c r="AB17" s="773"/>
-      <c r="AD17" s="760"/>
+      <c r="AA17" s="765"/>
+      <c r="AB17" s="766"/>
+      <c r="AD17" s="753"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14435,15 +14439,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="746"/>
-      <c r="G18" s="748"/>
+      <c r="F18" s="778"/>
+      <c r="G18" s="780"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="766"/>
+      <c r="K18" s="759"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14454,39 +14458,42 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="774"/>
-      <c r="AB18" s="775"/>
-      <c r="AD18" s="760"/>
+      <c r="AA18" s="767"/>
+      <c r="AB18" s="768"/>
+      <c r="AD18" s="753"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="749"/>
-      <c r="K19" s="767"/>
+      <c r="G19" s="781"/>
+      <c r="K19" s="760"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="754" t="s">
+      <c r="R19" s="786" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="755"/>
-      <c r="T19" s="756"/>
+      <c r="S19" s="787"/>
+      <c r="T19" s="788"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="761"/>
+      <c r="AD19" s="754"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14498,14 +14505,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BCC380-909B-4483-B401-3E83965E8B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA6D599-D6B5-4A68-A613-5AE09D71D539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="623">
   <si>
     <t>Zone</t>
   </si>
@@ -636,9 +636,6 @@
   </si>
   <si>
     <t>RWSM</t>
-  </si>
-  <si>
-    <t>Rotation Wheel Service Management</t>
   </si>
   <si>
     <t>Working Pipeline Jobs</t>
@@ -5908,7 +5905,7 @@
     <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C2" s="476" t="s">
         <v>0</v>
@@ -5945,22 +5942,22 @@
         <v>10</v>
       </c>
       <c r="O2" s="603" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P2" s="604"/>
       <c r="Q2" s="605"/>
       <c r="R2" s="605"/>
       <c r="S2" s="605"/>
       <c r="T2" s="606" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C3" s="165" t="s">
         <v>11</v>
@@ -5971,10 +5968,10 @@
         <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I3" s="61"/>
       <c r="J3" s="275"/>
@@ -5996,7 +5993,7 @@
       </c>
       <c r="T3" s="607"/>
       <c r="U3" s="19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="V3" s="24">
         <f>SUM(P3:P28)</f>
@@ -6005,10 +6002,10 @@
     </row>
     <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C4" s="165" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D4" s="599"/>
       <c r="E4" s="61"/>
@@ -6031,7 +6028,7 @@
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C5" s="165" t="s">
         <v>16</v>
@@ -6041,7 +6038,7 @@
         <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="61"/>
@@ -6050,12 +6047,12 @@
       <c r="L5" s="273"/>
       <c r="M5" s="323"/>
       <c r="N5" s="365" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P5" s="313"/>
       <c r="T5" s="607"/>
       <c r="U5" s="204" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V5" s="24">
         <v>7140</v>
@@ -6063,7 +6060,7 @@
     </row>
     <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C6" s="165" t="s">
         <v>16</v>
@@ -6075,17 +6072,17 @@
         <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I6" s="61"/>
       <c r="J6" s="178"/>
       <c r="K6" s="148"/>
       <c r="L6" s="274" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M6" s="323"/>
       <c r="N6" s="369" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P6" s="313"/>
       <c r="Q6" s="16"/>
@@ -6094,7 +6091,7 @@
     </row>
     <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="209" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C7" s="165" t="s">
         <v>17</v>
@@ -6106,7 +6103,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I7" s="61"/>
       <c r="J7" s="281"/>
@@ -6120,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R7" s="34" t="s">
         <v>42</v>
@@ -6132,7 +6129,7 @@
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C8" s="421" t="s">
         <v>14</v>
@@ -6161,7 +6158,7 @@
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C9" s="421" t="s">
         <v>14</v>
@@ -6169,13 +6166,13 @@
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
       <c r="F9" s="287" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I9" s="61"/>
       <c r="J9" s="279"/>
@@ -6200,20 +6197,20 @@
     </row>
     <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C10" s="165" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="61"/>
       <c r="F10" s="359" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="279"/>
@@ -6223,14 +6220,14 @@
       </c>
       <c r="M10" s="358"/>
       <c r="N10" s="365" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P10" s="313"/>
       <c r="T10" s="607"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C11" s="421" t="s">
         <v>17</v>
@@ -6238,13 +6235,13 @@
       <c r="D11" s="61"/>
       <c r="E11" s="61"/>
       <c r="F11" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I11" s="337"/>
       <c r="J11" s="277"/>
@@ -6268,7 +6265,7 @@
       </c>
       <c r="T11" s="607"/>
       <c r="U11" s="204" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V11" s="64">
         <v>119</v>
@@ -6276,10 +6273,10 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="256" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C12" s="421" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D12" s="61"/>
       <c r="E12" s="464"/>
@@ -6303,19 +6300,19 @@
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="256" t="s">
+        <v>353</v>
+      </c>
+      <c r="C13" s="165" t="s">
         <v>354</v>
-      </c>
-      <c r="C13" s="165" t="s">
-        <v>355</v>
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="61"/>
       <c r="F13" s="265"/>
       <c r="G13" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I13" s="61"/>
       <c r="J13" s="179"/>
@@ -6325,13 +6322,13 @@
       </c>
       <c r="M13" s="358"/>
       <c r="N13" s="366" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P13" s="313"/>
       <c r="R13" s="142"/>
       <c r="T13" s="607"/>
       <c r="U13" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="V13" s="24">
         <v>13</v>
@@ -6351,13 +6348,13 @@
       <c r="D15" s="61"/>
       <c r="E15" s="66"/>
       <c r="F15" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G15" s="136" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I15" s="61"/>
       <c r="J15" s="136"/>
@@ -6383,7 +6380,7 @@
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="462" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C16" s="478" t="s">
         <v>11</v>
@@ -6391,13 +6388,13 @@
       <c r="D16" s="372"/>
       <c r="E16" s="257"/>
       <c r="F16" s="266" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G16" s="136" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I16" s="61"/>
       <c r="J16" s="193"/>
@@ -6411,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="R16" s="511" t="s">
         <v>42</v>
@@ -6429,13 +6426,13 @@
       <c r="D17" s="61"/>
       <c r="E17" s="464"/>
       <c r="F17" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G17" s="203" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I17" s="61"/>
       <c r="J17" s="139"/>
@@ -6465,19 +6462,19 @@
     </row>
     <row r="19" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C19" s="165" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D19" s="61"/>
       <c r="E19" s="463"/>
       <c r="F19" s="100"/>
       <c r="G19" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I19" s="61"/>
       <c r="J19" s="14"/>
@@ -6487,28 +6484,28 @@
       </c>
       <c r="M19" s="595"/>
       <c r="N19" s="390" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P19" s="313"/>
       <c r="T19" s="607"/>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="241" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C20" s="165" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D20" s="61"/>
       <c r="E20" s="66"/>
       <c r="F20" s="34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I20" s="61"/>
       <c r="J20" s="164"/>
@@ -6534,18 +6531,18 @@
         <v>27</v>
       </c>
       <c r="C21" s="165" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D21" s="61"/>
       <c r="E21" s="66"/>
       <c r="F21" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I21" s="61"/>
       <c r="J21" s="8"/>
@@ -6566,13 +6563,13 @@
       </c>
       <c r="T21" s="607"/>
       <c r="U21" s="593" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V21" s="594"/>
     </row>
     <row r="22" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="270" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C22" s="165" t="s">
         <v>30</v>
@@ -6584,7 +6581,7 @@
         <v>31</v>
       </c>
       <c r="H22" s="267" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I22" s="61"/>
       <c r="J22" s="164"/>
@@ -6599,12 +6596,12 @@
       <c r="P22" s="313"/>
       <c r="T22" s="607"/>
       <c r="X22" s="19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C23" s="165" t="s">
         <v>16</v>
@@ -6613,10 +6610,10 @@
       <c r="E23" s="61"/>
       <c r="F23" s="100"/>
       <c r="G23" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I23" s="61"/>
       <c r="J23" s="240"/>
@@ -6626,23 +6623,23 @@
       </c>
       <c r="M23" s="596"/>
       <c r="N23" s="61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P23" s="313"/>
       <c r="T23" s="607"/>
       <c r="U23" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="V23" s="100" t="s">
         <v>44</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C24" s="165" t="s">
         <v>16</v>
@@ -6651,10 +6648,10 @@
       <c r="E24" s="464"/>
       <c r="F24" s="386"/>
       <c r="G24" s="239" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H24" s="210" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I24" s="61"/>
       <c r="J24" s="139"/>
@@ -6682,7 +6679,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E25" s="257"/>
       <c r="F25" s="255"/>
@@ -6690,7 +6687,7 @@
         <v>21</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I25" s="61"/>
       <c r="J25" s="139"/>
@@ -6706,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R25" s="100" t="s">
         <v>42</v>
@@ -6719,7 +6716,7 @@
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C26" s="165" t="s">
         <v>17</v>
@@ -6728,10 +6725,10 @@
       <c r="E26" s="392"/>
       <c r="F26" s="359"/>
       <c r="G26" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I26" s="61"/>
       <c r="J26" s="242"/>
@@ -6741,7 +6738,7 @@
       </c>
       <c r="M26" s="596"/>
       <c r="N26" s="61" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P26" s="313"/>
       <c r="T26" s="607"/>
@@ -6749,7 +6746,7 @@
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="256" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C27" s="165" t="s">
         <v>14</v>
@@ -6758,10 +6755,10 @@
       <c r="E27" s="392"/>
       <c r="F27" s="382"/>
       <c r="G27" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H27" s="210" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I27" s="61"/>
       <c r="J27" s="387"/>
@@ -6778,26 +6775,26 @@
       </c>
       <c r="T27" s="607"/>
       <c r="W27" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="256" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C28" s="473" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E28" s="392"/>
       <c r="F28" s="384"/>
       <c r="G28" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H28" s="210" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I28" s="61"/>
       <c r="J28" s="18"/>
@@ -6807,13 +6804,13 @@
       </c>
       <c r="M28" s="597"/>
       <c r="N28" s="61" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P28" s="314">
         <v>1</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R28" s="100" t="s">
         <v>42</v>
@@ -6895,7 +6892,7 @@
   <sheetData>
     <row r="1" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B1" s="79" t="s">
         <v>134</v>
@@ -6907,10 +6904,10 @@
         <v>136</v>
       </c>
       <c r="H1" s="97" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I1" s="613" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>137</v>
@@ -6946,7 +6943,7 @@
         <v>155</v>
       </c>
       <c r="Y1" s="657" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z1" s="406">
         <v>1</v>
@@ -6954,7 +6951,7 @@
       <c r="AA1" s="344"/>
       <c r="AB1" s="342"/>
       <c r="AC1" s="100" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AD1" s="343"/>
       <c r="AE1" s="371"/>
@@ -6964,18 +6961,18 @@
       <c r="AI1" s="371"/>
       <c r="AJ1" s="371"/>
       <c r="AK1" s="443" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AL1" s="371" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM1" s="402"/>
       <c r="AN1" s="640"/>
       <c r="AO1" s="338" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AQ1" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6984,13 +6981,13 @@
         <v>45285</v>
       </c>
       <c r="B2" s="668" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C2" s="645" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D2" s="670" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E2" s="609" t="s">
         <v>64</v>
@@ -7009,7 +7006,7 @@
         <v>76</v>
       </c>
       <c r="K2" s="611" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L2" s="612"/>
       <c r="M2" s="619" t="s">
@@ -7047,7 +7044,7 @@
       <c r="AC2" s="16"/>
       <c r="AD2" s="16"/>
       <c r="AE2" s="238" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF2" s="80"/>
       <c r="AG2" s="80"/>
@@ -7055,10 +7052,10 @@
       <c r="AI2" s="80"/>
       <c r="AJ2" s="80"/>
       <c r="AK2" s="441" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AL2" s="238" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AM2" s="428"/>
       <c r="AN2" s="641"/>
@@ -7113,10 +7110,10 @@
       <c r="AA3" s="307"/>
       <c r="AB3" s="209"/>
       <c r="AC3" s="100" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AD3" s="631" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AE3" s="257"/>
       <c r="AF3" s="257"/>
@@ -7134,7 +7131,7 @@
         <v>183</v>
       </c>
       <c r="B4" s="682" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" s="645" t="s">
         <v>154</v>
@@ -7147,13 +7144,13 @@
       </c>
       <c r="F4" s="620"/>
       <c r="G4" s="381" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H4" s="86" t="s">
         <v>105</v>
       </c>
       <c r="I4" s="87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J4" s="86" t="s">
         <v>105</v>
@@ -7210,7 +7207,7 @@
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="613" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B5" s="683"/>
       <c r="C5" s="646"/>
@@ -7247,15 +7244,15 @@
       </c>
       <c r="AA5" s="307"/>
       <c r="AB5" s="100" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AC5" s="99" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>
       <c r="AF5" s="238" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
@@ -7299,7 +7296,7 @@
       <c r="AB6" s="209"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="413" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE6" s="257"/>
       <c r="AF6" s="257"/>
@@ -7307,28 +7304,28 @@
       <c r="AH6" s="257"/>
       <c r="AI6" s="630"/>
       <c r="AJ6" s="441" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AK6" s="630" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL6" s="257"/>
       <c r="AM6" s="428"/>
       <c r="AN6" s="641"/>
       <c r="AO6" s="338" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="232" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B7" s="681"/>
       <c r="C7" s="202" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D7" s="348" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E7" s="265">
         <v>3</v>
@@ -7378,27 +7375,27 @@
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
       <c r="AG7" s="631" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AH7" s="257"/>
       <c r="AI7" s="630"/>
       <c r="AJ7" s="257"/>
       <c r="AK7" s="630"/>
       <c r="AL7" s="80" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AM7" s="428"/>
       <c r="AN7" s="641"/>
       <c r="AP7" s="76" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B8" s="346" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D8" s="337"/>
       <c r="E8" s="244">
@@ -7454,16 +7451,16 @@
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B9" s="106" t="s">
         <v>196</v>
       </c>
       <c r="C9" s="202" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D9" s="348" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F9" s="620"/>
       <c r="G9" s="677"/>
@@ -7493,7 +7490,7 @@
       <c r="AB9" s="209"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="413" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
@@ -7502,18 +7499,18 @@
       <c r="AI9" s="630"/>
       <c r="AJ9" s="80"/>
       <c r="AK9" s="630" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL9" s="257"/>
       <c r="AM9" s="428"/>
       <c r="AN9" s="641"/>
       <c r="AP9" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="232" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B10" s="105" t="s">
         <v>198</v>
@@ -7521,17 +7518,17 @@
       <c r="D10" s="142"/>
       <c r="E10" s="237">
         <f>Boat!W8</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="620"/>
       <c r="N10" s="418" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O10" s="622" t="s">
         <v>102</v>
       </c>
       <c r="P10" s="652" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
@@ -7542,7 +7539,7 @@
         <v>176</v>
       </c>
       <c r="V10" s="119" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W10" s="146"/>
       <c r="X10" s="431" t="s">
@@ -7557,14 +7554,14 @@
       </c>
       <c r="AB10" s="209"/>
       <c r="AC10" s="100" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AD10" s="16"/>
       <c r="AE10" s="238" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF10" s="238" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG10" s="631"/>
       <c r="AH10" s="80"/>
@@ -7573,7 +7570,7 @@
       <c r="AK10" s="630"/>
       <c r="AL10" s="257"/>
       <c r="AM10" s="442" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AN10" s="641"/>
       <c r="AO10" s="204" t="s">
@@ -7582,16 +7579,16 @@
     </row>
     <row r="11" spans="1:43" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="223" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" s="598" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C11" s="457" t="s">
         <v>177</v>
       </c>
       <c r="D11" s="170" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F11" s="620"/>
       <c r="M11" s="6"/>
@@ -7602,7 +7599,7 @@
       <c r="P11" s="653"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S11" s="635"/>
       <c r="T11" s="102" t="s">
@@ -7620,13 +7617,13 @@
         <v>1</v>
       </c>
       <c r="AB11" s="99" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AC11" s="257"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="257"/>
       <c r="AF11" s="257" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG11" s="631"/>
       <c r="AH11" s="257"/>
@@ -7637,16 +7634,16 @@
       <c r="AM11" s="428"/>
       <c r="AN11" s="641"/>
       <c r="AP11" s="76" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B12" s="600"/>
       <c r="C12" s="458" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D12" s="61" t="s">
         <v>153</v>
@@ -7656,10 +7653,10 @@
       </c>
       <c r="F12" s="620"/>
       <c r="G12" s="337" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H12" s="603" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I12" s="605"/>
       <c r="J12" s="605"/>
@@ -7691,29 +7688,29 @@
       </c>
       <c r="AB12" s="209"/>
       <c r="AC12" s="100" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AD12" s="639" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE12" s="441" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF12" s="631" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG12" s="631"/>
       <c r="AH12" s="238" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AI12" s="238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
       <c r="AM12" s="655" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AN12" s="641"/>
       <c r="AO12" s="338" t="s">
@@ -7729,7 +7726,7 @@
       </c>
       <c r="F13" s="620"/>
       <c r="G13" s="605" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H13" s="605"/>
       <c r="I13" s="605"/>
@@ -7755,17 +7752,17 @@
         <v>1</v>
       </c>
       <c r="AB13" s="100" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AC13" s="16"/>
       <c r="AD13" s="639"/>
       <c r="AF13" s="631"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AI13" s="238" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
@@ -7781,7 +7778,7 @@
       <c r="E14" s="453"/>
       <c r="F14" s="620"/>
       <c r="G14" s="605" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H14" s="605"/>
       <c r="I14" s="605"/>
@@ -7792,7 +7789,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="623"/>
       <c r="Q14" s="61" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="S14" s="165" t="s">
         <v>28</v>
@@ -7825,10 +7822,10 @@
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="449" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C15" s="598" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F15" s="620"/>
       <c r="O15" s="623"/>
@@ -7851,19 +7848,19 @@
       <c r="AA15" s="307"/>
       <c r="AB15" s="209"/>
       <c r="AC15" s="76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AD15" s="639"/>
       <c r="AF15" s="631"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AI15" s="238" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ15" s="80" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
@@ -7873,26 +7870,26 @@
         <v>73</v>
       </c>
       <c r="AQ15" s="76" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C16" s="600"/>
       <c r="D16" s="61" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E16" s="224">
         <v>1</v>
       </c>
       <c r="F16" s="620"/>
       <c r="G16" s="337" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I16" s="469"/>
       <c r="J16" s="20"/>
@@ -7921,16 +7918,16 @@
       <c r="AH16" s="257"/>
       <c r="AI16" s="70"/>
       <c r="AJ16" s="238" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AK16" s="257"/>
       <c r="AL16" s="80"/>
       <c r="AM16" s="428" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AN16" s="641"/>
       <c r="AP16" s="76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7941,7 +7938,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="623"/>
       <c r="Q17" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S17" s="165" t="s">
         <v>182</v>
@@ -7964,21 +7961,21 @@
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
       <c r="AC17" s="76" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AD17" s="238" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AE17" s="257" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF17" s="257"/>
       <c r="AG17" s="80"/>
       <c r="AH17" s="80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AI17" s="257" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AJ17" s="80"/>
       <c r="AK17" s="257"/>
@@ -7986,38 +7983,38 @@
       <c r="AM17" s="428"/>
       <c r="AN17" s="641"/>
       <c r="AO17" s="204" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AQ17" s="99" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="465" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C18" s="454" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D18" s="384" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="620"/>
       <c r="G18" s="337" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
       <c r="O18" s="623"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="615" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
@@ -8038,19 +8035,19 @@
       </c>
       <c r="AA18" s="307"/>
       <c r="AB18" s="76" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
       <c r="AF18" s="630" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
       <c r="AJ18" s="656" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
@@ -8066,7 +8063,7 @@
       <c r="O19" s="623"/>
       <c r="R19" s="616"/>
       <c r="S19" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U19" s="664"/>
       <c r="V19" s="146"/>
@@ -8089,34 +8086,34 @@
       <c r="AI19" s="70"/>
       <c r="AJ19" s="656"/>
       <c r="AK19" s="460" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="428"/>
       <c r="AN19" s="641"/>
       <c r="AP19" s="76" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="231" t="s">
+        <v>539</v>
+      </c>
+      <c r="B20" s="216" t="s">
+        <v>511</v>
+      </c>
+      <c r="C20" s="456" t="s">
+        <v>486</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>540</v>
-      </c>
-      <c r="B20" s="216" t="s">
-        <v>512</v>
-      </c>
-      <c r="C20" s="456" t="s">
-        <v>487</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>541</v>
       </c>
       <c r="E20" s="437">
         <v>-1</v>
       </c>
       <c r="F20" s="620"/>
       <c r="G20" s="337" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I20" s="219"/>
       <c r="O20" s="623"/>
@@ -8146,30 +8143,30 @@
       <c r="AG20" s="339"/>
       <c r="AH20" s="340"/>
       <c r="AI20" s="341" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AJ20" s="339"/>
       <c r="AK20" s="461"/>
       <c r="AL20" s="340" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AM20" s="381" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AN20" s="641"/>
       <c r="AO20" s="338" t="s">
+        <v>460</v>
+      </c>
+      <c r="AQ20" s="100" t="s">
         <v>461</v>
-      </c>
-      <c r="AQ20" s="100" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="231" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D21" s="169" t="s">
         <v>141</v>
@@ -8200,33 +8197,33 @@
       <c r="AB21" s="415"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="413" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG21" s="6"/>
       <c r="AH21" s="238" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="80" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AK21" s="257" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL21" s="6"/>
       <c r="AM21" s="428" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AN21" s="641"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="620"/>
       <c r="G22" s="337" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I22" s="219"/>
       <c r="O22" s="623"/>
@@ -8256,21 +8253,21 @@
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="630" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AK22" s="257"/>
       <c r="AL22" s="80" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM22" s="300"/>
       <c r="AN22" s="641"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B23" s="173" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C23" s="455" t="s">
         <v>141</v>
@@ -8310,30 +8307,30 @@
       <c r="AJ23" s="630"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM23" s="300"/>
       <c r="AN23" s="641"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="440" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B24" s="216" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C24" s="457" t="s">
         <v>154</v>
       </c>
       <c r="D24" s="170" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E24" s="436">
         <v>1</v>
       </c>
       <c r="F24" s="620"/>
       <c r="G24" s="61" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I24" s="219"/>
       <c r="O24" s="623"/>
@@ -8360,10 +8357,10 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="441" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AL24" s="238" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AM24" s="300"/>
       <c r="AN24" s="641"/>
@@ -8373,7 +8370,7 @@
       <c r="I25" s="219"/>
       <c r="O25" s="623"/>
       <c r="P25" s="204" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="104" t="s">
         <v>20</v>
@@ -8396,7 +8393,7 @@
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="238" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
@@ -8410,32 +8407,32 @@
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
+        <v>485</v>
+      </c>
+      <c r="B26" s="216" t="s">
+        <v>411</v>
+      </c>
+      <c r="C26" s="456" t="s">
         <v>486</v>
       </c>
-      <c r="B26" s="216" t="s">
-        <v>412</v>
-      </c>
-      <c r="C26" s="456" t="s">
-        <v>487</v>
-      </c>
       <c r="D26" s="61" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E26" s="380">
         <v>1</v>
       </c>
       <c r="F26" s="620"/>
       <c r="G26" s="337" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I26" s="219"/>
       <c r="O26" s="623"/>
       <c r="P26" s="643" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q26" s="644"/>
       <c r="R26" s="617" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T26" s="178"/>
       <c r="U26" s="419"/>
@@ -8451,43 +8448,43 @@
       <c r="AA26" s="10"/>
       <c r="AB26" s="415"/>
       <c r="AC26" s="76" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AD26" s="413" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AE26" s="6"/>
       <c r="AF26" s="238" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="238" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="142"/>
       <c r="AL26" s="80" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AM26" s="442" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN26" s="641"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="621"/>
       <c r="G27" s="61" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I27" s="220"/>
       <c r="O27" s="624"/>
@@ -8502,7 +8499,7 @@
       <c r="V27" s="424"/>
       <c r="W27" s="149"/>
       <c r="X27" s="429" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Y27" s="659"/>
       <c r="Z27" s="161"/>
@@ -8519,7 +8516,7 @@
       <c r="AK27" s="444"/>
       <c r="AL27" s="417"/>
       <c r="AM27" s="381" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AN27" s="642"/>
     </row>
@@ -8613,7 +8610,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="603" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C1" s="627"/>
       <c r="D1" s="204"/>
@@ -8622,28 +8619,28 @@
       </c>
       <c r="K1" s="627"/>
       <c r="L1" s="195" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M1" s="197"/>
       <c r="N1" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="O1" s="159" t="s">
         <v>332</v>
       </c>
-      <c r="O1" s="159" t="s">
+      <c r="P1" s="159" t="s">
         <v>333</v>
       </c>
-      <c r="P1" s="159" t="s">
-        <v>334</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R1" s="159" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8652,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>34</v>
@@ -8673,7 +8670,7 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -8682,10 +8679,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M3" s="685"/>
       <c r="N3" s="17">
@@ -8698,7 +8695,7 @@
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8707,10 +8704,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M4" s="685"/>
       <c r="N4" s="17"/>
@@ -8723,7 +8720,7 @@
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C5" s="172">
         <v>1</v>
@@ -8732,7 +8729,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>13</v>
@@ -8751,7 +8748,7 @@
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8760,10 +8757,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M6" s="685"/>
       <c r="N6" s="17">
@@ -8776,7 +8773,7 @@
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8785,10 +8782,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L7" s="198"/>
       <c r="M7" s="685"/>
@@ -8804,7 +8801,7 @@
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -8813,10 +8810,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M8" s="685"/>
       <c r="N8" s="17">
@@ -8829,7 +8826,7 @@
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8838,10 +8835,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L9" s="181"/>
       <c r="M9" s="686"/>
@@ -8855,7 +8852,7 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -8864,7 +8861,7 @@
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -8872,7 +8869,7 @@
     </row>
     <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="23">
         <v>3</v>
@@ -8880,7 +8877,7 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -8888,7 +8885,7 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -8896,7 +8893,7 @@
     </row>
     <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -8904,7 +8901,7 @@
     </row>
     <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -8913,12 +8910,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C17" s="23">
         <v>1</v>
@@ -8926,17 +8923,17 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -8954,8 +8951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView topLeftCell="N12" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9009,19 +9006,19 @@
         <v>153</v>
       </c>
       <c r="L1" s="166" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M1" s="207" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="207" t="s">
         <v>275</v>
       </c>
-      <c r="N1" s="207" t="s">
-        <v>276</v>
-      </c>
       <c r="O1" s="208" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P1" s="398" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q1" s="701" t="s">
         <v>180</v>
@@ -9033,7 +9030,7 @@
         <v>80</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U1" s="67" t="s">
         <v>80</v>
@@ -9042,16 +9039,16 @@
         <v>75</v>
       </c>
       <c r="Z1" s="24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA1" s="517" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AB1" s="695" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AC1" s="99" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AD1" s="343"/>
       <c r="AF1" s="19" t="s">
@@ -9074,10 +9071,10 @@
         <v>45285</v>
       </c>
       <c r="B2" s="708" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2" s="645" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D2" s="710" t="s">
         <v>102</v>
@@ -9086,13 +9083,13 @@
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G2" s="613" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H2" s="206" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I2" s="692" t="s">
         <v>102</v>
@@ -9107,10 +9104,10 @@
         <v>102</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>98</v>
@@ -9125,11 +9122,11 @@
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2" s="172">
         <f>SUM(T4:T16)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="469"/>
@@ -9146,14 +9143,18 @@
       <c r="AB2" s="696"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AI2" s="469">
         <v>1</v>
       </c>
       <c r="AJ2" s="553"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="469"/>
+      <c r="AK2" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AL2" s="469">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="707"/>
@@ -9168,11 +9169,11 @@
         <v>2</v>
       </c>
       <c r="N3" s="80" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q3" s="471">
         <f>SUM(X23:X31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="470"/>
@@ -9181,7 +9182,7 @@
       <c r="AB3" s="696"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF3" s="20"/>
       <c r="AG3" s="24">
@@ -9192,7 +9193,7 @@
       <c r="AI3" s="470"/>
       <c r="AJ3" s="553"/>
       <c r="AK3" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL3" s="24">
         <v>1</v>
@@ -9200,7 +9201,7 @@
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="236" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" s="243"/>
       <c r="C4" s="714" t="s">
@@ -9208,7 +9209,7 @@
       </c>
       <c r="I4" s="693"/>
       <c r="R4" s="471" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T4" s="24">
         <f>IF((R7-SUM(X2:X10)&lt;0),R7-SUM(V2:V10),0)</f>
@@ -9222,7 +9223,7 @@
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG4" s="24">
         <f>IF((AF7-SUM(AI2:AI10)&lt;0),AF7-SUM(AI2:AI10),0)</f>
@@ -9232,7 +9233,7 @@
       <c r="AI4" s="470"/>
       <c r="AJ4" s="553"/>
       <c r="AK4" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AL4" s="24">
         <v>1</v>
@@ -9243,7 +9244,7 @@
         <v>193</v>
       </c>
       <c r="B5" s="100" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C5" s="715"/>
       <c r="D5" s="222" t="s">
@@ -9253,17 +9254,17 @@
         <v>44</v>
       </c>
       <c r="F5" s="206" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" s="598" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H5" s="206" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I5" s="693"/>
       <c r="J5" s="397" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K5" s="168" t="s">
         <v>44</v>
@@ -9272,13 +9273,13 @@
         <v>102</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N5" s="80" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S5" s="471" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T5" s="24">
         <f>IF((S7-SUM(V2:V10))&lt;0,S7-SUM(X2:X10),0)</f>
@@ -9290,16 +9291,20 @@
       <c r="X5" s="468"/>
       <c r="AB5" s="696"/>
       <c r="AC5" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD5" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="468"/>
+      <c r="AH5" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AI5" s="468">
+        <v>1</v>
+      </c>
       <c r="AJ5" s="553"/>
       <c r="AK5" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL5" s="468">
         <v>1</v>
@@ -9307,7 +9312,7 @@
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="703" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
@@ -9320,11 +9325,11 @@
       <c r="G6" s="599"/>
       <c r="I6" s="693"/>
       <c r="P6" s="61" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R6" s="64">
         <f>R7-SUM(X2:X10)+R11</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="64">
         <f>S7+S11-SUM(V2:V10)</f>
@@ -9334,11 +9339,11 @@
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AI2:AI10)+AF11</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="525"/>
@@ -9359,16 +9364,16 @@
       <c r="G7" s="599"/>
       <c r="I7" s="693"/>
       <c r="M7" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>102</v>
       </c>
       <c r="P7" s="99" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q7" s="127" t="s">
         <v>44</v>
@@ -9384,31 +9389,31 @@
       <c r="U7" s="6"/>
       <c r="V7" s="469"/>
       <c r="W7" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X7" s="469">
         <v>1</v>
       </c>
       <c r="AB7" s="696"/>
       <c r="AC7" s="99" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD7" s="127" t="s">
         <v>44</v>
       </c>
       <c r="AE7" s="24">
         <f>8-AE11</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF7" s="295">
         <f>8-AF11</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="6"/>
       <c r="AI7" s="469"/>
       <c r="AJ7" s="553"/>
       <c r="AK7" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AL7" s="24">
         <v>2</v>
@@ -9428,19 +9433,23 @@
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="470"/>
+      <c r="W8" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="X8" s="470">
+        <v>1</v>
+      </c>
       <c r="AB8" s="696"/>
       <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AI8" s="470">
         <v>1</v>
       </c>
       <c r="AJ8" s="553"/>
       <c r="AK8" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AL8" s="469">
         <v>1</v>
@@ -9448,13 +9457,13 @@
     </row>
     <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="231" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C9" s="222" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>141</v>
@@ -9463,13 +9472,17 @@
       <c r="H9" s="6"/>
       <c r="I9" s="693"/>
       <c r="M9" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N9" s="80"/>
       <c r="U9" s="6"/>
       <c r="V9" s="24"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="470"/>
+      <c r="W9" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="X9" s="470">
+        <v>1</v>
+      </c>
       <c r="AB9" s="696"/>
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
@@ -9482,27 +9495,27 @@
     </row>
     <row r="10" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="232" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C10" s="81"/>
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!W8</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="599"/>
       <c r="I10" s="693"/>
       <c r="J10" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K10" s="100" t="s">
         <v>44</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N10" s="80"/>
       <c r="U10" s="6"/>
@@ -9514,14 +9527,14 @@
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AH10" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AI10" s="470">
         <v>1</v>
       </c>
       <c r="AJ10" s="554"/>
       <c r="AK10" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AL10" s="468">
         <v>1</v>
@@ -9532,13 +9545,13 @@
         <v>183</v>
       </c>
       <c r="B11" s="598" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C11" s="171" t="s">
         <v>177</v>
       </c>
       <c r="D11" s="217" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G11" s="599"/>
       <c r="I11" s="693"/>
@@ -9549,14 +9562,14 @@
         <v>0</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P11" s="99" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q11" s="127" t="s">
         <v>44</v>
@@ -9568,27 +9581,27 @@
         <v>3</v>
       </c>
       <c r="U11" s="698" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V11" s="699"/>
       <c r="W11" s="699"/>
       <c r="X11" s="700"/>
       <c r="AB11" s="697"/>
       <c r="AC11" s="99" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AD11" s="127" t="s">
         <v>44</v>
       </c>
       <c r="AE11" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG11" s="414"/>
       <c r="AH11" s="698" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AI11" s="699"/>
       <c r="AJ11" s="699"/>
@@ -9597,7 +9610,7 @@
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B12" s="600"/>
       <c r="E12" s="229">
@@ -9606,17 +9619,17 @@
       <c r="G12" s="599"/>
       <c r="I12" s="693"/>
       <c r="J12" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K12" s="30">
         <v>0</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O12" s="68" t="s">
         <v>44</v>
@@ -9627,10 +9640,10 @@
     </row>
     <row r="13" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="440" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B13" s="216" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C13" s="598" t="s">
         <v>194</v>
@@ -9639,30 +9652,30 @@
       <c r="G13" s="599"/>
       <c r="I13" s="693"/>
       <c r="J13" s="108" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K13" s="100" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N13" s="401" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="112"/>
       <c r="W13" s="6"/>
       <c r="Z13" s="516" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="231" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B14" s="173" t="s">
         <v>149</v>
@@ -9675,11 +9688,11 @@
         <v>2</v>
       </c>
       <c r="F14" s="206" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G14" s="600"/>
       <c r="H14" s="206" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I14" s="693"/>
       <c r="U14" s="67" t="s">
@@ -9692,15 +9705,15 @@
       <c r="X14"/>
       <c r="Z14" s="68">
         <f>SUM(X23:X31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="235" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B15" s="234" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E15" s="34">
         <v>0</v>
@@ -9716,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R15" s="471" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T15" s="24">
         <f>IF((R18-SUM(X16:X21))&lt;0,R18-SUM(X16:X21),0)</f>
@@ -9734,10 +9747,10 @@
     </row>
     <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I16" s="693"/>
       <c r="K16" s="100" t="s">
@@ -9745,11 +9758,11 @@
       </c>
       <c r="L16" s="6"/>
       <c r="S16" s="471" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T16" s="21">
         <f>IF((S18-SUM(V16:V21))&lt;0,S18-SUM(V16:V21),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U16" s="19"/>
       <c r="V16" s="469"/>
@@ -9758,29 +9771,29 @@
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="231" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B17" s="216" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E17" s="30">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I17" s="693"/>
       <c r="L17" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U17" s="19"/>
       <c r="V17" s="24"/>
@@ -9793,7 +9806,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
       <c r="O18" s="690" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P18" s="691"/>
       <c r="Q18" s="127" t="s">
@@ -9815,12 +9828,12 @@
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I19" s="693"/>
       <c r="M19" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U19" s="19"/>
       <c r="V19" s="24"/>
       <c r="W19" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="X19" s="24">
         <v>2</v>
@@ -9828,35 +9841,35 @@
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="231" t="s">
+        <v>539</v>
+      </c>
+      <c r="B20" s="216" t="s">
+        <v>511</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="B20" s="216" t="s">
-        <v>512</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="E20" s="382">
         <v>-1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I20" s="693"/>
       <c r="K20" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P20" s="61" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R20" s="24">
         <f>R18-SUM(X16:X21)+R26</f>
@@ -9864,24 +9877,28 @@
       </c>
       <c r="S20" s="24">
         <f>S18-SUM(V16:V21)+S26</f>
-        <v>5</v>
-      </c>
-      <c r="U20" s="220"/>
-      <c r="V20" s="468"/>
+        <v>4</v>
+      </c>
+      <c r="U20" s="220" t="s">
+        <v>87</v>
+      </c>
+      <c r="V20" s="468">
+        <v>1</v>
+      </c>
       <c r="W20" s="6"/>
       <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I21" s="693"/>
       <c r="M21" s="216" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U21" s="468"/>
       <c r="V21" s="468">
         <v>0</v>
       </c>
       <c r="W21" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="X21" s="468">
         <v>1</v>
@@ -9889,34 +9906,34 @@
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="231" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B22" s="216" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E22" s="345">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I22" s="693"/>
       <c r="P22" s="99" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E23" s="283" t="s">
         <v>44</v>
@@ -9924,14 +9941,14 @@
       <c r="I23" s="693"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U23" s="342"/>
       <c r="V23" s="183">
         <v>1</v>
       </c>
       <c r="W23" s="54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X23" s="24">
         <v>0</v>
@@ -9958,17 +9975,17 @@
         <v>44</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H25" s="191" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I25" s="693"/>
       <c r="J25" s="397" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K25" s="100" t="s">
         <v>44</v>
@@ -9984,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="54" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="X25" s="24">
         <v>0</v>
@@ -9992,16 +10009,16 @@
     </row>
     <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C26" s="439" t="s">
         <v>154</v>
       </c>
       <c r="D26" s="384" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E26" s="438" t="s">
         <v>44</v>
@@ -10009,7 +10026,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I26" s="693"/>
       <c r="K26" s="24">
@@ -10019,7 +10036,7 @@
         <v>98</v>
       </c>
       <c r="M26" s="384" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P26" s="466"/>
       <c r="Q26" s="127" t="s">
@@ -10032,7 +10049,7 @@
         <v>5</v>
       </c>
       <c r="T26" s="61" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U26" s="415"/>
       <c r="V26" s="509">
@@ -10060,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X27" s="24">
         <v>1</v>
@@ -10079,13 +10096,13 @@
       <c r="T28" s="142"/>
       <c r="U28" s="35"/>
       <c r="V28" s="509">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W28" s="54" t="s">
         <v>87</v>
       </c>
       <c r="X28" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10093,27 +10110,27 @@
         <v>135</v>
       </c>
       <c r="H29" s="191" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I29" s="694"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R29" s="467"/>
       <c r="S29" s="112"/>
       <c r="T29" s="80"/>
       <c r="U29" s="514" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V29" s="509">
         <v>1</v>
       </c>
       <c r="W29" s="54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="X29" s="472">
         <v>0</v>
@@ -10121,19 +10138,19 @@
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="233" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U30" s="514" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="V30" s="509">
         <v>1</v>
       </c>
       <c r="W30" s="54" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="X30" s="24">
         <v>0</v>
@@ -10145,7 +10162,7 @@
         <v>1</v>
       </c>
       <c r="W31" s="54" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="X31" s="24">
         <v>0</v>
@@ -10181,8 +10198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10249,19 +10266,19 @@
         <v>0</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I1" s="95" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K1" s="72" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L1" s="579" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>42</v>
@@ -10270,13 +10287,13 @@
         <v>43</v>
       </c>
       <c r="O1" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P1" s="214" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S1" s="151">
         <f ca="1">TODAY()</f>
@@ -10287,7 +10304,7 @@
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
       <c r="X1" s="719" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y1" s="720"/>
       <c r="Z1" s="306">
@@ -10299,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="AB1" s="102" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AC1" s="102"/>
       <c r="AD1" s="302" t="s">
@@ -10311,18 +10328,18 @@
       <c r="AF1" s="722"/>
       <c r="AG1" s="723"/>
       <c r="AH1" s="724" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AI1" s="725"/>
       <c r="AJ1" s="726"/>
       <c r="AK1" s="613" t="s">
+        <v>616</v>
+      </c>
+      <c r="AL1" s="551" t="s">
         <v>617</v>
       </c>
-      <c r="AL1" s="551" t="s">
-        <v>618</v>
-      </c>
       <c r="AM1" s="716" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AN1" s="717"/>
       <c r="AO1" s="718"/>
@@ -10338,7 +10355,7 @@
       </c>
       <c r="J2" s="318">
         <f>K2+L2</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K2" s="743">
         <f>SUM(K4:K37)</f>
@@ -10346,7 +10363,7 @@
       </c>
       <c r="L2" s="741">
         <f>SUM(L4:L37)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M2" s="727">
         <f>SUM(M5:M30)</f>
@@ -10354,95 +10371,95 @@
       </c>
       <c r="N2" s="729">
         <f>SUM(N4:N29)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O2" s="731">
         <f>SUM(O4:O29)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P2" s="637">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-1</v>
       </c>
       <c r="Q2" s="269" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T2" s="736"/>
       <c r="U2" s="537" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V2" s="482" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W2" s="733" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X2" s="483" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y2" s="481" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z2" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA2" s="288" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB2" s="305" t="s">
         <v>439</v>
       </c>
-      <c r="Y2" s="481" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z2" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA2" s="288" t="s">
+      <c r="AC2" s="305" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD2" s="72" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE2" s="257" t="s">
         <v>436</v>
-      </c>
-      <c r="AB2" s="305" t="s">
-        <v>440</v>
-      </c>
-      <c r="AC2" s="305" t="s">
-        <v>562</v>
-      </c>
-      <c r="AD2" s="72" t="s">
-        <v>438</v>
-      </c>
-      <c r="AE2" s="257" t="s">
-        <v>437</v>
       </c>
       <c r="AF2" s="288" t="s">
         <v>98</v>
       </c>
       <c r="AG2" s="288" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AH2" s="288" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AI2" s="288" t="s">
+        <v>287</v>
+      </c>
+      <c r="AJ2" s="150" t="s">
         <v>288</v>
-      </c>
-      <c r="AJ2" s="150" t="s">
-        <v>289</v>
       </c>
       <c r="AK2" s="614"/>
       <c r="AL2" s="592" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM2" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AN2" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AO2" s="150" t="s">
+        <v>445</v>
+      </c>
+      <c r="AP2" s="177" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ2" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="AP2" s="177" t="s">
-        <v>292</v>
-      </c>
-      <c r="AQ2" s="21" t="s">
-        <v>447</v>
-      </c>
       <c r="AR2" s="61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10461,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="159" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T3" s="737"/>
       <c r="U3" s="538">
@@ -10470,16 +10487,16 @@
       </c>
       <c r="V3" s="484">
         <f>SUM(V4:V29)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W3" s="734"/>
       <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y3" s="485">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z3" s="59">
         <f t="shared" si="0"/>
@@ -10487,15 +10504,15 @@
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" ref="AD3:AO3" si="1">SUM(AD4:AD29)</f>
@@ -10503,7 +10520,7 @@
       </c>
       <c r="AE3" s="66">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF3" s="66">
         <f t="shared" si="1"/>
@@ -10515,7 +10532,7 @@
       </c>
       <c r="AH3" s="66">
         <f>SUM(AH4:AH29)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI3" s="374">
         <f t="shared" si="1"/>
@@ -10523,7 +10540,7 @@
       </c>
       <c r="AJ3" s="404">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK3" s="404">
         <f>SUM(AK4:AK37)</f>
@@ -10535,15 +10552,15 @@
       </c>
       <c r="AM3" s="100">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN3" s="310">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO3" s="311">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR3" s="142"/>
     </row>
@@ -10578,15 +10595,15 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="738" t="s">
-        <v>199</v>
+      <c r="P4" s="738">
+        <v>1</v>
       </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S4" s="505" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T4" s="539">
         <v>2</v>
@@ -10645,11 +10662,11 @@
         <v>0</v>
       </c>
       <c r="AP4" s="505" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AQ4" s="561"/>
       <c r="AR4" s="539" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10667,10 +10684,10 @@
       <c r="P5" s="739"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S5" s="534" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T5" s="508">
         <v>2</v>
@@ -10744,7 +10761,7 @@
       <c r="G6" s="199"/>
       <c r="I6" s="112"/>
       <c r="J6" s="572" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K6" s="575"/>
       <c r="L6" s="582">
@@ -10760,10 +10777,10 @@
       </c>
       <c r="P6" s="739"/>
       <c r="Q6" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S6" s="534" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T6" s="508">
         <v>7</v>
@@ -10830,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="AP6" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AQ6" s="562" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AR6" s="508"/>
     </row>
@@ -10862,10 +10879,10 @@
       <c r="P7" s="739"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S7" s="534" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T7" s="508">
         <v>5</v>
@@ -10932,10 +10949,10 @@
         <v>1</v>
       </c>
       <c r="AP7" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AQ7" s="562" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AR7" s="383"/>
     </row>
@@ -10959,7 +10976,7 @@
       <c r="H8" s="271"/>
       <c r="I8" s="117"/>
       <c r="J8" s="572" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K8" s="576">
         <v>1</v>
@@ -10977,13 +10994,13 @@
       </c>
       <c r="P8" s="739"/>
       <c r="Q8" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R8" s="111" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S8" s="535" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T8" s="508">
         <v>0</v>
@@ -10996,7 +11013,7 @@
       </c>
       <c r="W8" s="24">
         <f>V3</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X8" s="497">
         <v>0</v>
@@ -11054,7 +11071,7 @@
     </row>
     <row r="9" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="571" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K9" s="575"/>
       <c r="L9" s="581"/>
@@ -11068,10 +11085,10 @@
       </c>
       <c r="P9" s="739"/>
       <c r="Q9" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S9" s="535" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T9" s="508">
         <v>2</v>
@@ -11154,10 +11171,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J10" s="571" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K10" s="575"/>
       <c r="L10" s="581">
@@ -11174,7 +11191,7 @@
       <c r="P10" s="739"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S10" s="534" t="s">
         <v>73</v>
@@ -11243,15 +11260,15 @@
         <v>73</v>
       </c>
       <c r="AQ10" s="271" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AR10" s="508" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J11" s="571" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K11" s="575"/>
       <c r="L11" s="581"/>
@@ -11265,11 +11282,11 @@
       </c>
       <c r="P11" s="739"/>
       <c r="Q11" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R11" s="16"/>
       <c r="S11" s="534" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T11" s="508">
         <v>2</v>
@@ -11343,10 +11360,10 @@
         <v>-1</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J12" s="571" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K12" s="575"/>
       <c r="L12" s="581">
@@ -11362,11 +11379,11 @@
       </c>
       <c r="P12" s="739"/>
       <c r="Q12" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R12" s="16"/>
       <c r="S12" s="534" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T12" s="508">
         <v>2</v>
@@ -11410,7 +11427,7 @@
       </c>
       <c r="AI12" s="375"/>
       <c r="AJ12" s="509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" s="559"/>
       <c r="AL12" s="317"/>
@@ -11427,13 +11444,13 @@
         <v>1</v>
       </c>
       <c r="AP12" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AQ12" s="562" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AR12" s="509" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11453,10 +11470,10 @@
       </c>
       <c r="H13" s="271"/>
       <c r="I13" s="111" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J13" s="572" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K13" s="576"/>
       <c r="L13" s="582"/>
@@ -11470,11 +11487,11 @@
       </c>
       <c r="P13" s="739"/>
       <c r="Q13" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R13" s="16"/>
       <c r="S13" s="534" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T13" s="508">
         <v>2</v>
@@ -11553,10 +11570,10 @@
       <c r="P14" s="739"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S14" s="534" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T14" s="508">
         <v>1</v>
@@ -11617,13 +11634,13 @@
         <v>0</v>
       </c>
       <c r="AP14" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AQ14" s="564" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AR14" s="508" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11654,10 +11671,10 @@
       <c r="P15" s="739"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S15" s="534" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T15" s="508">
         <v>2</v>
@@ -11716,10 +11733,10 @@
         <v>0</v>
       </c>
       <c r="AP15" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AQ15" s="562" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AR15" s="508"/>
     </row>
@@ -11745,13 +11762,13 @@
       </c>
       <c r="P16" s="739"/>
       <c r="Q16" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S16" s="534" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T16" s="508">
         <v>3</v>
@@ -11812,13 +11829,13 @@
         <v>1</v>
       </c>
       <c r="AP16" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AQ16" s="565" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AR16" s="508" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11832,7 +11849,7 @@
       <c r="H17" s="268"/>
       <c r="I17" s="6"/>
       <c r="J17" s="572" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K17" s="576"/>
       <c r="L17" s="582"/>
@@ -11847,7 +11864,7 @@
       <c r="P17" s="739"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S17" s="534" t="s">
         <v>96</v>
@@ -11912,7 +11929,7 @@
         <v>96</v>
       </c>
       <c r="AQ17" s="566" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AR17" s="508" t="s">
         <v>94</v>
@@ -11932,7 +11949,7 @@
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
       <c r="J18" s="572" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K18" s="576"/>
       <c r="L18" s="582"/>
@@ -11946,11 +11963,11 @@
       </c>
       <c r="P18" s="739"/>
       <c r="Q18" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R18" s="16"/>
       <c r="S18" s="534" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T18" s="508">
         <v>3</v>
@@ -12018,17 +12035,17 @@
       </c>
       <c r="H19" s="268"/>
       <c r="J19" s="572" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K19" s="576">
         <v>2</v>
       </c>
       <c r="L19" s="582">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" s="118"/>
       <c r="N19" s="107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" s="293">
         <f t="shared" si="10"/>
@@ -12037,10 +12054,10 @@
       <c r="P19" s="739"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S19" s="534" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T19" s="508">
         <v>3</v>
@@ -12053,11 +12070,11 @@
         <v>-1</v>
       </c>
       <c r="X19" s="495">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="183">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z19" s="296"/>
       <c r="AA19" s="117">
@@ -12066,7 +12083,7 @@
       </c>
       <c r="AB19" s="290">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC19" s="290">
         <v>1</v>
@@ -12101,13 +12118,13 @@
         <v>1</v>
       </c>
       <c r="AP19" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AQ19" s="271" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AR19" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12125,26 +12142,26 @@
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="80" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J20" s="572" t="s">
         <v>194</v>
       </c>
       <c r="K20" s="576"/>
       <c r="L20" s="582">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="327"/>
       <c r="N20" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="293">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="740"/>
       <c r="Q20" s="603" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R20" s="627"/>
       <c r="S20" s="534" t="s">
@@ -12155,7 +12172,7 @@
       </c>
       <c r="U20" s="503"/>
       <c r="V20" s="492">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W20" s="493">
         <v>-3</v>
@@ -12163,32 +12180,32 @@
       <c r="X20" s="504"/>
       <c r="Y20" s="183">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="296"/>
       <c r="AA20" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="290">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC20" s="290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="290">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE20" s="294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="300"/>
       <c r="AG20" s="296"/>
       <c r="AH20" s="296">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" s="375"/>
       <c r="AJ20" s="509"/>
@@ -12196,24 +12213,24 @@
       <c r="AL20" s="317"/>
       <c r="AM20" s="336">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20" s="308">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" s="309">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20" s="6" t="s">
         <v>87</v>
       </c>
       <c r="AQ20" s="562" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AR20" s="585" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12221,17 +12238,17 @@
         <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="175"/>
       <c r="I21" s="80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J21" s="571" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K21" s="575"/>
       <c r="L21" s="581">
@@ -12247,10 +12264,10 @@
       </c>
       <c r="Q21" s="20"/>
       <c r="R21" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S21" s="534" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T21" s="508">
         <v>2</v>
@@ -12318,13 +12335,13 @@
         <v>83</v>
       </c>
       <c r="AQ21" s="562" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AR21" s="508"/>
     </row>
     <row r="22" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J22" s="571" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K22" s="575"/>
       <c r="L22" s="581"/>
@@ -12337,10 +12354,10 @@
         <v>0</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S22" s="534" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T22" s="508">
         <v>2</v>
@@ -12407,25 +12424,25 @@
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
       <c r="E23" s="682" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F23" s="180"/>
       <c r="H23" s="42"/>
       <c r="I23" s="216"/>
       <c r="J23" s="571" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K23" s="575">
         <v>1</v>
       </c>
       <c r="L23" s="581">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="326">
         <v>0</v>
       </c>
       <c r="N23" s="107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="293">
         <f t="shared" si="10"/>
@@ -12433,7 +12450,7 @@
       </c>
       <c r="Q23" s="20"/>
       <c r="S23" s="534" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T23" s="508">
         <v>2</v>
@@ -12446,11 +12463,11 @@
         <v>-1</v>
       </c>
       <c r="X23" s="529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="183">
         <f>SUM(M23:N23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z23" s="296"/>
       <c r="AA23" s="117">
@@ -12459,7 +12476,7 @@
       </c>
       <c r="AB23" s="290">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC23" s="290">
         <v>1</v>
@@ -12496,24 +12513,24 @@
         <v>1</v>
       </c>
       <c r="AP23" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AQ23" s="562" t="s">
+        <v>565</v>
+      </c>
+      <c r="AR23" s="508" t="s">
         <v>566</v>
-      </c>
-      <c r="AR23" s="508" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E24" s="683"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
       <c r="J24" s="571" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K24" s="575">
         <v>1</v>
@@ -12532,11 +12549,11 @@
         <v>1</v>
       </c>
       <c r="Q24" s="603" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R24" s="627"/>
       <c r="S24" s="534" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T24" s="508">
         <v>4</v>
@@ -12601,26 +12618,26 @@
         <v>1</v>
       </c>
       <c r="AP24" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AQ24" s="568" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AR24" s="508" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H25" s="42"/>
       <c r="I25" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J25" s="571" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K25" s="575"/>
       <c r="L25" s="581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="525">
         <v>0</v>
@@ -12630,13 +12647,13 @@
       </c>
       <c r="O25" s="293">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="86" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S25" s="534" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T25" s="508">
         <v>4</v>
@@ -12660,27 +12677,27 @@
       <c r="Z25" s="296"/>
       <c r="AA25" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="290">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="290">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE25" s="294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" s="300"/>
       <c r="AG25" s="296"/>
       <c r="AH25" s="296">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" s="375"/>
       <c r="AJ25" s="509"/>
@@ -12688,34 +12705,34 @@
       <c r="AL25" s="317"/>
       <c r="AM25" s="336">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" s="308">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25" s="309">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="AQ25" s="562" t="s">
         <v>453</v>
-      </c>
-      <c r="AQ25" s="562" t="s">
-        <v>454</v>
       </c>
       <c r="AR25" s="508"/>
     </row>
     <row r="26" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F26" s="172"/>
       <c r="I26" s="111" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J26" s="571" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K26" s="575">
         <v>1</v>
@@ -12735,10 +12752,10 @@
       </c>
       <c r="Q26" s="20"/>
       <c r="R26" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S26" s="534" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T26" s="508">
         <v>3</v>
@@ -12801,21 +12818,21 @@
         <v>0</v>
       </c>
       <c r="AP26" s="519" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AQ26" s="562" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AR26" s="508"/>
     </row>
     <row r="27" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G27" s="176"/>
       <c r="I27" s="20"/>
       <c r="J27" s="571" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K27" s="575"/>
       <c r="L27" s="581"/>
@@ -12829,10 +12846,10 @@
       </c>
       <c r="Q27" s="20"/>
       <c r="R27" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S27" s="534" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T27" s="508">
         <v>4</v>
@@ -12906,7 +12923,7 @@
       </c>
       <c r="Q28" s="20"/>
       <c r="S28" s="534" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T28" s="508">
         <v>1</v>
@@ -12965,11 +12982,11 @@
     </row>
     <row r="29" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="258" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G29" s="6"/>
       <c r="J29" s="572" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K29" s="578"/>
       <c r="L29" s="582"/>
@@ -12983,10 +13000,10 @@
       </c>
       <c r="Q29" s="20"/>
       <c r="R29" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S29" s="536" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T29" s="540">
         <v>2</v>
@@ -13113,10 +13130,10 @@
       <c r="A31" s="80"/>
       <c r="B31" s="112"/>
       <c r="C31" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F31" s="100">
         <v>-1</v>
@@ -13202,7 +13219,7 @@
       </c>
       <c r="Q32" s="20"/>
       <c r="S32" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T32" s="542">
         <v>5</v>
@@ -13269,23 +13286,25 @@
         <v>0</v>
       </c>
       <c r="AP32" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AQ32" s="562" t="s">
         <v>450</v>
       </c>
-      <c r="AQ32" s="562" t="s">
-        <v>451</v>
-      </c>
       <c r="AR32" s="508" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="80"/>
-      <c r="B33" s="24"/>
+      <c r="B33" s="24">
+        <v>5</v>
+      </c>
       <c r="G33" s="382">
         <v>-1</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J33" s="573"/>
       <c r="K33" s="588"/>
@@ -13302,7 +13321,7 @@
       </c>
       <c r="Q33" s="20"/>
       <c r="S33" s="184" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T33" s="543">
         <v>3</v>
@@ -13369,24 +13388,24 @@
         <v>1</v>
       </c>
       <c r="AP33" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AQ33" s="562" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AR33" s="508" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E34" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" s="571" t="s">
         <v>300</v>
-      </c>
-      <c r="J34" s="571" t="s">
-        <v>301</v>
       </c>
       <c r="K34" s="587">
         <v>0</v>
@@ -13403,10 +13422,10 @@
         <v>0</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S34" s="187" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T34" s="544">
         <v>4</v>
@@ -13469,17 +13488,17 @@
         <v>0</v>
       </c>
       <c r="AP34" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AQ34" s="562" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AR34" s="508"/>
     </row>
     <row r="35" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="23"/>
       <c r="J35" s="571" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K35" s="587"/>
       <c r="L35" s="581">
@@ -13495,7 +13514,7 @@
       </c>
       <c r="Q35" s="20"/>
       <c r="S35" s="153" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T35" s="545">
         <v>2</v>
@@ -13556,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AQ35" s="562"/>
       <c r="AR35" s="508"/>
@@ -13570,7 +13589,7 @@
       </c>
       <c r="I36" s="112"/>
       <c r="J36" s="571" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K36" s="587"/>
       <c r="L36" s="581">
@@ -13586,7 +13605,7 @@
       </c>
       <c r="Q36" s="20"/>
       <c r="S36" s="161" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T36" s="546">
         <v>2</v>
@@ -13647,29 +13666,29 @@
         <v>0</v>
       </c>
       <c r="AP36" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ36" s="567"/>
       <c r="AR36" s="508" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D37" s="382">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H37" s="512">
         <v>-1</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K37" s="589"/>
       <c r="L37" s="583">
@@ -13685,7 +13704,7 @@
       </c>
       <c r="Q37" s="20"/>
       <c r="S37" s="251" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="T37" s="547">
         <v>2</v>
@@ -13750,13 +13769,13 @@
         <v>1</v>
       </c>
       <c r="AP37" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AQ37" s="566" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AR37" s="540" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -13868,10 +13887,10 @@
         <v>190</v>
       </c>
       <c r="AD1" s="752" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AE1" s="116" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13910,7 +13929,7 @@
       </c>
       <c r="S2" s="43"/>
       <c r="T2" s="57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U2" s="60" t="s">
         <v>105</v>
@@ -13944,10 +13963,10 @@
     </row>
     <row r="3" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B3" s="202" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" s="52" t="s">
         <v>44</v>
@@ -13972,11 +13991,11 @@
         <v>44</v>
       </c>
       <c r="P3" s="771" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q3" s="772"/>
       <c r="S3" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V3" s="59" t="s">
         <v>104</v>
@@ -14000,7 +14019,7 @@
         <v>98</v>
       </c>
       <c r="X4" s="67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y4" s="603" t="s">
         <v>194</v>
@@ -14027,18 +14046,18 @@
         <v>75</v>
       </c>
       <c r="K5" s="758" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L5" s="773"/>
       <c r="M5" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N5" s="61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O5" s="790"/>
       <c r="P5" s="108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="48" t="s">
         <v>44</v>
@@ -14053,7 +14072,7 @@
         <v>98</v>
       </c>
       <c r="Y5" s="761" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z5" s="762"/>
       <c r="AD5" s="753"/>
@@ -14109,7 +14128,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="152" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F8" s="66" t="s">
         <v>86</v>
@@ -14129,7 +14148,7 @@
       <c r="O8" s="790"/>
       <c r="P8" s="49"/>
       <c r="S8" s="755" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T8" s="756"/>
       <c r="U8" s="756"/>
@@ -14149,7 +14168,7 @@
       <c r="H9" s="6"/>
       <c r="K9" s="759"/>
       <c r="L9" s="783" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M9" s="784"/>
       <c r="N9" s="785"/>
@@ -14276,7 +14295,7 @@
       </c>
       <c r="AB12" s="764"/>
       <c r="AC12" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AD12" s="753"/>
     </row>
@@ -14287,7 +14306,7 @@
       <c r="L13" s="775"/>
       <c r="M13" s="47"/>
       <c r="Q13" s="782" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R13" s="644"/>
       <c r="S13" s="599"/>
@@ -14304,7 +14323,7 @@
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C14" s="747"/>
       <c r="D14" s="23"/>
@@ -14350,7 +14369,7 @@
         <v>44</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F15" s="66" t="s">
         <v>93</v>
@@ -14365,7 +14384,7 @@
       <c r="K15" s="759"/>
       <c r="L15" s="776"/>
       <c r="Q15" s="782" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R15" s="644"/>
       <c r="S15" s="599"/>
@@ -14464,7 +14483,7 @@
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19" s="781"/>
       <c r="K19" s="760"/>

--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA6D599-D6B5-4A68-A613-5AE09D71D539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C73566-3590-4916-9A82-E7CEBAA6AFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="623">
   <si>
     <t>Zone</t>
   </si>
@@ -7518,7 +7518,7 @@
       <c r="D10" s="142"/>
       <c r="E10" s="237">
         <f>Boat!W8</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="620"/>
       <c r="N10" s="418" t="s">
@@ -8951,8 +8951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="N12" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9118,7 +9118,7 @@
       <c r="Q2" s="702"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
@@ -9126,7 +9126,7 @@
       </c>
       <c r="T2" s="172">
         <f>SUM(T4:T16)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="469"/>
@@ -9173,7 +9173,7 @@
       </c>
       <c r="Q3" s="471">
         <f>SUM(X23:X31)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="470"/>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="R7" s="24">
         <f>3-R11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S7" s="24">
         <f>3-S11</f>
@@ -9504,7 +9504,7 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!W8</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="599"/>
       <c r="I10" s="693"/>
@@ -9575,7 +9575,7 @@
         <v>44</v>
       </c>
       <c r="R11" s="24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S11" s="24">
         <v>3</v>
@@ -9705,7 +9705,7 @@
       <c r="X14"/>
       <c r="Z14" s="68">
         <f>SUM(X23:X31)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9762,7 +9762,7 @@
       </c>
       <c r="T16" s="21">
         <f>IF((S18-SUM(V16:V21))&lt;0,S18-SUM(V16:V21),0)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="19"/>
       <c r="V16" s="469"/>
@@ -9814,16 +9814,20 @@
       </c>
       <c r="R18" s="24">
         <f>5-R26</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18" s="24">
         <f>5-S26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="24"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="24"/>
+      <c r="W18" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="X18" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I19" s="693"/>
@@ -9873,7 +9877,7 @@
       </c>
       <c r="R20" s="24">
         <f>R18-SUM(X16:X21)+R26</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20" s="24">
         <f>S18-SUM(V16:V21)+S26</f>
@@ -9941,7 +9945,7 @@
       <c r="I23" s="693"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U23" s="342"/>
       <c r="V23" s="183">
@@ -9958,13 +9962,13 @@
       <c r="I24" s="693"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W24" s="54" t="s">
         <v>73</v>
       </c>
       <c r="X24" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10043,10 +10047,10 @@
         <v>44</v>
       </c>
       <c r="R26" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S26" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T26" s="61" t="s">
         <v>556</v>
@@ -10198,8 +10202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
+    <sheetView topLeftCell="T18" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10355,7 +10359,7 @@
       </c>
       <c r="J2" s="318">
         <f>K2+L2</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" s="743">
         <f>SUM(K4:K37)</f>
@@ -10363,7 +10367,7 @@
       </c>
       <c r="L2" s="741">
         <f>SUM(L4:L37)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" s="727">
         <f>SUM(M5:M30)</f>
@@ -10371,11 +10375,11 @@
       </c>
       <c r="N2" s="729">
         <f>SUM(N4:N29)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O2" s="731">
         <f>SUM(O4:O29)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P2" s="637">
         <f>SUM(N30:N37)* (-1)</f>
@@ -10483,11 +10487,11 @@
       <c r="T3" s="737"/>
       <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V3" s="484">
         <f>SUM(V4:V29)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W3" s="734"/>
       <c r="X3" s="485">
@@ -10496,7 +10500,7 @@
       </c>
       <c r="Y3" s="485">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z3" s="59">
         <f t="shared" si="0"/>
@@ -10504,15 +10508,15 @@
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" ref="AD3:AO3" si="1">SUM(AD4:AD29)</f>
@@ -10520,7 +10524,7 @@
       </c>
       <c r="AE3" s="66">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF3" s="66">
         <f t="shared" si="1"/>
@@ -10532,7 +10536,7 @@
       </c>
       <c r="AH3" s="66">
         <f>SUM(AH4:AH29)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI3" s="374">
         <f t="shared" si="1"/>
@@ -10552,15 +10556,15 @@
       </c>
       <c r="AM3" s="100">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN3" s="310">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO3" s="311">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR3" s="142"/>
     </row>
@@ -10852,7 +10856,9 @@
       <c r="AQ6" s="562" t="s">
         <v>560</v>
       </c>
-      <c r="AR6" s="508"/>
+      <c r="AR6" s="508" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="7" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="111"/>
@@ -11013,7 +11019,7 @@
       </c>
       <c r="W8" s="24">
         <f>V3</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X8" s="497">
         <v>0</v>
@@ -11178,15 +11184,15 @@
       </c>
       <c r="K10" s="575"/>
       <c r="L10" s="581">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10" s="328"/>
       <c r="N10" s="107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="293">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="739"/>
       <c r="Q10" s="20"/>
@@ -11200,10 +11206,10 @@
         <v>3</v>
       </c>
       <c r="U10" s="503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="492">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10" s="493">
         <v>-2</v>
@@ -11211,32 +11217,32 @@
       <c r="X10" s="496"/>
       <c r="Y10" s="490">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="296"/>
       <c r="AA10" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="290">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC10" s="290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="290">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE10" s="294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="300"/>
       <c r="AG10" s="296"/>
       <c r="AH10" s="296">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="375"/>
       <c r="AJ10" s="509"/>
@@ -11246,15 +11252,15 @@
       <c r="AL10" s="317"/>
       <c r="AM10" s="336">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="308">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="309">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="6" t="s">
         <v>73</v>
@@ -11262,9 +11268,7 @@
       <c r="AQ10" s="271" t="s">
         <v>583</v>
       </c>
-      <c r="AR10" s="508" t="s">
-        <v>619</v>
-      </c>
+      <c r="AR10" s="508"/>
     </row>
     <row r="11" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J11" s="571" t="s">
@@ -13298,7 +13302,7 @@
     <row r="33" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="80"/>
       <c r="B33" s="24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G33" s="382">
         <v>-1</v>
@@ -13675,7 +13679,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" s="382">
         <v>1</v>

--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C73566-3590-4916-9A82-E7CEBAA6AFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3A7134-B7BB-4CEE-A7A8-0E6F0C59FBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -1907,7 +1907,7 @@
     <t>Rbangla</t>
   </si>
   <si>
-    <t>10 F INCapacity</t>
+    <t>2 F INCapacity</t>
   </si>
 </sst>
 </file>
@@ -5871,8 +5871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6055,7 +6055,7 @@
         <v>225</v>
       </c>
       <c r="V5" s="24">
-        <v>7140</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6268,7 +6268,7 @@
         <v>224</v>
       </c>
       <c r="V11" s="64">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8951,7 +8951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N12" workbookViewId="0">
       <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>

--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3A7134-B7BB-4CEE-A7A8-0E6F0C59FBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F3B88-5587-4C69-B74E-29D68FFF2385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="624">
   <si>
     <t>Zone</t>
   </si>
@@ -1908,6 +1908,9 @@
   </si>
   <si>
     <t>2 F INCapacity</t>
+  </si>
+  <si>
+    <t>15F</t>
   </si>
 </sst>
 </file>
@@ -5030,6 +5033,186 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5042,12 +5225,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5059,12 +5236,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -5087,190 +5258,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5312,43 +5354,25 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5417,46 +5441,46 @@
     <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5534,46 +5558,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5871,8 +5874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6742,7 +6745,9 @@
       </c>
       <c r="P26" s="313"/>
       <c r="T26" s="607"/>
-      <c r="V26" s="24"/>
+      <c r="V26" s="24" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="256" t="s">
@@ -6906,7 +6911,7 @@
       <c r="H1" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="613" t="s">
+      <c r="I1" s="659" t="s">
         <v>369</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6942,7 +6947,7 @@
       <c r="X1" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="657" t="s">
+      <c r="Y1" s="653" t="s">
         <v>529</v>
       </c>
       <c r="Z1" s="406">
@@ -6967,7 +6972,7 @@
         <v>498</v>
       </c>
       <c r="AM1" s="402"/>
-      <c r="AN1" s="640"/>
+      <c r="AN1" s="635"/>
       <c r="AO1" s="338" t="s">
         <v>469</v>
       </c>
@@ -6976,23 +6981,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="666">
+      <c r="A2" s="617">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="668" t="s">
+      <c r="B2" s="619" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="645" t="s">
+      <c r="C2" s="615" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="670" t="s">
+      <c r="D2" s="621" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="609" t="s">
+      <c r="E2" s="669" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="619" t="s">
+      <c r="F2" s="640" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="393" t="s">
@@ -7001,31 +7006,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="614"/>
+      <c r="I2" s="660"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="611" t="s">
+      <c r="K2" s="671" t="s">
         <v>342</v>
       </c>
-      <c r="L2" s="612"/>
-      <c r="M2" s="619" t="s">
+      <c r="L2" s="672"/>
+      <c r="M2" s="640" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="649" t="s">
+      <c r="O2" s="644" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="645" t="s">
+      <c r="Q2" s="615" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="598"/>
-      <c r="S2" s="634" t="s">
+      <c r="S2" s="657" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7035,7 +7040,7 @@
       <c r="X2" s="431" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="658"/>
+      <c r="Y2" s="654"/>
       <c r="Z2" s="407">
         <v>1</v>
       </c>
@@ -7058,15 +7063,15 @@
         <v>463</v>
       </c>
       <c r="AM2" s="428"/>
-      <c r="AN2" s="641"/>
+      <c r="AN2" s="636"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="667"/>
-      <c r="B3" s="669"/>
-      <c r="C3" s="646"/>
-      <c r="D3" s="671"/>
-      <c r="E3" s="610"/>
-      <c r="F3" s="620"/>
+      <c r="A3" s="618"/>
+      <c r="B3" s="620"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="622"/>
+      <c r="E3" s="670"/>
+      <c r="F3" s="641"/>
       <c r="G3" s="394" t="s">
         <v>28</v>
       </c>
@@ -7085,17 +7090,17 @@
       <c r="L3" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="620"/>
+      <c r="M3" s="641"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="650"/>
+      <c r="O3" s="645"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="646"/>
+      <c r="Q3" s="616"/>
       <c r="R3" s="600"/>
-      <c r="S3" s="636"/>
+      <c r="S3" s="658"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7103,7 +7108,7 @@
       <c r="X3" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="658"/>
+      <c r="Y3" s="654"/>
       <c r="Z3" s="408">
         <v>1</v>
       </c>
@@ -7112,7 +7117,7 @@
       <c r="AC3" s="100" t="s">
         <v>480</v>
       </c>
-      <c r="AD3" s="631" t="s">
+      <c r="AD3" s="656" t="s">
         <v>455</v>
       </c>
       <c r="AE3" s="257"/>
@@ -7124,16 +7129,16 @@
       <c r="AK3" s="257"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="428"/>
-      <c r="AN3" s="641"/>
+      <c r="AN3" s="636"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="682" t="s">
+      <c r="B4" s="633" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="645" t="s">
+      <c r="C4" s="615" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="347" t="s">
@@ -7142,7 +7147,7 @@
       <c r="E4" s="378">
         <v>2</v>
       </c>
-      <c r="F4" s="620"/>
+      <c r="F4" s="641"/>
       <c r="G4" s="381" t="s">
         <v>201</v>
       </c>
@@ -7159,11 +7164,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="204"/>
-      <c r="M4" s="620"/>
+      <c r="M4" s="641"/>
       <c r="N4" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="650"/>
+      <c r="O4" s="645"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7185,12 +7190,12 @@
       <c r="X4" s="431" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="658"/>
+      <c r="Y4" s="654"/>
       <c r="Z4" s="409"/>
       <c r="AA4" s="307"/>
       <c r="AB4" s="209"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="631"/>
+      <c r="AD4" s="656"/>
       <c r="AE4" s="257"/>
       <c r="AF4" s="257"/>
       <c r="AG4" s="16"/>
@@ -7200,37 +7205,37 @@
       <c r="AK4" s="257"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="428"/>
-      <c r="AN4" s="641"/>
+      <c r="AN4" s="636"/>
       <c r="AO4" s="338" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="613" t="s">
+      <c r="A5" s="659" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="683"/>
-      <c r="C5" s="646"/>
+      <c r="B5" s="634"/>
+      <c r="C5" s="616"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="379">
         <v>1</v>
       </c>
-      <c r="F5" s="620"/>
-      <c r="G5" s="674" t="s">
+      <c r="F5" s="641"/>
+      <c r="G5" s="625" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="674"/>
-      <c r="I5" s="674"/>
-      <c r="J5" s="674"/>
-      <c r="K5" s="674"/>
-      <c r="L5" s="675"/>
-      <c r="M5" s="620"/>
+      <c r="H5" s="625"/>
+      <c r="I5" s="625"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="626"/>
+      <c r="M5" s="641"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="650"/>
+      <c r="O5" s="645"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7238,7 +7243,7 @@
       <c r="X5" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="658"/>
+      <c r="Y5" s="654"/>
       <c r="Z5" s="409">
         <v>1</v>
       </c>
@@ -7261,24 +7266,24 @@
       <c r="AK5" s="257"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="428"/>
-      <c r="AN5" s="641"/>
+      <c r="AN5" s="636"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="614"/>
-      <c r="B6" s="680" t="s">
+      <c r="A6" s="660"/>
+      <c r="B6" s="631" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="629"/>
-      <c r="F6" s="620"/>
-      <c r="G6" s="676"/>
-      <c r="H6" s="676"/>
-      <c r="I6" s="676"/>
-      <c r="J6" s="676"/>
-      <c r="K6" s="676"/>
-      <c r="L6" s="677"/>
-      <c r="M6" s="620"/>
-      <c r="O6" s="650"/>
+      <c r="C6" s="661"/>
+      <c r="D6" s="662"/>
+      <c r="F6" s="641"/>
+      <c r="G6" s="627"/>
+      <c r="H6" s="627"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="627"/>
+      <c r="L6" s="628"/>
+      <c r="M6" s="641"/>
+      <c r="O6" s="645"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7288,7 +7293,7 @@
       <c r="X6" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="658"/>
+      <c r="Y6" s="654"/>
       <c r="Z6" s="407">
         <v>1</v>
       </c>
@@ -7302,16 +7307,16 @@
       <c r="AF6" s="257"/>
       <c r="AG6" s="257"/>
       <c r="AH6" s="257"/>
-      <c r="AI6" s="630"/>
+      <c r="AI6" s="650"/>
       <c r="AJ6" s="441" t="s">
         <v>458</v>
       </c>
-      <c r="AK6" s="630" t="s">
+      <c r="AK6" s="650" t="s">
         <v>251</v>
       </c>
       <c r="AL6" s="257"/>
       <c r="AM6" s="428"/>
-      <c r="AN6" s="641"/>
+      <c r="AN6" s="636"/>
       <c r="AO6" s="338" t="s">
         <v>470</v>
       </c>
@@ -7320,7 +7325,7 @@
       <c r="A7" s="232" t="s">
         <v>572</v>
       </c>
-      <c r="B7" s="681"/>
+      <c r="B7" s="632"/>
       <c r="C7" s="202" t="s">
         <v>374</v>
       </c>
@@ -7330,7 +7335,7 @@
       <c r="E7" s="265">
         <v>3</v>
       </c>
-      <c r="F7" s="620"/>
+      <c r="F7" s="641"/>
       <c r="G7" s="395">
         <v>0</v>
       </c>
@@ -7349,8 +7354,8 @@
       <c r="L7" s="212">
         <v>0</v>
       </c>
-      <c r="M7" s="620"/>
-      <c r="O7" s="650"/>
+      <c r="M7" s="641"/>
+      <c r="O7" s="645"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7364,7 +7369,7 @@
       <c r="X7" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="658"/>
+      <c r="Y7" s="654"/>
       <c r="Z7" s="407">
         <v>1</v>
       </c>
@@ -7374,18 +7379,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
-      <c r="AG7" s="631" t="s">
+      <c r="AG7" s="656" t="s">
         <v>454</v>
       </c>
       <c r="AH7" s="257"/>
-      <c r="AI7" s="630"/>
+      <c r="AI7" s="650"/>
       <c r="AJ7" s="257"/>
-      <c r="AK7" s="630"/>
+      <c r="AK7" s="650"/>
       <c r="AL7" s="80" t="s">
         <v>496</v>
       </c>
       <c r="AM7" s="428"/>
-      <c r="AN7" s="641"/>
+      <c r="AN7" s="636"/>
       <c r="AP7" s="76" t="s">
         <v>471</v>
       </c>
@@ -7402,27 +7407,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="620"/>
-      <c r="G8" s="675">
-        <v>0</v>
-      </c>
-      <c r="H8" s="672" t="s">
+      <c r="F8" s="641"/>
+      <c r="G8" s="626">
+        <v>0</v>
+      </c>
+      <c r="H8" s="623" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="598">
         <v>0</v>
       </c>
-      <c r="J8" s="672" t="s">
+      <c r="J8" s="623" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="678"/>
-      <c r="L8" s="632"/>
-      <c r="M8" s="647"/>
-      <c r="N8" s="637">
+      <c r="K8" s="629"/>
+      <c r="L8" s="663"/>
+      <c r="M8" s="642"/>
+      <c r="N8" s="666">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="650"/>
+      <c r="O8" s="645"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7432,7 +7437,7 @@
       <c r="X8" s="431" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="658"/>
+      <c r="Y8" s="654"/>
       <c r="Z8" s="409"/>
       <c r="AA8" s="307"/>
       <c r="AB8" s="209"/>
@@ -7440,14 +7445,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
-      <c r="AG8" s="631"/>
+      <c r="AG8" s="656"/>
       <c r="AH8" s="257"/>
-      <c r="AI8" s="630"/>
+      <c r="AI8" s="650"/>
       <c r="AJ8" s="257"/>
       <c r="AK8" s="257"/>
       <c r="AL8" s="257"/>
       <c r="AM8" s="428"/>
-      <c r="AN8" s="641"/>
+      <c r="AN8" s="636"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
@@ -7462,17 +7467,17 @@
       <c r="D9" s="348" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="620"/>
-      <c r="G9" s="677"/>
-      <c r="H9" s="673"/>
+      <c r="F9" s="641"/>
+      <c r="G9" s="628"/>
+      <c r="H9" s="624"/>
       <c r="I9" s="600"/>
-      <c r="J9" s="673"/>
-      <c r="K9" s="679"/>
-      <c r="L9" s="633"/>
-      <c r="M9" s="648"/>
-      <c r="N9" s="638"/>
-      <c r="O9" s="651"/>
-      <c r="S9" s="634" t="s">
+      <c r="J9" s="624"/>
+      <c r="K9" s="630"/>
+      <c r="L9" s="664"/>
+      <c r="M9" s="643"/>
+      <c r="N9" s="667"/>
+      <c r="O9" s="646"/>
+      <c r="S9" s="657" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7484,7 +7489,7 @@
       <c r="X9" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="658"/>
+      <c r="Y9" s="654"/>
       <c r="Z9" s="410"/>
       <c r="AA9" s="307"/>
       <c r="AB9" s="209"/>
@@ -7494,16 +7499,16 @@
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
-      <c r="AG9" s="631"/>
+      <c r="AG9" s="656"/>
       <c r="AH9" s="257"/>
-      <c r="AI9" s="630"/>
+      <c r="AI9" s="650"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="630" t="s">
+      <c r="AK9" s="650" t="s">
         <v>251</v>
       </c>
       <c r="AL9" s="257"/>
       <c r="AM9" s="428"/>
-      <c r="AN9" s="641"/>
+      <c r="AN9" s="636"/>
       <c r="AP9" s="2" t="s">
         <v>508</v>
       </c>
@@ -7520,20 +7525,20 @@
         <f>Boat!W8</f>
         <v>39</v>
       </c>
-      <c r="F10" s="620"/>
+      <c r="F10" s="641"/>
       <c r="N10" s="418" t="s">
         <v>396</v>
       </c>
-      <c r="O10" s="622" t="s">
+      <c r="O10" s="678" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="652" t="s">
+      <c r="P10" s="647" t="s">
         <v>400</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="635"/>
+      <c r="S10" s="665"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7545,7 +7550,7 @@
       <c r="X10" s="431" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="658"/>
+      <c r="Y10" s="654"/>
       <c r="Z10" s="409">
         <v>0</v>
       </c>
@@ -7563,16 +7568,16 @@
       <c r="AF10" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="AG10" s="631"/>
+      <c r="AG10" s="656"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="630"/>
+      <c r="AI10" s="650"/>
       <c r="AJ10" s="257"/>
-      <c r="AK10" s="630"/>
+      <c r="AK10" s="650"/>
       <c r="AL10" s="257"/>
       <c r="AM10" s="442" t="s">
         <v>318</v>
       </c>
-      <c r="AN10" s="641"/>
+      <c r="AN10" s="636"/>
       <c r="AO10" s="204" t="s">
         <v>94</v>
       </c>
@@ -7590,18 +7595,18 @@
       <c r="D11" s="170" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="620"/>
+      <c r="F11" s="641"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="623"/>
-      <c r="P11" s="653"/>
+      <c r="O11" s="679"/>
+      <c r="P11" s="648"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="635"/>
+      <c r="S11" s="665"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7611,7 +7616,7 @@
       <c r="X11" s="431" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="658"/>
+      <c r="Y11" s="654"/>
       <c r="Z11" s="409"/>
       <c r="AA11" s="307">
         <v>1</v>
@@ -7625,14 +7630,14 @@
       <c r="AF11" s="257" t="s">
         <v>476</v>
       </c>
-      <c r="AG11" s="631"/>
+      <c r="AG11" s="656"/>
       <c r="AH11" s="257"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="257"/>
       <c r="AK11" s="257"/>
       <c r="AL11" s="257"/>
       <c r="AM11" s="428"/>
-      <c r="AN11" s="641"/>
+      <c r="AN11" s="636"/>
       <c r="AP11" s="76" t="s">
         <v>484</v>
       </c>
@@ -7651,7 +7656,7 @@
       <c r="E12" s="224">
         <v>3</v>
       </c>
-      <c r="F12" s="620"/>
+      <c r="F12" s="641"/>
       <c r="G12" s="337" t="s">
         <v>400</v>
       </c>
@@ -7660,16 +7665,16 @@
       </c>
       <c r="I12" s="605"/>
       <c r="J12" s="605"/>
-      <c r="K12" s="627"/>
+      <c r="K12" s="683"/>
       <c r="L12" s="203"/>
       <c r="M12" s="203"/>
       <c r="N12" s="203"/>
-      <c r="O12" s="623"/>
-      <c r="P12" s="653"/>
+      <c r="O12" s="679"/>
+      <c r="P12" s="648"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="636"/>
+      <c r="S12" s="658"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7679,7 +7684,7 @@
       <c r="X12" s="431" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="658"/>
+      <c r="Y12" s="654"/>
       <c r="Z12" s="407">
         <v>1</v>
       </c>
@@ -7690,16 +7695,16 @@
       <c r="AC12" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD12" s="639" t="s">
+      <c r="AD12" s="668" t="s">
         <v>240</v>
       </c>
       <c r="AE12" s="441" t="s">
         <v>239</v>
       </c>
-      <c r="AF12" s="631" t="s">
+      <c r="AF12" s="656" t="s">
         <v>228</v>
       </c>
-      <c r="AG12" s="631"/>
+      <c r="AG12" s="656"/>
       <c r="AH12" s="238" t="s">
         <v>259</v>
       </c>
@@ -7709,10 +7714,10 @@
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
-      <c r="AM12" s="655" t="s">
+      <c r="AM12" s="651" t="s">
         <v>249</v>
       </c>
-      <c r="AN12" s="641"/>
+      <c r="AN12" s="636"/>
       <c r="AO12" s="338" t="s">
         <v>96</v>
       </c>
@@ -7724,17 +7729,17 @@
       <c r="E13" s="448">
         <v>-3</v>
       </c>
-      <c r="F13" s="620"/>
+      <c r="F13" s="641"/>
       <c r="G13" s="605" t="s">
         <v>430</v>
       </c>
       <c r="H13" s="605"/>
       <c r="I13" s="605"/>
-      <c r="J13" s="627"/>
+      <c r="J13" s="683"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="623"/>
-      <c r="P13" s="654"/>
+      <c r="O13" s="679"/>
+      <c r="P13" s="649"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7744,7 +7749,7 @@
       <c r="X13" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="658"/>
+      <c r="Y13" s="654"/>
       <c r="Z13" s="407">
         <v>1</v>
       </c>
@@ -7755,8 +7760,8 @@
         <v>500</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="639"/>
-      <c r="AF13" s="631"/>
+      <c r="AD13" s="668"/>
+      <c r="AF13" s="656"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
         <v>308</v>
@@ -7767,8 +7772,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
       <c r="AL13" s="257"/>
-      <c r="AM13" s="655"/>
-      <c r="AN13" s="641"/>
+      <c r="AM13" s="651"/>
+      <c r="AN13" s="636"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="450"/>
@@ -7776,18 +7781,18 @@
       <c r="C14" s="459"/>
       <c r="D14" s="452"/>
       <c r="E14" s="453"/>
-      <c r="F14" s="620"/>
+      <c r="F14" s="641"/>
       <c r="G14" s="605" t="s">
         <v>429</v>
       </c>
       <c r="H14" s="605"/>
       <c r="I14" s="605"/>
-      <c r="J14" s="627"/>
+      <c r="J14" s="683"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="623"/>
+      <c r="O14" s="679"/>
       <c r="Q14" s="61" t="s">
         <v>533</v>
       </c>
@@ -7801,24 +7806,24 @@
       <c r="X14" s="431" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="658"/>
+      <c r="Y14" s="654"/>
       <c r="Z14" s="407">
         <v>1</v>
       </c>
       <c r="AA14" s="307"/>
       <c r="AB14" s="209"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="639"/>
+      <c r="AD14" s="668"/>
       <c r="AE14" s="257"/>
-      <c r="AF14" s="631"/>
+      <c r="AF14" s="656"/>
       <c r="AG14" s="257"/>
       <c r="AH14" s="257"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="257"/>
       <c r="AK14" s="257"/>
       <c r="AL14" s="257"/>
-      <c r="AM14" s="655"/>
-      <c r="AN14" s="641"/>
+      <c r="AM14" s="651"/>
+      <c r="AN14" s="636"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="449" t="s">
@@ -7827,8 +7832,8 @@
       <c r="C15" s="598" t="s">
         <v>373</v>
       </c>
-      <c r="F15" s="620"/>
-      <c r="O15" s="623"/>
+      <c r="F15" s="641"/>
+      <c r="O15" s="679"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7841,7 +7846,7 @@
       <c r="X15" s="431" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="658"/>
+      <c r="Y15" s="654"/>
       <c r="Z15" s="409">
         <v>1</v>
       </c>
@@ -7850,8 +7855,8 @@
       <c r="AC15" s="76" t="s">
         <v>479</v>
       </c>
-      <c r="AD15" s="639"/>
-      <c r="AF15" s="631"/>
+      <c r="AD15" s="668"/>
+      <c r="AF15" s="656"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
         <v>448</v>
@@ -7864,8 +7869,8 @@
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
-      <c r="AM15" s="655"/>
-      <c r="AN15" s="641"/>
+      <c r="AM15" s="651"/>
+      <c r="AN15" s="636"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7887,13 +7892,13 @@
       <c r="E16" s="224">
         <v>1</v>
       </c>
-      <c r="F16" s="620"/>
+      <c r="F16" s="641"/>
       <c r="G16" s="337" t="s">
         <v>488</v>
       </c>
       <c r="I16" s="469"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="623"/>
+      <c r="O16" s="679"/>
       <c r="R16" s="435" t="s">
         <v>184</v>
       </c>
@@ -7904,7 +7909,7 @@
       <c r="X16" s="431" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="658"/>
+      <c r="Y16" s="654"/>
       <c r="Z16" s="407">
         <v>1</v>
       </c>
@@ -7925,18 +7930,18 @@
       <c r="AM16" s="428" t="s">
         <v>317</v>
       </c>
-      <c r="AN16" s="641"/>
+      <c r="AN16" s="636"/>
       <c r="AP16" s="76" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="620"/>
+      <c r="F17" s="641"/>
       <c r="I17" s="470"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="623"/>
+      <c r="O17" s="679"/>
       <c r="Q17" s="21" t="s">
         <v>531</v>
       </c>
@@ -7956,7 +7961,7 @@
       <c r="X17" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="658"/>
+      <c r="Y17" s="654"/>
       <c r="Z17" s="409"/>
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
@@ -7981,7 +7986,7 @@
       <c r="AK17" s="257"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="428"/>
-      <c r="AN17" s="641"/>
+      <c r="AN17" s="636"/>
       <c r="AO17" s="204" t="s">
         <v>497</v>
       </c>
@@ -8005,21 +8010,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="620"/>
+      <c r="F18" s="641"/>
       <c r="G18" s="337" t="s">
         <v>528</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="623"/>
+      <c r="O18" s="679"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="615" t="s">
+      <c r="R18" s="673" t="s">
         <v>536</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="663" t="s">
+      <c r="U18" s="612" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8029,7 +8034,7 @@
       <c r="X18" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="658"/>
+      <c r="Y18" s="654"/>
       <c r="Z18" s="409">
         <v>1</v>
       </c>
@@ -8040,38 +8045,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
-      <c r="AF18" s="630" t="s">
+      <c r="AF18" s="650" t="s">
         <v>475</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="656" t="s">
+      <c r="AJ18" s="652" t="s">
         <v>315</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="428"/>
-      <c r="AN18" s="641"/>
+      <c r="AN18" s="636"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="620"/>
+      <c r="F19" s="641"/>
       <c r="I19" s="219"/>
-      <c r="O19" s="623"/>
-      <c r="R19" s="616"/>
+      <c r="O19" s="679"/>
+      <c r="R19" s="674"/>
       <c r="S19" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="U19" s="664"/>
+      <c r="U19" s="613"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="431" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="658"/>
+      <c r="Y19" s="654"/>
       <c r="Z19" s="407">
         <v>1</v>
       </c>
@@ -8080,17 +8085,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="257"/>
-      <c r="AF19" s="630"/>
+      <c r="AF19" s="650"/>
       <c r="AG19" s="257"/>
       <c r="AH19" s="257"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="656"/>
+      <c r="AJ19" s="652"/>
       <c r="AK19" s="460" t="s">
         <v>251</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="428"/>
-      <c r="AN19" s="641"/>
+      <c r="AN19" s="636"/>
       <c r="AP19" s="76" t="s">
         <v>468</v>
       </c>
@@ -8111,24 +8116,24 @@
       <c r="E20" s="437">
         <v>-1</v>
       </c>
-      <c r="F20" s="620"/>
+      <c r="F20" s="641"/>
       <c r="G20" s="337" t="s">
         <v>491</v>
       </c>
       <c r="I20" s="219"/>
-      <c r="O20" s="623"/>
-      <c r="Q20" s="625" t="s">
+      <c r="O20" s="679"/>
+      <c r="Q20" s="681" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="665"/>
+      <c r="U20" s="614"/>
       <c r="W20" s="405"/>
       <c r="X20" s="432" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="658"/>
+      <c r="Y20" s="654"/>
       <c r="Z20" s="411">
         <v>1</v>
       </c>
@@ -8153,7 +8158,7 @@
       <c r="AM20" s="381" t="s">
         <v>249</v>
       </c>
-      <c r="AN20" s="641"/>
+      <c r="AN20" s="636"/>
       <c r="AO20" s="338" t="s">
         <v>460</v>
       </c>
@@ -8174,20 +8179,20 @@
       <c r="E21" s="265">
         <v>0</v>
       </c>
-      <c r="F21" s="620"/>
+      <c r="F21" s="641"/>
       <c r="I21" s="219"/>
-      <c r="O21" s="623"/>
-      <c r="Q21" s="626"/>
+      <c r="O21" s="679"/>
+      <c r="Q21" s="682"/>
       <c r="T21" s="422"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="660"/>
+      <c r="V21" s="609"/>
       <c r="W21" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="429" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="658"/>
+      <c r="Y21" s="654"/>
       <c r="Z21" s="445">
         <v>3</v>
       </c>
@@ -8218,15 +8223,15 @@
       <c r="AM21" s="428" t="s">
         <v>545</v>
       </c>
-      <c r="AN21" s="641"/>
+      <c r="AN21" s="636"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="620"/>
+      <c r="F22" s="641"/>
       <c r="G22" s="337" t="s">
         <v>489</v>
       </c>
       <c r="I22" s="219"/>
-      <c r="O22" s="623"/>
+      <c r="O22" s="679"/>
       <c r="R22" s="434" t="s">
         <v>44</v>
       </c>
@@ -8234,14 +8239,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="661"/>
+      <c r="V22" s="610"/>
       <c r="W22" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="429" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="658"/>
+      <c r="Y22" s="654"/>
       <c r="Z22" s="415"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="415"/>
@@ -8252,7 +8257,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="630" t="s">
+      <c r="AJ22" s="650" t="s">
         <v>472</v>
       </c>
       <c r="AK22" s="257"/>
@@ -8260,7 +8265,7 @@
         <v>478</v>
       </c>
       <c r="AM22" s="300"/>
-      <c r="AN22" s="641"/>
+      <c r="AN22" s="636"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
@@ -8278,22 +8283,22 @@
       <c r="E23" s="225">
         <v>1</v>
       </c>
-      <c r="F23" s="620"/>
+      <c r="F23" s="641"/>
       <c r="I23" s="219"/>
-      <c r="O23" s="623"/>
-      <c r="Q23" s="625" t="s">
+      <c r="O23" s="679"/>
+      <c r="Q23" s="681" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="661"/>
+      <c r="V23" s="610"/>
       <c r="W23" s="148"/>
       <c r="X23" s="429" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="658"/>
+      <c r="Y23" s="654"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="415"/>
@@ -8304,13 +8309,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="630"/>
+      <c r="AJ23" s="650"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
         <v>507</v>
       </c>
       <c r="AM23" s="300"/>
-      <c r="AN23" s="641"/>
+      <c r="AN23" s="636"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="440" t="s">
@@ -8328,23 +8333,23 @@
       <c r="E24" s="436">
         <v>1</v>
       </c>
-      <c r="F24" s="620"/>
+      <c r="F24" s="641"/>
       <c r="G24" s="61" t="s">
         <v>490</v>
       </c>
       <c r="I24" s="219"/>
-      <c r="O24" s="623"/>
-      <c r="Q24" s="626"/>
+      <c r="O24" s="679"/>
+      <c r="Q24" s="682"/>
       <c r="T24" s="17"/>
       <c r="U24" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="661"/>
+      <c r="V24" s="610"/>
       <c r="W24" s="148"/>
       <c r="X24" s="429" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="658"/>
+      <c r="Y24" s="654"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="415"/>
@@ -8363,12 +8368,12 @@
         <v>463</v>
       </c>
       <c r="AM24" s="300"/>
-      <c r="AN24" s="641"/>
+      <c r="AN24" s="636"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="620"/>
+      <c r="F25" s="641"/>
       <c r="I25" s="219"/>
-      <c r="O25" s="623"/>
+      <c r="O25" s="679"/>
       <c r="P25" s="204" t="s">
         <v>280</v>
       </c>
@@ -8381,12 +8386,12 @@
       <c r="U25" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="662"/>
+      <c r="V25" s="611"/>
       <c r="W25" s="148"/>
       <c r="X25" s="429" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="658"/>
+      <c r="Y25" s="654"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="415"/>
@@ -8403,7 +8408,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="300"/>
-      <c r="AN25" s="641"/>
+      <c r="AN25" s="636"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
@@ -8421,17 +8426,17 @@
       <c r="E26" s="380">
         <v>1</v>
       </c>
-      <c r="F26" s="620"/>
+      <c r="F26" s="641"/>
       <c r="G26" s="337" t="s">
         <v>487</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="O26" s="623"/>
-      <c r="P26" s="643" t="s">
+      <c r="O26" s="679"/>
+      <c r="P26" s="638" t="s">
         <v>526</v>
       </c>
-      <c r="Q26" s="644"/>
-      <c r="R26" s="617" t="s">
+      <c r="Q26" s="639"/>
+      <c r="R26" s="675" t="s">
         <v>535</v>
       </c>
       <c r="T26" s="178"/>
@@ -8443,7 +8448,7 @@
       <c r="X26" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="658"/>
+      <c r="Y26" s="654"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="415"/>
@@ -8470,7 +8475,7 @@
       <c r="AM26" s="442" t="s">
         <v>456</v>
       </c>
-      <c r="AN26" s="641"/>
+      <c r="AN26" s="636"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8482,13 +8487,13 @@
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="621"/>
+      <c r="F27" s="677"/>
       <c r="G27" s="61" t="s">
         <v>544</v>
       </c>
       <c r="I27" s="220"/>
-      <c r="O27" s="624"/>
-      <c r="R27" s="618"/>
+      <c r="O27" s="680"/>
+      <c r="R27" s="676"/>
       <c r="S27" s="421" t="s">
         <v>54</v>
       </c>
@@ -8501,7 +8506,7 @@
       <c r="X27" s="429" t="s">
         <v>530</v>
       </c>
-      <c r="Y27" s="659"/>
+      <c r="Y27" s="655"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="416"/>
@@ -8518,10 +8523,48 @@
       <c r="AM27" s="381" t="s">
         <v>319</v>
       </c>
-      <c r="AN27" s="642"/>
+      <c r="AN27" s="637"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8538,44 +8581,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8612,12 +8617,12 @@
       <c r="B1" s="603" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="627"/>
+      <c r="C1" s="683"/>
       <c r="D1" s="204"/>
       <c r="J1" s="603" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="627"/>
+      <c r="K1" s="683"/>
       <c r="L1" s="195" t="s">
         <v>330</v>
       </c>
@@ -8951,7 +8956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="N12" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
@@ -9020,7 +9025,7 @@
       <c r="P1" s="398" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" s="701" t="s">
+      <c r="Q1" s="714" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9044,7 +9049,7 @@
       <c r="AA1" s="517" t="s">
         <v>437</v>
       </c>
-      <c r="AB1" s="695" t="s">
+      <c r="AB1" s="708" t="s">
         <v>594</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9066,32 +9071,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="706">
+      <c r="A2" s="693">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="708" t="s">
+      <c r="B2" s="695" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="645" t="s">
+      <c r="C2" s="615" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="710" t="s">
+      <c r="D2" s="697" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="712" t="s">
+      <c r="E2" s="699" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
         <v>218</v>
       </c>
-      <c r="G2" s="613" t="s">
+      <c r="G2" s="659" t="s">
         <v>372</v>
       </c>
       <c r="H2" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I2" s="692" t="s">
+      <c r="I2" s="705" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="396" t="s">
@@ -9115,7 +9120,7 @@
       <c r="P2" s="399">
         <v>40</v>
       </c>
-      <c r="Q2" s="702"/>
+      <c r="Q2" s="715"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>4</v>
@@ -9140,7 +9145,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="696"/>
+      <c r="AB2" s="709"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>344</v>
@@ -9157,14 +9162,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="707"/>
-      <c r="B3" s="709"/>
-      <c r="C3" s="646"/>
-      <c r="D3" s="711"/>
-      <c r="E3" s="713"/>
-      <c r="G3" s="614"/>
+      <c r="A3" s="694"/>
+      <c r="B3" s="696"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="698"/>
+      <c r="E3" s="700"/>
+      <c r="G3" s="660"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="693"/>
+      <c r="I3" s="706"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9179,7 +9184,7 @@
       <c r="V3" s="470"/>
       <c r="W3" s="6"/>
       <c r="X3" s="470"/>
-      <c r="AB3" s="696"/>
+      <c r="AB3" s="709"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>589</v>
@@ -9204,10 +9209,10 @@
         <v>380</v>
       </c>
       <c r="B4" s="243"/>
-      <c r="C4" s="714" t="s">
+      <c r="C4" s="701" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="706"/>
       <c r="R4" s="471" t="s">
         <v>589</v>
       </c>
@@ -9219,7 +9224,7 @@
       <c r="V4" s="470"/>
       <c r="W4" s="6"/>
       <c r="X4" s="470"/>
-      <c r="AB4" s="696"/>
+      <c r="AB4" s="709"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9246,7 +9251,7 @@
       <c r="B5" s="100" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="715"/>
+      <c r="C5" s="702"/>
       <c r="D5" s="222" t="s">
         <v>102</v>
       </c>
@@ -9262,7 +9267,7 @@
       <c r="H5" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="693"/>
+      <c r="I5" s="706"/>
       <c r="J5" s="397" t="s">
         <v>268</v>
       </c>
@@ -9289,7 +9294,7 @@
       <c r="V5" s="468"/>
       <c r="W5" s="6"/>
       <c r="X5" s="468"/>
-      <c r="AB5" s="696"/>
+      <c r="AB5" s="709"/>
       <c r="AC5" s="2" t="s">
         <v>592</v>
       </c>
@@ -9311,19 +9316,19 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="703" t="s">
+      <c r="A6" s="690" t="s">
         <v>285</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="629"/>
+      <c r="C6" s="661"/>
+      <c r="D6" s="662"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="599"/>
-      <c r="I6" s="693"/>
+      <c r="I6" s="706"/>
       <c r="P6" s="61" t="s">
         <v>592</v>
       </c>
@@ -9335,7 +9340,7 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="696"/>
+      <c r="AB6" s="709"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9351,7 +9356,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="704"/>
+      <c r="A7" s="691"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9362,7 +9367,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="599"/>
-      <c r="I7" s="693"/>
+      <c r="I7" s="706"/>
       <c r="M7" s="16" t="s">
         <v>347</v>
       </c>
@@ -9394,7 +9399,7 @@
       <c r="X7" s="469">
         <v>1</v>
       </c>
-      <c r="AB7" s="696"/>
+      <c r="AB7" s="709"/>
       <c r="AC7" s="99" t="s">
         <v>593</v>
       </c>
@@ -9420,7 +9425,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="705"/>
+      <c r="A8" s="692"/>
       <c r="B8" s="212" t="s">
         <v>28</v>
       </c>
@@ -9429,7 +9434,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="599"/>
-      <c r="I8" s="693"/>
+      <c r="I8" s="706"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
@@ -9439,7 +9444,7 @@
       <c r="X8" s="470">
         <v>1</v>
       </c>
-      <c r="AB8" s="696"/>
+      <c r="AB8" s="709"/>
       <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
         <v>612</v>
@@ -9470,7 +9475,7 @@
       </c>
       <c r="G9" s="599"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="693"/>
+      <c r="I9" s="706"/>
       <c r="M9" s="19" t="s">
         <v>525</v>
       </c>
@@ -9483,7 +9488,7 @@
       <c r="X9" s="470">
         <v>1</v>
       </c>
-      <c r="AB9" s="696"/>
+      <c r="AB9" s="709"/>
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9507,7 +9512,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="599"/>
-      <c r="I10" s="693"/>
+      <c r="I10" s="706"/>
       <c r="J10" s="24" t="s">
         <v>372</v>
       </c>
@@ -9522,7 +9527,7 @@
       <c r="V10" s="470"/>
       <c r="W10" s="6"/>
       <c r="X10" s="470"/>
-      <c r="AB10" s="696"/>
+      <c r="AB10" s="709"/>
       <c r="AC10" s="515"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9554,7 +9559,7 @@
         <v>265</v>
       </c>
       <c r="G11" s="599"/>
-      <c r="I11" s="693"/>
+      <c r="I11" s="706"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9580,13 +9585,13 @@
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="698" t="s">
+      <c r="U11" s="711" t="s">
         <v>558</v>
       </c>
-      <c r="V11" s="699"/>
-      <c r="W11" s="699"/>
-      <c r="X11" s="700"/>
-      <c r="AB11" s="697"/>
+      <c r="V11" s="712"/>
+      <c r="W11" s="712"/>
+      <c r="X11" s="713"/>
+      <c r="AB11" s="710"/>
       <c r="AC11" s="99" t="s">
         <v>595</v>
       </c>
@@ -9600,13 +9605,13 @@
         <v>4</v>
       </c>
       <c r="AG11" s="414"/>
-      <c r="AH11" s="698" t="s">
+      <c r="AH11" s="711" t="s">
         <v>603</v>
       </c>
-      <c r="AI11" s="699"/>
-      <c r="AJ11" s="699"/>
-      <c r="AK11" s="699"/>
-      <c r="AL11" s="700"/>
+      <c r="AI11" s="712"/>
+      <c r="AJ11" s="712"/>
+      <c r="AK11" s="712"/>
+      <c r="AL11" s="713"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
@@ -9617,7 +9622,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="599"/>
-      <c r="I12" s="693"/>
+      <c r="I12" s="706"/>
       <c r="J12" s="24" t="s">
         <v>516</v>
       </c>
@@ -9650,7 +9655,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="599"/>
-      <c r="I13" s="693"/>
+      <c r="I13" s="706"/>
       <c r="J13" s="108" t="s">
         <v>548</v>
       </c>
@@ -9694,7 +9699,7 @@
       <c r="H14" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="693"/>
+      <c r="I14" s="706"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9721,7 +9726,7 @@
       <c r="H15" s="271">
         <v>0</v>
       </c>
-      <c r="I15" s="693"/>
+      <c r="I15" s="706"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9752,7 +9757,7 @@
       <c r="D16" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I16" s="693"/>
+      <c r="I16" s="706"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9788,7 +9793,7 @@
       <c r="G17" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I17" s="693"/>
+      <c r="I17" s="706"/>
       <c r="L17" s="2" t="s">
         <v>426</v>
       </c>
@@ -9802,13 +9807,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="693"/>
+      <c r="I18" s="706"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="690" t="s">
+      <c r="O18" s="703" t="s">
         <v>517</v>
       </c>
-      <c r="P18" s="691"/>
+      <c r="P18" s="704"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9830,7 +9835,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="693"/>
+      <c r="I19" s="706"/>
       <c r="M19" s="21" t="s">
         <v>425</v>
       </c>
@@ -9862,7 +9867,7 @@
       <c r="G20" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I20" s="693"/>
+      <c r="I20" s="706"/>
       <c r="K20" s="19" t="s">
         <v>422</v>
       </c>
@@ -9893,7 +9898,7 @@
       <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="693"/>
+      <c r="I21" s="706"/>
       <c r="M21" s="216" t="s">
         <v>411</v>
       </c>
@@ -9927,7 +9932,7 @@
       <c r="G22" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I22" s="693"/>
+      <c r="I22" s="706"/>
       <c r="P22" s="99" t="s">
         <v>591</v>
       </c>
@@ -9942,7 +9947,7 @@
       <c r="E23" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="693"/>
+      <c r="I23" s="706"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>6</v>
@@ -9959,7 +9964,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="693"/>
+      <c r="I24" s="706"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
         <v>0</v>
@@ -9987,7 +9992,7 @@
       <c r="H25" s="191" t="s">
         <v>266</v>
       </c>
-      <c r="I25" s="693"/>
+      <c r="I25" s="706"/>
       <c r="J25" s="397" t="s">
         <v>269</v>
       </c>
@@ -10032,7 +10037,7 @@
       <c r="H26" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="693"/>
+      <c r="I26" s="706"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10067,7 +10072,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="693"/>
+      <c r="I27" s="706"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10094,7 +10099,7 @@
       <c r="E28" s="215">
         <v>2</v>
       </c>
-      <c r="I28" s="693"/>
+      <c r="I28" s="706"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10116,7 +10121,7 @@
       <c r="H29" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="I29" s="694"/>
+      <c r="I29" s="707"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
         <v>273</v>
@@ -10174,6 +10179,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10185,13 +10197,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10202,8 +10207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView topLeftCell="T18" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10303,14 +10308,14 @@
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="T1" s="735"/>
+      <c r="T1" s="742"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="719" t="s">
+      <c r="X1" s="726" t="s">
         <v>441</v>
       </c>
-      <c r="Y1" s="720"/>
+      <c r="Y1" s="727"/>
       <c r="Z1" s="306">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10326,27 +10331,27 @@
       <c r="AD1" s="302" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="721" t="s">
+      <c r="AE1" s="728" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="722"/>
-      <c r="AG1" s="723"/>
-      <c r="AH1" s="724" t="s">
+      <c r="AF1" s="729"/>
+      <c r="AG1" s="730"/>
+      <c r="AH1" s="731" t="s">
         <v>293</v>
       </c>
-      <c r="AI1" s="725"/>
-      <c r="AJ1" s="726"/>
-      <c r="AK1" s="613" t="s">
+      <c r="AI1" s="732"/>
+      <c r="AJ1" s="733"/>
+      <c r="AK1" s="659" t="s">
         <v>616</v>
       </c>
       <c r="AL1" s="551" t="s">
         <v>617</v>
       </c>
-      <c r="AM1" s="716" t="s">
+      <c r="AM1" s="723" t="s">
         <v>444</v>
       </c>
-      <c r="AN1" s="717"/>
-      <c r="AO1" s="718"/>
+      <c r="AN1" s="724"/>
+      <c r="AO1" s="725"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10361,27 +10366,27 @@
         <f>K2+L2</f>
         <v>25</v>
       </c>
-      <c r="K2" s="743">
+      <c r="K2" s="721">
         <f>SUM(K4:K37)</f>
         <v>6</v>
       </c>
-      <c r="L2" s="741">
+      <c r="L2" s="719">
         <f>SUM(L4:L37)</f>
         <v>19</v>
       </c>
-      <c r="M2" s="727">
+      <c r="M2" s="734">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="729">
+      <c r="N2" s="736">
         <f>SUM(N4:N29)</f>
         <v>9</v>
       </c>
-      <c r="O2" s="731">
+      <c r="O2" s="738">
         <f>SUM(O4:O29)</f>
         <v>9</v>
       </c>
-      <c r="P2" s="637">
+      <c r="P2" s="666">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-1</v>
       </c>
@@ -10394,14 +10399,14 @@
       <c r="S2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="T2" s="736"/>
+      <c r="T2" s="743"/>
       <c r="U2" s="537" t="s">
         <v>262</v>
       </c>
       <c r="V2" s="482" t="s">
         <v>219</v>
       </c>
-      <c r="W2" s="733" t="s">
+      <c r="W2" s="740" t="s">
         <v>234</v>
       </c>
       <c r="X2" s="483" t="s">
@@ -10443,7 +10448,7 @@
       <c r="AJ2" s="150" t="s">
         <v>288</v>
       </c>
-      <c r="AK2" s="614"/>
+      <c r="AK2" s="660"/>
       <c r="AL2" s="592" t="s">
         <v>288</v>
       </c>
@@ -10471,12 +10476,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="744"/>
-      <c r="L3" s="742"/>
-      <c r="M3" s="728"/>
-      <c r="N3" s="730"/>
-      <c r="O3" s="732"/>
-      <c r="P3" s="638"/>
+      <c r="K3" s="722"/>
+      <c r="L3" s="720"/>
+      <c r="M3" s="735"/>
+      <c r="N3" s="737"/>
+      <c r="O3" s="739"/>
+      <c r="P3" s="667"/>
       <c r="Q3" s="172">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10484,7 +10489,7 @@
       <c r="S3" s="159" t="s">
         <v>244</v>
       </c>
-      <c r="T3" s="737"/>
+      <c r="T3" s="744"/>
       <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
         <v>12</v>
@@ -10493,7 +10498,7 @@
         <f>SUM(V4:V29)</f>
         <v>39</v>
       </c>
-      <c r="W3" s="734"/>
+      <c r="W3" s="741"/>
       <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>8</v>
@@ -10599,7 +10604,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="738">
+      <c r="P4" s="716">
         <v>1</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10685,7 +10690,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="739"/>
+      <c r="P5" s="717"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>340</v>
@@ -10779,7 +10784,7 @@
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="739"/>
+      <c r="P6" s="717"/>
       <c r="Q6" s="19" t="s">
         <v>335</v>
       </c>
@@ -10882,7 +10887,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="739"/>
+      <c r="P7" s="717"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>335</v>
@@ -10998,7 +11003,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="739"/>
+      <c r="P8" s="717"/>
       <c r="Q8" s="21" t="s">
         <v>233</v>
       </c>
@@ -11089,7 +11094,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="739"/>
+      <c r="P9" s="717"/>
       <c r="Q9" s="21" t="s">
         <v>335</v>
       </c>
@@ -11194,7 +11199,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="739"/>
+      <c r="P10" s="717"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>340</v>
@@ -11284,7 +11289,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="739"/>
+      <c r="P11" s="717"/>
       <c r="Q11" s="21" t="s">
         <v>335</v>
       </c>
@@ -11349,14 +11354,14 @@
       <c r="AR11" s="508"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="675" t="s">
+      <c r="A12" s="626" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="625" t="s">
+      <c r="E12" s="681" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="262"/>
@@ -11381,7 +11386,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="739"/>
+      <c r="P12" s="717"/>
       <c r="Q12" s="21" t="s">
         <v>335</v>
       </c>
@@ -11458,14 +11463,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="677"/>
+      <c r="A13" s="628"/>
       <c r="B13" s="584">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="626"/>
+      <c r="E13" s="682"/>
       <c r="F13" s="172">
         <v>0</v>
       </c>
@@ -11489,7 +11494,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="739"/>
+      <c r="P13" s="717"/>
       <c r="Q13" s="21" t="s">
         <v>335</v>
       </c>
@@ -11571,7 +11576,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="739"/>
+      <c r="P14" s="717"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
         <v>339</v>
@@ -11672,7 +11677,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="739"/>
+      <c r="P15" s="717"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
         <v>339</v>
@@ -11764,7 +11769,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="739"/>
+      <c r="P16" s="717"/>
       <c r="Q16" s="21" t="s">
         <v>335</v>
       </c>
@@ -11865,7 +11870,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="739"/>
+      <c r="P17" s="717"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>341</v>
@@ -11965,7 +11970,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="739"/>
+      <c r="P18" s="717"/>
       <c r="Q18" s="21" t="s">
         <v>335</v>
       </c>
@@ -12055,7 +12060,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="739"/>
+      <c r="P19" s="717"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>334</v>
@@ -12163,11 +12168,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="740"/>
+      <c r="P20" s="718"/>
       <c r="Q20" s="603" t="s">
         <v>335</v>
       </c>
-      <c r="R20" s="627"/>
+      <c r="R20" s="683"/>
       <c r="S20" s="534" t="s">
         <v>85</v>
       </c>
@@ -12427,7 +12432,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="682" t="s">
+      <c r="E23" s="633" t="s">
         <v>289</v>
       </c>
       <c r="F23" s="180"/>
@@ -12530,7 +12535,7 @@
       <c r="C24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="683"/>
+      <c r="E24" s="634"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
       <c r="J24" s="571" t="s">
@@ -12555,7 +12560,7 @@
       <c r="Q24" s="603" t="s">
         <v>335</v>
       </c>
-      <c r="R24" s="627"/>
+      <c r="R24" s="683"/>
       <c r="S24" s="534" t="s">
         <v>249</v>
       </c>
@@ -13206,8 +13211,8 @@
       <c r="AR31" s="508"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="630"/>
-      <c r="B32" s="630"/>
+      <c r="A32" s="650"/>
+      <c r="B32" s="650"/>
       <c r="J32" s="572"/>
       <c r="K32" s="587"/>
       <c r="L32" s="581"/>
@@ -13301,9 +13306,7 @@
     </row>
     <row r="33" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="80"/>
-      <c r="B33" s="24">
-        <v>8</v>
-      </c>
+      <c r="B33" s="24"/>
       <c r="G33" s="382">
         <v>-1</v>
       </c>
@@ -13679,7 +13682,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D37" s="382">
         <v>1</v>
@@ -13784,15 +13787,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13804,6 +13798,15 @@
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13871,7 +13874,7 @@
       <c r="V1" s="603" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="627"/>
+      <c r="W1" s="683"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13890,7 +13893,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="752" t="s">
+      <c r="AD1" s="759" t="s">
         <v>211</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13907,10 +13910,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="751" t="s">
+      <c r="F2" s="790" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="779" t="s">
+      <c r="G2" s="747" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13938,10 +13941,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="719" t="s">
+      <c r="V2" s="726" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="720"/>
+      <c r="W2" s="727"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13960,7 +13963,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="753"/>
+      <c r="AD2" s="760"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -13979,8 +13982,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="679"/>
-      <c r="G3" s="780"/>
+      <c r="F3" s="630"/>
+      <c r="G3" s="748"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -13991,13 +13994,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="789" t="s">
+      <c r="O3" s="757" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="771" t="s">
+      <c r="P3" s="778" t="s">
         <v>217</v>
       </c>
-      <c r="Q3" s="772"/>
+      <c r="Q3" s="779"/>
       <c r="S3" s="57" t="s">
         <v>218</v>
       </c>
@@ -14007,15 +14010,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="753"/>
+      <c r="AD3" s="760"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="780"/>
+      <c r="G4" s="748"/>
       <c r="H4" s="6"/>
       <c r="L4" s="687" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="790"/>
+      <c r="O4" s="758"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14029,8 +14032,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="605"/>
-      <c r="AA4" s="627"/>
-      <c r="AD4" s="753"/>
+      <c r="AA4" s="683"/>
+      <c r="AD4" s="760"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14045,21 +14048,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="780"/>
+      <c r="G5" s="748"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="758" t="s">
+      <c r="K5" s="765" t="s">
         <v>215</v>
       </c>
-      <c r="L5" s="773"/>
+      <c r="L5" s="780"/>
       <c r="M5" s="2" t="s">
         <v>213</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="O5" s="790"/>
+      <c r="O5" s="758"/>
       <c r="P5" s="108" t="s">
         <v>214</v>
       </c>
@@ -14075,11 +14078,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="761" t="s">
+      <c r="Y5" s="768" t="s">
         <v>282</v>
       </c>
-      <c r="Z5" s="762"/>
-      <c r="AD5" s="753"/>
+      <c r="Z5" s="769"/>
+      <c r="AD5" s="760"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14089,16 +14092,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="780"/>
+      <c r="G6" s="748"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="759"/>
-      <c r="L6" s="773"/>
-      <c r="O6" s="790"/>
+      <c r="K6" s="766"/>
+      <c r="L6" s="780"/>
+      <c r="O6" s="758"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14108,23 +14111,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="753"/>
+      <c r="AD6" s="760"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="780"/>
+      <c r="G7" s="748"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="759"/>
-      <c r="L7" s="773"/>
+      <c r="K7" s="766"/>
+      <c r="L7" s="780"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="790"/>
+      <c r="O7" s="758"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="753"/>
+      <c r="AD7" s="760"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14137,7 +14140,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="780"/>
+      <c r="G8" s="748"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14147,41 +14150,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="759"/>
-      <c r="L8" s="773"/>
-      <c r="O8" s="790"/>
+      <c r="K8" s="766"/>
+      <c r="L8" s="780"/>
+      <c r="O8" s="758"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="755" t="s">
+      <c r="S8" s="762" t="s">
         <v>210</v>
       </c>
-      <c r="T8" s="756"/>
-      <c r="U8" s="756"/>
-      <c r="V8" s="756"/>
-      <c r="W8" s="756"/>
-      <c r="X8" s="756"/>
-      <c r="Y8" s="756"/>
-      <c r="Z8" s="756"/>
-      <c r="AA8" s="756"/>
-      <c r="AB8" s="756"/>
-      <c r="AC8" s="757"/>
-      <c r="AD8" s="753"/>
+      <c r="T8" s="763"/>
+      <c r="U8" s="763"/>
+      <c r="V8" s="763"/>
+      <c r="W8" s="763"/>
+      <c r="X8" s="763"/>
+      <c r="Y8" s="763"/>
+      <c r="Z8" s="763"/>
+      <c r="AA8" s="763"/>
+      <c r="AB8" s="763"/>
+      <c r="AC8" s="764"/>
+      <c r="AD8" s="760"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="745"/>
-      <c r="G9" s="780"/>
+      <c r="C9" s="784"/>
+      <c r="G9" s="748"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="759"/>
-      <c r="L9" s="783" t="s">
+      <c r="K9" s="766"/>
+      <c r="L9" s="751" t="s">
         <v>216</v>
       </c>
-      <c r="M9" s="784"/>
-      <c r="N9" s="785"/>
-      <c r="O9" s="790"/>
+      <c r="M9" s="752"/>
+      <c r="N9" s="753"/>
+      <c r="O9" s="758"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="753"/>
+      <c r="AD9" s="760"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="746"/>
+      <c r="C10" s="785"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14189,7 +14192,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="780"/>
+      <c r="G10" s="748"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14197,33 +14200,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="759"/>
-      <c r="M10" s="748" t="s">
+      <c r="K10" s="766"/>
+      <c r="M10" s="787" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="749"/>
-      <c r="O10" s="749"/>
-      <c r="P10" s="749"/>
-      <c r="Q10" s="749"/>
-      <c r="R10" s="749"/>
-      <c r="S10" s="749"/>
-      <c r="T10" s="749"/>
-      <c r="U10" s="749"/>
-      <c r="V10" s="749"/>
-      <c r="W10" s="749"/>
-      <c r="X10" s="749"/>
-      <c r="Y10" s="749"/>
-      <c r="Z10" s="749"/>
-      <c r="AA10" s="749"/>
-      <c r="AB10" s="749"/>
-      <c r="AC10" s="750"/>
-      <c r="AD10" s="753"/>
+      <c r="N10" s="788"/>
+      <c r="O10" s="788"/>
+      <c r="P10" s="788"/>
+      <c r="Q10" s="788"/>
+      <c r="R10" s="788"/>
+      <c r="S10" s="788"/>
+      <c r="T10" s="788"/>
+      <c r="U10" s="788"/>
+      <c r="V10" s="788"/>
+      <c r="W10" s="788"/>
+      <c r="X10" s="788"/>
+      <c r="Y10" s="788"/>
+      <c r="Z10" s="788"/>
+      <c r="AA10" s="788"/>
+      <c r="AB10" s="788"/>
+      <c r="AC10" s="789"/>
+      <c r="AD10" s="760"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="747"/>
-      <c r="G11" s="780"/>
+      <c r="C11" s="786"/>
+      <c r="G11" s="748"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="759"/>
+      <c r="K11" s="766"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14231,17 +14234,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="769" t="s">
+      <c r="Z11" s="776" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="770"/>
+      <c r="AA11" s="777"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="753"/>
+      <c r="AD11" s="760"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14254,7 +14257,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="780"/>
+      <c r="G12" s="748"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14262,8 +14265,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="759"/>
-      <c r="L12" s="774" t="s">
+      <c r="K12" s="766"/>
+      <c r="L12" s="781" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14294,25 +14297,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="763" t="s">
+      <c r="AA12" s="770" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="764"/>
+      <c r="AB12" s="771"/>
       <c r="AC12" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="AD12" s="753"/>
+      <c r="AD12" s="760"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="745"/>
-      <c r="G13" s="780"/>
-      <c r="K13" s="759"/>
-      <c r="L13" s="775"/>
+      <c r="C13" s="784"/>
+      <c r="G13" s="748"/>
+      <c r="K13" s="766"/>
+      <c r="L13" s="782"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="782" t="s">
+      <c r="Q13" s="750" t="s">
         <v>208</v>
       </c>
-      <c r="R13" s="644"/>
+      <c r="R13" s="639"/>
       <c r="S13" s="599"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14321,17 +14324,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="765"/>
-      <c r="AB13" s="766"/>
-      <c r="AD13" s="753"/>
+      <c r="AA13" s="772"/>
+      <c r="AB13" s="773"/>
+      <c r="AD13" s="760"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C14" s="747"/>
+      <c r="C14" s="786"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="780"/>
+      <c r="G14" s="748"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14339,8 +14342,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="759"/>
-      <c r="L14" s="775"/>
+      <c r="K14" s="766"/>
+      <c r="L14" s="782"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14361,9 +14364,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="765"/>
-      <c r="AB14" s="766"/>
-      <c r="AD14" s="753"/>
+      <c r="AA14" s="772"/>
+      <c r="AB14" s="773"/>
+      <c r="AD14" s="760"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14378,19 +14381,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="780"/>
+      <c r="G15" s="748"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="759"/>
-      <c r="L15" s="776"/>
-      <c r="Q15" s="782" t="s">
+      <c r="K15" s="766"/>
+      <c r="L15" s="783"/>
+      <c r="Q15" s="750" t="s">
         <v>209</v>
       </c>
-      <c r="R15" s="644"/>
+      <c r="R15" s="639"/>
       <c r="S15" s="599"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14399,14 +14402,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="765"/>
-      <c r="AB15" s="766"/>
-      <c r="AD15" s="753"/>
+      <c r="AA15" s="772"/>
+      <c r="AB15" s="773"/>
+      <c r="AD15" s="760"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="780"/>
-      <c r="K16" s="759"/>
+      <c r="G16" s="748"/>
+      <c r="K16" s="766"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14425,24 +14428,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="765"/>
-      <c r="AB16" s="766"/>
-      <c r="AD16" s="753"/>
+      <c r="AA16" s="772"/>
+      <c r="AB16" s="773"/>
+      <c r="AD16" s="760"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="777" t="s">
+      <c r="F17" s="745" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="780"/>
+      <c r="G17" s="748"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="759"/>
+      <c r="K17" s="766"/>
       <c r="S17" s="599"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14450,9 +14453,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="765"/>
-      <c r="AB17" s="766"/>
-      <c r="AD17" s="753"/>
+      <c r="AA17" s="772"/>
+      <c r="AB17" s="773"/>
+      <c r="AD17" s="760"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14462,15 +14465,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="778"/>
-      <c r="G18" s="780"/>
+      <c r="F18" s="746"/>
+      <c r="G18" s="748"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="759"/>
+      <c r="K18" s="766"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14481,42 +14484,39 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="767"/>
-      <c r="AB18" s="768"/>
-      <c r="AD18" s="753"/>
+      <c r="AA18" s="774"/>
+      <c r="AB18" s="775"/>
+      <c r="AD18" s="760"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="781"/>
-      <c r="K19" s="760"/>
+      <c r="G19" s="749"/>
+      <c r="K19" s="767"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="786" t="s">
+      <c r="R19" s="754" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="787"/>
-      <c r="T19" s="788"/>
+      <c r="S19" s="755"/>
+      <c r="T19" s="756"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="754"/>
+      <c r="AD19" s="761"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14528,11 +14528,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F3B88-5587-4C69-B74E-29D68FFF2385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C49918-BCBD-4F56-90F6-65A49BD885DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="625">
   <si>
     <t>Zone</t>
   </si>
@@ -1911,6 +1911,9 @@
   </si>
   <si>
     <t>15F</t>
+  </si>
+  <si>
+    <t>3F</t>
   </si>
 </sst>
 </file>
@@ -5033,6 +5036,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5051,12 +5207,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5111,169 +5261,61 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5315,43 +5357,70 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5375,112 +5444,25 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5558,25 +5540,46 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5875,7 +5878,7 @@
   <dimension ref="B1:X28"/>
   <sheetViews>
     <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27"/>
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6715,7 +6718,9 @@
         <v>1</v>
       </c>
       <c r="T25" s="607"/>
-      <c r="V25" s="24"/>
+      <c r="V25" s="24" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -6911,7 +6916,7 @@
       <c r="H1" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="659" t="s">
+      <c r="I1" s="613" t="s">
         <v>369</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6947,7 +6952,7 @@
       <c r="X1" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="653" t="s">
+      <c r="Y1" s="657" t="s">
         <v>529</v>
       </c>
       <c r="Z1" s="406">
@@ -6972,7 +6977,7 @@
         <v>498</v>
       </c>
       <c r="AM1" s="402"/>
-      <c r="AN1" s="635"/>
+      <c r="AN1" s="640"/>
       <c r="AO1" s="338" t="s">
         <v>469</v>
       </c>
@@ -6981,23 +6986,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="617">
+      <c r="A2" s="666">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="619" t="s">
+      <c r="B2" s="668" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="615" t="s">
+      <c r="C2" s="645" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="621" t="s">
+      <c r="D2" s="670" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="669" t="s">
+      <c r="E2" s="609" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="640" t="s">
+      <c r="F2" s="619" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="393" t="s">
@@ -7006,31 +7011,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="660"/>
+      <c r="I2" s="614"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="671" t="s">
+      <c r="K2" s="611" t="s">
         <v>342</v>
       </c>
-      <c r="L2" s="672"/>
-      <c r="M2" s="640" t="s">
+      <c r="L2" s="612"/>
+      <c r="M2" s="619" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="644" t="s">
+      <c r="O2" s="649" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="615" t="s">
+      <c r="Q2" s="645" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="598"/>
-      <c r="S2" s="657" t="s">
+      <c r="S2" s="634" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7040,7 +7045,7 @@
       <c r="X2" s="431" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="654"/>
+      <c r="Y2" s="658"/>
       <c r="Z2" s="407">
         <v>1</v>
       </c>
@@ -7063,15 +7068,15 @@
         <v>463</v>
       </c>
       <c r="AM2" s="428"/>
-      <c r="AN2" s="636"/>
+      <c r="AN2" s="641"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="618"/>
-      <c r="B3" s="620"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="622"/>
-      <c r="E3" s="670"/>
-      <c r="F3" s="641"/>
+      <c r="A3" s="667"/>
+      <c r="B3" s="669"/>
+      <c r="C3" s="646"/>
+      <c r="D3" s="671"/>
+      <c r="E3" s="610"/>
+      <c r="F3" s="620"/>
       <c r="G3" s="394" t="s">
         <v>28</v>
       </c>
@@ -7090,17 +7095,17 @@
       <c r="L3" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="641"/>
+      <c r="M3" s="620"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="645"/>
+      <c r="O3" s="650"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="616"/>
+      <c r="Q3" s="646"/>
       <c r="R3" s="600"/>
-      <c r="S3" s="658"/>
+      <c r="S3" s="636"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7108,7 +7113,7 @@
       <c r="X3" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="654"/>
+      <c r="Y3" s="658"/>
       <c r="Z3" s="408">
         <v>1</v>
       </c>
@@ -7117,7 +7122,7 @@
       <c r="AC3" s="100" t="s">
         <v>480</v>
       </c>
-      <c r="AD3" s="656" t="s">
+      <c r="AD3" s="631" t="s">
         <v>455</v>
       </c>
       <c r="AE3" s="257"/>
@@ -7129,16 +7134,16 @@
       <c r="AK3" s="257"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="428"/>
-      <c r="AN3" s="636"/>
+      <c r="AN3" s="641"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="633" t="s">
+      <c r="B4" s="682" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="615" t="s">
+      <c r="C4" s="645" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="347" t="s">
@@ -7147,7 +7152,7 @@
       <c r="E4" s="378">
         <v>2</v>
       </c>
-      <c r="F4" s="641"/>
+      <c r="F4" s="620"/>
       <c r="G4" s="381" t="s">
         <v>201</v>
       </c>
@@ -7164,11 +7169,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="204"/>
-      <c r="M4" s="641"/>
+      <c r="M4" s="620"/>
       <c r="N4" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="645"/>
+      <c r="O4" s="650"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7190,12 +7195,12 @@
       <c r="X4" s="431" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="654"/>
+      <c r="Y4" s="658"/>
       <c r="Z4" s="409"/>
       <c r="AA4" s="307"/>
       <c r="AB4" s="209"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="656"/>
+      <c r="AD4" s="631"/>
       <c r="AE4" s="257"/>
       <c r="AF4" s="257"/>
       <c r="AG4" s="16"/>
@@ -7205,37 +7210,37 @@
       <c r="AK4" s="257"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="428"/>
-      <c r="AN4" s="636"/>
+      <c r="AN4" s="641"/>
       <c r="AO4" s="338" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="659" t="s">
+      <c r="A5" s="613" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="634"/>
-      <c r="C5" s="616"/>
+      <c r="B5" s="683"/>
+      <c r="C5" s="646"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="379">
         <v>1</v>
       </c>
-      <c r="F5" s="641"/>
-      <c r="G5" s="625" t="s">
+      <c r="F5" s="620"/>
+      <c r="G5" s="674" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="625"/>
-      <c r="I5" s="625"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="626"/>
-      <c r="M5" s="641"/>
+      <c r="H5" s="674"/>
+      <c r="I5" s="674"/>
+      <c r="J5" s="674"/>
+      <c r="K5" s="674"/>
+      <c r="L5" s="675"/>
+      <c r="M5" s="620"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="645"/>
+      <c r="O5" s="650"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7243,7 +7248,7 @@
       <c r="X5" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="654"/>
+      <c r="Y5" s="658"/>
       <c r="Z5" s="409">
         <v>1</v>
       </c>
@@ -7266,24 +7271,24 @@
       <c r="AK5" s="257"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="428"/>
-      <c r="AN5" s="636"/>
+      <c r="AN5" s="641"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="660"/>
-      <c r="B6" s="631" t="s">
+      <c r="A6" s="614"/>
+      <c r="B6" s="680" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="661"/>
-      <c r="D6" s="662"/>
-      <c r="F6" s="641"/>
-      <c r="G6" s="627"/>
-      <c r="H6" s="627"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="627"/>
-      <c r="L6" s="628"/>
-      <c r="M6" s="641"/>
-      <c r="O6" s="645"/>
+      <c r="C6" s="628"/>
+      <c r="D6" s="629"/>
+      <c r="F6" s="620"/>
+      <c r="G6" s="676"/>
+      <c r="H6" s="676"/>
+      <c r="I6" s="676"/>
+      <c r="J6" s="676"/>
+      <c r="K6" s="676"/>
+      <c r="L6" s="677"/>
+      <c r="M6" s="620"/>
+      <c r="O6" s="650"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7293,7 +7298,7 @@
       <c r="X6" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="654"/>
+      <c r="Y6" s="658"/>
       <c r="Z6" s="407">
         <v>1</v>
       </c>
@@ -7307,16 +7312,16 @@
       <c r="AF6" s="257"/>
       <c r="AG6" s="257"/>
       <c r="AH6" s="257"/>
-      <c r="AI6" s="650"/>
+      <c r="AI6" s="630"/>
       <c r="AJ6" s="441" t="s">
         <v>458</v>
       </c>
-      <c r="AK6" s="650" t="s">
+      <c r="AK6" s="630" t="s">
         <v>251</v>
       </c>
       <c r="AL6" s="257"/>
       <c r="AM6" s="428"/>
-      <c r="AN6" s="636"/>
+      <c r="AN6" s="641"/>
       <c r="AO6" s="338" t="s">
         <v>470</v>
       </c>
@@ -7325,7 +7330,7 @@
       <c r="A7" s="232" t="s">
         <v>572</v>
       </c>
-      <c r="B7" s="632"/>
+      <c r="B7" s="681"/>
       <c r="C7" s="202" t="s">
         <v>374</v>
       </c>
@@ -7335,7 +7340,7 @@
       <c r="E7" s="265">
         <v>3</v>
       </c>
-      <c r="F7" s="641"/>
+      <c r="F7" s="620"/>
       <c r="G7" s="395">
         <v>0</v>
       </c>
@@ -7354,8 +7359,8 @@
       <c r="L7" s="212">
         <v>0</v>
       </c>
-      <c r="M7" s="641"/>
-      <c r="O7" s="645"/>
+      <c r="M7" s="620"/>
+      <c r="O7" s="650"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7369,7 +7374,7 @@
       <c r="X7" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="654"/>
+      <c r="Y7" s="658"/>
       <c r="Z7" s="407">
         <v>1</v>
       </c>
@@ -7379,18 +7384,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
-      <c r="AG7" s="656" t="s">
+      <c r="AG7" s="631" t="s">
         <v>454</v>
       </c>
       <c r="AH7" s="257"/>
-      <c r="AI7" s="650"/>
+      <c r="AI7" s="630"/>
       <c r="AJ7" s="257"/>
-      <c r="AK7" s="650"/>
+      <c r="AK7" s="630"/>
       <c r="AL7" s="80" t="s">
         <v>496</v>
       </c>
       <c r="AM7" s="428"/>
-      <c r="AN7" s="636"/>
+      <c r="AN7" s="641"/>
       <c r="AP7" s="76" t="s">
         <v>471</v>
       </c>
@@ -7407,27 +7412,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="641"/>
-      <c r="G8" s="626">
-        <v>0</v>
-      </c>
-      <c r="H8" s="623" t="s">
+      <c r="F8" s="620"/>
+      <c r="G8" s="675">
+        <v>0</v>
+      </c>
+      <c r="H8" s="672" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="598">
         <v>0</v>
       </c>
-      <c r="J8" s="623" t="s">
+      <c r="J8" s="672" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="629"/>
-      <c r="L8" s="663"/>
-      <c r="M8" s="642"/>
-      <c r="N8" s="666">
+      <c r="K8" s="678"/>
+      <c r="L8" s="632"/>
+      <c r="M8" s="647"/>
+      <c r="N8" s="637">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="645"/>
+      <c r="O8" s="650"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7437,7 +7442,7 @@
       <c r="X8" s="431" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="654"/>
+      <c r="Y8" s="658"/>
       <c r="Z8" s="409"/>
       <c r="AA8" s="307"/>
       <c r="AB8" s="209"/>
@@ -7445,14 +7450,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
-      <c r="AG8" s="656"/>
+      <c r="AG8" s="631"/>
       <c r="AH8" s="257"/>
-      <c r="AI8" s="650"/>
+      <c r="AI8" s="630"/>
       <c r="AJ8" s="257"/>
       <c r="AK8" s="257"/>
       <c r="AL8" s="257"/>
       <c r="AM8" s="428"/>
-      <c r="AN8" s="636"/>
+      <c r="AN8" s="641"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
@@ -7467,17 +7472,17 @@
       <c r="D9" s="348" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="641"/>
-      <c r="G9" s="628"/>
-      <c r="H9" s="624"/>
+      <c r="F9" s="620"/>
+      <c r="G9" s="677"/>
+      <c r="H9" s="673"/>
       <c r="I9" s="600"/>
-      <c r="J9" s="624"/>
-      <c r="K9" s="630"/>
-      <c r="L9" s="664"/>
-      <c r="M9" s="643"/>
-      <c r="N9" s="667"/>
-      <c r="O9" s="646"/>
-      <c r="S9" s="657" t="s">
+      <c r="J9" s="673"/>
+      <c r="K9" s="679"/>
+      <c r="L9" s="633"/>
+      <c r="M9" s="648"/>
+      <c r="N9" s="638"/>
+      <c r="O9" s="651"/>
+      <c r="S9" s="634" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7489,7 +7494,7 @@
       <c r="X9" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="654"/>
+      <c r="Y9" s="658"/>
       <c r="Z9" s="410"/>
       <c r="AA9" s="307"/>
       <c r="AB9" s="209"/>
@@ -7499,16 +7504,16 @@
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
-      <c r="AG9" s="656"/>
+      <c r="AG9" s="631"/>
       <c r="AH9" s="257"/>
-      <c r="AI9" s="650"/>
+      <c r="AI9" s="630"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="650" t="s">
+      <c r="AK9" s="630" t="s">
         <v>251</v>
       </c>
       <c r="AL9" s="257"/>
       <c r="AM9" s="428"/>
-      <c r="AN9" s="636"/>
+      <c r="AN9" s="641"/>
       <c r="AP9" s="2" t="s">
         <v>508</v>
       </c>
@@ -7525,20 +7530,20 @@
         <f>Boat!W8</f>
         <v>39</v>
       </c>
-      <c r="F10" s="641"/>
+      <c r="F10" s="620"/>
       <c r="N10" s="418" t="s">
         <v>396</v>
       </c>
-      <c r="O10" s="678" t="s">
+      <c r="O10" s="622" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="647" t="s">
+      <c r="P10" s="652" t="s">
         <v>400</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="665"/>
+      <c r="S10" s="635"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7550,7 +7555,7 @@
       <c r="X10" s="431" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="654"/>
+      <c r="Y10" s="658"/>
       <c r="Z10" s="409">
         <v>0</v>
       </c>
@@ -7568,16 +7573,16 @@
       <c r="AF10" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="AG10" s="656"/>
+      <c r="AG10" s="631"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="650"/>
+      <c r="AI10" s="630"/>
       <c r="AJ10" s="257"/>
-      <c r="AK10" s="650"/>
+      <c r="AK10" s="630"/>
       <c r="AL10" s="257"/>
       <c r="AM10" s="442" t="s">
         <v>318</v>
       </c>
-      <c r="AN10" s="636"/>
+      <c r="AN10" s="641"/>
       <c r="AO10" s="204" t="s">
         <v>94</v>
       </c>
@@ -7595,18 +7600,18 @@
       <c r="D11" s="170" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="641"/>
+      <c r="F11" s="620"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="679"/>
-      <c r="P11" s="648"/>
+      <c r="O11" s="623"/>
+      <c r="P11" s="653"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="665"/>
+      <c r="S11" s="635"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7616,7 +7621,7 @@
       <c r="X11" s="431" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="654"/>
+      <c r="Y11" s="658"/>
       <c r="Z11" s="409"/>
       <c r="AA11" s="307">
         <v>1</v>
@@ -7630,14 +7635,14 @@
       <c r="AF11" s="257" t="s">
         <v>476</v>
       </c>
-      <c r="AG11" s="656"/>
+      <c r="AG11" s="631"/>
       <c r="AH11" s="257"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="257"/>
       <c r="AK11" s="257"/>
       <c r="AL11" s="257"/>
       <c r="AM11" s="428"/>
-      <c r="AN11" s="636"/>
+      <c r="AN11" s="641"/>
       <c r="AP11" s="76" t="s">
         <v>484</v>
       </c>
@@ -7656,7 +7661,7 @@
       <c r="E12" s="224">
         <v>3</v>
       </c>
-      <c r="F12" s="641"/>
+      <c r="F12" s="620"/>
       <c r="G12" s="337" t="s">
         <v>400</v>
       </c>
@@ -7665,16 +7670,16 @@
       </c>
       <c r="I12" s="605"/>
       <c r="J12" s="605"/>
-      <c r="K12" s="683"/>
+      <c r="K12" s="627"/>
       <c r="L12" s="203"/>
       <c r="M12" s="203"/>
       <c r="N12" s="203"/>
-      <c r="O12" s="679"/>
-      <c r="P12" s="648"/>
+      <c r="O12" s="623"/>
+      <c r="P12" s="653"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="658"/>
+      <c r="S12" s="636"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7684,7 +7689,7 @@
       <c r="X12" s="431" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="654"/>
+      <c r="Y12" s="658"/>
       <c r="Z12" s="407">
         <v>1</v>
       </c>
@@ -7695,16 +7700,16 @@
       <c r="AC12" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD12" s="668" t="s">
+      <c r="AD12" s="639" t="s">
         <v>240</v>
       </c>
       <c r="AE12" s="441" t="s">
         <v>239</v>
       </c>
-      <c r="AF12" s="656" t="s">
+      <c r="AF12" s="631" t="s">
         <v>228</v>
       </c>
-      <c r="AG12" s="656"/>
+      <c r="AG12" s="631"/>
       <c r="AH12" s="238" t="s">
         <v>259</v>
       </c>
@@ -7714,10 +7719,10 @@
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
-      <c r="AM12" s="651" t="s">
+      <c r="AM12" s="655" t="s">
         <v>249</v>
       </c>
-      <c r="AN12" s="636"/>
+      <c r="AN12" s="641"/>
       <c r="AO12" s="338" t="s">
         <v>96</v>
       </c>
@@ -7729,17 +7734,17 @@
       <c r="E13" s="448">
         <v>-3</v>
       </c>
-      <c r="F13" s="641"/>
+      <c r="F13" s="620"/>
       <c r="G13" s="605" t="s">
         <v>430</v>
       </c>
       <c r="H13" s="605"/>
       <c r="I13" s="605"/>
-      <c r="J13" s="683"/>
+      <c r="J13" s="627"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="679"/>
-      <c r="P13" s="649"/>
+      <c r="O13" s="623"/>
+      <c r="P13" s="654"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7749,7 +7754,7 @@
       <c r="X13" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="654"/>
+      <c r="Y13" s="658"/>
       <c r="Z13" s="407">
         <v>1</v>
       </c>
@@ -7760,8 +7765,8 @@
         <v>500</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="668"/>
-      <c r="AF13" s="656"/>
+      <c r="AD13" s="639"/>
+      <c r="AF13" s="631"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
         <v>308</v>
@@ -7772,8 +7777,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
       <c r="AL13" s="257"/>
-      <c r="AM13" s="651"/>
-      <c r="AN13" s="636"/>
+      <c r="AM13" s="655"/>
+      <c r="AN13" s="641"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="450"/>
@@ -7781,18 +7786,18 @@
       <c r="C14" s="459"/>
       <c r="D14" s="452"/>
       <c r="E14" s="453"/>
-      <c r="F14" s="641"/>
+      <c r="F14" s="620"/>
       <c r="G14" s="605" t="s">
         <v>429</v>
       </c>
       <c r="H14" s="605"/>
       <c r="I14" s="605"/>
-      <c r="J14" s="683"/>
+      <c r="J14" s="627"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="679"/>
+      <c r="O14" s="623"/>
       <c r="Q14" s="61" t="s">
         <v>533</v>
       </c>
@@ -7806,24 +7811,24 @@
       <c r="X14" s="431" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="654"/>
+      <c r="Y14" s="658"/>
       <c r="Z14" s="407">
         <v>1</v>
       </c>
       <c r="AA14" s="307"/>
       <c r="AB14" s="209"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="668"/>
+      <c r="AD14" s="639"/>
       <c r="AE14" s="257"/>
-      <c r="AF14" s="656"/>
+      <c r="AF14" s="631"/>
       <c r="AG14" s="257"/>
       <c r="AH14" s="257"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="257"/>
       <c r="AK14" s="257"/>
       <c r="AL14" s="257"/>
-      <c r="AM14" s="651"/>
-      <c r="AN14" s="636"/>
+      <c r="AM14" s="655"/>
+      <c r="AN14" s="641"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="449" t="s">
@@ -7832,8 +7837,8 @@
       <c r="C15" s="598" t="s">
         <v>373</v>
       </c>
-      <c r="F15" s="641"/>
-      <c r="O15" s="679"/>
+      <c r="F15" s="620"/>
+      <c r="O15" s="623"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7846,7 +7851,7 @@
       <c r="X15" s="431" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="654"/>
+      <c r="Y15" s="658"/>
       <c r="Z15" s="409">
         <v>1</v>
       </c>
@@ -7855,8 +7860,8 @@
       <c r="AC15" s="76" t="s">
         <v>479</v>
       </c>
-      <c r="AD15" s="668"/>
-      <c r="AF15" s="656"/>
+      <c r="AD15" s="639"/>
+      <c r="AF15" s="631"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
         <v>448</v>
@@ -7869,8 +7874,8 @@
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
-      <c r="AM15" s="651"/>
-      <c r="AN15" s="636"/>
+      <c r="AM15" s="655"/>
+      <c r="AN15" s="641"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7892,13 +7897,13 @@
       <c r="E16" s="224">
         <v>1</v>
       </c>
-      <c r="F16" s="641"/>
+      <c r="F16" s="620"/>
       <c r="G16" s="337" t="s">
         <v>488</v>
       </c>
       <c r="I16" s="469"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="679"/>
+      <c r="O16" s="623"/>
       <c r="R16" s="435" t="s">
         <v>184</v>
       </c>
@@ -7909,7 +7914,7 @@
       <c r="X16" s="431" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="654"/>
+      <c r="Y16" s="658"/>
       <c r="Z16" s="407">
         <v>1</v>
       </c>
@@ -7930,18 +7935,18 @@
       <c r="AM16" s="428" t="s">
         <v>317</v>
       </c>
-      <c r="AN16" s="636"/>
+      <c r="AN16" s="641"/>
       <c r="AP16" s="76" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="641"/>
+      <c r="F17" s="620"/>
       <c r="I17" s="470"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="679"/>
+      <c r="O17" s="623"/>
       <c r="Q17" s="21" t="s">
         <v>531</v>
       </c>
@@ -7961,7 +7966,7 @@
       <c r="X17" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="654"/>
+      <c r="Y17" s="658"/>
       <c r="Z17" s="409"/>
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
@@ -7986,7 +7991,7 @@
       <c r="AK17" s="257"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="428"/>
-      <c r="AN17" s="636"/>
+      <c r="AN17" s="641"/>
       <c r="AO17" s="204" t="s">
         <v>497</v>
       </c>
@@ -8010,21 +8015,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="641"/>
+      <c r="F18" s="620"/>
       <c r="G18" s="337" t="s">
         <v>528</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="679"/>
+      <c r="O18" s="623"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="673" t="s">
+      <c r="R18" s="615" t="s">
         <v>536</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="612" t="s">
+      <c r="U18" s="663" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8034,7 +8039,7 @@
       <c r="X18" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="654"/>
+      <c r="Y18" s="658"/>
       <c r="Z18" s="409">
         <v>1</v>
       </c>
@@ -8045,38 +8050,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
-      <c r="AF18" s="650" t="s">
+      <c r="AF18" s="630" t="s">
         <v>475</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="652" t="s">
+      <c r="AJ18" s="656" t="s">
         <v>315</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="428"/>
-      <c r="AN18" s="636"/>
+      <c r="AN18" s="641"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="641"/>
+      <c r="F19" s="620"/>
       <c r="I19" s="219"/>
-      <c r="O19" s="679"/>
-      <c r="R19" s="674"/>
+      <c r="O19" s="623"/>
+      <c r="R19" s="616"/>
       <c r="S19" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="U19" s="613"/>
+      <c r="U19" s="664"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="431" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="654"/>
+      <c r="Y19" s="658"/>
       <c r="Z19" s="407">
         <v>1</v>
       </c>
@@ -8085,17 +8090,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="257"/>
-      <c r="AF19" s="650"/>
+      <c r="AF19" s="630"/>
       <c r="AG19" s="257"/>
       <c r="AH19" s="257"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="652"/>
+      <c r="AJ19" s="656"/>
       <c r="AK19" s="460" t="s">
         <v>251</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="428"/>
-      <c r="AN19" s="636"/>
+      <c r="AN19" s="641"/>
       <c r="AP19" s="76" t="s">
         <v>468</v>
       </c>
@@ -8116,24 +8121,24 @@
       <c r="E20" s="437">
         <v>-1</v>
       </c>
-      <c r="F20" s="641"/>
+      <c r="F20" s="620"/>
       <c r="G20" s="337" t="s">
         <v>491</v>
       </c>
       <c r="I20" s="219"/>
-      <c r="O20" s="679"/>
-      <c r="Q20" s="681" t="s">
+      <c r="O20" s="623"/>
+      <c r="Q20" s="625" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="614"/>
+      <c r="U20" s="665"/>
       <c r="W20" s="405"/>
       <c r="X20" s="432" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="654"/>
+      <c r="Y20" s="658"/>
       <c r="Z20" s="411">
         <v>1</v>
       </c>
@@ -8158,7 +8163,7 @@
       <c r="AM20" s="381" t="s">
         <v>249</v>
       </c>
-      <c r="AN20" s="636"/>
+      <c r="AN20" s="641"/>
       <c r="AO20" s="338" t="s">
         <v>460</v>
       </c>
@@ -8179,20 +8184,20 @@
       <c r="E21" s="265">
         <v>0</v>
       </c>
-      <c r="F21" s="641"/>
+      <c r="F21" s="620"/>
       <c r="I21" s="219"/>
-      <c r="O21" s="679"/>
-      <c r="Q21" s="682"/>
+      <c r="O21" s="623"/>
+      <c r="Q21" s="626"/>
       <c r="T21" s="422"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="609"/>
+      <c r="V21" s="660"/>
       <c r="W21" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="429" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="654"/>
+      <c r="Y21" s="658"/>
       <c r="Z21" s="445">
         <v>3</v>
       </c>
@@ -8223,15 +8228,15 @@
       <c r="AM21" s="428" t="s">
         <v>545</v>
       </c>
-      <c r="AN21" s="636"/>
+      <c r="AN21" s="641"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="641"/>
+      <c r="F22" s="620"/>
       <c r="G22" s="337" t="s">
         <v>489</v>
       </c>
       <c r="I22" s="219"/>
-      <c r="O22" s="679"/>
+      <c r="O22" s="623"/>
       <c r="R22" s="434" t="s">
         <v>44</v>
       </c>
@@ -8239,14 +8244,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="610"/>
+      <c r="V22" s="661"/>
       <c r="W22" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="429" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="654"/>
+      <c r="Y22" s="658"/>
       <c r="Z22" s="415"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="415"/>
@@ -8257,7 +8262,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="650" t="s">
+      <c r="AJ22" s="630" t="s">
         <v>472</v>
       </c>
       <c r="AK22" s="257"/>
@@ -8265,7 +8270,7 @@
         <v>478</v>
       </c>
       <c r="AM22" s="300"/>
-      <c r="AN22" s="636"/>
+      <c r="AN22" s="641"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
@@ -8283,22 +8288,22 @@
       <c r="E23" s="225">
         <v>1</v>
       </c>
-      <c r="F23" s="641"/>
+      <c r="F23" s="620"/>
       <c r="I23" s="219"/>
-      <c r="O23" s="679"/>
-      <c r="Q23" s="681" t="s">
+      <c r="O23" s="623"/>
+      <c r="Q23" s="625" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="610"/>
+      <c r="V23" s="661"/>
       <c r="W23" s="148"/>
       <c r="X23" s="429" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="654"/>
+      <c r="Y23" s="658"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="415"/>
@@ -8309,13 +8314,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="650"/>
+      <c r="AJ23" s="630"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
         <v>507</v>
       </c>
       <c r="AM23" s="300"/>
-      <c r="AN23" s="636"/>
+      <c r="AN23" s="641"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="440" t="s">
@@ -8333,23 +8338,23 @@
       <c r="E24" s="436">
         <v>1</v>
       </c>
-      <c r="F24" s="641"/>
+      <c r="F24" s="620"/>
       <c r="G24" s="61" t="s">
         <v>490</v>
       </c>
       <c r="I24" s="219"/>
-      <c r="O24" s="679"/>
-      <c r="Q24" s="682"/>
+      <c r="O24" s="623"/>
+      <c r="Q24" s="626"/>
       <c r="T24" s="17"/>
       <c r="U24" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="610"/>
+      <c r="V24" s="661"/>
       <c r="W24" s="148"/>
       <c r="X24" s="429" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="654"/>
+      <c r="Y24" s="658"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="415"/>
@@ -8368,12 +8373,12 @@
         <v>463</v>
       </c>
       <c r="AM24" s="300"/>
-      <c r="AN24" s="636"/>
+      <c r="AN24" s="641"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="641"/>
+      <c r="F25" s="620"/>
       <c r="I25" s="219"/>
-      <c r="O25" s="679"/>
+      <c r="O25" s="623"/>
       <c r="P25" s="204" t="s">
         <v>280</v>
       </c>
@@ -8386,12 +8391,12 @@
       <c r="U25" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="611"/>
+      <c r="V25" s="662"/>
       <c r="W25" s="148"/>
       <c r="X25" s="429" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="654"/>
+      <c r="Y25" s="658"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="415"/>
@@ -8408,7 +8413,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="300"/>
-      <c r="AN25" s="636"/>
+      <c r="AN25" s="641"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
@@ -8426,17 +8431,17 @@
       <c r="E26" s="380">
         <v>1</v>
       </c>
-      <c r="F26" s="641"/>
+      <c r="F26" s="620"/>
       <c r="G26" s="337" t="s">
         <v>487</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="O26" s="679"/>
-      <c r="P26" s="638" t="s">
+      <c r="O26" s="623"/>
+      <c r="P26" s="643" t="s">
         <v>526</v>
       </c>
-      <c r="Q26" s="639"/>
-      <c r="R26" s="675" t="s">
+      <c r="Q26" s="644"/>
+      <c r="R26" s="617" t="s">
         <v>535</v>
       </c>
       <c r="T26" s="178"/>
@@ -8448,7 +8453,7 @@
       <c r="X26" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="654"/>
+      <c r="Y26" s="658"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="415"/>
@@ -8475,7 +8480,7 @@
       <c r="AM26" s="442" t="s">
         <v>456</v>
       </c>
-      <c r="AN26" s="636"/>
+      <c r="AN26" s="641"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8487,13 +8492,13 @@
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="677"/>
+      <c r="F27" s="621"/>
       <c r="G27" s="61" t="s">
         <v>544</v>
       </c>
       <c r="I27" s="220"/>
-      <c r="O27" s="680"/>
-      <c r="R27" s="676"/>
+      <c r="O27" s="624"/>
+      <c r="R27" s="618"/>
       <c r="S27" s="421" t="s">
         <v>54</v>
       </c>
@@ -8506,7 +8511,7 @@
       <c r="X27" s="429" t="s">
         <v>530</v>
       </c>
-      <c r="Y27" s="655"/>
+      <c r="Y27" s="659"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="416"/>
@@ -8523,32 +8528,26 @@
       <c r="AM27" s="381" t="s">
         <v>319</v>
       </c>
-      <c r="AN27" s="637"/>
+      <c r="AN27" s="642"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8565,22 +8564,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8617,12 +8622,12 @@
       <c r="B1" s="603" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="683"/>
+      <c r="C1" s="627"/>
       <c r="D1" s="204"/>
       <c r="J1" s="603" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="683"/>
+      <c r="K1" s="627"/>
       <c r="L1" s="195" t="s">
         <v>330</v>
       </c>
@@ -8956,7 +8961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
@@ -9025,7 +9030,7 @@
       <c r="P1" s="398" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" s="714" t="s">
+      <c r="Q1" s="701" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9049,7 +9054,7 @@
       <c r="AA1" s="517" t="s">
         <v>437</v>
       </c>
-      <c r="AB1" s="708" t="s">
+      <c r="AB1" s="695" t="s">
         <v>594</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9071,32 +9076,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="693">
+      <c r="A2" s="706">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="695" t="s">
+      <c r="B2" s="708" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="615" t="s">
+      <c r="C2" s="645" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="697" t="s">
+      <c r="D2" s="710" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="699" t="s">
+      <c r="E2" s="712" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
         <v>218</v>
       </c>
-      <c r="G2" s="659" t="s">
+      <c r="G2" s="613" t="s">
         <v>372</v>
       </c>
       <c r="H2" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I2" s="705" t="s">
+      <c r="I2" s="692" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="396" t="s">
@@ -9120,7 +9125,7 @@
       <c r="P2" s="399">
         <v>40</v>
       </c>
-      <c r="Q2" s="715"/>
+      <c r="Q2" s="702"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>4</v>
@@ -9145,7 +9150,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="709"/>
+      <c r="AB2" s="696"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>344</v>
@@ -9162,14 +9167,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="694"/>
-      <c r="B3" s="696"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="698"/>
-      <c r="E3" s="700"/>
-      <c r="G3" s="660"/>
+      <c r="A3" s="707"/>
+      <c r="B3" s="709"/>
+      <c r="C3" s="646"/>
+      <c r="D3" s="711"/>
+      <c r="E3" s="713"/>
+      <c r="G3" s="614"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="706"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9184,7 +9189,7 @@
       <c r="V3" s="470"/>
       <c r="W3" s="6"/>
       <c r="X3" s="470"/>
-      <c r="AB3" s="709"/>
+      <c r="AB3" s="696"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>589</v>
@@ -9209,10 +9214,10 @@
         <v>380</v>
       </c>
       <c r="B4" s="243"/>
-      <c r="C4" s="701" t="s">
+      <c r="C4" s="714" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="693"/>
       <c r="R4" s="471" t="s">
         <v>589</v>
       </c>
@@ -9224,7 +9229,7 @@
       <c r="V4" s="470"/>
       <c r="W4" s="6"/>
       <c r="X4" s="470"/>
-      <c r="AB4" s="709"/>
+      <c r="AB4" s="696"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9251,7 +9256,7 @@
       <c r="B5" s="100" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="702"/>
+      <c r="C5" s="715"/>
       <c r="D5" s="222" t="s">
         <v>102</v>
       </c>
@@ -9267,7 +9272,7 @@
       <c r="H5" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="706"/>
+      <c r="I5" s="693"/>
       <c r="J5" s="397" t="s">
         <v>268</v>
       </c>
@@ -9294,7 +9299,7 @@
       <c r="V5" s="468"/>
       <c r="W5" s="6"/>
       <c r="X5" s="468"/>
-      <c r="AB5" s="709"/>
+      <c r="AB5" s="696"/>
       <c r="AC5" s="2" t="s">
         <v>592</v>
       </c>
@@ -9316,19 +9321,19 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="690" t="s">
+      <c r="A6" s="703" t="s">
         <v>285</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="661"/>
-      <c r="D6" s="662"/>
+      <c r="C6" s="628"/>
+      <c r="D6" s="629"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="599"/>
-      <c r="I6" s="706"/>
+      <c r="I6" s="693"/>
       <c r="P6" s="61" t="s">
         <v>592</v>
       </c>
@@ -9340,7 +9345,7 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="709"/>
+      <c r="AB6" s="696"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9356,7 +9361,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="691"/>
+      <c r="A7" s="704"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9367,7 +9372,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="599"/>
-      <c r="I7" s="706"/>
+      <c r="I7" s="693"/>
       <c r="M7" s="16" t="s">
         <v>347</v>
       </c>
@@ -9399,7 +9404,7 @@
       <c r="X7" s="469">
         <v>1</v>
       </c>
-      <c r="AB7" s="709"/>
+      <c r="AB7" s="696"/>
       <c r="AC7" s="99" t="s">
         <v>593</v>
       </c>
@@ -9425,7 +9430,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="692"/>
+      <c r="A8" s="705"/>
       <c r="B8" s="212" t="s">
         <v>28</v>
       </c>
@@ -9434,7 +9439,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="599"/>
-      <c r="I8" s="706"/>
+      <c r="I8" s="693"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
@@ -9444,7 +9449,7 @@
       <c r="X8" s="470">
         <v>1</v>
       </c>
-      <c r="AB8" s="709"/>
+      <c r="AB8" s="696"/>
       <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
         <v>612</v>
@@ -9475,7 +9480,7 @@
       </c>
       <c r="G9" s="599"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="706"/>
+      <c r="I9" s="693"/>
       <c r="M9" s="19" t="s">
         <v>525</v>
       </c>
@@ -9488,7 +9493,7 @@
       <c r="X9" s="470">
         <v>1</v>
       </c>
-      <c r="AB9" s="709"/>
+      <c r="AB9" s="696"/>
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9512,7 +9517,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="599"/>
-      <c r="I10" s="706"/>
+      <c r="I10" s="693"/>
       <c r="J10" s="24" t="s">
         <v>372</v>
       </c>
@@ -9527,7 +9532,7 @@
       <c r="V10" s="470"/>
       <c r="W10" s="6"/>
       <c r="X10" s="470"/>
-      <c r="AB10" s="709"/>
+      <c r="AB10" s="696"/>
       <c r="AC10" s="515"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9559,7 +9564,7 @@
         <v>265</v>
       </c>
       <c r="G11" s="599"/>
-      <c r="I11" s="706"/>
+      <c r="I11" s="693"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9585,13 +9590,13 @@
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="711" t="s">
+      <c r="U11" s="698" t="s">
         <v>558</v>
       </c>
-      <c r="V11" s="712"/>
-      <c r="W11" s="712"/>
-      <c r="X11" s="713"/>
-      <c r="AB11" s="710"/>
+      <c r="V11" s="699"/>
+      <c r="W11" s="699"/>
+      <c r="X11" s="700"/>
+      <c r="AB11" s="697"/>
       <c r="AC11" s="99" t="s">
         <v>595</v>
       </c>
@@ -9605,13 +9610,13 @@
         <v>4</v>
       </c>
       <c r="AG11" s="414"/>
-      <c r="AH11" s="711" t="s">
+      <c r="AH11" s="698" t="s">
         <v>603</v>
       </c>
-      <c r="AI11" s="712"/>
-      <c r="AJ11" s="712"/>
-      <c r="AK11" s="712"/>
-      <c r="AL11" s="713"/>
+      <c r="AI11" s="699"/>
+      <c r="AJ11" s="699"/>
+      <c r="AK11" s="699"/>
+      <c r="AL11" s="700"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
@@ -9622,7 +9627,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="599"/>
-      <c r="I12" s="706"/>
+      <c r="I12" s="693"/>
       <c r="J12" s="24" t="s">
         <v>516</v>
       </c>
@@ -9655,7 +9660,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="599"/>
-      <c r="I13" s="706"/>
+      <c r="I13" s="693"/>
       <c r="J13" s="108" t="s">
         <v>548</v>
       </c>
@@ -9699,7 +9704,7 @@
       <c r="H14" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="706"/>
+      <c r="I14" s="693"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9726,7 +9731,7 @@
       <c r="H15" s="271">
         <v>0</v>
       </c>
-      <c r="I15" s="706"/>
+      <c r="I15" s="693"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9757,7 +9762,7 @@
       <c r="D16" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I16" s="706"/>
+      <c r="I16" s="693"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9793,7 +9798,7 @@
       <c r="G17" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I17" s="706"/>
+      <c r="I17" s="693"/>
       <c r="L17" s="2" t="s">
         <v>426</v>
       </c>
@@ -9807,13 +9812,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="706"/>
+      <c r="I18" s="693"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="703" t="s">
+      <c r="O18" s="690" t="s">
         <v>517</v>
       </c>
-      <c r="P18" s="704"/>
+      <c r="P18" s="691"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9835,7 +9840,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="706"/>
+      <c r="I19" s="693"/>
       <c r="M19" s="21" t="s">
         <v>425</v>
       </c>
@@ -9867,7 +9872,7 @@
       <c r="G20" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I20" s="706"/>
+      <c r="I20" s="693"/>
       <c r="K20" s="19" t="s">
         <v>422</v>
       </c>
@@ -9898,7 +9903,7 @@
       <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="706"/>
+      <c r="I21" s="693"/>
       <c r="M21" s="216" t="s">
         <v>411</v>
       </c>
@@ -9932,7 +9937,7 @@
       <c r="G22" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I22" s="706"/>
+      <c r="I22" s="693"/>
       <c r="P22" s="99" t="s">
         <v>591</v>
       </c>
@@ -9947,7 +9952,7 @@
       <c r="E23" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="706"/>
+      <c r="I23" s="693"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>6</v>
@@ -9964,7 +9969,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="706"/>
+      <c r="I24" s="693"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
         <v>0</v>
@@ -9992,7 +9997,7 @@
       <c r="H25" s="191" t="s">
         <v>266</v>
       </c>
-      <c r="I25" s="706"/>
+      <c r="I25" s="693"/>
       <c r="J25" s="397" t="s">
         <v>269</v>
       </c>
@@ -10037,7 +10042,7 @@
       <c r="H26" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="706"/>
+      <c r="I26" s="693"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10072,7 +10077,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="706"/>
+      <c r="I27" s="693"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10099,7 +10104,7 @@
       <c r="E28" s="215">
         <v>2</v>
       </c>
-      <c r="I28" s="706"/>
+      <c r="I28" s="693"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10121,7 +10126,7 @@
       <c r="H29" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="I29" s="707"/>
+      <c r="I29" s="694"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
         <v>273</v>
@@ -10179,13 +10184,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10197,6 +10195,13 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10207,8 +10212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10308,14 +10313,14 @@
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="T1" s="742"/>
+      <c r="T1" s="735"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="726" t="s">
+      <c r="X1" s="719" t="s">
         <v>441</v>
       </c>
-      <c r="Y1" s="727"/>
+      <c r="Y1" s="720"/>
       <c r="Z1" s="306">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10331,27 +10336,27 @@
       <c r="AD1" s="302" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="728" t="s">
+      <c r="AE1" s="721" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="729"/>
-      <c r="AG1" s="730"/>
-      <c r="AH1" s="731" t="s">
+      <c r="AF1" s="722"/>
+      <c r="AG1" s="723"/>
+      <c r="AH1" s="724" t="s">
         <v>293</v>
       </c>
-      <c r="AI1" s="732"/>
-      <c r="AJ1" s="733"/>
-      <c r="AK1" s="659" t="s">
+      <c r="AI1" s="725"/>
+      <c r="AJ1" s="726"/>
+      <c r="AK1" s="613" t="s">
         <v>616</v>
       </c>
       <c r="AL1" s="551" t="s">
         <v>617</v>
       </c>
-      <c r="AM1" s="723" t="s">
+      <c r="AM1" s="716" t="s">
         <v>444</v>
       </c>
-      <c r="AN1" s="724"/>
-      <c r="AO1" s="725"/>
+      <c r="AN1" s="717"/>
+      <c r="AO1" s="718"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10366,27 +10371,27 @@
         <f>K2+L2</f>
         <v>25</v>
       </c>
-      <c r="K2" s="721">
+      <c r="K2" s="743">
         <f>SUM(K4:K37)</f>
         <v>6</v>
       </c>
-      <c r="L2" s="719">
+      <c r="L2" s="741">
         <f>SUM(L4:L37)</f>
         <v>19</v>
       </c>
-      <c r="M2" s="734">
+      <c r="M2" s="727">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="736">
+      <c r="N2" s="729">
         <f>SUM(N4:N29)</f>
         <v>9</v>
       </c>
-      <c r="O2" s="738">
+      <c r="O2" s="731">
         <f>SUM(O4:O29)</f>
         <v>9</v>
       </c>
-      <c r="P2" s="666">
+      <c r="P2" s="637">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-1</v>
       </c>
@@ -10399,14 +10404,14 @@
       <c r="S2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="T2" s="743"/>
+      <c r="T2" s="736"/>
       <c r="U2" s="537" t="s">
         <v>262</v>
       </c>
       <c r="V2" s="482" t="s">
         <v>219</v>
       </c>
-      <c r="W2" s="740" t="s">
+      <c r="W2" s="733" t="s">
         <v>234</v>
       </c>
       <c r="X2" s="483" t="s">
@@ -10448,7 +10453,7 @@
       <c r="AJ2" s="150" t="s">
         <v>288</v>
       </c>
-      <c r="AK2" s="660"/>
+      <c r="AK2" s="614"/>
       <c r="AL2" s="592" t="s">
         <v>288</v>
       </c>
@@ -10476,12 +10481,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="722"/>
-      <c r="L3" s="720"/>
-      <c r="M3" s="735"/>
-      <c r="N3" s="737"/>
-      <c r="O3" s="739"/>
-      <c r="P3" s="667"/>
+      <c r="K3" s="744"/>
+      <c r="L3" s="742"/>
+      <c r="M3" s="728"/>
+      <c r="N3" s="730"/>
+      <c r="O3" s="732"/>
+      <c r="P3" s="638"/>
       <c r="Q3" s="172">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10489,7 +10494,7 @@
       <c r="S3" s="159" t="s">
         <v>244</v>
       </c>
-      <c r="T3" s="744"/>
+      <c r="T3" s="737"/>
       <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
         <v>12</v>
@@ -10498,7 +10503,7 @@
         <f>SUM(V4:V29)</f>
         <v>39</v>
       </c>
-      <c r="W3" s="741"/>
+      <c r="W3" s="734"/>
       <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>8</v>
@@ -10604,7 +10609,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="716">
+      <c r="P4" s="738">
         <v>1</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10690,7 +10695,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="717"/>
+      <c r="P5" s="739"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>340</v>
@@ -10784,7 +10789,7 @@
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="717"/>
+      <c r="P6" s="739"/>
       <c r="Q6" s="19" t="s">
         <v>335</v>
       </c>
@@ -10887,7 +10892,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="717"/>
+      <c r="P7" s="739"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>335</v>
@@ -11003,7 +11008,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="717"/>
+      <c r="P8" s="739"/>
       <c r="Q8" s="21" t="s">
         <v>233</v>
       </c>
@@ -11094,7 +11099,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="717"/>
+      <c r="P9" s="739"/>
       <c r="Q9" s="21" t="s">
         <v>335</v>
       </c>
@@ -11199,7 +11204,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="717"/>
+      <c r="P10" s="739"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>340</v>
@@ -11289,7 +11294,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="717"/>
+      <c r="P11" s="739"/>
       <c r="Q11" s="21" t="s">
         <v>335</v>
       </c>
@@ -11354,14 +11359,14 @@
       <c r="AR11" s="508"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="626" t="s">
+      <c r="A12" s="675" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="681" t="s">
+      <c r="E12" s="625" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="262"/>
@@ -11386,7 +11391,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="717"/>
+      <c r="P12" s="739"/>
       <c r="Q12" s="21" t="s">
         <v>335</v>
       </c>
@@ -11463,14 +11468,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="628"/>
+      <c r="A13" s="677"/>
       <c r="B13" s="584">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="682"/>
+      <c r="E13" s="626"/>
       <c r="F13" s="172">
         <v>0</v>
       </c>
@@ -11494,7 +11499,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="717"/>
+      <c r="P13" s="739"/>
       <c r="Q13" s="21" t="s">
         <v>335</v>
       </c>
@@ -11576,7 +11581,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="717"/>
+      <c r="P14" s="739"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
         <v>339</v>
@@ -11677,7 +11682,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="717"/>
+      <c r="P15" s="739"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
         <v>339</v>
@@ -11769,7 +11774,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="717"/>
+      <c r="P16" s="739"/>
       <c r="Q16" s="21" t="s">
         <v>335</v>
       </c>
@@ -11870,7 +11875,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="717"/>
+      <c r="P17" s="739"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>341</v>
@@ -11970,7 +11975,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="717"/>
+      <c r="P18" s="739"/>
       <c r="Q18" s="21" t="s">
         <v>335</v>
       </c>
@@ -12060,7 +12065,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="717"/>
+      <c r="P19" s="739"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>334</v>
@@ -12168,11 +12173,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="718"/>
+      <c r="P20" s="740"/>
       <c r="Q20" s="603" t="s">
         <v>335</v>
       </c>
-      <c r="R20" s="683"/>
+      <c r="R20" s="627"/>
       <c r="S20" s="534" t="s">
         <v>85</v>
       </c>
@@ -12432,7 +12437,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="633" t="s">
+      <c r="E23" s="682" t="s">
         <v>289</v>
       </c>
       <c r="F23" s="180"/>
@@ -12535,7 +12540,7 @@
       <c r="C24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="634"/>
+      <c r="E24" s="683"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
       <c r="J24" s="571" t="s">
@@ -12560,7 +12565,7 @@
       <c r="Q24" s="603" t="s">
         <v>335</v>
       </c>
-      <c r="R24" s="683"/>
+      <c r="R24" s="627"/>
       <c r="S24" s="534" t="s">
         <v>249</v>
       </c>
@@ -13211,8 +13216,8 @@
       <c r="AR31" s="508"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="650"/>
-      <c r="B32" s="650"/>
+      <c r="A32" s="630"/>
+      <c r="B32" s="630"/>
       <c r="J32" s="572"/>
       <c r="K32" s="587"/>
       <c r="L32" s="581"/>
@@ -13682,7 +13687,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D37" s="382">
         <v>1</v>
@@ -13787,6 +13792,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13798,15 +13812,6 @@
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13874,7 +13879,7 @@
       <c r="V1" s="603" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="683"/>
+      <c r="W1" s="627"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13893,7 +13898,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="759" t="s">
+      <c r="AD1" s="752" t="s">
         <v>211</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13910,10 +13915,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="790" t="s">
+      <c r="F2" s="751" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="747" t="s">
+      <c r="G2" s="779" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13941,10 +13946,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="726" t="s">
+      <c r="V2" s="719" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="727"/>
+      <c r="W2" s="720"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13963,7 +13968,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="760"/>
+      <c r="AD2" s="753"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -13982,8 +13987,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="630"/>
-      <c r="G3" s="748"/>
+      <c r="F3" s="679"/>
+      <c r="G3" s="780"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -13994,13 +13999,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="757" t="s">
+      <c r="O3" s="789" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="771" t="s">
         <v>217</v>
       </c>
-      <c r="Q3" s="779"/>
+      <c r="Q3" s="772"/>
       <c r="S3" s="57" t="s">
         <v>218</v>
       </c>
@@ -14010,15 +14015,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="760"/>
+      <c r="AD3" s="753"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="748"/>
+      <c r="G4" s="780"/>
       <c r="H4" s="6"/>
       <c r="L4" s="687" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="758"/>
+      <c r="O4" s="790"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14032,8 +14037,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="605"/>
-      <c r="AA4" s="683"/>
-      <c r="AD4" s="760"/>
+      <c r="AA4" s="627"/>
+      <c r="AD4" s="753"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14048,21 +14053,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="748"/>
+      <c r="G5" s="780"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="765" t="s">
+      <c r="K5" s="758" t="s">
         <v>215</v>
       </c>
-      <c r="L5" s="780"/>
+      <c r="L5" s="773"/>
       <c r="M5" s="2" t="s">
         <v>213</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="O5" s="758"/>
+      <c r="O5" s="790"/>
       <c r="P5" s="108" t="s">
         <v>214</v>
       </c>
@@ -14078,11 +14083,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="768" t="s">
+      <c r="Y5" s="761" t="s">
         <v>282</v>
       </c>
-      <c r="Z5" s="769"/>
-      <c r="AD5" s="760"/>
+      <c r="Z5" s="762"/>
+      <c r="AD5" s="753"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14092,16 +14097,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="748"/>
+      <c r="G6" s="780"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="766"/>
-      <c r="L6" s="780"/>
-      <c r="O6" s="758"/>
+      <c r="K6" s="759"/>
+      <c r="L6" s="773"/>
+      <c r="O6" s="790"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14111,23 +14116,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="760"/>
+      <c r="AD6" s="753"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="748"/>
+      <c r="G7" s="780"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="766"/>
-      <c r="L7" s="780"/>
+      <c r="K7" s="759"/>
+      <c r="L7" s="773"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="758"/>
+      <c r="O7" s="790"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="760"/>
+      <c r="AD7" s="753"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14140,7 +14145,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="748"/>
+      <c r="G8" s="780"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14150,41 +14155,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="766"/>
-      <c r="L8" s="780"/>
-      <c r="O8" s="758"/>
+      <c r="K8" s="759"/>
+      <c r="L8" s="773"/>
+      <c r="O8" s="790"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="762" t="s">
+      <c r="S8" s="755" t="s">
         <v>210</v>
       </c>
-      <c r="T8" s="763"/>
-      <c r="U8" s="763"/>
-      <c r="V8" s="763"/>
-      <c r="W8" s="763"/>
-      <c r="X8" s="763"/>
-      <c r="Y8" s="763"/>
-      <c r="Z8" s="763"/>
-      <c r="AA8" s="763"/>
-      <c r="AB8" s="763"/>
-      <c r="AC8" s="764"/>
-      <c r="AD8" s="760"/>
+      <c r="T8" s="756"/>
+      <c r="U8" s="756"/>
+      <c r="V8" s="756"/>
+      <c r="W8" s="756"/>
+      <c r="X8" s="756"/>
+      <c r="Y8" s="756"/>
+      <c r="Z8" s="756"/>
+      <c r="AA8" s="756"/>
+      <c r="AB8" s="756"/>
+      <c r="AC8" s="757"/>
+      <c r="AD8" s="753"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="784"/>
-      <c r="G9" s="748"/>
+      <c r="C9" s="745"/>
+      <c r="G9" s="780"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="766"/>
-      <c r="L9" s="751" t="s">
+      <c r="K9" s="759"/>
+      <c r="L9" s="783" t="s">
         <v>216</v>
       </c>
-      <c r="M9" s="752"/>
-      <c r="N9" s="753"/>
-      <c r="O9" s="758"/>
+      <c r="M9" s="784"/>
+      <c r="N9" s="785"/>
+      <c r="O9" s="790"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="760"/>
+      <c r="AD9" s="753"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="785"/>
+      <c r="C10" s="746"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14192,7 +14197,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="748"/>
+      <c r="G10" s="780"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14200,33 +14205,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="766"/>
-      <c r="M10" s="787" t="s">
+      <c r="K10" s="759"/>
+      <c r="M10" s="748" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="788"/>
-      <c r="O10" s="788"/>
-      <c r="P10" s="788"/>
-      <c r="Q10" s="788"/>
-      <c r="R10" s="788"/>
-      <c r="S10" s="788"/>
-      <c r="T10" s="788"/>
-      <c r="U10" s="788"/>
-      <c r="V10" s="788"/>
-      <c r="W10" s="788"/>
-      <c r="X10" s="788"/>
-      <c r="Y10" s="788"/>
-      <c r="Z10" s="788"/>
-      <c r="AA10" s="788"/>
-      <c r="AB10" s="788"/>
-      <c r="AC10" s="789"/>
-      <c r="AD10" s="760"/>
+      <c r="N10" s="749"/>
+      <c r="O10" s="749"/>
+      <c r="P10" s="749"/>
+      <c r="Q10" s="749"/>
+      <c r="R10" s="749"/>
+      <c r="S10" s="749"/>
+      <c r="T10" s="749"/>
+      <c r="U10" s="749"/>
+      <c r="V10" s="749"/>
+      <c r="W10" s="749"/>
+      <c r="X10" s="749"/>
+      <c r="Y10" s="749"/>
+      <c r="Z10" s="749"/>
+      <c r="AA10" s="749"/>
+      <c r="AB10" s="749"/>
+      <c r="AC10" s="750"/>
+      <c r="AD10" s="753"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="786"/>
-      <c r="G11" s="748"/>
+      <c r="C11" s="747"/>
+      <c r="G11" s="780"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="766"/>
+      <c r="K11" s="759"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14234,17 +14239,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="776" t="s">
+      <c r="Z11" s="769" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="777"/>
+      <c r="AA11" s="770"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="760"/>
+      <c r="AD11" s="753"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14257,7 +14262,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="748"/>
+      <c r="G12" s="780"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14265,8 +14270,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="766"/>
-      <c r="L12" s="781" t="s">
+      <c r="K12" s="759"/>
+      <c r="L12" s="774" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14297,25 +14302,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="770" t="s">
+      <c r="AA12" s="763" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="771"/>
+      <c r="AB12" s="764"/>
       <c r="AC12" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="AD12" s="760"/>
+      <c r="AD12" s="753"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="784"/>
-      <c r="G13" s="748"/>
-      <c r="K13" s="766"/>
-      <c r="L13" s="782"/>
+      <c r="C13" s="745"/>
+      <c r="G13" s="780"/>
+      <c r="K13" s="759"/>
+      <c r="L13" s="775"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="750" t="s">
+      <c r="Q13" s="782" t="s">
         <v>208</v>
       </c>
-      <c r="R13" s="639"/>
+      <c r="R13" s="644"/>
       <c r="S13" s="599"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14324,17 +14329,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="772"/>
-      <c r="AB13" s="773"/>
-      <c r="AD13" s="760"/>
+      <c r="AA13" s="765"/>
+      <c r="AB13" s="766"/>
+      <c r="AD13" s="753"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C14" s="786"/>
+      <c r="C14" s="747"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="748"/>
+      <c r="G14" s="780"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14342,8 +14347,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="766"/>
-      <c r="L14" s="782"/>
+      <c r="K14" s="759"/>
+      <c r="L14" s="775"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14364,9 +14369,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="772"/>
-      <c r="AB14" s="773"/>
-      <c r="AD14" s="760"/>
+      <c r="AA14" s="765"/>
+      <c r="AB14" s="766"/>
+      <c r="AD14" s="753"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14381,19 +14386,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="748"/>
+      <c r="G15" s="780"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="766"/>
-      <c r="L15" s="783"/>
-      <c r="Q15" s="750" t="s">
+      <c r="K15" s="759"/>
+      <c r="L15" s="776"/>
+      <c r="Q15" s="782" t="s">
         <v>209</v>
       </c>
-      <c r="R15" s="639"/>
+      <c r="R15" s="644"/>
       <c r="S15" s="599"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14402,14 +14407,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="772"/>
-      <c r="AB15" s="773"/>
-      <c r="AD15" s="760"/>
+      <c r="AA15" s="765"/>
+      <c r="AB15" s="766"/>
+      <c r="AD15" s="753"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="748"/>
-      <c r="K16" s="766"/>
+      <c r="G16" s="780"/>
+      <c r="K16" s="759"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14428,24 +14433,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="772"/>
-      <c r="AB16" s="773"/>
-      <c r="AD16" s="760"/>
+      <c r="AA16" s="765"/>
+      <c r="AB16" s="766"/>
+      <c r="AD16" s="753"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="745" t="s">
+      <c r="F17" s="777" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="748"/>
+      <c r="G17" s="780"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="766"/>
+      <c r="K17" s="759"/>
       <c r="S17" s="599"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14453,9 +14458,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="772"/>
-      <c r="AB17" s="773"/>
-      <c r="AD17" s="760"/>
+      <c r="AA17" s="765"/>
+      <c r="AB17" s="766"/>
+      <c r="AD17" s="753"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14465,15 +14470,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="746"/>
-      <c r="G18" s="748"/>
+      <c r="F18" s="778"/>
+      <c r="G18" s="780"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="766"/>
+      <c r="K18" s="759"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14484,39 +14489,42 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="774"/>
-      <c r="AB18" s="775"/>
-      <c r="AD18" s="760"/>
+      <c r="AA18" s="767"/>
+      <c r="AB18" s="768"/>
+      <c r="AD18" s="753"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="749"/>
-      <c r="K19" s="767"/>
+      <c r="G19" s="781"/>
+      <c r="K19" s="760"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="754" t="s">
+      <c r="R19" s="786" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="755"/>
-      <c r="T19" s="756"/>
+      <c r="S19" s="787"/>
+      <c r="T19" s="788"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="761"/>
+      <c r="AD19" s="754"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14528,14 +14536,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.9.xlsx
+++ b/System_2.1.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C49918-BCBD-4F56-90F6-65A49BD885DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6A46D6-CD2E-4A8A-880E-EB45FADC4C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -1913,7 +1913,7 @@
     <t>15F</t>
   </si>
   <si>
-    <t>3F</t>
+    <t>3M 3F</t>
   </si>
 </sst>
 </file>
@@ -5036,6 +5036,186 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5048,12 +5228,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5065,12 +5239,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -5093,190 +5261,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5318,43 +5357,25 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5423,46 +5444,46 @@
     <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5540,46 +5561,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5878,7 +5878,7 @@
   <dimension ref="B1:X28"/>
   <sheetViews>
     <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6916,7 +6916,7 @@
       <c r="H1" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="613" t="s">
+      <c r="I1" s="659" t="s">
         <v>369</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6952,7 +6952,7 @@
       <c r="X1" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="657" t="s">
+      <c r="Y1" s="653" t="s">
         <v>529</v>
       </c>
       <c r="Z1" s="406">
@@ -6977,7 +6977,7 @@
         <v>498</v>
       </c>
       <c r="AM1" s="402"/>
-      <c r="AN1" s="640"/>
+      <c r="AN1" s="635"/>
       <c r="AO1" s="338" t="s">
         <v>469</v>
       </c>
@@ -6986,23 +6986,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="666">
+      <c r="A2" s="617">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="668" t="s">
+      <c r="B2" s="619" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="645" t="s">
+      <c r="C2" s="615" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="670" t="s">
+      <c r="D2" s="621" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="609" t="s">
+      <c r="E2" s="669" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="619" t="s">
+      <c r="F2" s="640" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="393" t="s">
@@ -7011,31 +7011,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="614"/>
+      <c r="I2" s="660"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="611" t="s">
+      <c r="K2" s="671" t="s">
         <v>342</v>
       </c>
-      <c r="L2" s="612"/>
-      <c r="M2" s="619" t="s">
+      <c r="L2" s="672"/>
+      <c r="M2" s="640" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="649" t="s">
+      <c r="O2" s="644" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="645" t="s">
+      <c r="Q2" s="615" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="598"/>
-      <c r="S2" s="634" t="s">
+      <c r="S2" s="657" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7045,7 +7045,7 @@
       <c r="X2" s="431" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="658"/>
+      <c r="Y2" s="654"/>
       <c r="Z2" s="407">
         <v>1</v>
       </c>
@@ -7068,15 +7068,15 @@
         <v>463</v>
       </c>
       <c r="AM2" s="428"/>
-      <c r="AN2" s="641"/>
+      <c r="AN2" s="636"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="667"/>
-      <c r="B3" s="669"/>
-      <c r="C3" s="646"/>
-      <c r="D3" s="671"/>
-      <c r="E3" s="610"/>
-      <c r="F3" s="620"/>
+      <c r="A3" s="618"/>
+      <c r="B3" s="620"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="622"/>
+      <c r="E3" s="670"/>
+      <c r="F3" s="641"/>
       <c r="G3" s="394" t="s">
         <v>28</v>
       </c>
@@ -7095,17 +7095,17 @@
       <c r="L3" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="620"/>
+      <c r="M3" s="641"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="650"/>
+      <c r="O3" s="645"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="646"/>
+      <c r="Q3" s="616"/>
       <c r="R3" s="600"/>
-      <c r="S3" s="636"/>
+      <c r="S3" s="658"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7113,7 +7113,7 @@
       <c r="X3" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="658"/>
+      <c r="Y3" s="654"/>
       <c r="Z3" s="408">
         <v>1</v>
       </c>
@@ -7122,7 +7122,7 @@
       <c r="AC3" s="100" t="s">
         <v>480</v>
       </c>
-      <c r="AD3" s="631" t="s">
+      <c r="AD3" s="656" t="s">
         <v>455</v>
       </c>
       <c r="AE3" s="257"/>
@@ -7134,16 +7134,16 @@
       <c r="AK3" s="257"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="428"/>
-      <c r="AN3" s="641"/>
+      <c r="AN3" s="636"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="682" t="s">
+      <c r="B4" s="633" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="645" t="s">
+      <c r="C4" s="615" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="347" t="s">
@@ -7152,7 +7152,7 @@
       <c r="E4" s="378">
         <v>2</v>
       </c>
-      <c r="F4" s="620"/>
+      <c r="F4" s="641"/>
       <c r="G4" s="381" t="s">
         <v>201</v>
       </c>
@@ -7169,11 +7169,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="204"/>
-      <c r="M4" s="620"/>
+      <c r="M4" s="641"/>
       <c r="N4" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="650"/>
+      <c r="O4" s="645"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7195,12 +7195,12 @@
       <c r="X4" s="431" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="658"/>
+      <c r="Y4" s="654"/>
       <c r="Z4" s="409"/>
       <c r="AA4" s="307"/>
       <c r="AB4" s="209"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="631"/>
+      <c r="AD4" s="656"/>
       <c r="AE4" s="257"/>
       <c r="AF4" s="257"/>
       <c r="AG4" s="16"/>
@@ -7210,37 +7210,37 @@
       <c r="AK4" s="257"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="428"/>
-      <c r="AN4" s="641"/>
+      <c r="AN4" s="636"/>
       <c r="AO4" s="338" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="613" t="s">
+      <c r="A5" s="659" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="683"/>
-      <c r="C5" s="646"/>
+      <c r="B5" s="634"/>
+      <c r="C5" s="616"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="379">
         <v>1</v>
       </c>
-      <c r="F5" s="620"/>
-      <c r="G5" s="674" t="s">
+      <c r="F5" s="641"/>
+      <c r="G5" s="625" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="674"/>
-      <c r="I5" s="674"/>
-      <c r="J5" s="674"/>
-      <c r="K5" s="674"/>
-      <c r="L5" s="675"/>
-      <c r="M5" s="620"/>
+      <c r="H5" s="625"/>
+      <c r="I5" s="625"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="626"/>
+      <c r="M5" s="641"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="650"/>
+      <c r="O5" s="645"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7248,7 +7248,7 @@
       <c r="X5" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="658"/>
+      <c r="Y5" s="654"/>
       <c r="Z5" s="409">
         <v>1</v>
       </c>
@@ -7271,24 +7271,24 @@
       <c r="AK5" s="257"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="428"/>
-      <c r="AN5" s="641"/>
+      <c r="AN5" s="636"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="614"/>
-      <c r="B6" s="680" t="s">
+      <c r="A6" s="660"/>
+      <c r="B6" s="631" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="629"/>
-      <c r="F6" s="620"/>
-      <c r="G6" s="676"/>
-      <c r="H6" s="676"/>
-      <c r="I6" s="676"/>
-      <c r="J6" s="676"/>
-      <c r="K6" s="676"/>
-      <c r="L6" s="677"/>
-      <c r="M6" s="620"/>
-      <c r="O6" s="650"/>
+      <c r="C6" s="661"/>
+      <c r="D6" s="662"/>
+      <c r="F6" s="641"/>
+      <c r="G6" s="627"/>
+      <c r="H6" s="627"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="627"/>
+      <c r="L6" s="628"/>
+      <c r="M6" s="641"/>
+      <c r="O6" s="645"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7298,7 +7298,7 @@
       <c r="X6" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="658"/>
+      <c r="Y6" s="654"/>
       <c r="Z6" s="407">
         <v>1</v>
       </c>
@@ -7312,16 +7312,16 @@
       <c r="AF6" s="257"/>
       <c r="AG6" s="257"/>
       <c r="AH6" s="257"/>
-      <c r="AI6" s="630"/>
+      <c r="AI6" s="650"/>
       <c r="AJ6" s="441" t="s">
         <v>458</v>
       </c>
-      <c r="AK6" s="630" t="s">
+      <c r="AK6" s="650" t="s">
         <v>251</v>
       </c>
       <c r="AL6" s="257"/>
       <c r="AM6" s="428"/>
-      <c r="AN6" s="641"/>
+      <c r="AN6" s="636"/>
       <c r="AO6" s="338" t="s">
         <v>470</v>
       </c>
@@ -7330,7 +7330,7 @@
       <c r="A7" s="232" t="s">
         <v>572</v>
       </c>
-      <c r="B7" s="681"/>
+      <c r="B7" s="632"/>
       <c r="C7" s="202" t="s">
         <v>374</v>
       </c>
@@ -7340,7 +7340,7 @@
       <c r="E7" s="265">
         <v>3</v>
       </c>
-      <c r="F7" s="620"/>
+      <c r="F7" s="641"/>
       <c r="G7" s="395">
         <v>0</v>
       </c>
@@ -7359,8 +7359,8 @@
       <c r="L7" s="212">
         <v>0</v>
       </c>
-      <c r="M7" s="620"/>
-      <c r="O7" s="650"/>
+      <c r="M7" s="641"/>
+      <c r="O7" s="645"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7374,7 +7374,7 @@
       <c r="X7" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="658"/>
+      <c r="Y7" s="654"/>
       <c r="Z7" s="407">
         <v>1</v>
       </c>
@@ -7384,18 +7384,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
-      <c r="AG7" s="631" t="s">
+      <c r="AG7" s="656" t="s">
         <v>454</v>
       </c>
       <c r="AH7" s="257"/>
-      <c r="AI7" s="630"/>
+      <c r="AI7" s="650"/>
       <c r="AJ7" s="257"/>
-      <c r="AK7" s="630"/>
+      <c r="AK7" s="650"/>
       <c r="AL7" s="80" t="s">
         <v>496</v>
       </c>
       <c r="AM7" s="428"/>
-      <c r="AN7" s="641"/>
+      <c r="AN7" s="636"/>
       <c r="AP7" s="76" t="s">
         <v>471</v>
       </c>
@@ -7412,27 +7412,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="620"/>
-      <c r="G8" s="675">
-        <v>0</v>
-      </c>
-      <c r="H8" s="672" t="s">
+      <c r="F8" s="641"/>
+      <c r="G8" s="626">
+        <v>0</v>
+      </c>
+      <c r="H8" s="623" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="598">
         <v>0</v>
       </c>
-      <c r="J8" s="672" t="s">
+      <c r="J8" s="623" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="678"/>
-      <c r="L8" s="632"/>
-      <c r="M8" s="647"/>
-      <c r="N8" s="637">
+      <c r="K8" s="629"/>
+      <c r="L8" s="663"/>
+      <c r="M8" s="642"/>
+      <c r="N8" s="666">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="650"/>
+      <c r="O8" s="645"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7442,7 +7442,7 @@
       <c r="X8" s="431" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="658"/>
+      <c r="Y8" s="654"/>
       <c r="Z8" s="409"/>
       <c r="AA8" s="307"/>
       <c r="AB8" s="209"/>
@@ -7450,14 +7450,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
-      <c r="AG8" s="631"/>
+      <c r="AG8" s="656"/>
       <c r="AH8" s="257"/>
-      <c r="AI8" s="630"/>
+      <c r="AI8" s="650"/>
       <c r="AJ8" s="257"/>
       <c r="AK8" s="257"/>
       <c r="AL8" s="257"/>
       <c r="AM8" s="428"/>
-      <c r="AN8" s="641"/>
+      <c r="AN8" s="636"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
@@ -7472,17 +7472,17 @@
       <c r="D9" s="348" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="620"/>
-      <c r="G9" s="677"/>
-      <c r="H9" s="673"/>
+      <c r="F9" s="641"/>
+      <c r="G9" s="628"/>
+      <c r="H9" s="624"/>
       <c r="I9" s="600"/>
-      <c r="J9" s="673"/>
-      <c r="K9" s="679"/>
-      <c r="L9" s="633"/>
-      <c r="M9" s="648"/>
-      <c r="N9" s="638"/>
-      <c r="O9" s="651"/>
-      <c r="S9" s="634" t="s">
+      <c r="J9" s="624"/>
+      <c r="K9" s="630"/>
+      <c r="L9" s="664"/>
+      <c r="M9" s="643"/>
+      <c r="N9" s="667"/>
+      <c r="O9" s="646"/>
+      <c r="S9" s="657" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7494,7 +7494,7 @@
       <c r="X9" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="658"/>
+      <c r="Y9" s="654"/>
       <c r="Z9" s="410"/>
       <c r="AA9" s="307"/>
       <c r="AB9" s="209"/>
@@ -7504,16 +7504,16 @@
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
-      <c r="AG9" s="631"/>
+      <c r="AG9" s="656"/>
       <c r="AH9" s="257"/>
-      <c r="AI9" s="630"/>
+      <c r="AI9" s="650"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="630" t="s">
+      <c r="AK9" s="650" t="s">
         <v>251</v>
       </c>
       <c r="AL9" s="257"/>
       <c r="AM9" s="428"/>
-      <c r="AN9" s="641"/>
+      <c r="AN9" s="636"/>
       <c r="AP9" s="2" t="s">
         <v>508</v>
       </c>
@@ -7530,20 +7530,20 @@
         <f>Boat!W8</f>
         <v>39</v>
       </c>
-      <c r="F10" s="620"/>
+      <c r="F10" s="641"/>
       <c r="N10" s="418" t="s">
         <v>396</v>
       </c>
-      <c r="O10" s="622" t="s">
+      <c r="O10" s="678" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="652" t="s">
+      <c r="P10" s="647" t="s">
         <v>400</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="635"/>
+      <c r="S10" s="665"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7555,7 +7555,7 @@
       <c r="X10" s="431" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="658"/>
+      <c r="Y10" s="654"/>
       <c r="Z10" s="409">
         <v>0</v>
       </c>
@@ -7573,16 +7573,16 @@
       <c r="AF10" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="AG10" s="631"/>
+      <c r="AG10" s="656"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="630"/>
+      <c r="AI10" s="650"/>
       <c r="AJ10" s="257"/>
-      <c r="AK10" s="630"/>
+      <c r="AK10" s="650"/>
       <c r="AL10" s="257"/>
       <c r="AM10" s="442" t="s">
         <v>318</v>
       </c>
-      <c r="AN10" s="641"/>
+      <c r="AN10" s="636"/>
       <c r="AO10" s="204" t="s">
         <v>94</v>
       </c>
@@ -7600,18 +7600,18 @@
       <c r="D11" s="170" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="620"/>
+      <c r="F11" s="641"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="623"/>
-      <c r="P11" s="653"/>
+      <c r="O11" s="679"/>
+      <c r="P11" s="648"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="635"/>
+      <c r="S11" s="665"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7621,7 +7621,7 @@
       <c r="X11" s="431" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="658"/>
+      <c r="Y11" s="654"/>
       <c r="Z11" s="409"/>
       <c r="AA11" s="307">
         <v>1</v>
@@ -7635,14 +7635,14 @@
       <c r="AF11" s="257" t="s">
         <v>476</v>
       </c>
-      <c r="AG11" s="631"/>
+      <c r="AG11" s="656"/>
       <c r="AH11" s="257"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="257"/>
       <c r="AK11" s="257"/>
       <c r="AL11" s="257"/>
       <c r="AM11" s="428"/>
-      <c r="AN11" s="641"/>
+      <c r="AN11" s="636"/>
       <c r="AP11" s="76" t="s">
         <v>484</v>
       </c>
@@ -7661,7 +7661,7 @@
       <c r="E12" s="224">
         <v>3</v>
       </c>
-      <c r="F12" s="620"/>
+      <c r="F12" s="641"/>
       <c r="G12" s="337" t="s">
         <v>400</v>
       </c>
@@ -7670,16 +7670,16 @@
       </c>
       <c r="I12" s="605"/>
       <c r="J12" s="605"/>
-      <c r="K12" s="627"/>
+      <c r="K12" s="683"/>
       <c r="L12" s="203"/>
       <c r="M12" s="203"/>
       <c r="N12" s="203"/>
-      <c r="O12" s="623"/>
-      <c r="P12" s="653"/>
+      <c r="O12" s="679"/>
+      <c r="P12" s="648"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="636"/>
+      <c r="S12" s="658"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7689,7 +7689,7 @@
       <c r="X12" s="431" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="658"/>
+      <c r="Y12" s="654"/>
       <c r="Z12" s="407">
         <v>1</v>
       </c>
@@ -7700,16 +7700,16 @@
       <c r="AC12" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD12" s="639" t="s">
+      <c r="AD12" s="668" t="s">
         <v>240</v>
       </c>
       <c r="AE12" s="441" t="s">
         <v>239</v>
       </c>
-      <c r="AF12" s="631" t="s">
+      <c r="AF12" s="656" t="s">
         <v>228</v>
       </c>
-      <c r="AG12" s="631"/>
+      <c r="AG12" s="656"/>
       <c r="AH12" s="238" t="s">
         <v>259</v>
       </c>
@@ -7719,10 +7719,10 @@
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
-      <c r="AM12" s="655" t="s">
+      <c r="AM12" s="651" t="s">
         <v>249</v>
       </c>
-      <c r="AN12" s="641"/>
+      <c r="AN12" s="636"/>
       <c r="AO12" s="338" t="s">
         <v>96</v>
       </c>
@@ -7734,17 +7734,17 @@
       <c r="E13" s="448">
         <v>-3</v>
       </c>
-      <c r="F13" s="620"/>
+      <c r="F13" s="641"/>
       <c r="G13" s="605" t="s">
         <v>430</v>
       </c>
       <c r="H13" s="605"/>
       <c r="I13" s="605"/>
-      <c r="J13" s="627"/>
+      <c r="J13" s="683"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="623"/>
-      <c r="P13" s="654"/>
+      <c r="O13" s="679"/>
+      <c r="P13" s="649"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7754,7 +7754,7 @@
       <c r="X13" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="658"/>
+      <c r="Y13" s="654"/>
       <c r="Z13" s="407">
         <v>1</v>
       </c>
@@ -7765,8 +7765,8 @@
         <v>500</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="639"/>
-      <c r="AF13" s="631"/>
+      <c r="AD13" s="668"/>
+      <c r="AF13" s="656"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
         <v>308</v>
@@ -7777,8 +7777,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
       <c r="AL13" s="257"/>
-      <c r="AM13" s="655"/>
-      <c r="AN13" s="641"/>
+      <c r="AM13" s="651"/>
+      <c r="AN13" s="636"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="450"/>
@@ -7786,18 +7786,18 @@
       <c r="C14" s="459"/>
       <c r="D14" s="452"/>
       <c r="E14" s="453"/>
-      <c r="F14" s="620"/>
+      <c r="F14" s="641"/>
       <c r="G14" s="605" t="s">
         <v>429</v>
       </c>
       <c r="H14" s="605"/>
       <c r="I14" s="605"/>
-      <c r="J14" s="627"/>
+      <c r="J14" s="683"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="623"/>
+      <c r="O14" s="679"/>
       <c r="Q14" s="61" t="s">
         <v>533</v>
       </c>
@@ -7811,24 +7811,24 @@
       <c r="X14" s="431" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="658"/>
+      <c r="Y14" s="654"/>
       <c r="Z14" s="407">
         <v>1</v>
       </c>
       <c r="AA14" s="307"/>
       <c r="AB14" s="209"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="639"/>
+      <c r="AD14" s="668"/>
       <c r="AE14" s="257"/>
-      <c r="AF14" s="631"/>
+      <c r="AF14" s="656"/>
       <c r="AG14" s="257"/>
       <c r="AH14" s="257"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="257"/>
       <c r="AK14" s="257"/>
       <c r="AL14" s="257"/>
-      <c r="AM14" s="655"/>
-      <c r="AN14" s="641"/>
+      <c r="AM14" s="651"/>
+      <c r="AN14" s="636"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="449" t="s">
@@ -7837,8 +7837,8 @@
       <c r="C15" s="598" t="s">
         <v>373</v>
       </c>
-      <c r="F15" s="620"/>
-      <c r="O15" s="623"/>
+      <c r="F15" s="641"/>
+      <c r="O15" s="679"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7851,7 +7851,7 @@
       <c r="X15" s="431" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="658"/>
+      <c r="Y15" s="654"/>
       <c r="Z15" s="409">
         <v>1</v>
       </c>
@@ -7860,8 +7860,8 @@
       <c r="AC15" s="76" t="s">
         <v>479</v>
       </c>
-      <c r="AD15" s="639"/>
-      <c r="AF15" s="631"/>
+      <c r="AD15" s="668"/>
+      <c r="AF15" s="656"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
         <v>448</v>
@@ -7874,8 +7874,8 @@
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
-      <c r="AM15" s="655"/>
-      <c r="AN15" s="641"/>
+      <c r="AM15" s="651"/>
+      <c r="AN15" s="636"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7897,13 +7897,13 @@
       <c r="E16" s="224">
         <v>1</v>
       </c>
-      <c r="F16" s="620"/>
+      <c r="F16" s="641"/>
       <c r="G16" s="337" t="s">
         <v>488</v>
       </c>
       <c r="I16" s="469"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="623"/>
+      <c r="O16" s="679"/>
       <c r="R16" s="435" t="s">
         <v>184</v>
       </c>
@@ -7914,7 +7914,7 @@
       <c r="X16" s="431" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="658"/>
+      <c r="Y16" s="654"/>
       <c r="Z16" s="407">
         <v>1</v>
       </c>
@@ -7935,18 +7935,18 @@
       <c r="AM16" s="428" t="s">
         <v>317</v>
       </c>
-      <c r="AN16" s="641"/>
+      <c r="AN16" s="636"/>
       <c r="AP16" s="76" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="620"/>
+      <c r="F17" s="641"/>
       <c r="I17" s="470"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="623"/>
+      <c r="O17" s="679"/>
       <c r="Q17" s="21" t="s">
         <v>531</v>
       </c>
@@ -7966,7 +7966,7 @@
       <c r="X17" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="658"/>
+      <c r="Y17" s="654"/>
       <c r="Z17" s="409"/>
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
@@ -7991,7 +7991,7 @@
       <c r="AK17" s="257"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="428"/>
-      <c r="AN17" s="641"/>
+      <c r="AN17" s="636"/>
       <c r="AO17" s="204" t="s">
         <v>497</v>
       </c>
@@ -8015,21 +8015,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="620"/>
+      <c r="F18" s="641"/>
       <c r="G18" s="337" t="s">
         <v>528</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="623"/>
+      <c r="O18" s="679"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="615" t="s">
+      <c r="R18" s="673" t="s">
         <v>536</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="663" t="s">
+      <c r="U18" s="612" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8039,7 +8039,7 @@
       <c r="X18" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="658"/>
+      <c r="Y18" s="654"/>
       <c r="Z18" s="409">
         <v>1</v>
       </c>
@@ -8050,38 +8050,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
-      <c r="AF18" s="630" t="s">
+      <c r="AF18" s="650" t="s">
         <v>475</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="656" t="s">
+      <c r="AJ18" s="652" t="s">
         <v>315</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="428"/>
-      <c r="AN18" s="641"/>
+      <c r="AN18" s="636"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="620"/>
+      <c r="F19" s="641"/>
       <c r="I19" s="219"/>
-      <c r="O19" s="623"/>
-      <c r="R19" s="616"/>
+      <c r="O19" s="679"/>
+      <c r="R19" s="674"/>
       <c r="S19" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="U19" s="664"/>
+      <c r="U19" s="613"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="431" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="658"/>
+      <c r="Y19" s="654"/>
       <c r="Z19" s="407">
         <v>1</v>
       </c>
@@ -8090,17 +8090,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="257"/>
-      <c r="AF19" s="630"/>
+      <c r="AF19" s="650"/>
       <c r="AG19" s="257"/>
       <c r="AH19" s="257"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="656"/>
+      <c r="AJ19" s="652"/>
       <c r="AK19" s="460" t="s">
         <v>251</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="428"/>
-      <c r="AN19" s="641"/>
+      <c r="AN19" s="636"/>
       <c r="AP19" s="76" t="s">
         <v>468</v>
       </c>
@@ -8121,24 +8121,24 @@
       <c r="E20" s="437">
         <v>-1</v>
       </c>
-      <c r="F20" s="620"/>
+      <c r="F20" s="641"/>
       <c r="G20" s="337" t="s">
         <v>491</v>
       </c>
       <c r="I20" s="219"/>
-      <c r="O20" s="623"/>
-      <c r="Q20" s="625" t="s">
+      <c r="O20" s="679"/>
+      <c r="Q20" s="681" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="665"/>
+      <c r="U20" s="614"/>
       <c r="W20" s="405"/>
       <c r="X20" s="432" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="658"/>
+      <c r="Y20" s="654"/>
       <c r="Z20" s="411">
         <v>1</v>
       </c>
@@ -8163,7 +8163,7 @@
       <c r="AM20" s="381" t="s">
         <v>249</v>
       </c>
-      <c r="AN20" s="641"/>
+      <c r="AN20" s="636"/>
       <c r="AO20" s="338" t="s">
         <v>460</v>
       </c>
@@ -8184,20 +8184,20 @@
       <c r="E21" s="265">
         <v>0</v>
       </c>
-      <c r="F21" s="620"/>
+      <c r="F21" s="641"/>
       <c r="I21" s="219"/>
-      <c r="O21" s="623"/>
-      <c r="Q21" s="626"/>
+      <c r="O21" s="679"/>
+      <c r="Q21" s="682"/>
       <c r="T21" s="422"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="660"/>
+      <c r="V21" s="609"/>
       <c r="W21" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="429" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="658"/>
+      <c r="Y21" s="654"/>
       <c r="Z21" s="445">
         <v>3</v>
       </c>
@@ -8228,15 +8228,15 @@
       <c r="AM21" s="428" t="s">
         <v>545</v>
       </c>
-      <c r="AN21" s="641"/>
+      <c r="AN21" s="636"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="620"/>
+      <c r="F22" s="641"/>
       <c r="G22" s="337" t="s">
         <v>489</v>
       </c>
       <c r="I22" s="219"/>
-      <c r="O22" s="623"/>
+      <c r="O22" s="679"/>
       <c r="R22" s="434" t="s">
         <v>44</v>
       </c>
@@ -8244,14 +8244,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="661"/>
+      <c r="V22" s="610"/>
       <c r="W22" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="429" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="658"/>
+      <c r="Y22" s="654"/>
       <c r="Z22" s="415"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="415"/>
@@ -8262,7 +8262,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="630" t="s">
+      <c r="AJ22" s="650" t="s">
         <v>472</v>
       </c>
       <c r="AK22" s="257"/>
@@ -8270,7 +8270,7 @@
         <v>478</v>
       </c>
       <c r="AM22" s="300"/>
-      <c r="AN22" s="641"/>
+      <c r="AN22" s="636"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
@@ -8288,22 +8288,22 @@
       <c r="E23" s="225">
         <v>1</v>
       </c>
-      <c r="F23" s="620"/>
+      <c r="F23" s="641"/>
       <c r="I23" s="219"/>
-      <c r="O23" s="623"/>
-      <c r="Q23" s="625" t="s">
+      <c r="O23" s="679"/>
+      <c r="Q23" s="681" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="661"/>
+      <c r="V23" s="610"/>
       <c r="W23" s="148"/>
       <c r="X23" s="429" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="658"/>
+      <c r="Y23" s="654"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="415"/>
@@ -8314,13 +8314,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="630"/>
+      <c r="AJ23" s="650"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
         <v>507</v>
       </c>
       <c r="AM23" s="300"/>
-      <c r="AN23" s="641"/>
+      <c r="AN23" s="636"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="440" t="s">
@@ -8338,23 +8338,23 @@
       <c r="E24" s="436">
         <v>1</v>
       </c>
-      <c r="F24" s="620"/>
+      <c r="F24" s="641"/>
       <c r="G24" s="61" t="s">
         <v>490</v>
       </c>
       <c r="I24" s="219"/>
-      <c r="O24" s="623"/>
-      <c r="Q24" s="626"/>
+      <c r="O24" s="679"/>
+      <c r="Q24" s="682"/>
       <c r="T24" s="17"/>
       <c r="U24" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="661"/>
+      <c r="V24" s="610"/>
       <c r="W24" s="148"/>
       <c r="X24" s="429" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="658"/>
+      <c r="Y24" s="654"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="415"/>
@@ -8373,12 +8373,12 @@
         <v>463</v>
       </c>
       <c r="AM24" s="300"/>
-      <c r="AN24" s="641"/>
+      <c r="AN24" s="636"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="620"/>
+      <c r="F25" s="641"/>
       <c r="I25" s="219"/>
-      <c r="O25" s="623"/>
+      <c r="O25" s="679"/>
       <c r="P25" s="204" t="s">
         <v>280</v>
       </c>
@@ -8391,12 +8391,12 @@
       <c r="U25" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="662"/>
+      <c r="V25" s="611"/>
       <c r="W25" s="148"/>
       <c r="X25" s="429" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="658"/>
+      <c r="Y25" s="654"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="415"/>
@@ -8413,7 +8413,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="300"/>
-      <c r="AN25" s="641"/>
+      <c r="AN25" s="636"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
@@ -8431,17 +8431,17 @@
       <c r="E26" s="380">
         <v>1</v>
       </c>
-      <c r="F26" s="620"/>
+      <c r="F26" s="641"/>
       <c r="G26" s="337" t="s">
         <v>487</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="O26" s="623"/>
-      <c r="P26" s="643" t="s">
+      <c r="O26" s="679"/>
+      <c r="P26" s="638" t="s">
         <v>526</v>
       </c>
-      <c r="Q26" s="644"/>
-      <c r="R26" s="617" t="s">
+      <c r="Q26" s="639"/>
+      <c r="R26" s="675" t="s">
         <v>535</v>
       </c>
       <c r="T26" s="178"/>
@@ -8453,7 +8453,7 @@
       <c r="X26" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="658"/>
+      <c r="Y26" s="654"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="415"/>
@@ -8480,7 +8480,7 @@
       <c r="AM26" s="442" t="s">
         <v>456</v>
       </c>
-      <c r="AN26" s="641"/>
+      <c r="AN26" s="636"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8492,13 +8492,13 @@
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="621"/>
+      <c r="F27" s="677"/>
       <c r="G27" s="61" t="s">
         <v>544</v>
       </c>
       <c r="I27" s="220"/>
-      <c r="O27" s="624"/>
-      <c r="R27" s="618"/>
+      <c r="O27" s="680"/>
+      <c r="R27" s="676"/>
       <c r="S27" s="421" t="s">
         <v>54</v>
       </c>
@@ -8511,7 +8511,7 @@
       <c r="X27" s="429" t="s">
         <v>530</v>
       </c>
-      <c r="Y27" s="659"/>
+      <c r="Y27" s="655"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="416"/>
@@ -8528,10 +8528,48 @@
       <c r="AM27" s="381" t="s">
         <v>319</v>
       </c>
-      <c r="AN27" s="642"/>
+      <c r="AN27" s="637"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8548,44 +8586,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8622,12 +8622,12 @@
       <c r="B1" s="603" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="627"/>
+      <c r="C1" s="683"/>
       <c r="D1" s="204"/>
       <c r="J1" s="603" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="627"/>
+      <c r="K1" s="683"/>
       <c r="L1" s="195" t="s">
         <v>330</v>
       </c>
@@ -8961,7 +8961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
@@ -9030,7 +9030,7 @@
       <c r="P1" s="398" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" s="701" t="s">
+      <c r="Q1" s="714" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9054,7 +9054,7 @@
       <c r="AA1" s="517" t="s">
         <v>437</v>
       </c>
-      <c r="AB1" s="695" t="s">
+      <c r="AB1" s="708" t="s">
         <v>594</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9076,32 +9076,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="706">
+      <c r="A2" s="693">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="B2" s="708" t="s">
+      <c r="B2" s="695" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="645" t="s">
+      <c r="C2" s="615" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="710" t="s">
+      <c r="D2" s="697" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="712" t="s">
+      <c r="E2" s="699" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
         <v>218</v>
       </c>
-      <c r="G2" s="613" t="s">
+      <c r="G2" s="659" t="s">
         <v>372</v>
       </c>
       <c r="H2" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I2" s="692" t="s">
+      <c r="I2" s="705" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="396" t="s">
@@ -9125,7 +9125,7 @@
       <c r="P2" s="399">
         <v>40</v>
       </c>
-      <c r="Q2" s="702"/>
+      <c r="Q2" s="715"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>4</v>
@@ -9150,7 +9150,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="696"/>
+      <c r="AB2" s="709"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>344</v>
@@ -9167,14 +9167,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="707"/>
-      <c r="B3" s="709"/>
-      <c r="C3" s="646"/>
-      <c r="D3" s="711"/>
-      <c r="E3" s="713"/>
-      <c r="G3" s="614"/>
+      <c r="A3" s="694"/>
+      <c r="B3" s="696"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="698"/>
+      <c r="E3" s="700"/>
+      <c r="G3" s="660"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="693"/>
+      <c r="I3" s="706"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9189,7 +9189,7 @@
       <c r="V3" s="470"/>
       <c r="W3" s="6"/>
       <c r="X3" s="470"/>
-      <c r="AB3" s="696"/>
+      <c r="AB3" s="709"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>589</v>
@@ -9214,10 +9214,10 @@
         <v>380</v>
       </c>
       <c r="B4" s="243"/>
-      <c r="C4" s="714" t="s">
+      <c r="C4" s="701" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="706"/>
       <c r="R4" s="471" t="s">
         <v>589</v>
       </c>
@@ -9229,7 +9229,7 @@
       <c r="V4" s="470"/>
       <c r="W4" s="6"/>
       <c r="X4" s="470"/>
-      <c r="AB4" s="696"/>
+      <c r="AB4" s="709"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9256,7 +9256,7 @@
       <c r="B5" s="100" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="715"/>
+      <c r="C5" s="702"/>
       <c r="D5" s="222" t="s">
         <v>102</v>
       </c>
@@ -9272,7 +9272,7 @@
       <c r="H5" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="693"/>
+      <c r="I5" s="706"/>
       <c r="J5" s="397" t="s">
         <v>268</v>
       </c>
@@ -9299,7 +9299,7 @@
       <c r="V5" s="468"/>
       <c r="W5" s="6"/>
       <c r="X5" s="468"/>
-      <c r="AB5" s="696"/>
+      <c r="AB5" s="709"/>
       <c r="AC5" s="2" t="s">
         <v>592</v>
       </c>
@@ -9321,19 +9321,19 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="703" t="s">
+      <c r="A6" s="690" t="s">
         <v>285</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="629"/>
+      <c r="C6" s="661"/>
+      <c r="D6" s="662"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="599"/>
-      <c r="I6" s="693"/>
+      <c r="I6" s="706"/>
       <c r="P6" s="61" t="s">
         <v>592</v>
       </c>
@@ -9345,7 +9345,7 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="696"/>
+      <c r="AB6" s="709"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9361,7 +9361,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="704"/>
+      <c r="A7" s="691"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="599"/>
-      <c r="I7" s="693"/>
+      <c r="I7" s="706"/>
       <c r="M7" s="16" t="s">
         <v>347</v>
       </c>
@@ -9404,7 +9404,7 @@
       <c r="X7" s="469">
         <v>1</v>
       </c>
-      <c r="AB7" s="696"/>
+      <c r="AB7" s="709"/>
       <c r="AC7" s="99" t="s">
         <v>593</v>
       </c>
@@ -9430,7 +9430,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="705"/>
+      <c r="A8" s="692"/>
       <c r="B8" s="212" t="s">
         <v>28</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="599"/>
-      <c r="I8" s="693"/>
+      <c r="I8" s="706"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
@@ -9449,7 +9449,7 @@
       <c r="X8" s="470">
         <v>1</v>
       </c>
-      <c r="AB8" s="696"/>
+      <c r="AB8" s="709"/>
       <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
         <v>612</v>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="G9" s="599"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="693"/>
+      <c r="I9" s="706"/>
       <c r="M9" s="19" t="s">
         <v>525</v>
       </c>
@@ -9493,7 +9493,7 @@
       <c r="X9" s="470">
         <v>1</v>
       </c>
-      <c r="AB9" s="696"/>
+      <c r="AB9" s="709"/>
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9517,7 +9517,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="599"/>
-      <c r="I10" s="693"/>
+      <c r="I10" s="706"/>
       <c r="J10" s="24" t="s">
         <v>372</v>
       </c>
@@ -9532,7 +9532,7 @@
       <c r="V10" s="470"/>
       <c r="W10" s="6"/>
       <c r="X10" s="470"/>
-      <c r="AB10" s="696"/>
+      <c r="AB10" s="709"/>
       <c r="AC10" s="515"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9564,7 +9564,7 @@
         <v>265</v>
       </c>
       <c r="G11" s="599"/>
-      <c r="I11" s="693"/>
+      <c r="I11" s="706"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9590,13 +9590,13 @@
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="698" t="s">
+      <c r="U11" s="711" t="s">
         <v>558</v>
       </c>
-      <c r="V11" s="699"/>
-      <c r="W11" s="699"/>
-      <c r="X11" s="700"/>
-      <c r="AB11" s="697"/>
+      <c r="V11" s="712"/>
+      <c r="W11" s="712"/>
+      <c r="X11" s="713"/>
+      <c r="AB11" s="710"/>
       <c r="AC11" s="99" t="s">
         <v>595</v>
       </c>
@@ -9610,13 +9610,13 @@
         <v>4</v>
       </c>
       <c r="AG11" s="414"/>
-      <c r="AH11" s="698" t="s">
+      <c r="AH11" s="711" t="s">
         <v>603</v>
       </c>
-      <c r="AI11" s="699"/>
-      <c r="AJ11" s="699"/>
-      <c r="AK11" s="699"/>
-      <c r="AL11" s="700"/>
+      <c r="AI11" s="712"/>
+      <c r="AJ11" s="712"/>
+      <c r="AK11" s="712"/>
+      <c r="AL11" s="713"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
@@ -9627,7 +9627,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="599"/>
-      <c r="I12" s="693"/>
+      <c r="I12" s="706"/>
       <c r="J12" s="24" t="s">
         <v>516</v>
       </c>
@@ -9660,7 +9660,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="599"/>
-      <c r="I13" s="693"/>
+      <c r="I13" s="706"/>
       <c r="J13" s="108" t="s">
         <v>548</v>
       </c>
@@ -9704,7 +9704,7 @@
       <c r="H14" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="693"/>
+      <c r="I14" s="706"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9731,7 +9731,7 @@
       <c r="H15" s="271">
         <v>0</v>
       </c>
-      <c r="I15" s="693"/>
+      <c r="I15" s="706"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9762,7 +9762,7 @@
       <c r="D16" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I16" s="693"/>
+      <c r="I16" s="706"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9798,7 +9798,7 @@
       <c r="G17" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I17" s="693"/>
+      <c r="I17" s="706"/>
       <c r="L17" s="2" t="s">
         <v>426</v>
       </c>
@@ -9812,13 +9812,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="693"/>
+      <c r="I18" s="706"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="690" t="s">
+      <c r="O18" s="703" t="s">
         <v>517</v>
       </c>
-      <c r="P18" s="691"/>
+      <c r="P18" s="704"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9840,7 +9840,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="693"/>
+      <c r="I19" s="706"/>
       <c r="M19" s="21" t="s">
         <v>425</v>
       </c>
@@ -9872,7 +9872,7 @@
       <c r="G20" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I20" s="693"/>
+      <c r="I20" s="706"/>
       <c r="K20" s="19" t="s">
         <v>422</v>
       </c>
@@ -9903,7 +9903,7 @@
       <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="693"/>
+      <c r="I21" s="706"/>
       <c r="M21" s="216" t="s">
         <v>411</v>
       </c>
@@ -9937,7 +9937,7 @@
       <c r="G22" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I22" s="693"/>
+      <c r="I22" s="706"/>
       <c r="P22" s="99" t="s">
         <v>591</v>
       </c>
@@ -9952,7 +9952,7 @@
       <c r="E23" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="693"/>
+      <c r="I23" s="706"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>6</v>
@@ -9969,7 +9969,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="693"/>
+      <c r="I24" s="706"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
         <v>0</v>
@@ -9997,7 +9997,7 @@
       <c r="H25" s="191" t="s">
         <v>266</v>
       </c>
-      <c r="I25" s="693"/>
+      <c r="I25" s="706"/>
       <c r="J25" s="397" t="s">
         <v>269</v>
       </c>
@@ -10042,7 +10042,7 @@
       <c r="H26" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="693"/>
+      <c r="I26" s="706"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10077,7 +10077,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="693"/>
+      <c r="I27" s="706"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10104,7 +10104,7 @@
       <c r="E28" s="215">
         <v>2</v>
       </c>
-      <c r="I28" s="693"/>
+      <c r="I28" s="706"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10126,7 +10126,7 @@
       <c r="H29" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="I29" s="694"/>
+      <c r="I29" s="707"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
         <v>273</v>
@@ -10184,6 +10184,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10195,13 +10202,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10212,7 +10212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -10313,14 +10313,14 @@
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="T1" s="735"/>
+      <c r="T1" s="742"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="719" t="s">
+      <c r="X1" s="726" t="s">
         <v>441</v>
       </c>
-      <c r="Y1" s="720"/>
+      <c r="Y1" s="727"/>
       <c r="Z1" s="306">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10336,27 +10336,27 @@
       <c r="AD1" s="302" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="721" t="s">
+      <c r="AE1" s="728" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="722"/>
-      <c r="AG1" s="723"/>
-      <c r="AH1" s="724" t="s">
+      <c r="AF1" s="729"/>
+      <c r="AG1" s="730"/>
+      <c r="AH1" s="731" t="s">
         <v>293</v>
       </c>
-      <c r="AI1" s="725"/>
-      <c r="AJ1" s="726"/>
-      <c r="AK1" s="613" t="s">
+      <c r="AI1" s="732"/>
+      <c r="AJ1" s="733"/>
+      <c r="AK1" s="659" t="s">
         <v>616</v>
       </c>
       <c r="AL1" s="551" t="s">
         <v>617</v>
       </c>
-      <c r="AM1" s="716" t="s">
+      <c r="AM1" s="723" t="s">
         <v>444</v>
       </c>
-      <c r="AN1" s="717"/>
-      <c r="AO1" s="718"/>
+      <c r="AN1" s="724"/>
+      <c r="AO1" s="725"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10371,27 +10371,27 @@
         <f>K2+L2</f>
         <v>25</v>
       </c>
-      <c r="K2" s="743">
+      <c r="K2" s="721">
         <f>SUM(K4:K37)</f>
         <v>6</v>
       </c>
-      <c r="L2" s="741">
+      <c r="L2" s="719">
         <f>SUM(L4:L37)</f>
         <v>19</v>
       </c>
-      <c r="M2" s="727">
+      <c r="M2" s="734">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="729">
+      <c r="N2" s="736">
         <f>SUM(N4:N29)</f>
         <v>9</v>
       </c>
-      <c r="O2" s="731">
+      <c r="O2" s="738">
         <f>SUM(O4:O29)</f>
         <v>9</v>
       </c>
-      <c r="P2" s="637">
+      <c r="P2" s="666">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-1</v>
       </c>
@@ -10404,14 +10404,14 @@
       <c r="S2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="T2" s="736"/>
+      <c r="T2" s="743"/>
       <c r="U2" s="537" t="s">
         <v>262</v>
       </c>
       <c r="V2" s="482" t="s">
         <v>219</v>
       </c>
-      <c r="W2" s="733" t="s">
+      <c r="W2" s="740" t="s">
         <v>234</v>
       </c>
       <c r="X2" s="483" t="s">
@@ -10453,7 +10453,7 @@
       <c r="AJ2" s="150" t="s">
         <v>288</v>
       </c>
-      <c r="AK2" s="614"/>
+      <c r="AK2" s="660"/>
       <c r="AL2" s="592" t="s">
         <v>288</v>
       </c>
@@ -10481,12 +10481,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="744"/>
-      <c r="L3" s="742"/>
-      <c r="M3" s="728"/>
-      <c r="N3" s="730"/>
-      <c r="O3" s="732"/>
-      <c r="P3" s="638"/>
+      <c r="K3" s="722"/>
+      <c r="L3" s="720"/>
+      <c r="M3" s="735"/>
+      <c r="N3" s="737"/>
+      <c r="O3" s="739"/>
+      <c r="P3" s="667"/>
       <c r="Q3" s="172">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10494,7 +10494,7 @@
       <c r="S3" s="159" t="s">
         <v>244</v>
       </c>
-      <c r="T3" s="737"/>
+      <c r="T3" s="744"/>
       <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
         <v>12</v>
@@ -10503,7 +10503,7 @@
         <f>SUM(V4:V29)</f>
         <v>39</v>
       </c>
-      <c r="W3" s="734"/>
+      <c r="W3" s="741"/>
       <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>8</v>
@@ -10609,7 +10609,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="738">
+      <c r="P4" s="716">
         <v>1</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10695,7 +10695,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="739"/>
+      <c r="P5" s="717"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>340</v>
@@ -10789,7 +10789,7 @@
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="739"/>
+      <c r="P6" s="717"/>
       <c r="Q6" s="19" t="s">
         <v>335</v>
       </c>
@@ -10892,7 +10892,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="739"/>
+      <c r="P7" s="717"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>335</v>
@@ -11008,7 +11008,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="739"/>
+      <c r="P8" s="717"/>
       <c r="Q8" s="21" t="s">
         <v>233</v>
       </c>
@@ -11099,7 +11099,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="739"/>
+      <c r="P9" s="717"/>
       <c r="Q9" s="21" t="s">
         <v>335</v>
       </c>
@@ -11204,7 +11204,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="739"/>
+      <c r="P10" s="717"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>340</v>
@@ -11294,7 +11294,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="739"/>
+      <c r="P11" s="717"/>
       <c r="Q11" s="21" t="s">
         <v>335</v>
       </c>
@@ -11359,14 +11359,14 @@
       <c r="AR11" s="508"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="675" t="s">
+      <c r="A12" s="626" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="625" t="s">
+      <c r="E12" s="681" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="262"/>
@@ -11391,7 +11391,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="739"/>
+      <c r="P12" s="717"/>
       <c r="Q12" s="21" t="s">
         <v>335</v>
       </c>
@@ -11468,14 +11468,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="677"/>
+      <c r="A13" s="628"/>
       <c r="B13" s="584">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="626"/>
+      <c r="E13" s="682"/>
       <c r="F13" s="172">
         <v>0</v>
       </c>
@@ -11499,7 +11499,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="739"/>
+      <c r="P13" s="717"/>
       <c r="Q13" s="21" t="s">
         <v>335</v>
       </c>
@@ -11581,7 +11581,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="739"/>
+      <c r="P14" s="717"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
         <v>339</v>
@@ -11682,7 +11682,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="739"/>
+      <c r="P15" s="717"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
         <v>339</v>
@@ -11774,7 +11774,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="739"/>
+      <c r="P16" s="717"/>
       <c r="Q16" s="21" t="s">
         <v>335</v>
       </c>
@@ -11875,7 +11875,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="739"/>
+      <c r="P17" s="717"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>341</v>
@@ -11975,7 +11975,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="739"/>
+      <c r="P18" s="717"/>
       <c r="Q18" s="21" t="s">
         <v>335</v>
       </c>
@@ -12065,7 +12065,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="739"/>
+      <c r="P19" s="717"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>334</v>
@@ -12173,11 +12173,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="740"/>
+      <c r="P20" s="718"/>
       <c r="Q20" s="603" t="s">
         <v>335</v>
       </c>
-      <c r="R20" s="627"/>
+      <c r="R20" s="683"/>
       <c r="S20" s="534" t="s">
         <v>85</v>
       </c>
@@ -12437,7 +12437,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="682" t="s">
+      <c r="E23" s="633" t="s">
         <v>289</v>
       </c>
       <c r="F23" s="180"/>
@@ -12540,7 +12540,7 @@
       <c r="C24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="683"/>
+      <c r="E24" s="634"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
       <c r="J24" s="571" t="s">
@@ -12565,7 +12565,7 @@
       <c r="Q24" s="603" t="s">
         <v>335</v>
       </c>
-      <c r="R24" s="627"/>
+      <c r="R24" s="683"/>
       <c r="S24" s="534" t="s">
         <v>249</v>
       </c>
@@ -13216,8 +13216,8 @@
       <c r="AR31" s="508"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="630"/>
-      <c r="B32" s="630"/>
+      <c r="A32" s="650"/>
+      <c r="B32" s="650"/>
       <c r="J32" s="572"/>
       <c r="K32" s="587"/>
       <c r="L32" s="581"/>
@@ -13792,15 +13792,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13812,6 +13803,15 @@
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13879,7 +13879,7 @@
       <c r="V1" s="603" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="627"/>
+      <c r="W1" s="683"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13898,7 +13898,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="752" t="s">
+      <c r="AD1" s="759" t="s">
         <v>211</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13915,10 +13915,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="751" t="s">
+      <c r="F2" s="790" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="779" t="s">
+      <c r="G2" s="747" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13946,10 +13946,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="719" t="s">
+      <c r="V2" s="726" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="720"/>
+      <c r="W2" s="727"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13968,7 +13968,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="753"/>
+      <c r="AD2" s="760"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -13987,8 +13987,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="679"/>
-      <c r="G3" s="780"/>
+      <c r="F3" s="630"/>
+      <c r="G3" s="748"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -13999,13 +13999,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="789" t="s">
+      <c r="O3" s="757" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="771" t="s">
+      <c r="P3" s="778" t="s">
         <v>217</v>
       </c>
-      <c r="Q3" s="772"/>
+      <c r="Q3" s="779"/>
       <c r="S3" s="57" t="s">
         <v>218</v>
       </c>
@@ -14015,15 +14015,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="753"/>
+      <c r="AD3" s="760"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="780"/>
+      <c r="G4" s="748"/>
       <c r="H4" s="6"/>
       <c r="L4" s="687" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="790"/>
+      <c r="O4" s="758"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14037,8 +14037,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="605"/>
-      <c r="AA4" s="627"/>
-      <c r="AD4" s="753"/>
+      <c r="AA4" s="683"/>
+      <c r="AD4" s="760"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14053,21 +14053,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="780"/>
+      <c r="G5" s="748"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="758" t="s">
+      <c r="K5" s="765" t="s">
         <v>215</v>
       </c>
-      <c r="L5" s="773"/>
+      <c r="L5" s="780"/>
       <c r="M5" s="2" t="s">
         <v>213</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="O5" s="790"/>
+      <c r="O5" s="758"/>
       <c r="P5" s="108" t="s">
         <v>214</v>
       </c>
@@ -14083,11 +14083,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="761" t="s">
+      <c r="Y5" s="768" t="s">
         <v>282</v>
       </c>
-      <c r="Z5" s="762"/>
-      <c r="AD5" s="753"/>
+      <c r="Z5" s="769"/>
+      <c r="AD5" s="760"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14097,16 +14097,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="780"/>
+      <c r="G6" s="748"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="759"/>
-      <c r="L6" s="773"/>
-      <c r="O6" s="790"/>
+      <c r="K6" s="766"/>
+      <c r="L6" s="780"/>
+      <c r="O6" s="758"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14116,23 +14116,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="753"/>
+      <c r="AD6" s="760"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="780"/>
+      <c r="G7" s="748"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="759"/>
-      <c r="L7" s="773"/>
+      <c r="K7" s="766"/>
+      <c r="L7" s="780"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="790"/>
+      <c r="O7" s="758"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="753"/>
+      <c r="AD7" s="760"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14145,7 +14145,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="780"/>
+      <c r="G8" s="748"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14155,41 +14155,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="759"/>
-      <c r="L8" s="773"/>
-      <c r="O8" s="790"/>
+      <c r="K8" s="766"/>
+      <c r="L8" s="780"/>
+      <c r="O8" s="758"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="755" t="s">
+      <c r="S8" s="762" t="s">
         <v>210</v>
       </c>
-      <c r="T8" s="756"/>
-      <c r="U8" s="756"/>
-      <c r="V8" s="756"/>
-      <c r="W8" s="756"/>
-      <c r="X8" s="756"/>
-      <c r="Y8" s="756"/>
-      <c r="Z8" s="756"/>
-      <c r="AA8" s="756"/>
-      <c r="AB8" s="756"/>
-      <c r="AC8" s="757"/>
-      <c r="AD8" s="753"/>
+      <c r="T8" s="763"/>
+      <c r="U8" s="763"/>
+      <c r="V8" s="763"/>
+      <c r="W8" s="763"/>
+      <c r="X8" s="763"/>
+      <c r="Y8" s="763"/>
+      <c r="Z8" s="763"/>
+      <c r="AA8" s="763"/>
+      <c r="AB8" s="763"/>
+      <c r="AC8" s="764"/>
+      <c r="AD8" s="760"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="745"/>
-      <c r="G9" s="780"/>
+      <c r="C9" s="784"/>
+      <c r="G9" s="748"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="759"/>
-      <c r="L9" s="783" t="s">
+      <c r="K9" s="766"/>
+      <c r="L9" s="751" t="s">
         <v>216</v>
       </c>
-      <c r="M9" s="784"/>
-      <c r="N9" s="785"/>
-      <c r="O9" s="790"/>
+      <c r="M9" s="752"/>
+      <c r="N9" s="753"/>
+      <c r="O9" s="758"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="753"/>
+      <c r="AD9" s="760"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="746"/>
+      <c r="C10" s="785"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14197,7 +14197,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="780"/>
+      <c r="G10" s="748"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14205,33 +14205,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="759"/>
-      <c r="M10" s="748" t="s">
+      <c r="K10" s="766"/>
+      <c r="M10" s="787" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="749"/>
-      <c r="O10" s="749"/>
-      <c r="P10" s="749"/>
-      <c r="Q10" s="749"/>
-      <c r="R10" s="749"/>
-      <c r="S10" s="749"/>
-      <c r="T10" s="749"/>
-      <c r="U10" s="749"/>
-      <c r="V10" s="749"/>
-      <c r="W10" s="749"/>
-      <c r="X10" s="749"/>
-      <c r="Y10" s="749"/>
-      <c r="Z10" s="749"/>
-      <c r="AA10" s="749"/>
-      <c r="AB10" s="749"/>
-      <c r="AC10" s="750"/>
-      <c r="AD10" s="753"/>
+      <c r="N10" s="788"/>
+      <c r="O10" s="788"/>
+      <c r="P10" s="788"/>
+      <c r="Q10" s="788"/>
+      <c r="R10" s="788"/>
+      <c r="S10" s="788"/>
+      <c r="T10" s="788"/>
+      <c r="U10" s="788"/>
+      <c r="V10" s="788"/>
+      <c r="W10" s="788"/>
+      <c r="X10" s="788"/>
+      <c r="Y10" s="788"/>
+      <c r="Z10" s="788"/>
+      <c r="AA10" s="788"/>
+      <c r="AB10" s="788"/>
+      <c r="AC10" s="789"/>
+      <c r="AD10" s="760"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="747"/>
-      <c r="G11" s="780"/>
+      <c r="C11" s="786"/>
+      <c r="G11" s="748"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="759"/>
+      <c r="K11" s="766"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14239,17 +14239,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="769" t="s">
+      <c r="Z11" s="776" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="770"/>
+      <c r="AA11" s="777"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="753"/>
+      <c r="AD11" s="760"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14262,7 +14262,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="780"/>
+      <c r="G12" s="748"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14270,8 +14270,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="759"/>
-      <c r="L12" s="774" t="s">
+      <c r="K12" s="766"/>
+      <c r="L12" s="781" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14302,25 +14302,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="763" t="s">
+      <c r="AA12" s="770" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="764"/>
+      <c r="AB12" s="771"/>
       <c r="AC12" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="AD12" s="753"/>
+      <c r="AD12" s="760"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="745"/>
-      <c r="G13" s="780"/>
-      <c r="K13" s="759"/>
-      <c r="L13" s="775"/>
+      <c r="C13" s="784"/>
+      <c r="G13" s="748"/>
+      <c r="K13" s="766"/>
+      <c r="L13" s="782"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="782" t="s">
+      <c r="Q13" s="750" t="s">
         <v>208</v>
       </c>
-      <c r="R13" s="644"/>
+      <c r="R13" s="639"/>
       <c r="S13" s="599"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14329,17 +14329,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="765"/>
-      <c r="AB13" s="766"/>
-      <c r="AD13" s="753"/>
+      <c r="AA13" s="772"/>
+      <c r="AB13" s="773"/>
+      <c r="AD13" s="760"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C14" s="747"/>
+      <c r="C14" s="786"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="780"/>
+      <c r="G14" s="748"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14347,8 +14347,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="759"/>
-      <c r="L14" s="775"/>
+      <c r="K14" s="766"/>
+      <c r="L14" s="782"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14369,9 +14369,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="765"/>
-      <c r="AB14" s="766"/>
-      <c r="AD14" s="753"/>
+      <c r="AA14" s="772"/>
+      <c r="AB14" s="773"/>
+      <c r="AD14" s="760"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14386,19 +14386,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="780"/>
+      <c r="G15" s="748"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="759"/>
-      <c r="L15" s="776"/>
-      <c r="Q15" s="782" t="s">
+      <c r="K15" s="766"/>
+      <c r="L15" s="783"/>
+      <c r="Q15" s="750" t="s">
         <v>209</v>
       </c>
-      <c r="R15" s="644"/>
+      <c r="R15" s="639"/>
       <c r="S15" s="599"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14407,14 +14407,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="765"/>
-      <c r="AB15" s="766"/>
-      <c r="AD15" s="753"/>
+      <c r="AA15" s="772"/>
+      <c r="AB15" s="773"/>
+      <c r="AD15" s="760"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="780"/>
-      <c r="K16" s="759"/>
+      <c r="G16" s="748"/>
+      <c r="K16" s="766"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14433,24 +14433,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="765"/>
-      <c r="AB16" s="766"/>
-      <c r="AD16" s="753"/>
+      <c r="AA16" s="772"/>
+      <c r="AB16" s="773"/>
+      <c r="AD16" s="760"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="777" t="s">
+      <c r="F17" s="745" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="780"/>
+      <c r="G17" s="748"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="759"/>
+      <c r="K17" s="766"/>
       <c r="S17" s="599"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14458,9 +14458,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="765"/>
-      <c r="AB17" s="766"/>
-      <c r="AD17" s="753"/>
+      <c r="AA17" s="772"/>
+      <c r="AB17" s="773"/>
+      <c r="AD17" s="760"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14470,15 +14470,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="778"/>
-      <c r="G18" s="780"/>
+      <c r="F18" s="746"/>
+      <c r="G18" s="748"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="759"/>
+      <c r="K18" s="766"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14489,42 +14489,39 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="767"/>
-      <c r="AB18" s="768"/>
-      <c r="AD18" s="753"/>
+      <c r="AA18" s="774"/>
+      <c r="AB18" s="775"/>
+      <c r="AD18" s="760"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="781"/>
-      <c r="K19" s="760"/>
+      <c r="G19" s="749"/>
+      <c r="K19" s="767"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="786" t="s">
+      <c r="R19" s="754" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="787"/>
-      <c r="T19" s="788"/>
+      <c r="S19" s="755"/>
+      <c r="T19" s="756"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="754"/>
+      <c r="AD19" s="761"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14536,11 +14533,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
